--- a/data/excel_output/output.xlsx
+++ b/data/excel_output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,187 +648,187 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara40394713+atp6</t>
+          <t>ATGATAAATAATTTATTTTCAATTTTTGATCCTTCCACTAATATTTTTAATATCTCAATTAATTGAGTAAGAACTTTTATTGGATTAATATTTATTCCTTATTCATTTTGATTAATTCCTAATCGTCATTTTATTTTATGAAATTTTATTTCATCTAAATTACATGAAGAATTTAAAACTTTATTAGGTCCTAATAGATTTAATGGTTCAACTTTCATTTTTATTTCATTATTTTTCTTTATTTTATTTAATAATTTCTTAGGATTATTTCCATATATTTTTACAAGTACAAGTCATTTAAATATATCATTATCCTTATCTTTAACTATATGATTAAGATTTATAATTTATGGATGAATTAATAATACTCAACATATGTTTATTCACATAATTCCTCAAGGAACTCCAACTATTTTAATACCTTTTATAGTATTAATTGAAACAATTAGAAATATTATTCGTCCTGGTACTTTAGCTGTTCGATTAACAGCAAATATAATTGCAGGTCATCTATTATTAACATTATTAAGTAATACAGGAACAAATATACCAAATTATTTATTAATTATTTTAATTTTTATTCAAATTCTTTTATTAATTTTAGAATCTGCTGTTGCAGTAATTCAATCATATGTTATTACTATTTTAAGTACTCTTTATTCTAGTGAAGTCAATTAA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara38784042+atp8</t>
+          <t>ATTCCTCAAATAATACCAATTAATTGAATTTTATCTTTTATTTTTTTTATTATAATTTTTATTATTTTTAATATTATAAATTATTTCATTTTTAATTATAAAAATAATAATTATAATAATATTATTAATAAAAAATTAATAAAAAATAATTTTTACTGAAAATGATAA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara1042811606+cob</t>
+          <t>ATGATAAATTTATATAAACCTATTCGTAAAACTCACCCAGTAATTAAAATTATTAATGGTTCATTAGTAGACTTACCAACACCTTCTAATATTTCATCTTGATGAAATTTTGGGTCTTTACTAGCTCTATGTTTAATAACTCAAATTTTAACTGGATTATTTTTAACTATATATTATACAGCTAATGTAGAATTAGCTTTTTTTAGAGTAAATTACATTTGCCGAAATGTTAATTACGGTTGATTAATTCGAACTTTACATGCTAATGGAGCTTCGTTTTTTTTTATCTGTATTTATTTTCATATTGGCCGAGGAATTTATTATGAATCATTTAACTTAAAATTTACTTGAATAGTAGGAGTAATCATTTTATTTTTATTAATAGCTACTGCTTTTATAGGTTATGTTCTTCCATGGGGACAAATATCTTTTTGAGGAGCTACAGTAATTACTAATCTTTTATCAGCAATTCCTTATTTAGGAACAATACTTGTTAATTGAATTTGAGGAGGATTTGCAGTTGATAATGCTACCTTAACTCGATTTTATACTTTTCATTTTTTATTTCCATTTATTATTCTTATATTAACTATAATTCATTTATTATTCCTCCATCAAACAGGATCAAATAATCCTTTAGGTATTAATAGAAATTTAGATAAAATTCCTTTTCATCCATTTTTTACATTTAAAGATTTAATTGGATTTATTATTTTAATTTCAATTTTAACTTTCCTTTCTCTTATTAACCCTTATTTACTAGGAGACCCAGATAATTTTATTCCAGCTAATCCATTAGTTACCCCTATCCACATTCAACCTGAATGATACTTTTTATTCGCATATGCTATTCTTCGGTCAATCCCAAATAAACTAGGAGGTGTAATTGCTTTAGTAATATCTATTTTAATTTTAATTATTTTACCTTTTACTTTTAATAAAAAAATTCAAGGTATTCAATTTTATCCATTAAATCAAATTATATTTTGATCTTTAATTGTAACAATTATTTTATTAACTTGAATTGGAGCACGATCTGTAGAAACACCTTATATTATTACAGGACAAATTTTAACATTAATTTATTTTTCTTATTTTATTATTAATCCAATTTTAAATAAATTTTGAGATAAATTAATTTTTAATTTA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara14313056+cox1</t>
+          <t>CGAAAATGACTTTTTTCTACAAATCATAAGGATATTGGAACTTTATATTTTATTTTTGGAATTTGAGCAGGAATAGTAGGTACATCTTTAAGTTTATTAATTCGAACAGAATTAGGAAATCCAGGTTCATTAATTGGAGATGATCAAATTTATAATACTATTGTAACAGCTCATGCTTTTATTATAATTTTTTTTATAGTTATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTTCCATTAATATTAGGGGCTCCAGATATAGCATTCCCACGTATAAATAACATAAGTTTTTGACTTTTACCCCCATCTTTAATTCTACTTATCTCCAGAAGAATTGTTGAAAATGGAGCAGGAACAGGATGAACAGTTTATCCCCCACTTTCATCTAATATTGCTCATGGAGGATCTTCTGTAGACTTAGCTATTTTTTCATTACATTTGGCTGGTATTTCATCAATTTTAGGAGCAATTAACTTTATTACAACTATTATTAATATACGAGTTAATAATATATCTTTTGATCAAATACCTTTATTTGTTTGATCTGTTGGTATTACTGCCCTTCTTTTATTATTATCTCTTCCAGTTTTAGCTGGAGCTATTACTATACTTTTAACTGATCGTAATTTAAATACATCATTTTTTGATCCAGCTGGAGGAGGTGATCCAATTCTTTATCAACATTTATTTTGATTTTTTGGACATCCAGAAGTTTATATTTTAATTCTACCCGGATTTGGGATAATTTCTCATATAATCTCACAAGAAAGAGGAAAAAAGGAAACTTTTGGTTATTTAGGAATAATTTATGCTATAATAGCAATTGGATTACTAGGATTTATTGTTTGAGCTCATCATATATTCACTGTAGGAATAGATATTGATACTCGAGCATATTTTACTTCAGCTACTATAATTATCGCAGTACCAACAGGAATTAAAATTTTTAGTTGATTAGCTACATTACATGGAACTCAAATTAATTATAGACCTTCTATGTTATGAAGTTTAGGATTTATTTTTTTATTTACAGTTGGTGGATTAACAGGAGTTGTATTAGCTAATTCATCTATTGATATTACTCTTCATGATACTTATTATGTTGTTGCACATTTTCATTATGTATTATCAATAGGAGCTGTTTTTGCTATTTTTGGTGGATTTATTCATTGATATCCTTTATTTACAGGATTAACTATAAATCCTTATTTATTAAAAATTCAATTTATTTCAATATTTATTGGAGTTAATTTAACATTTTTTCCACAACATTTTTTAGGTTTAGCTGGAATACCCCGTCGTTATTCAGATTATCCAGATAGTTTTATCTCATGAAATATTATCTCATCTTTTGGTTCATACATTTCTTTATTTTCTATAATAATAATAGTACTTATTGTTTGAGAATCAATAATTAATCAACGTTTAATTTTATTTTCATTAAATATATCTTCATCTATTGAATGATATCAAAATTTACCTCCTGCTGAACATTCATATAATGAATTACCTATTCTAAGTAAT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara29283758+cox2</t>
+          <t>ATGGCAACATGATCTAATCTTAATTATCAAAATAGAGCTTCTCCTTTAATAGAACAAATTATTTTCTTTCATGATCATACTTTAATTATTTTAATTATAATTACAATTTTAGTATCATATTTAATAATTAGTTTATTTTTTAATAAATATATTAATCGATTTCTTTTAGAAGAACAAATAATTGAATTAATTTGAACTATTTTACCAGCAATTACACTTATTTTTATTGCATTACCATCTTTACGACTTTTATATTTATTAGATGAACTTAATAATCCTTTAATTACTTTAAAATCTATTGGCCATCAATGATATTGAAGATATGAATATTCAGATTTTAATAATATCGAATTTGATTCTTATATAATCCAATCAACTGACAATTTATCCAATTTTCGTTTATTAGATGTAGATAACCGAATTGTTTTACCTATAAATAATCAAATTCGTATTTTAATTACAGCTACAGATGTAATTCATTCATGAACTATTCCATCACTAAGTGTAAAAGTTGATGCTAATCCTGGACGATTAAATCAAACAAGATTTTTTATTAATCGTCCAGGTATTTTTTATGGTCAATGCTCTGAAATTTGTGGAGCTAATCATAGTTTTATACCTATTGTAATTGAAAGAATTTCAATTAAAAATTTTATTAATTGAATTAATAATTATTCA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara47245527+cox3</t>
+          <t>ATGACTCTTAATCATAATCATCCATATCATTTAGTAGATTATAGACCCTGACCTTTAACTGGAGCTATTGGAGTTATAACTTTAGTAACTGGATTAGTAAAATGATTTCATAATTTTAATTTTAATTTACTTATTTTAGGTTATATTATTGTATTATTAACAATATATCAATGATGACGAGATATTTGCCGTGAAGGAACATATCAAGGTAAACATACAATTCTAGTTACTAAAGGTCTTCGATGAGGAATAATTTTATTCATTATTTCAGAAATTTTTTTCTTCATTTCATTTTTTTGAGCATTTTTCCACAGAAGCTTATCACCTAATATTGAAATTGGATCTATATGACCCCCTATAAGAATTGTATCATTTAACCCATTTCAAATTCCATTATTAAATACTATTATTCTAATTACATCAGGTATTACTGTTACCTGAGCACATCATGCATTAATAGAAAATAATTTTACTCAAACCTCTCAAAGTTTATTAATTACTGTACTATTAGGTATTTATTTTACTATTTTACAAGCATATGAATATATTGAAGCCCCTTTTACAATTGCCGATAGAATTTATGGATCAACATTTTTTATAGCAACAGGATTTCACGGTCTTCATGTAATTATTGGAACTATCTTTCTTTTAACTTGTTTAATTCGACATATTAATAATCATTTTTCTAATTCCCATCACTTTGGATTTGAAGCAGCTGCATGATATTGACATTTCGTAGATGTAGTATGATTATTTCTTTATATTTCTATTTATTGATGAGGAAATTAA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara1163212606nad1</t>
+          <t>ATGATAATACAAGATTTATATAATATTTTTATCGGGATTTTAATTTTATTAGTTGGGGTTTTAATTGGGGTTGCTTTTTTAACATTATTAGAACGTAAAGTTTTAGGTTATATTCAAATTCGTAAAGGTCCTAATAAAATAGGAATAATAGGAATTTTACAGCCATTTTGTGATGCTATTAAATTATTTTCAAAAGAACAAGCTTATTTAAATTATTCTAATTATTTTTCTTTTTATTTTTCTCCTATTGTAAGATTTACTTTATCTTTAATAATTTGAATAATAATTCCTTATATTTTTAATATAATAGTGTTTAATTTAGGTTTATTATTTTTTTTATGTTGTACTAGAGTTGGGGTTTATACTTTATTAATTGCTGGTTGATCTTCTAATAGAAATTATTCTTTATTAGGTGGTTTACGAGCAGTAGCTCAAACTATTTCTTATGAAGTTAGATTATCTTTAATTTTAATATCAAGAATTATTTTAATTATAGATTTTAATATAATTAAATTTAGTGAATATCAATATTTAATTTGATTAATAATAATAATAATACCTTTAAGAATATGTTTTTTATCTTCATTAATAGCTGAAACTAATCGTACTCCTTTTGATTTTGCTGAGGGGGAAAGAGAATTAGTTTCTGGATTTAATATTGAATATAGAAGAGGGGGATTTGCTTTAATTTTTTTAGCTGAATATTCTAGTATTTTATTTATAAGATTATTATTTGTTATTATTTATATGGGTGGTTATGATTTAAATTTAATATTTTATTTAAAATTAGTGTTTATATCATTTTTTTTTATTTGAGTTCGAGGTACTTTACCTCGTTATCGTTATGATAAATTAATATATTTATGTTGAAAAAGATATTTACCTTTATCTTTAAATTATTTATTATTTTTTATAGGGGTAAAAATAATTTTAATATATAAAATAAATTTAGTATAA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara</t>
+          <t>ATTATTTTAATAACTAACTCTAATAAAATATTTTTTTTATTTATTTTATTTTTCAGAACTATAATTTCAGTATCTTCTAATTCATGATTAGGATGTTGAATTGGATTAGAAATTAATTTATTAAGATTTATCCCCCTTATTTCAATTAATAATAATCTTTTAAATTCAGAAGCCTCCCTTAAATATTTTCTTACTCAATCAATTGCTTCAATTAATTTTTTATTTTCAATTTTATTAAGATTATTTTTAATAAAAAATTTTTTTTTTAATAATTTTTTTTCTATTATTATTAATTCTTCTCTTCTTATAAAAATAGGATCAACTCCATTTCATTTTTGATTTCCTAATATTATAGAAGGATTATCATGATTTAATTGTTTTATTTTAATAACTTGACAAAAAATTACCCCAATAATCCTTCTATCTTATTATTTTAACTTAAATTTTTTATATTTTATTATAATTTTTAACGTTTTAATTGGGGCAATAGGAAGATTTAATCAAACTTCTTTACGAAAATTAATAGCTTTTTCATCAATTAATAATTTAGGTTGAATAATTTCATCTATAATTATTAGAGAAAATTTATGATTAATTTATTTTATTTTTTATTCAATTTTTACATTTATTATATGTTTTTTATTTTATATTATTAACACTTTTTTTATTAGTCAATTATTTTTTTTTAATATAAATTTTTTAATTAAAATTTCCATTATAATTAATTTTCTTTCATTGGGAGGTTTACCTCCTTTTTTAGGATTTTTCCCAAAATGAATTGTAATTAACTATTTATTAAATAATAATTTATTTATTATTTCTTTTATATTTGTTATATCAAGTTTAATTTTATTATTTGTTTATATTCGTATTATTTATTCTTCTTTATTATTTTTTTCTTTTAAATTAAAATGATTTAAAATTTTTATTAAAAATAATTCTTTAATTTTAATTTATTTCTTTAATTTTATTTCTTTATTAGGTATAATTATTAGAACTTTTTTTTTTTAA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara</t>
+          <t>ATAATTAATTTAATAATAATAATATCTTTAATTATAATTATTATTTCTAATATTTTTATAATAATTTCATTTATTATTTCAAAAAAATCTTTTCTTGATCGAGAAAAATGTTCACCATTTGAATGTGGATTTGACCCCAAATCATTATCTCGTATTCCATTTTCACTTCATTTTTTCCTAATTACTGTAATTTTCCTAATTTTTGATGTAGAAATTGCTTTAATTTTCCCAATAATTCCAACTTTTTTAAGAGTTAATTTTATTACATGATTTAAAATTAAGTTTTTTTTCATTATTATTTTATTAGTAGGACTTTATCATGAATGAAATCAAAATATACTAAATTGAACAAATTAA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara</t>
+          <t>ATGATAAAATTTTTAATAATAATAATTTTTATAATTCCATTATGTTTTAAAAAAAATATATTTTGAATGGTTCAAATATTTTTAATATTTATAATATTTATATTTATAAATTCTACTATTAGTATTATAAATTTTTGTAATTTAAGATATATATTAGGGTATGATATAATTTCTTACGGTTTAATTTTGTTAAGTATTTGAATTATAAGATTAATAATTATAGCTAGAGAAAGTTTATATAAAAGAAATTTTTATTCAAATTTATTTTTATTTAATATTATTTTTTTAATAATAATATTATATTTAACTTTTAGAGTAATAAATTTATTTATATTTTATTTATTTTTTGAAAGAAGATTAATTCCAACTTTAATATTAATTATTGGTTGGGGGTATCAACCTGAACGAATTCAGGCTGGGATATATTTATTATTTTATACTTTATTTGCTTCTTTACCTTTATTAATTGGGATTTTTTATTTATATAAAAATATAAATTATATAATAATTTATTTTTTAAAATTTTATGATTATAATTTATTAATATTATATTTATGTTTAATTTTAGCTTTTTTAGTAAAAATACCTATATATTTTGTTCATTTATGACTTCCTAAAGCTCATGTTGAAGCTCCTATTTCTGGTTCTATAATTTTAGCGGCAATTATATTAAAATTGGGGGGATATGGTCTTTTACGTATTATAATTATTTTACAAGAAATTAATTTAAAAATAAGATTTATTTGAGTAGTTATTAGATTAATTGGGGGATTTTTTATTAGATTAAAATGTTTTTGTCAAATTGATATAAAATCTCTAATTGCTTATTCATCTGTTGCTCATATAAGAGTTGTAATTGGGGGTATTATAACAATAAATTATTGGGGGTATATGGGTTCTTATATTTTAATAATTGGTCATGGTTTATGTTCTTCTGGTATATTTTGTTTATCTAATATAAATTATGAACGATTAAATAGTCGAAGATTATTTATTAATAAGGGTATAATAAATTTTATACCTTCAATAAGATTATGGTGATTTTTATTAATATCTTCAAATATAGCTGCTCCACCATCATTAAATTTAATAGGAGAAATTAGATTAATTAATAGATTAATTAGTTGATCTTGAATAAGAATAATTATATTAATGTGTATTTCATTTTTTAGAGCTGGTTATAGATTATATTTATATTCTTATACTCAACATGGTAAATATAATATAGGAATTTATAGATTTTATACGGGTACATCTCGAGAATATTTAATATTAATATTACATTGATTACCTTTAAATATTTTAATAATAAAAATTGATTATAGAATAATTTGATTT</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara</t>
+          <t>ATGTTAAATATAAGATTAATTATTATTATTATATTTATATTTGGTAATATAATTTTTGTTTCTAAACATAAACATTTATTAATTGTTTTAATAAGTTTAGAATTTATGGTTTTAAGAATTTTTTTTTTAATATTATTATATCTTATAATAATTAATTATAATTTGTATATATTAATAGTTTTTTTAGTTTTTTCTGTTTGTGAAGGTGCATTAGGTTTATCAATTTTAGTGTCTATAATTCGAACTCATGGTAATGATTATTTTCAAAGTTTTAATTTAATTTAA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara</t>
+          <t>AGATTTTTTTTTTTATTTTTTTTTATATTAATTAATTTTTTTATAATAATTTATTTTATTATAAAAAATATGGTTATTTTTTTAGAGTGGGAAATTATTTCTTTCAATTCTATTAATATTGTATTTTCTATTTTATTAGATTGAATATCATTATTATTTATGATATTTGTTTCTTTAATTTCATCTTCTGTAATTTTTTACAGAAAAAGTTATATAAGATCTGAATTAAATTTGAATCGATTTATTATTTTAGTATTATTATTTGTATTTTCAATAATTTTATTAATTATTAGTCCTAATATAATTAGAATTTTTTTGGGATGAGATGGTTTAGGTTTAGTTTCTTATTGTTTAGTTATTTACTATCAAAATATTAAATCTTATAATGCAGGAATGCTAACAGCATTATCTAATCGAATTGGTGATGTAATAATTTTAATATTAGTATCTTGAATATTAAATTATGGTAGATGAAATTATATTTTTTATTTAAATTTTATAGGAAATGATTTTTCTATAAAAATTATTAGATTTTTAGTAATTATTGCAGCTATAACTAAAAGAGCTCAAATTCCTTTTAGTTCATGATTACCTGCTGCTATAGCAGCTCCAACTCCAGTATCTGCTTTAGTTCATTCTTCAACTTTAGTTACTGCAGGGGTTTATTTATTAATTCGATTTAATAATGTTTTAGTTGAAATATTTTTTTTAAAATTTTTATTATTATTTTCTGGTTTAACTATAATAATGGCTGGTATTTGTGCAAATTATGAATTTGATTTAAAAAAAATTATTGCTTTATCAACTTTAAGACAATTAGGATTAATAATAAGAATTTTAAGAATAGGGTTTTATGATTTAGCTTTTTTTCATTTATTGACTCATGCTATGTTTAAAGCTTTATTATTTATATGTGCTGGAGTAATTATTCATATAATAAATAATAATCAAGATATTCGTATAATAGGGGGTATTAGATTTTATATTCCTTTGACTTCTCTATGTATAAATATTTCAAATTTAGCTTTATGTGGTATTCCTTTTTTAGCTGGATTTTATTCTAAAGATATAATTTTAGAAATAGTAAGTATGAGAAATTTAAATTTATTAATTTTTTATTTATATTATTTTTCTACTGGTTTAACAATATTTTATACTATTCGTTTATTAATATATTTAATAATTAATGATTATAATTTATTATCTATTTATAATTTATATGATGAGGATTTTTTAATATTAAAAAGTATATTTGTTTTATTATTAATAAGATTAATTTCTGGGAGATTTTTAAGTTGATTAATTTTTTATTATCCTTATATAATTTATTTACCAATTTCTTTAAAAATAATAGTAATTTATGTTAGAATTGCTGGTATAATAATAGGTTTAATAATTAGAAATATAAATATTTATTCATTAAATAAGTTTTTAATATTTTATAATTTAAGAAGATTTTTGACTTTAATATGATTTTTACCAAGTTTATCAACTTATGGTTTAAATTATTATTTTTTAAAATTTGGTCAAATTTTAGGTAAAAATATTGATATAGGTTGAAGAGAAATTTATAGAGGTCAAGGTATATATAAAATTATTAAATTTTATTCTTTAATTAATGTAATTTATCAAATAAATAATTTTAAAATTTATTTATTTAGATTTGTTTTATGGGTAATAATTTTTATTATTTTAATTATAATTTAT</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara</t>
+          <t>ATTTTAAAAATATTTATATCTATTATATTAATTTCTATTTCAATTTTTCTATTTTTTATTAATCACCCTTTAGCAATAGGATTATTAATTTTAATTCAAACTCTTATTATTTGTTTAATTTCAGGTATATTAATTAATACTTATTGATTTTCTTATATTCTTTTTTTAGTATTTTTAGGAGGTTTATTAGTATTATTTATTTATGTATCAAGAATAGCTTCAAATGAATTATTCAAAATACATATTATTAGTAAATTTTCAATTATTTATATATTATTTATTTTAATTTTTAGATTTTTTTTTAAAAATAATTTAATTTGAATAAATTTTAATTTTAATGATGAAATAATTAATTTATTTAATTCAACTTTATTTTTTAATAATGAATATAATTTTAATTTATCTAAATTATATAATAAACAAAATTATTGAATAATAATAATAATAATTATTTATTTATTTATTACTTTAATTGCAATTGTAAAAATTACTAATATTTTTTTTGGTCCTTTACGATCATTTAATAAC</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara</t>
+          <t>GGGGGAAAATTAATAAAATATAAATAATAAAAAAATTTTTAATATTGGGGGGTATTAAAGTATTTTTTTAAAAAAAAATAAATTATTTTATAGTTAATTAGTATTGAAAAAGAAATTTGAAATAAATGAAAATAAATTAATAAAAAAGTAATTTTAATTTAATGTATCTTGTGTATCAGAGTTTATTAAAAAATATTTTTTATAAAAAAAAATCTCGAATTTAAAAGAGTTAATTAATTATAAAAGTTAATGTAGAAAAATTATTTTAAATAATTAATTTGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTATTTTAGAAAAAAATTTAATTTAAAATTTAAAAAATTTTATTATTAAATAAATAATTAATAATAAAATATTTAAAATTAAATATATTAAGGGATAAGCTTTAATATAAAAAATTATAATAAATTTAATTTAAATATAAAATTTTTAAAATTTATATTGTTTAAAAATTATAATTTATTATAAAAAATTTTATAAATAATAAAATTTAATTTAAAATTTAATTTTATATAAAATAATAATTTAAAATAAAAAAAAATTAAAAATAATGATAAAATTAGTATATTAAATTAAAAATAAAATTTAATTAATTAAAATTAAATTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTAGAAAATAATTTAAAGTCTAATCTGCCCACTGATAAATATATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCAATAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAGATATAAACTGTCTCTAGTTTATAAATAAAATTTAATTTTTTAGTTAAAAAGCTAAAATAAATTTAAAAGACGAGAAGACCCTATAGAGTTTTATATTATTTTTATTTAAGATTATATTTATAATTAATAATTAAAAATAAAAATATTATTTTATTGGGGTGATAGAAAAATTTATTTAACTTTTTTTAATTTAATTACATTAATAAGTGAATAATTGATCCATAAATAATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTCTAGTACGAATAGAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGCAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGCTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAAAATAATATAATATTTTAGTACGAAAGGATCAAATATTTTTAATAATTAAAATT</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara</t>
+          <t>AATTTTTTATATTTTTTATAATTTATTATAAATTTATTTTACATGTAAATTTTAGTATGAAATTTTAATTATTTAAATAATAATTAATTTAAAATTAACAGTAATTAAAATTAAAAATTTAAGAAATTAAGATTTAGTAATATATAAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTAAACAAAAGTTAAATTAAATTATTTCAGTATATAATAAATAATAAAATATTTAAATTAAATATTAAATTATTAAGTGAAATTTTAATTTAATTAAAAATTATATTTTAAATTATGATTTAATAAATTTTATTATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATAAAAAATACTAAAATAGTAAATAAAATATTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTATTAATTGATAATCCACGAATAAATTTACTTAATTTATAATTTTGTATATCATTGTTAAAAAAATATTTTTAAATAAAAATAATATTTTAAAATTTAAAATAAAATTTAATTCAGATCAAGATGCAGATTATAATTAAGTTTAAGATGGATTACAATAAATTTATTTAAACGAAAAGAAAATTGTAATATTTGATTGAAGGTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTAATAATTAAAATATGTACATATTGCCCGTCACTTTCATTTAAAAATTGAAATAAGTCGTAACAAAGTAGAAGTACTGGAAAGTGTTTCTAGAATGA</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara59426006+trnA(tgc)</t>
+          <t>AGGATTATAGTTTATTTAAAACATTTGATTTGCATTCAAATAATATTGAATTTTCAATTTATCTTA</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara13211385trnC(gca)</t>
+          <t>AGTCTTATATTCAAAATAATGATATAAAATTGCAAATTTTATGGTGTAATTAATTACTAAGGCTT</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara38123877+trnD(gtc)</t>
+          <t>AAAGAATTAGTTAATTTATAACATAAATATGTCAAATTTAAATTATTACTTTAGTAATATTCTTTT</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara61956260+trnE(ttc)</t>
+          <t>ATTTATATAGTTTAAATAAAACTTTACATTTTCATTGTAAAAATAAAAAAGTTTTTTTTATAAATA</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara_Phe_trnascan</t>
+          <t>ATTTAAATAGCTTAAAAAGAGTATAATATTGAAGATATTAGGGTGATTATATAATCTTTAAATA</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara_Gly</t>
+          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATTTATTATTAATATAAATA</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara_tHis</t>
+          <t>ACTTAAATAATTTAAAAAAAATATTGATTTGTGGAATCAAAAATGTGATAATTAATTTCATTTTAAGTC</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara72136+trnI(gat)</t>
+          <t>AATAAAGTGCCTGATTAAAGGATTATTCTGATAGGATAAATTATGTAATTTTTTTACCTTTATTA</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara37423812+trnK(ctt)</t>
+          <t>CATTAGATGACTGAAAGCAAGTACTGGTCTCTTAAACCATTTAATAGTAAATTAGCAATTACTTCTAATGA</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara1260512672trnL1(tag)</t>
+          <t>ACTATTTTGACAGAAAAATGTGATGATTTTAGAAGTCATAAATGTATAATTAAATTATATAAATAGTA</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara_tLeu2</t>
+          <t>TCTAATATGGCAGATTATATGTAATGGATTTAAACCCCATTTATAAAGGATTATCCTTTTTTTAGAA</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara168+trnM(cat)</t>
+          <t>TTAAAAATAAGCTAAATAAAGCTTTTGGGTTCATACCTCAAATATAAAGGATATACCTTTTTTTTAAA</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara60706135+trnN(gtt)</t>
+          <t>TTAATTGAAACCAAATAAGAGGTATATCACTGTTAATGATAAAATTGAATAATAATTCCAATTAGA</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara_tPro</t>
+          <t>CAAAGAATAGTTTATAAAAATAATAATTTTGGAGATTATAGATAAAGAAAATCTTTTTCTTTGA</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara_Gln</t>
+          <t>TATATTTTAGTGTAAGATGCACAATAATTTTTGAAGTTATTAGATATAGTTTAATTCTATAAAATATAA</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara60076069+trnR(tcg)</t>
+          <t>AAATAAGAAGCAATTTGCATTTAATTTCGACTTAAAAGATAGAGTTAATAAACTCCTTATTTA</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara61346194+trnS1(gct)</t>
+          <t>GAAATATATAATAATTAAGCTGCTAACTTAATTTATAGTGAATAAAATCATTAATATTTCT</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara1158411648+trnS2(tga)</t>
+          <t>AATTAATGAGCTTGTTTAAGCATTTGTTTTGAAAACTTAAGAAAGAATAATTATTCTATTAATTT</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara97679831+trnT(tgt)</t>
+          <t>GTTTTTATAGTTTAATAAAAAACTTTGGTCTTGTAAATCAAAAATAAGAATATTCTTTAAAAACT</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara1399814062trnV(tac)</t>
+          <t>CAAATTAGAGCTTGTTAAGTATTTCATTTACATTGAAAAGAAATTAAAATAATTAATTAATTTGA</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387Athyma_pravara_tTrp</t>
+          <t>AAGGTTTTAAGTTAATATAAACTAATAATCTTCAAAATTATATATAAAGAAATTTCTTTAAGCCTTA</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>&gt;LWW1204387_Athyma_pravara13951460trnY(gta)</t>
+          <t>AATAAAATGGCTGAGGTATAAGCGATAAATTGTAAATTTATTAACAAGAAATATTCTTTTTTATTA</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr"/>
@@ -836,90 +836,94 @@
       <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>&gt;N4755_Limenitis_disjuncta</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATGATAAATAATTTATTTTCAATTTTTGATCCTTCCACTAATATTTTTAATATCTCAATTAATTGAGTAAGAACTTTTATTGGATTAATATTTATTCCTTATTCATTTTGATTAATTCCTAATCGTCATTTTATTTTATGAAATTTTATTTCATCTAAATTACATGAAGAATTTAAAACTTTATTAGGTCCTAATAGATTTAATGGTTCAACTTTCATTTTTATTTCATTATTTTTCTTTATTTTATTTAATAATTTCTTAGGATTATTTCCATATATTTTTACAAGTACAAGTCATTTAAATATATCATTATCCTTATCTTTAACTATATGATTAAGATTTATAATTTATGGATGAATTAATAATACTCAACATATGTTTATTCACATAATTCCTCAAGGAACTCCAACTATTTTAATACCTTTTATAGTATTAATTGAAACAATTAGAAATATTATTCGTCCTGGTACTTTAGCTGTTCGATTAACAGCAAATATAATTGCAGGTCATCTATTATTAACATTATTAAGTAATACAGGAACAAATATACCAAATTATTTATTAATTATTTTAATTTTTATTCAAATTCTTTTATTAATTTTAGAATCTGCTGTTGCAGTAATTCAATCATATGTTATTACTATTTTAAGTACTCTTTATTCTAGTGAAGTCAATTAA</t>
+          <t>ATGATAAATAATTTATTTTCAATTTTTGACCCTTCTACTAATATTTTTAATTTATCAATTAATTGAATAAGAACTTTTATTGGTTTATTATTTATCCCATATTCTTTTTGATTAATTCCAAATCGTCATTTTATTTTTTGAAATTTTTTCTCTTCTAAATTACATGAAGAATTTAAAACTCTTTTAGGAAAAAATAGATATAATGGATCAACTTTTATTTTTATCTCATTATTTTTTTTCATTTTATTTAATAATTTTTTAGGATTATTCCCTTATATTTTCACTAGAACTAGTCATTTAAATATATCTTTATCATTAGCATTAACTTTATGATTAAGATTTATAATTTATGGATGAATTAATAATACTCAACATATATTTATCCATATAATTCCTCAAGGAACTCCAACTATTTTAATACCTTTTATAGTATTAATTGAAACAATTAGAAATATTATTCGTCCTGGAACTTTAGCTGTCCGACTTACAGCTAATATAATTGCTGGTCATTTATTATTAACTTTATTAAGTAATACAAGAACAAATATAAATAACTATTTATTAATTATTTTAATTATTATTCAAATTATATTATTATTTTTAGAATCTGCTGTCGCAATTATTCAATCATATGTTATTACTATTTTAAGAACTCTTTATTCTAGTGAAGTAAATTAA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ATTCCTCAAATAATACCAATTAATTGAATTTTATCTTTTATTTTTTTTATTATAATTTTTATTATTTTTAATATTATAAATTATTTCATTTTTAATTATAAAAATAATAATTATAATAATATTATTAATAAAAAATTAATAAAAAATAATTTTTACTGAAAATGATAA</t>
+          <t>ATTCCACAAATAATACCTATTAATTGAATTCTTTCATTAATCTTTTTTATTACAATTTTTATTATTTTTAATATTATAAATTATTTTATTTTTAATAATAAAAATATTAATTATATTAATAAAAATAAAAAATTATTAAAAAATAATCTTTACTGAAAATGATAA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ATGATAAATTTATATAAACCTATTCGTAAAACTCACCCAGTAATTAAAATTATTAATGGTTCATTAGTAGACTTACCAACACCTTCTAATATTTCATCTTGATGAAATTTTGGGTCTTTACTAGCTCTATGTTTAATAACTCAAATTTTAACTGGATTATTTTTAACTATATATTATACAGCTAATGTAGAATTAGCTTTTTTTAGAGTAAATTACATTTGCCGAAATGTTAATTACGGTTGATTAATTCGAACTTTACATGCTAATGGAGCTTCGTTTTTTTTTATCTGTATTTATTTTCATATTGGCCGAGGAATTTATTATGAATCATTTAACTTAAAATTTACTTGAATAGTAGGAGTAATCATTTTATTTTTATTAATAGCTACTGCTTTTATAGGTTATGTTCTTCCATGGGGACAAATATCTTTTTGAGGAGCTACAGTAATTACTAATCTTTTATCAGCAATTCCTTATTTAGGAACAATACTTGTTAATTGAATTTGAGGAGGATTTGCAGTTGATAATGCTACCTTAACTCGATTTTATACTTTTCATTTTTTATTTCCATTTATTATTCTTATATTAACTATAATTCATTTATTATTCCTCCATCAAACAGGATCAAATAATCCTTTAGGTATTAATAGAAATTTAGATAAAATTCCTTTTCATCCATTTTTTACATTTAAAGATTTAATTGGATTTATTATTTTAATTTCAATTTTAACTTTCCTTTCTCTTATTAACCCTTATTTACTAGGAGACCCAGATAATTTTATTCCAGCTAATCCATTAGTTACCCCTATCCACATTCAACCTGAATGATACTTTTTATTCGCATATGCTATTCTTCGGTCAATCCCAAATAAACTAGGAGGTGTAATTGCTTTAGTAATATCTATTTTAATTTTAATTATTTTACCTTTTACTTTTAATAAAAAAATTCAAGGTATTCAATTTTATCCATTAAATCAAATTATATTTTGATCTTTAATTGTAACAATTATTTTATTAACTTGAATTGGAGCACGATCTGTAGAAACACCTTATATTATTACAGGACAAATTTTAACATTAATTTATTTTTCTTATTTTATTATTAATCCAATTTTAAATAAATTTTGAGATAAATTAATTTTTAATTTA</t>
+          <t>ATGATAAACTTATATAAACCTATTCGTAAAACTCATCCAGTATTTAAAATTATTAATAAATCACTAATTGATTTACCTACTCCATCTAATATTTCATCATGGTGAAATTTTGGTTCACTATTAGCTTTATGTTTAATAATTCAAATTTTAACAGGATTATTTTTAACTATATATTATACAGCTAATATTGATTTAGCTTTCTTTAGAGTTAATTATATTTGTCGAAATGTTAATTATGGTTGATTAATTCGAACCTTACATACTAATGGTGCATCCTTTTTTTTTATTTGTATTTATTTTCATATTGGCCGAGGAATTTATTATGAATCTTTCAATTTAAAATTTACTTGAATAATTGGTGTTATTATTTTATTTTTATTAATAGCTACAGCTTTTATAGGTTATGTATTACCTTGAGGACAAATATCTTTTTGAGGAGCTACAGTAATTACTAATCTTTTATCTGCAATTCCTTATTTAGGAAATATATTAGTTAATTGAATTTGAGGAGGATTTGCAGTTGATAATGCAACTCTAACTCGATTTTATACTTTTCATTTTTTATTTCCTTTTATTATTCTTATATTAACTATAATTCATTTATTGTTCCTGCACCAAACAGGATCTAATAATCCACTGGGAATTAATAGAAATTTAGATAAAATTCCTTTTCATCCATTTTTTACATTCAAAGATTTAATTGGATTTATTATTTTAATTTCAATTTTAACTTTTCTTTCTCTTGTTAATCCTTATTTACTAAGAGACCCTGATAATTTTATCCCAGCTAATCCATTAGTTACCCCAATTCATATTCAACCAGAATGATATTTTTTATTTGCTTATGCTATTCTTCGATCAATTCCTAGTAAATTAGGAGGAGTAATTGCTTTAGTCATATCTATTTTAATTTTAATTATTTTACCCTTTACATTTAATAAAAAAATTCAAGGTATTCAATTTTATCCATTAAATCAAATTTTATTTTGATTCCTAATTGTAACAATTATTTTATTAACTTGAATTGGAGCTCAACCAGTAGAAGATCCTTATATTATTACAAGTCAATTTTTAACATTAATTTATTTTTCTTATTTTATTATTAACCCAATTTTAAATAAATTTTGAGATAAATTAATTTTTAATTCATAA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CGAAAATGACTTTTTTCTACAAATCATAAGGATATTGGAACTTTATATTTTATTTTTGGAATTTGAGCAGGAATAGTAGGTACATCTTTAAGTTTATTAATTCGAACAGAATTAGGAAATCCAGGTTCATTAATTGGAGATGATCAAATTTATAATACTATTGTAACAGCTCATGCTTTTATTATAATTTTTTTTATAGTTATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTTCCATTAATATTAGGGGCTCCAGATATAGCATTCCCACGTATAAATAACATAAGTTTTTGACTTTTACCCCCATCTTTAATTCTACTTATCTCCAGAAGAATTGTTGAAAATGGAGCAGGAACAGGATGAACAGTTTATCCCCCACTTTCATCTAATATTGCTCATGGAGGATCTTCTGTAGACTTAGCTATTTTTTCATTACATTTGGCTGGTATTTCATCAATTTTAGGAGCAATTAACTTTATTACAACTATTATTAATATACGAGTTAATAATATATCTTTTGATCAAATACCTTTATTTGTTTGATCTGTTGGTATTACTGCCCTTCTTTTATTATTATCTCTTCCAGTTTTAGCTGGAGCTATTACTATACTTTTAACTGATCGTAATTTAAATACATCATTTTTTGATCCAGCTGGAGGAGGTGATCCAATTCTTTATCAACATTTATTTTGATTTTTTGGACATCCAGAAGTTTATATTTTAATTCTACCCGGATTTGGGATAATTTCTCATATAATCTCACAAGAAAGAGGAAAAAAGGAAACTTTTGGTTATTTAGGAATAATTTATGCTATAATAGCAATTGGATTACTAGGATTTATTGTTTGAGCTCATCATATATTCACTGTAGGAATAGATATTGATACTCGAGCATATTTTACTTCAGCTACTATAATTATCGCAGTACCAACAGGAATTAAAATTTTTAGTTGATTAGCTACATTACATGGAACTCAAATTAATTATAGACCTTCTATGTTATGAAGTTTAGGATTTATTTTTTTATTTACAGTTGGTGGATTAACAGGAGTTGTATTAGCTAATTCATCTATTGATATTACTCTTCATGATACTTATTATGTTGTTGCACATTTTCATTATGTATTATCAATAGGAGCTGTTTTTGCTATTTTTGGTGGATTTATTCATTGATATCCTTTATTTACAGGATTAACTATAAATCCTTATTTATTAAAAATTCAATTTATTTCAATATTTATTGGAGTTAATTTAACATTTTTTCCACAACATTTTTTAGGTTTAGCTGGAATACCCCGTCGTTATTCAGATTATCCAGATAGTTTTATCTCATGAAATATTATCTCATCTTTTGGTTCATACATTTCTTTATTTTCTATAATAATAATAGTACTTATTGTTTGAGAATCAATAATTAATCAACGTTTAATTTTATTTTCATTAAATATATCTTCATCTATTGAATGATATCAAAATTTACCTCCTGCTGAACATTCATATAATGAATTACCTATTCTAAGTAAT</t>
+          <t>TTGCGAAAATGACTTTTTTCAACAAATCATAAAGATATTGGAACTTTATATTTTATTTTTGGAATTTGAGCAGGAATAGTGGGAACTTCTTTAAGTTTATTAATTCGAACTGAATTAGGAAATCCTGGGTCATTAATTGGTGATGATCAAATTTATAATACTATCGTAACTGCACATGCTTTTATTATAATTTTTTTTATAGTAATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTGCCTCTTATATTAGGAGCACCTGATATAGCTTTCCCTCGAATAAATAATATAAGATTTTGACTTCTACCCCCATCATTAATTTTATTAATTTCAAGAAGAATTGTCGAAAATGGAGCAGGAACAGGATGAACAGTTTACCCCCCCCTATCTTCTAATATTGCCCATAGAGGATCTTCTGTTGATTTAGCTATTTTTTCCTTACATTTAGCTGGTATTTCATCAATTTTAGGAGCAATTAATTTTATTACAACTATTATTAATATACGAGTTAATAATATATCTTTTGATCAAATACCCTTATTTGTTTGATCTGTTGGTATTACAGCTCTTCTCTTATTATTATCTTTACCAGTTTTAGCTGGAGCTATTACTATACTTTTAACCGATCGTAATTTAAACACTTCATTTTTTGATCCTGCTGGAGGTGGTGATCCTATTCTTTACCAACATTTATTTTGATTTTTTGGTCACCCAGAAGTTTATATTTTAATTTTACCTGGATTTGGTATAATTTCTCATATAATTTCTCAAGAAAGAGGTAAAAAAGAAACTTTTGGTTATTTAGGAATAATTTATGCTATAATAGCAATTGGTCTTCTTGGATTTATTGTTTGAGCTCATCATATATTTACAGTAGGTATAGATATTGATACACGAGCTTATTTCACATCAGCTACTATAATTATTGCAGTTCCAACAGGAATTAAAATTTTTAGCTGATTAGCTACTCTTCACGGAACTCAAATTAATTATAGTCCATCAATATTATGAAGATTAGGGTTTATTTTTTTATTTACAGTAGGAGGTTTAACAGGAGTTGTTTTAGCCAATTCTTCAATTGATATTACCCTTCATGACACTTATTATGTTGTTGCTCACTTTCATTACGTTTTATCTATAGGAGCTGTATTTGCTATTTTTGGAGGATTTATCCATTGATACCCATTATTTACAGGATTAATTATAAATCCTTATTTATTAAAAATTCAATTTATATCAATATTTATTGGAGTTAATTTAACCTTTTTCCCCCAACATTTTTTAGGTTTAGCTGGGATACCTCGTCGTTATTCAGATTACCCTGATAGTTTTATTTCATGAAATATTATTTCTTCTTTCGGTTCTTATATTTCTCTTTTTTCAATAATCATAATAATTCTTATTGTATGAGAATCTATAATTAATCAACGTTTAATCATTTTCCCTTTAAATATAACTTCATCTATTGAATGATATCAAAATTTACCGCCAGCTGAACATTCTTATAATGAATTACCTATTTTAAGTATCT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ATGGCAACATGATCTAATCTTAATTATCAAAATAGAGCTTCTCCTTTAATAGAACAAATTATTTTCTTTCATGATCATACTTTAATTATTTTAATTATAATTACAATTTTAGTATCATATTTAATAATTAGTTTATTTTTTAATAAATATATTAATCGATTTCTTTTAGAAGAACAAATAATTGAATTAATTTGAACTATTTTACCAGCAATTACACTTATTTTTATTGCATTACCATCTTTACGACTTTTATATTTATTAGATGAACTTAATAATCCTTTAATTACTTTAAAATCTATTGGCCATCAATGATATTGAAGATATGAATATTCAGATTTTAATAATATCGAATTTGATTCTTATATAATCCAATCAACTGACAATTTATCCAATTTTCGTTTATTAGATGTAGATAACCGAATTGTTTTACCTATAAATAATCAAATTCGTATTTTAATTACAGCTACAGATGTAATTCATTCATGAACTATTCCATCACTAAGTGTAAAAGTTGATGCTAATCCTGGACGATTAAATCAAACAAGATTTTTTATTAATCGTCCAGGTATTTTTTATGGTCAATGCTCTGAAATTTGTGGAGCTAATCATAGTTTTATACCTATTGTAATTGAAAGAATTTCAATTAAAAATTTTATTAATTGAATTAATAATTATTCA</t>
+          <t>ATGGCAACATGATCTAATTTTAATTATCAAAATAGAGCTTCCCCATTAATAGAACAAATTATTTTCTTTCATGATCATACTTTAATCATTTTAATTATAATTACAATTTTAGTTTCATATTTAATAATTAATTTATTTTTTAATAAATATATTAATCGATTTCTTTTAGAAGAACAAATAATTGAATTAATTTGAACTATCCTACCTGCAATTACTCTTATTTTTATTGCTTTACCTTCTTTACGACTTTTATATTTATTAGATGAACTTAATAACCCATTAATTACTTTAAAATCAATCGGACATCAATGATATTGAAGTTATGAATATTCAGATTTTAATAATATTGAATTTAACTCATATTTAATTCAATCAACTGATAGCTTATCTAATTTTCGTTTATTAGATGTTGATAACCGAATTATTTTACCTATAAATAATCAAATTCGTATCTTAATTACAGCTACTGATGTTATCCATTCATGAACTATCCCATCATTAGGAGTAAAAGTTGATGCTAACCCAGGTCGATTAAACCAAACAAGATTTTTCATTAATCGACCAGGATTATTTTATGGTCAATGTTCTGAAATTTGTGGTGCAAATCATAGTTTCATACCTATTGTAATTGAAAGAATTTCAATTAATAGCTTTATTAATTGAATTAATAATTATTCAT</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ATGACTCTTAATCATAATCATCCATATCATTTAGTAGATTATAGACCCTGACCTTTAACTGGAGCTATTGGAGTTATAACTTTAGTAACTGGATTAGTAAAATGATTTCATAATTTTAATTTTAATTTACTTATTTTAGGTTATATTATTGTATTATTAACAATATATCAATGATGACGAGATATTTGCCGTGAAGGAACATATCAAGGTAAACATACAATTCTAGTTACTAAAGGTCTTCGATGAGGAATAATTTTATTCATTATTTCAGAAATTTTTTTCTTCATTTCATTTTTTTGAGCATTTTTCCACAGAAGCTTATCACCTAATATTGAAATTGGATCTATATGACCCCCTATAAGAATTGTATCATTTAACCCATTTCAAATTCCATTATTAAATACTATTATTCTAATTACATCAGGTATTACTGTTACCTGAGCACATCATGCATTAATAGAAAATAATTTTACTCAAACCTCTCAAAGTTTATTAATTACTGTACTATTAGGTATTTATTTTACTATTTTACAAGCATATGAATATATTGAAGCCCCTTTTACAATTGCCGATAGAATTTATGGATCAACATTTTTTATAGCAACAGGATTTCACGGTCTTCATGTAATTATTGGAACTATCTTTCTTTTAACTTGTTTAATTCGACATATTAATAATCATTTTTCTAATTCCCATCACTTTGGATTTGAAGCAGCTGCATGATATTGACATTTCGTAGATGTAGTATGATTATTTCTTTATATTTCTATTTATTGATGAGGAAATTAA</t>
+          <t>ATGACAACTAATTATAATCACCCTTATCATTTAGTAGATTATAGCCCTTGACCTTTAACTGGAGCTATTGGAGTAATAACTTTAGTAACAGGATTAGTAAAATGATTTCATAATTTTAACTCAAATTTACTTATTTTAGGGTACATTATTATTTTATTAACTATGTATCAATGATGACGAGATATTTGCCGAGAAGGAACATTCCAAGGTAAACATACAATTTTAGTTACAAAAGGTTTACGTTGAGGAATAATTTTATTTATTGTTTCAGAAATTTTTTTTTTTTTTTCATTTTTTTGAGCATTTTTCCATAGAAGTCTTTCTCCTAATATTGAAATTGGATTTATATGACCTCCTATAAGAATTATACCTTTTAATCCATTCCAAATTCCATTACTTAATACTATTATTTTAATTACTTCAGGTATTACAGTTACATGAACTCATCATGCTTTAATAGAAAATAATTTTACTCAAACTTCACAAAGTTTATTTATTACCATTTTATTAGGTATTTATTTTACAATTCTTCAAGCTTATGAATATATTGAAGCCCCCTTCTCAATTTCTGATAGAATTTATGGGTCAACATTTTTTATAGCAACAGGATTCCATGGCCTTCATGTAATTATTGGAACTATTTTTCTATCAACATGCTTTATCCGACATTTAAATAATCATTTTTCTAATAATCATCATTTTGGATTTGAAGCAGCTGCATGATATTGACATTTTGTTGATGTAGTATGACTTTTCCTTTATATCTCTATTTATTGATGGGGTAATTAA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ATGATAATACAAGATTTATATAATATTTTTATCGGGATTTTAATTTTATTAGTTGGGGTTTTAATTGGGGTTGCTTTTTTAACATTATTAGAACGTAAAGTTTTAGGTTATATTCAAATTCGTAAAGGTCCTAATAAAATAGGAATAATAGGAATTTTACAGCCATTTTGTGATGCTATTAAATTATTTTCAAAAGAACAAGCTTATTTAAATTATTCTAATTATTTTTCTTTTTATTTTTCTCCTATTGTAAGATTTACTTTATCTTTAATAATTTGAATAATAATTCCTTATATTTTTAATATAATAGTGTTTAATTTAGGTTTATTATTTTTTTTATGTTGTACTAGAGTTGGGGTTTATACTTTATTAATTGCTGGTTGATCTTCTAATAGAAATTATTCTTTATTAGGTGGTTTACGAGCAGTAGCTCAAACTATTTCTTATGAAGTTAGATTATCTTTAATTTTAATATCAAGAATTATTTTAATTATAGATTTTAATATAATTAAATTTAGTGAATATCAATATTTAATTTGATTAATAATAATAATAATACCTTTAAGAATATGTTTTTTATCTTCATTAATAGCTGAAACTAATCGTACTCCTTTTGATTTTGCTGAGGGGGAAAGAGAATTAGTTTCTGGATTTAATATTGAATATAGAAGAGGGGGATTTGCTTTAATTTTTTTAGCTGAATATTCTAGTATTTTATTTATAAGATTATTATTTGTTATTATTTATATGGGTGGTTATGATTTAAATTTAATATTTTATTTAAAATTAGTGTTTATATCATTTTTTTTTATTTGAGTTCGAGGTACTTTACCTCGTTATCGTTATGATAAATTAATATATTTATGTTGAAAAAGATATTTACCTTTATCTTTAAATTATTTATTATTTTTTATAGGGGTAAAAATAATTTTAATATATAAAATAAATTTAGTATAA</t>
+          <t>ATGATAATACAAGATTTATATAATATAATTATAGGGGGTTTAATTTTATTGATCGGAGTTTTAATTGGTGTTGCTTTTTTAACATTATTGGAGCGTAAGGTTTTAGGTTATATTCAAATTCGTAAAGGTCCTAATAAAATAGGTATATTAGGAATTTTACAGCCATTTTGTGATGCTATTAAATTATTTTCTAAGGAGCAAGTTTATTTAAATTATTCAAATTATTTTTCTTTTTATTTTTCTCCAATTGTGAGATTTATATTATCTTTAATAATTTGAATATTAATTCCTTATTGTTTTAATATAATTATTTTTAATTTAGGGGTATTATTTTTTTTATGTTGTACAAGAATTGGGGTTTATACTTTATTAATTGCTGGATGATCTTCAAATAGAAATTATTCTTTATTAGGGGGTTTACGTGCAGTAGCTCAAACAATTTCTTATGAAGTAAGATTATCTTTAATTTTAATATCAAGTATTATTTTAATTATAGATTTTAATATAGTTAAATTTATAGAATATCAATATTTAATTTGATTAATAATGATGATATTACCTTTAAGAATATGTTTTTTATCTTCATTGATAGCAGAAACTAATCGTACTCCTTTTGATTTTGCTGAGGGGGAAAGAGAGTTAGTTTCAGGGTTTAATATTGAATATAGAAGAGGAGGATTTGCTTTAATTTTTTTAGCTGAGTATTCTAGTATTTTATTTATAAGATTATTATTTGTTATTATCTATATAGGGGGTTATAAATTAAATTTAATATTTTATTTAAAATTAGTATTTTTATCTTTTTTTTTTATTTGAGTTCGAGGTACATTACCTCGTTATCGTTATGATAAATTAATATATTTATGTTGAAAAAGATATTTACCTTTATCTTTAAATTATTTATTATTTTTTATAGGGTTAAAAATAATTTTAATATATAAAATATATTTAGTATAA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ATTATTTTAATAACTAACTCTAATAAAATATTTTTTTTATTTATTTTATTTTTCAGAACTATAATTTCAGTATCTTCTAATTCATGATTAGGATGTTGAATTGGATTAGAAATTAATTTATTAAGATTTATCCCCCTTATTTCAATTAATAATAATCTTTTAAATTCAGAAGCCTCCCTTAAATATTTTCTTACTCAATCAATTGCTTCAATTAATTTTTTATTTTCAATTTTATTAAGATTATTTTTAATAAAAAATTTTTTTTTTAATAATTTTTTTTCTATTATTATTAATTCTTCTCTTCTTATAAAAATAGGATCAACTCCATTTCATTTTTGATTTCCTAATATTATAGAAGGATTATCATGATTTAATTGTTTTATTTTAATAACTTGACAAAAAATTACCCCAATAATCCTTCTATCTTATTATTTTAACTTAAATTTTTTATATTTTATTATAATTTTTAACGTTTTAATTGGGGCAATAGGAAGATTTAATCAAACTTCTTTACGAAAATTAATAGCTTTTTCATCAATTAATAATTTAGGTTGAATAATTTCATCTATAATTATTAGAGAAAATTTATGATTAATTTATTTTATTTTTTATTCAATTTTTACATTTATTATATGTTTTTTATTTTATATTATTAACACTTTTTTTATTAGTCAATTATTTTTTTTTAATATAAATTTTTTAATTAAAATTTCCATTATAATTAATTTTCTTTCATTGGGAGGTTTACCTCCTTTTTTAGGATTTTTCCCAAAATGAATTGTAATTAACTATTTATTAAATAATAATTTATTTATTATTTCTTTTATATTTGTTATATCAAGTTTAATTTTATTATTTGTTTATATTCGTATTATTTATTCTTCTTTATTATTTTTTTCTTTTAAATTAAAATGATTTAAAATTTTTATTAAAAATAATTCTTTAATTTTAATTTATTTCTTTAATTTTATTTCTTTATTAGGTATAATTATTAGAACTTTTTTTTTTTAA</t>
+          <t>ATTCTTTTAATACTTAATTCTAATAAAATATTTTTTTTATTTATTTTATTTTTTAGAACATTAATTTCTATTTCTTCTAATTCATGATTAGGATGTTGAATTGGATTAGAAATTAATTTATTAAGATTTATCCCCCTTATTTCTACCCCCCATAATCTTTTAAATTCAGAAGCTTCATTAAAATATTTTCTTACTCAATCAATTGCTTCAATTAATTTCTTATTTTCAATTTTATTAAGATTATTTTTAATAAAAAATTTTTTTTTTAATAATATTTTTTCCCTCATTATTAATTCTTCTTTGTTAATAAAAATAGGTTCAATTCCATTTCATTTTTGATTTCCTAATGTAATAGAAGGTCTTTCTTGATTTAACTGCTTTATTTTAATAACGTGACAAAAAATTACCCCTATAATTCTATTATCTTATTATTTTAATTTAAATTTTTTATATTTTATTATAATTTTTAACGTTTTAATCGGAGCTATTGGTAGATTTAACCAGACTTCTTTACGTAAATTAATAGCTTTTTCTTCAATTAATAATTTAGGTTGAATAATTTCTTCTATTATCATTAGTGAAAACCTTTGAATAATTTATTTTATTTTTTATTCAATTTTTACATTTATTATATGTTTTTTATTTTATATTATTAATATTTTTTTCATTAATCAATTATTTTTTTTTAATATAAATTTTTTAATTAAAATTTCAATTATAATTAATTTTCTTTCTTTAGGTGGATTACCACCTTTTTTAGGATTTTTCCCTAAATGAATTGTTATTAATTATCTATTAAATAATAATTTTTTTATTATTTCTTTTATTTTTATTATATCAAGTTTAATTTTAATATTTGTTTATATTCGAATTATTTATTCTTCTTTATTATTTTTTTCTTTTAAATTAAAATGATTTAAAATTTATATTAAAAATAATTTTTTAATTTTAATTTATTTTTTTAATTTTATTTCTATACTAGGTATAATTATTAGAACTTTTTTTTTTTAA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ATAATTAATTTAATAATAATAATATCTTTAATTATAATTATTATTTCTAATATTTTTATAATAATTTCATTTATTATTTCAAAAAAATCTTTTCTTGATCGAGAAAAATGTTCACCATTTGAATGTGGATTTGACCCCAAATCATTATCTCGTATTCCATTTTCACTTCATTTTTTCCTAATTACTGTAATTTTCCTAATTTTTGATGTAGAAATTGCTTTAATTTTCCCAATAATTCCAACTTTTTTAAGAGTTAATTTTATTACATGATTTAAAATTAAGTTTTTTTTCATTATTATTTTATTAGTAGGACTTTATCATGAATGAAATCAAAATATACTAAATTGAACAAATTAA</t>
+          <t>ATTATTTTAATAATAATAATATCTTTTATTATAATCATTATTTCTAATATTTTTATAATAATTTCATTTATTATCTCAAAAAAATCTTTTCTTGATCGTGAAAAATGTTCTCCTTTTGAATGTGGATTTGACCCTAAATCACTATCTCGAATTCCATTTTCATTACATTTTTTTTTAATCACAGTAATTTTTTTAATTTTTGATGTAGAAATTGCATTAATTTTACCTATAATTCCTACATTTTTTAGAGTTAATTTTATTACTTGATTTAAAATTAATTTTTTTTTTATTATTATTTTATTAATAGGACTTTATCATGAATGAAATCAAAATATACTTAATTGAACAAATTAA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ATGATAAAATTTTTAATAATAATAATTTTTATAATTCCATTATGTTTTAAAAAAAATATATTTTGAATGGTTCAAATATTTTTAATATTTATAATATTTATATTTATAAATTCTACTATTAGTATTATAAATTTTTGTAATTTAAGATATATATTAGGGTATGATATAATTTCTTACGGTTTAATTTTGTTAAGTATTTGAATTATAAGATTAATAATTATAGCTAGAGAAAGTTTATATAAAAGAAATTTTTATTCAAATTTATTTTTATTTAATATTATTTTTTTAATAATAATATTATATTTAACTTTTAGAGTAATAAATTTATTTATATTTTATTTATTTTTTGAAAGAAGATTAATTCCAACTTTAATATTAATTATTGGTTGGGGGTATCAACCTGAACGAATTCAGGCTGGGATATATTTATTATTTTATACTTTATTTGCTTCTTTACCTTTATTAATTGGGATTTTTTATTTATATAAAAATATAAATTATATAATAATTTATTTTTTAAAATTTTATGATTATAATTTATTAATATTATATTTATGTTTAATTTTAGCTTTTTTAGTAAAAATACCTATATATTTTGTTCATTTATGACTTCCTAAAGCTCATGTTGAAGCTCCTATTTCTGGTTCTATAATTTTAGCGGCAATTATATTAAAATTGGGGGGATATGGTCTTTTACGTATTATAATTATTTTACAAGAAATTAATTTAAAAATAAGATTTATTTGAGTAGTTATTAGATTAATTGGGGGATTTTTTATTAGATTAAAATGTTTTTGTCAAATTGATATAAAATCTCTAATTGCTTATTCATCTGTTGCTCATATAAGAGTTGTAATTGGGGGTATTATAACAATAAATTATTGGGGGTATATGGGTTCTTATATTTTAATAATTGGTCATGGTTTATGTTCTTCTGGTATATTTTGTTTATCTAATATAAATTATGAACGATTAAATAGTCGAAGATTATTTATTAATAAGGGTATAATAAATTTTATACCTTCAATAAGATTATGGTGATTTTTATTAATATCTTCAAATATAGCTGCTCCACCATCATTAAATTTAATAGGAGAAATTAGATTAATTAATAGATTAATTAGTTGATCTTGAATAAGAATAATTATATTAATGTGTATTTCATTTTTTAGAGCTGGTTATAGATTATATTTATATTCTTATACTCAACATGGTAAATATAATATAGGAATTTATAGATTTTATACGGGTACATCTCGAGAATATTTAATATTAATATTACATTGATTACCTTTAAATATTTTAATAATAAAAATTGATTATAGAATAATTTGATTT</t>
+          <t>ATGTTAAAATTTTTATTTATAATAATTTTTATAATTCCTTTATGTTTAAAAAAAAATATATTTTGATTGGTCCAAATATTATTAATATTTTTAATATTAATATTTATAAATTCTTCTGTTAGTATTATAAATTTTTGTAATTTAAGTTATATATTAGGTTATGATATAATTTCTTATGGTTTAATTTTATTAAGAATTTGAATTAGAAGACTAATAGTAATAGCTAGAGAAAGATTATATAAAAATAATTTTTATTCGAGTTTATTTTTATGTAATATTATTTTTTTAATATTAATATTATATTTAACTTTTAGAGTAATAAATTTATTTTTATTTTATTTATTTTTTGAAAGAAGATTAATTCCAACATTAATATTAATTATTGGTTGAGGGTATCAACCTGAACGAATTCAAGCGGGAATATATTTATTATTTTATACATTATTTGCTTCTTTACCATTATTATTAGGTATTTTTTATATTTATGGTAGTATAAATTATATAATAATTTATTTTTTAAAATTTTATGATTATAATTTATTGTTTTTATATTTAAGATTAATTATTGCTTTTTTAATTAAAATACCTATATATTTTGTTCATTTATGACTTCCTAAAGCTCATGTGGAGGCTTCAATTTCTGGTTCTATAATTTTAGCGGCAATTATATTAAAATTAGGAGGTTATGGGCTTTTACGAATTATAATTATTTTACAAAAAATTAATTTAAAAATAAGATTTATTTGAGTAGTAATTAGTTTAATTGGAGGTTTTTATATTAGAATAAAATGTTTTTGTCAAATTGATATAAAATCTTTAATTGCTTATTCATCAGTTGCTCATATGAGAATTGTTATTGGAGGTATTATAACAATAAATTATTGGGGGTATATAGGATCTTATATTTTAATAATTGGTCATGGGTTATGTTCTTCTGGAATGTTTTGTTTATCAAATATAAATTATGAACGATTAAATAGTCGAAGATTGTTTATTAATAAAGGAATACTGAATTTTATACCTTCTTTAAGTTTATGATGGTTTTTATTAATATCTTCAAATATAGCTGCTCCTCCTTCATTAAATTTAATAGGTGAAATTAGATTAATTAATAGATTAATTAGATGATCTTGATTGAGAATAATTATATTAGTATGTATTTCATTTTTTAGAGCTGGTTATAGTTTATATTTATATTCATATACTCAACATGGAAAATATAATATAAGAATTTATAGATTTTATACTAGTACTTCTCGTGAGTATTTAATTTTATTATTACATTGATTACCTTTAAATATTTTAGTATTAAAAATTGATTATAGAATAATTTGATTTT</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ATGTTAAATATAAGATTAATTATTATTATTATATTTATATTTGGTAATATAATTTTTGTTTCTAAACATAAACATTTATTAATTGTTTTAATAAGTTTAGAATTTATGGTTTTAAGAATTTTTTTTTTAATATTATTATATCTTATAATAATTAATTATAATTTGTATATATTAATAGTTTTTTTAGTTTTTTCTGTTTGTGAAGGTGCATTAGGTTTATCAATTTTAGTGTCTATAATTCGAACTCATGGTAATGATTATTTTCAAAGTTTTAATTTAATTTAA</t>
+          <t>ATGTTAAATATAAGATTAATTATTATTATTATATTTATATTTGGGAATATAATTTTTGTATCAAAACATAAACATTTATTAATTGTATTAATAAGTTTAGAATTTATAGTACTTAGAATTTTTTTTTTTATATTATTATATTTAATAATAATTGATTATAATTTATATATATTAATAGTATTTTTAGTTTTTTCTGTATGTGAGGGGGCATTAGGTTTATCTATTTTAGTTTCTATAATTCGAACTCATGGAAATGATTATTTTCAAAGTTTTAATTTAATTTAA</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>AGATTTTTTTTTTTATTTTTTTTTATATTAATTAATTTTTTTATAATAATTTATTTTATTATAAAAAATATGGTTATTTTTTTAGAGTGGGAAATTATTTCTTTCAATTCTATTAATATTGTATTTTCTATTTTATTAGATTGAATATCATTATTATTTATGATATTTGTTTCTTTAATTTCATCTTCTGTAATTTTTTACAGAAAAAGTTATATAAGATCTGAATTAAATTTGAATCGATTTATTATTTTAGTATTATTATTTGTATTTTCAATAATTTTATTAATTATTAGTCCTAATATAATTAGAATTTTTTTGGGATGAGATGGTTTAGGTTTAGTTTCTTATTGTTTAGTTATTTACTATCAAAATATTAAATCTTATAATGCAGGAATGCTAACAGCATTATCTAATCGAATTGGTGATGTAATAATTTTAATATTAGTATCTTGAATATTAAATTATGGTAGATGAAATTATATTTTTTATTTAAATTTTATAGGAAATGATTTTTCTATAAAAATTATTAGATTTTTAGTAATTATTGCAGCTATAACTAAAAGAGCTCAAATTCCTTTTAGTTCATGATTACCTGCTGCTATAGCAGCTCCAACTCCAGTATCTGCTTTAGTTCATTCTTCAACTTTAGTTACTGCAGGGGTTTATTTATTAATTCGATTTAATAATGTTTTAGTTGAAATATTTTTTTTAAAATTTTTATTATTATTTTCTGGTTTAACTATAATAATGGCTGGTATTTGTGCAAATTATGAATTTGATTTAAAAAAAATTATTGCTTTATCAACTTTAAGACAATTAGGATTAATAATAAGAATTTTAAGAATAGGGTTTTATGATTTAGCTTTTTTTCATTTATTGACTCATGCTATGTTTAAAGCTTTATTATTTATATGTGCTGGAGTAATTATTCATATAATAAATAATAATCAAGATATTCGTATAATAGGGGGTATTAGATTTTATATTCCTTTGACTTCTCTATGTATAAATATTTCAAATTTAGCTTTATGTGGTATTCCTTTTTTAGCTGGATTTTATTCTAAAGATATAATTTTAGAAATAGTAAGTATGAGAAATTTAAATTTATTAATTTTTTATTTATATTATTTTTCTACTGGTTTAACAATATTTTATACTATTCGTTTATTAATATATTTAATAATTAATGATTATAATTTATTATCTATTTATAATTTATATGATGAGGATTTTTTAATATTAAAAAGTATATTTGTTTTATTATTAATAAGATTAATTTCTGGGAGATTTTTAAGTTGATTAATTTTTTATTATCCTTATATAATTTATTTACCAATTTCTTTAAAAATAATAGTAATTTATGTTAGAATTGCTGGTATAATAATAGGTTTAATAATTAGAAATATAAATATTTATTCATTAAATAAGTTTTTAATATTTTATAATTTAAGAAGATTTTTGACTTTAATATGATTTTTACCAAGTTTATCAACTTATGGTTTAAATTATTATTTTTTAAAATTTGGTCAAATTTTAGGTAAAAATATTGATATAGGTTGAAGAGAAATTTATAGAGGTCAAGGTATATATAAAATTATTAAATTTTATTCTTTAATTAATGTAATTTATCAAATAAATAATTTTAAAATTTATTTATTTAGATTTGTTTTATGGGTAATAATTTTTATTATTTTAATTATAATTTAT</t>
+          <t>ATTAATAAATTTTCTATTTGCTTTATTAGATTTTTTTTTTTATTTTTTTTTATATTATTAAATTTTTTTTTAGTAATTTATTTTATTATAAATAATATAATTATTTTTTTAGAGTGGGAAATTATTTCTTTTAATTCAGTTAATATTGTAATTTCTATTTTATTAGATTGAATATCTTTATTATTTATAATATTTGTTTCTTTAATTTCTTCTTCAGTTATTTTTTATAGAAAAAGTTATATAAAATCAGAATTAAATTTAAATCGATTTATTATTTTGGTTTTATTATTTGTATTTTCTATGATTTTATTAATTATTAGTCCTAATATAATTAGAATTTTTTTAGGTTGGGATGGTTTAGGATTAGTATCTTATTGTTTAGTAATTTATTATCAAAATATTAAATCTTATAATGCTGGTATATTAACTGCTTTATCAAATCGAGTAGGGGATGTTATGATTTTAATATTAGTTTCTTGAATATTAAATTATGGAAGTTGAAATTATATTTTTTATTTAAATTTTATAGAAAATGATTTTTCTATGAAAATTATTAGATTATTAGTAATTGTTGCAGCTATAACAAAAAGAGCTCAAATTCCTTTTAGTTCTTGGTTACCTGCAGCTATGGCTGCTCCTACTCCAGTTTCTGCTTTAGTTCATTCTTCTACTTTAGTAACTGCTGGGGTATATTTATTAATTCGATTTAATAATTTATTAGTGGAAATATATTTTTTAAATTTTTTATTATTATTTTCTGGTTTAACTATAATAATAGCTGGTATTTGTGCAAATTATGAATTTGATTTAAAAAAAATTATTGCTTTATCTACATTAAGACAATTAGGTTTAATAATAAGAATTTTAAGAATAGGTTTTTATGATTTAGCTTTTTTTCATTTATTAACTCATGCAATATTTAAAGCTTTATTATTTATATGTGCTGGATTAATTATCCATATAATAAATAATAATCAAGATATTCGTTTAATAGGGGGAATTAGATTTTATGTTCCGTTAACTTCTTTATGTATAAATATTTCTAATTTAGCTTTATGTGGTATTCCATTTTTAGCTGGTTTTTATTCTAAAGATATAATTTTGGAAATGGTAAGAATGAGAAATTTAAATTTATTAATTTTTTATTTGTATTATTTTTCTACTGGTTTAACTATATTTTATACTATTCGTTTATTAATATATTTAATAGTTAATGATTATAATTTATTATCTATTTATAATTTATATGATGAAGATTATATTATATTAAAAAGTATATTTATTTTATTATTTATAAGATTAATTTCGGGAAGATTTTTAAGTTGATTAATTTTTTATTATCCTTATATAATTTATTTACCTTTTTCTTTAAAAATAATAGTAATTTATGTTAGTTTTATAGGAATATTAATAGGATGATTAATTAGAAATATAAATATTTATTCTTTAAATAAGTTTTTAATATTTTATAATTTAAGATGATTTTTAAGTTTAATATGGTTTTTACCTAATTTATCTACTTATAGTTTAAATTATTTTTTCTTAAAACTAGGTCAAGTTTTAAGAAAAAATATTGATATAGGTTGAATAGAAATATATAGAGGTCAGGGAATATATAAAATTATTAAAATTTATTCTTTAATTAATATGATTTATCAAATAAATAATTTTAAAATTTATTTATTTAGATTTATTTTATGAATAATAATTTTTATTATTTTAATTATAATTT</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>ATTTTAAAAATATTTATATCTATTATATTAATTTCTATTTCAATTTTTCTATTTTTTATTAATCACCCTTTAGCAATAGGATTATTAATTTTAATTCAAACTCTTATTATTTGTTTAATTTCAGGTATATTAATTAATACTTATTGATTTTCTTATATTCTTTTTTTAGTATTTTTAGGAGGTTTATTAGTATTATTTATTTATGTATCAAGAATAGCTTCAAATGAATTATTCAAAATACATATTATTAGTAAATTTTCAATTATTTATATATTATTTATTTTAATTTTTAGATTTTTTTTTAAAAATAATTTAATTTGAATAAATTTTAATTTTAATGATGAAATAATTAATTTATTTAATTCAACTTTATTTTTTAATAATGAATATAATTTTAATTTATCTAAATTATATAATAAACAAAATTATTGAATAATAATAATAATAATTATTTATTTATTTATTACTTTAATTGCAATTGTAAAAATTACTAATATTTTTTTTGGTCCTTTACGATCATTTAATAAC</t>
+          <t>ATTTTAAAAATAATTATATCTATTTTTTTAATTTCAATCTCAATCTTATTATACTTTATTAATCATCCTCTTGCAATAGGATTATTAATTTTAATTCAAACTCTTTTTACTTGTTTAATTTCAGGAATATTAATTAATACTTATTGATTTTCATATATTTTTTTTTTAATTTTTTTAGGGGGATTATTAGTTTTATTCATTTATGTTTCAAGAGTAGCCTCTAATGAACTATTTAAAATTCACTTTTACGGAAAATTTTCTATTATTTATATTATTATTATTATAATAATTATTAGAATTTTTTATAAAAATAATTTAATTTGAATAAATTTTTCATTTAATGATGAAATAATTAATTTCTTTAATTTAAATTTATTTTTTAATAATGAATATAATTTTAATTTATCTAAATTATATAATAAACAAAATTACTTTATAATATTAATATTAATTATTTATTTATTTATTACTTTAATTGCAATTGTAAAAATTACTAACATTTTTTTTGGGCCCCTACGATCATTCAATAACTAA</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>GGGGGAAAATTAATAAAATATAAATAATAAAAAAATTTTTAATATTGGGGGGTATTAAAGTATTTTTTTAAAAAAAAATAAATTATTTTATAGTTAATTAGTATTGAAAAAGAAATTTGAAATAAATGAAAATAAATTAATAAAAAAGTAATTTTAATTTAATGTATCTTGTGTATCAGAGTTTATTAAAAAATATTTTTTATAAAAAAAAATCTCGAATTTAAAAGAGTTAATTAATTATAAAAGTTAATGTAGAAAAATTATTTTAAATAATTAATTTGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTATTTTAGAAAAAAATTTAATTTAAAATTTAAAAAATTTTATTATTAAATAAATAATTAATAATAAAATATTTAAAATTAAATATATTAAGGGATAAGCTTTAATATAAAAAATTATAATAAATTTAATTTAAATATAAAATTTTTAAAATTTATATTGTTTAAAAATTATAATTTATTATAAAAAATTTTATAAATAATAAAATTTAATTTAAAATTTAATTTTATATAAAATAATAATTTAAAATAAAAAAAAATTAAAAATAATGATAAAATTAGTATATTAAATTAAAAATAAAATTTAATTAATTAAAATTAAATTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTAGAAAATAATTTAAAGTCTAATCTGCCCACTGATAAATATATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCAATAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAGATATAAACTGTCTCTAGTTTATAAATAAAATTTAATTTTTTAGTTAAAAAGCTAAAATAAATTTAAAAGACGAGAAGACCCTATAGAGTTTTATATTATTTTTATTTAAGATTATATTTATAATTAATAATTAAAAATAAAAATATTATTTTATTGGGGTGATAGAAAAATTTATTTAACTTTTTTTAATTTAATTACATTAATAAGTGAATAATTGATCCATAAATAATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTCTAGTACGAATAGAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGCAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGCTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAAAATAATATAATATTTTAGTACGAAAGGATCAAATATTTTTAATAATTAAAATT</t>
+          <t>GGGTAAAAATTAATAAATTATAAATAATAAAAAAAATTTTAATATTGGGGGGTATTGAAGTATTTTTTTTAAAAAAAATAATTTAATTTATAGGGAATTAGTATTGTAAAATAAATTTGAAATAGTTGAAAATAAATTAATAATAAAGTAATTTTTGTTTAATGTATCTTGTGTATCAGAGTTTATTAAAAAATATTTTTTTTATAAAAAAATCTCGAATTTAAAAGAGTTAATTAATTATAAAAGTTAATGTAGAAAAATTATTTTAAATAATTAATTTGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTATTTTAGAAAAAAATTTAATTTTAAATTTAAAAAATTTTATTTTTAATTTTATAAATTAAAAATAAAATTTTTAAAATTAAATATATTAAGGGATAAGCTTTAATATAAAAATTTATAATAAATTAAATTGAAAATAAAAATTTTAAAATTTATATTGTTTAAAAATTATAGTTTATTAAAAAAAATTTTATTTTTAATAAAATTTAATAAAAAAATTTAATTTTATATAAAATAATAATAAAAATAAAAAAAAATTAGTAATAATGATAAAATTAGTATATTATATTAAAATAATAATTTAATTAATTTAAATTAAATTAAAGGAATTCGGCAAAATTTTATATTCACTTGTTTATCAAAAACATGTCTTTTAGTTAATAATTTAAAGTCTAATCTGCCCACTGATAATTATATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCATTAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAAATATAAACTGTCTCTGATTTAAAAATAAAATTTAATTTTTTAGTTAAAAAGCTAAAATAAATTTAAAAGACGAGAAGACCCTATAGAGTTTTATATTGAAATTATTTAAGATTATAAATATAAATAAAAATTAAAAATAAAATTAATATTTTATTGGGGTGATAAAAAAATTAATATAACTTTTTTTTTTGTAAAACATGAATAAGTGAATAATTGATCCATTTTTTATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTACAAATAAAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTGAATGTAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAAAATAAGGAAATATTTTAGTACGAAAGGATCAGGTATTTTTAATAATTAAAATTTAATGAATATTAATAATAAATAATTATATT</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>AATTTTTTATATTTTTTATAATTTATTATAAATTTATTTTACATGTAAATTTTAGTATGAAATTTTAATTATTTAAATAATAATTAATTTAAAATTAACAGTAATTAAAATTAAAAATTTAAGAAATTAAGATTTAGTAATATATAAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTAAACAAAAGTTAAATTAAATTATTTCAGTATATAATAAATAATAAAATATTTAAATTAAATATTAAATTATTAAGTGAAATTTTAATTTAATTAAAAATTATATTTTAAATTATGATTTAATAAATTTTATTATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATAAAAAATACTAAAATAGTAAATAAAATATTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTATTAATTGATAATCCACGAATAAATTTACTTAATTTATAATTTTGTATATCATTGTTAAAAAAATATTTTTAAATAAAAATAATATTTTAAAATTTAAAATAAAATTTAATTCAGATCAAGATGCAGATTATAATTAAGTTTAAGATGGATTACAATAAATTTATTTAAACGAAAAGAAAATTGTAATATTTGATTGAAGGTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTAATAATTAAAATATGTACATATTGCCCGTCACTTTCATTTAAAAATTGAAATAAGTCGTAACAAAGTAGAAGTACTGGAAAGTGTTTCTAGAATGA</t>
+          <t>GAATAGATAAATTTTTTATATTTTTGATAATTTATTATAAATTTATTTTACATATAAATTTTAGTATAAAATTTTAATTATTTTGAAAATAATTAATTTAATTATATAGTAATTAAAATTAAAAATTTAAGAAATTAAGATTTAGTAATATTTAAATTAATAACTGATTTTGTGCCAGCAGTTGCGGTTAAACAAAAATTAAATTAAATTATTTCAGTATATAATAAATAATAAATGATTTAAAATTAAATATTAAATTATTAAGTGAAATTTTAATTTAATTAAAAATTATTTTTAAATTATGATTTAATAAATTTTATTATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATTTAAAATACTAAAATAGTAAATAAAATATTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACGAATAAATTTACTTAATTTATAATTTTATATATCATTGTTATAAAAATATTTTTATATAAAAATAATATTTTAAAATTTAAAATAAAATTTAATTCAGATCAAGATGTAGATTATAATTAAGTTTAAGATGGGTTACAATAAATTTATTTAAATGAATAGAATTTTGTAAAATTTAATTGAAGGTGGATTTAAATGTAATTTTAATTAGTTTATTAAAATGATTAAAAATTGAAATATGTACATATTGCCCGTCACTTTCATTTTAAAATTGAAATAAGTCGTAACAAAGTAGAAGTACTGGAAAGTGTTTCTAGAATGAA</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>AGGATTATAGTTTATTTAAAACATTTGATTTGCATTCAAATAATATTGAATTTTCAATTTATCTTA</t>
+          <t>AGGATCGTAGTTTAATTAAAACATTTGATTTGCATTCAAATAATATTGAATTTTCAATCTATCTTA</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>AGTCTTATATTCAAAATAATGATATAAAATTGCAAATTTTATGGTGTAATTAATTACTAAGGCTT</t>
+          <t>AGTCTTATATTCAATAATGATATAAAATTGCAAATTTTAAGGTGTAAATAATACTAAGGCTT</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -929,37 +933,37 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>ATTTATATAGTTTAAATAAAACTTTACATTTTCATTGTAAAAATAAAAAAGTTTTTTTTATAAATA</t>
+          <t>ATTTATATAGTTTAAAAAAAACTTTACATTTTCATTGTAAAAATAAAAAAATTTTTTTTATAAATA</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>ATTTAAATAGCTTAAAAAGAGTATAATATTGAAGATATTAGGGTGATTATATAATCTTTAAATA</t>
+          <t>ATTTAAATAGCTTAATAAGAGCATAATATTGAAGATATTAAGGTGATTTAATAATCTTTAAATA</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATTTATTATTAATATAAATA</t>
+          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATTTTATTTTAATATAAATA</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>ACTTAAATAATTTAAAAAAAATATTGATTTGTGGAATCAAAAATGTGATAATTAATTTCATTTTAAGTC</t>
+          <t>ATTTAAATAATTTAAAAAAAATATTGATTTGTGGAGTCAAATATATGAGAAATTCATTTTAAATT</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>AATAAAGTGCCTGATTAAAGGATTATTCTGATAGGATAAATTATGTAATTTTTTTACCTTTATTA</t>
+          <t>AATAAAGTGCCTGATTAAAGGATTATTCTGATAGAATAAATTATGTAAATTTTTATTACCTTTATTA</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>CATTAGATGACTGAAAGCAAGTACTGGTCTCTTAAACCATTTAATAGTAAATTAGCAATTACTTCTAATGA</t>
+          <t>CATTAGATGACTGAAAGCAAGTATTGGTCTCTTAAACCATTATATAGTAAATTAGCAATTACTTCTAATGG</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>ACTATTTTGACAGAAAAATGTGATGATTTTAGAAGTCATAAATGTATAATTAAATTATATAAATAGTA</t>
+          <t>ACTATTTTGACAGAAAAATGTGATGATTTTAGAAGTCATAAATATATAATTATATTATATAAATGGTA</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -969,12 +973,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>TTAAAAATAAGCTAAATAAAGCTTTTGGGTTCATACCTCAAATATAAAGGATATACCTTTTTTTTAAA</t>
+          <t>TTAAAAATAAGCTAAATAAAGCTTTTGGGTTCATACCTCAAATATAAAGAAAATCCTTTTTTTTAAA</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>TTAATTGAAACCAAATAAGAGGTATATCACTGTTAATGATAAAATTGAATAATAATTCCAATTAGA</t>
+          <t>TTAATTGAAACCAAAAAGAGGTATATCACTGTTAATGATAAAATTGAATTTAAAATTCCAATTAAG</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -984,405 +988,421 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>TATATTTTAGTGTAAGATGCACAATAATTTTTGAAGTTATTAGATATAGTTTAATTCTATAAAATATAA</t>
+          <t>TATATTTTAGTGTAAGATGCACAGTAATTTTTGAAGTTGTTAGGTATAGTTTAATTCTATAAAATATAA</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>AAATAAGAAGCAATTTGCATTTAATTTCGACTTAAAAGATAGAGTTAATAAACTCCTTATTTA</t>
+          <t>AAATAAGAAGCAATTTGCATTTAATTTCGACTTAAAAGATAGAGTTAATAACTCCTTATTTA</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>GAAATATATAATAATTAAGCTGCTAACTTAATTTATAGTGAATAAAATCATTAATATTTCT</t>
+          <t>GAAATATATAATAATTAGGCTGCTAACTTAATTTTTAGTGAATAAAATCATTAATATTTCT</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>AATTAATGAGCTTGTTTAAGCATTTGTTTTGAAAACTTAAGAAAGAATAATTATTCTATTAATTT</t>
+          <t>AATTAATGAGCTTGTATAAGCATTTGTTTTGAAAACTTAAGAAAGAATAAATATTCTATTAATTT</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>GTTTTTATAGTTTAATAAAAAACTTTGGTCTTGTAAATCAAAAATAAGAATATTCTTTAAAAACT</t>
+          <t>GTTTTTATAGTTTAATAAAAAACTTTGGTCTTGTAAATCAAAAATAAGAATTTTTCTTTAAAAACT</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>CAAATTAGAGCTTGTTAAGTATTTCATTTACATTGAAAAGAAATTAAAATAATTAATTAATTTGA</t>
+          <t>CAAATTAGAGCTTGATAAGTATTTCATTTACATTGAAAAGAAATTAAAATAATTAATTAATTTGA</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>AAGGTTTTAAGTTAATATAAACTAATAATCTTCAAAATTATATATAAAGAAATTTCTTTAAGCCTTA</t>
+          <t>AAGGTTTTAAGTTAATTATAAACTAATAATCTTCAAAATTATTTATAAAGAAATTTCTTTAAGCCTTA</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>AATAAAATGGCTGAGGTATAAGCGATAAATTGTAAATTTATTAACAAGAAATATTCTTTTTTATTA</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
+          <t>AATAAAATGGCTGAGTTATAAGCGATAAATTGTAAATTTATTAACGAGAATTAATCTCTTTTATTA</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>CAGCTCCCTGGTTGATCCTGCCAGTAGTTATATGCTTGTCTCAAAGATTAAGCCATGCATGTCTCAGTGCAAGCCGTATTAAGGCGATACCGCGAATGGCTCAATATATCAGTTTTGGTTCCTTAGATCTTACTCAGTTACTTGGATAACTGTGGTAATTCTAGAGCTAATACATGCAATCAGAACTCCGACCAGTGATGGGACGAGTGCTTTTATTAGATCAAAACCAATCGGCGGAGGGCCTCGCGTTCGAAGTCGTTAATTTTGATGAATCTGGATAACTTTTGCCGATCGCATGGTCAAGTACCGGCGACGCATCTTTCAAATGTCTGCCTTATCAACTTTCGATGGTAGTTTCTGCGACTACCATGGTTGTCACGGGTAACGGGGAATCAGGGTTCGATTCCGGAGAGGGAGCCTGAGAAACGGCTACCACATCCAAGGAAGGCAGCAGGCGCGCAAATTACCCACTCCCGGCACGGGGAGGTAGTGACGAAAAATAACGATACGGGACTCTTTCGAGGCCTCGTAATCGGAATGAGTACACTTTAAATATTTTAACGAGGAACAATTGGAGGGCAAGTCTGGTGCCAGCAGCCGCGGTAATTCCAGCTCCAATAGCGTATACTAAAATTGTTGCGGTTAAAAAGCTCGTAGTTGCATTTGTGCGCCGCGCTGTCGGTGCACCGCATCCGCGGTGATACTGACACGTCTGCGGAGCATATCGTCGGTGAGCCGGCGGTAAAACGCCGGTTCAATATCAAAATCCTATCGCGGTGCTCTTCGGTGAGTGTCGAGGTGGGCCGACAATTTTACTTTGAACAAATTAGAGTGCTCAAAGCGGGCTCAAAATGCCGCTTGAATATTTCGTGCATGGAATAATAGAATATGATCTCGGTTCTATTTTGTTGGTTTTCAGAACTCCGAGGTAATGATTAATAGGGATAACTGGGGGCATTCGTATTGCGACGTTAGAGGTGAAATTCTTGGATCGTCGCAAGACGAACATCAGCGAAAGCATTTGCCAAAGGTGTTTTCATCAATCAAGAACGAAAGTTAGAGGTTCGAAGGCGATTAGATACCGCCCTAGTTCTAACCGTAAATATGTCATCTAGCGATCCGCCGACGTTACTACAATGGCTCGGCGGGCAGCTTCCGGGAAACCAAAGATTTTGGACTCCGGGGGGAGTATGGTTGCAAAGCTGAAACTTAAAGGAATTGACGGAAGGGCACCACCAGGAGTGGAGCCTGCGGCTTAATTTGACTCAACACGGGAAATCTCACCAGGCCCGGACACCGGAAGGATTGACAGATTAACAGCTCTTTCTTGATTCGGTGGGTGGTGGTGCATGGCCGTTCTTAGTTGGTGGAGCGATTTGTCTGGTTAATTCCGGTAACGAACGAGACTCTAGCCTGCTAAATAGGCGTTGTCATTTAGGTGTGCGCGATTTCGGTCGCGCAACTCACTGGCGACGTATTAAAATTCTTCTTAGAGGGACCGGCGTCTTCGAAGCGCACGAGATTGAGCAATAACAGGTCTGTGATGCCCTTAGATGTCCTGGGCCGCACGCGCGCTACACTGAAGGAATCAGCATGTTCTCCCTGGCCTAGAGGCCCGGGCAACCCGTTGAAACTCCTTCGTGCTGGGGATTGGGGTTTGCAATTATCCCCCATAAACGAGGAATTCCTAGTAAGCGCGAGTCATAAGCTCGCGTTGATTACGTCCCTGCCCTTTGTACACACCGCCCGTCGCTACTACCGATTGAATGATTTAGTGAGGTCTTCGGACCGACACGCGGTGGCTTCGCGGCCGTCGGCGTTGCTGGGAAGTTGACCAAACTTGATCATTTAGAGGAAGTAAAAGTCGTAACAAGGTTTCCGTAGGGGAACCTGCGGAAGGATCATTA</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>AAACCACTACCCTGGACGGTGGATCACTAGGCTCGCGGGTCGATGAAGAACGCAGTTAACTGCGCGTCATAGTGTGAACTGCAGGACACATTTGAACATCGACATTTCGAACGCACATTGCGGTCCGTGGAGAAACATCCAGGACCACTCCTGTCCGAGGGCCGGCT</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>GCATATTAGTAAGCGGAGGAAAAGAAACTAACCAGGATTTCCTTAGTAGCGGCGAGCGAACAGGAAACAGCCCAGCACTGAATCCCGCGGTTGTAACGATCGCGGGAGATGTGGTGTTCGGGAGGTTCCGCTTTCTCGTCGTCGCCGCTCCTGTCCAAGTTCGTCTTGAACGGGGCCGTTTTCCCGCAGAGGGTGCCAGGCCCGTAGCGACGGAGCGAGACGGCGAGAGGGACTCTCCTCAGAGTCGGGTTGCTTGAGAGTGCAGCCCTAAGTGGGTGGTAAACTCCATCTAAGGCTAAATATTACCGCGAGACCGATAGCGAACAAGTACCGTGAGGGAAAGTTGAAAAGAACTTTGAAGAGAGAGTTCAAGAGTACGTGAAACCGTTCAGGGGTAAACCTGCGAAACTCGAATGAACGAACGGAGAGATTCATCGTCATTCGGCGGCGTACGGACGCGCGCCTCGATGTGGCGCACCGTCATTCGCGTGGCGTTCTAGCGTTGCACGGGTCGCGTCCGTCGACGTCCGCCGACGGCGTGCACTTCTCTCTCGGTAATACATCGCGACCCGTTCGCGGTCGGCCTAAGCGCCGTCCGGGAGCCCCGCGGTCTCGTCTTAACCGGCGAGGCCGCTGGACCGTGACGGTACGCCGGCCGGCCAGTCGGACGGTATATTCTGAAGATTCGCGCACGCGCCTCGCGCGCGTCCGGCCCGACGCAAGCTCTTACGTCGTCTCCGCCGACGTCCTGCCTCAGCGCGGACGTTGGGGCGGCGTGGCTGTCGTCGCGGCCGTGCAGTCTCGGACCGTGCGCGTTTCAGTCTGCGATGATTCATTTTCGGGCACTCGCAGGACCCGTCTTGAAACACGGACCAAGGAGTCTAGCATGTGTGCGAGTCATTGAGTTTATATTCGAAGATAAAATGCACAAAACTGAAAGGCGCAACGAAAGTGAAGGCGCGCGCTAGTCGCGCGCTCAGGGAGGATGGAGCGTCGGTCTAGCGATCGCACTCCCGCACTCCCGAGGCGTCTCGTTTCCAATCCGTGAATGCAGGCGCGCTCTGAGCACAGATGCTGGGACCCGAAAGATGGTGAACTATGCCTGGTCAGGTCGAAGTCAGGGGAAACCCTGATGGAGGACCGTAGCGATTCTGACGTGCAAATCGATCGTCGGAACTGGGTATAGGGGCGAAAGACTAATCGAACCATCTAGTAGCTGGTTCCGTCCGAAGTTTCCCTCAGGATAGCTGGCGTCGATTATTAACAGTCCCATCCGGTAAAGCGAATGATTAGAGGCATTGGGGCCGAAACGACCTCAACCTATTCTCAAACTTTAAATGGGTGAGAACTCCGGCTTACTCGAACGATGAAGCCGGAGATCTGATGACGGTGCCAAGTGGGCCAATTTTGGTAAGCAGAACTGGCGCTGTGGGATGAACCAAACGTAGTGTTAAGGCGCCTAAAAAACGCTCATGGGACACCATGAAAGGCGTTGGTCGCTCATGACAGCAGGACGGTGGCCATGGAAGTCGGAATCCGCTAAGGAGTGTGCAACGACTCACCTGCCGAAGCAACCAGCCCTGAAAATGGATGGCGCTGAAGCGTTTTGCCTATACACTACCGTTACGGGCAATAGCGGCGTGTGCGCTCGCGCGCTCGTCCGCGTCATTATGCCGTAACGAGTAGGACGTGCGCGGCGGAGAGCGCAGAAGGGTCTGGGCGTGAGCCCGCCTGGAGCCTCCGTCGGTGCAGATCTTGGTGGTAGTAGCAAATACTCCAGCGAGGCCCTGGAGGACTGACGTGGAGAAGGGTTTCGCGTGAACAGTAGTTGCTCGCGAGTCAGTCGATCCTAAGCTCAAGGAGAGATCTTATGTCGATGTGGCGTGTTTTTTTGTTTCTTATCGGGAGACGACGAACAACGCCCTTTGAGCGAAAGGGAATCCGGTTCCTATTCCGGAACCCGGCAGCGGAACCGTTTCAATAATCGTTCCCTCGTTTCAAAGCGAGTGTTCGACGGGGTAACCCAAAGTGGCCTGAAGACGCCGCCGAGGGGTCCGGGAAGAGTTTTCTTTTCTGCCTGAGCGTTCGAGTTCCATGGAATCCTATAGAAGGGAGATATGGTTCGGAACGCGAAGAGCACCGCATTTGCGGCGGTGTCCGGATACTCTCTGCGGACCTTGAAAATTCAGGTGAGGGATGTACGTGGAGATGTCGCGCCGGTTCGTACCCATATCCGCAGCAGGTCTCCAAGGTGAAGAGCCTCTAGTCGATAGAATAATGTAGGTAAGGGAAGTCGGCAAATTGGATCCGTAACTTCGGAATAAGGATTGGCTCTGAGGACCGGGGCGTGTCGGGTTTGGACGGGAAGCGGATGCGGCCGGTGCCGGGCCTGGTCGATGCTCGTGCGCGCGCGCAGTGCATTTCGGGCGTGTCCCTGTAAAAGGGGGTGCGTTTCGTGGTGTCGCTCGTACGCGTTTCGGGCGGAATCCGGACCCGCGTTCCGGCCTTCCGCGGATCTTCCTAGCCGTAAGGCCGCGTCGGTTTCGTCTTGTGCGCGATCGGCGCGGTTCTGTACGACCGCCGTTCAACGGTCAGCTCAGAACTGGCACGGACAAGGGGAATCCGACTGTCTAATTAAAACAAAGCATTGCGATGGCCCTCGCGGGTGTTGACGCAATGTGATTTCTGCCCAGTGCTCTGAATGTCAACGTGAAGAAATTCAAGCAAGCGCGGGTAAACGGCGGGAGTAACTATGACTCTCTTAAGGTAGCCAAATGCCTCGTCATCTAATTAGTGACGCGCATGAATGGATTAACGAGATTCCCGCTGTCCCTATCTACTATCTAGCGAAACCACAGCCAAGGGAACGGGCTTGGGAGAATCAGCGGGGAAAGAAGACCCTGTTGAGCTTGACTCTAGTCTGGCATTGTAAGGAGACATGAGAGGTGTAGCATAAGTGGGAGGTCGTTCGCGGTCGTCGCTGAAAAACCACTACTTTCATTGTTTCATTACTTACTCGGTTGGGCGGAAGCGGTGCGCGGTCGATTATATCGGCGGGCGTACGGTGTTTCGTTCCAAGCGTGCAGAGTGGAGGCGTGGCGGCAACGCTCGTCTCCATACAACTCCCGCGTGATCCGGTTCGAGGACACTGCCAGGCGGGGAGTTTGACTGGGGCGGTACATCTGTCAAAGAATAACGCAGGTGTCCTAAGGCCAGCTCAGCGAGGACAGAAACCTCGCGTGGAGCAAAAGGGCAAAAGCTGGCTTGATCCAGATGTTCAGTACGCATAGGGACTGCGAAAGCACGGCCTATCGATCCTTTAGTATAAAGAGTTTTTAGCAAGAGGTGCCAGAAAAGTTACCACAGGGATAACTGGCTTGTGGCGGCCAAGCGTTCATAGCGACGTCGCTTTTTGATCCTTCGATGTCGGCTCTTCCTATCATTGCGAAGCAAAATTCGCCAAGCGTTGGATTGTTCACCCATCAAAAGGGAACGTGAGCTGGGTTTAGACCGTCGTGAGACAGGTTAGTTTTACCCTACTGATGGCTCGTCGTTGCGATAGTAATACTGCTCAGTACGAGAGGAACCGCAGTTTCGGACATTTGGTTCATGCACTCGGCCGAGCGGCCGGTGGTGCGAAGCTACCATCCGCGGGATTATGCCTGAACGCCTCTAAGGCCGAAGCCAGCCTAGCCGAATCCGGCAAGGATATTCTCACTGTGGAGCCCCGAGAGTCGGGAGGCCACTATACAATGTGACTTTAATAGTCGCGCTTCACGCGCGACGTCGAGGCCCATTTGGAACGCGGCGATCGATGCGAGCGGTCTTAACACGTGCATCACGGCGCCGAAGTTTCCAATTTACCTCAGTTCGATGTCGGGGCTCGGAATAGTCTGTAGACGACTTACGTTCCTGGCGGGGTGTTGTGCTCGGTAGAGCAGCGTCGTGCTGCGATCTGTTGAGACTCAGCCCTGCGCCAGGTGATTCGT</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>&gt;N4755_Limenitis_disjuncta</t>
+          <t>&gt;17LW02028_Athyma_lysanias</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_40414706_+_atp6</t>
+          <t>ATGATAAATAATTTATTTTCTATTTTTGATCCTTCAACTAACATTTTTAGTTTATCAATTAATTGAGTAAGAACTTTTATTGGTTTAATATTTATTCCTTATTCTTTTTGATTAATTCCTAATCGTCATTTTATTTTATGAAATTATGTGTCAAATAAATTACATGAAGAATTTAAAACTCTTTTAGGTCCTAATAGTTATAATGGATCAACTTTCATTTTCATTTCCTTATTTTTTTTTATTTTATTTAATAATTTTTTAGGATTATTTCCTTACATTTTTACAAGTACTAGACATTTAAATATTTCATTATCTTTATCTTTAACTTTATGATTAAGATTTATAATTTACGGGTGAATTAATAATACCCAACATATATTTATTCATATAATTCCTCAAGGAACTCCAACTATTTTAATACCATTTATAGTACTAATTGAAACAATTAGTAATATTATTCGTCCCGGTACTCTAGCTGTACGATTAACAGCAAATATAATTGCAGGACATTTATTGTTAACTTTATTAAGTAATACTGGAACAAATATACCTAATTATTTATTAATTATTTTAATTTTTATTCAAATTATATTATTAATTTTAGAATCTGCCGTAGCAGTAATTCAATCTTATGTTATTACTATTTTAAGTACTCTTTATTCTAGTGAAGTCAATTAA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_38804041_+_atp8</t>
+          <t>ATTCCTCAAATAATACCTATTAATTGAATTTTTTCTTTCATTTTTTTTATTATAATTTTTATTATCTTTAATATCATAAATTATTTTATTTTTAATTATAAAAATATTAATTATAATAATAATAATAATAAAATTATAAAAAATAATTTTTCTTGAAAATGATAA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_1047611558_+_cob</t>
+          <t>ATGATAAATTTATATAAACCTATTCGTAAAACTCATCCAGTAATTAAAATTATTAATGGGTCATTAGTAGATCTTCCTACACCATCTAATATCTCATCTTGATGAAATTTTGGTTCCTTATTAGCTTTATGTTTAGTTACCCAAATTTTAACAGGATTATTTTTAACTATATATTATACAGCTAATGTAGATTTAGCTTTTTTTAGAGTAAACTATATTTGTCGAAATGTCAACTATGGTTGATTAATTCGAACCTTACATGCAAATGGAGCATCTTTTTTTTTTATTTGTATTTATTTTCATATTGGACGAGGAATTTATTATGAATCATTTAATTTAAAATTTACTTGAATAATTGGAGTTATTATCTTATTTTTATTAATAGCTACAGCTTTTATAGGATATGTTCTTCCTTGGGGACAAATATCTTTTTGAGGAGCTACAGTAATTACTAATTTATTATCAGCAATCCCATATTTAGGAACCATACTTGTAAATTGAATTTGAGGAGGATTTGCAGTTGATAATGCAACATTAACTCGATTTTATACTTTCCATTTCTTATTTCCATTTATTATTCTTATATTAACTATAATTCATTTACTATTTTTACACCAAACAGGTTCAAATAATCCTTTAGGAATTAATAGAAATTTAGATAAAATTCCTTTTCATCCATTTTTTACATTCAAAGATTTAATTGGATTTATTATTTTAATTTCAATTCTAACTTTTCTTTCTCTTATTAATCCATATTTATTAGGAGATCCAGATAATTTTATTCCAGCAAATCCCTTAGTTACACCTATTCATATTCAACCTGAATGATATTTTTTATTTGCTTATGCAATTCTCCGTTCTATTCCTAATAAATTAGGAGGTGTAATTGCTTTAGTTATATCAATTCTAATTTTAATTATTTTACCTTTTACCTTTAATAAAAAAATTCAAGGTATTCAATTTTATCCATTAAATCAAATTTTATTTTGATCTTTAATTACAACAATTATCTTATTAACTTGAATTGGAGCACGATCAGTAGAAGCACCTTATATTATTACTGGTCAAATTTTAACATTAATTTATTTTTCTTATTTTATTATTAATCCAATATTAAATAAATTTTGAGATAAATTAATTTTTAACTTATAG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_14592973_+_cox1</t>
+          <t>TTGCGAAAATGACTTTTTTCTACAAATCATAAGGATATTGGAACTTTATATTTTATTTTTGGAATTTGAGCAGGTATAGTAGGTACATCTTTAAGTTTATTAATTCGTACTGAATTAGGAAACCCAGGCTCTTTAATTGGTGATGACCAAATTTATAACACTATTGTAACAGCTCATGCCTTTATTATAATTTTTTTTATAGTTATACCCATTATAATTGGAGGTTTTGGAAATTGATTAGTCCCCTTAATATTAGGAGCCCCAGATATAGCATTCCCCCGTATAAATAATATAAGATTTTGACTTTTACCCCCATCTTTAATTCTTTTAATTTCTAGTAGAATTGTTGAAAATGGAGCAGGTACAGGATGAACAGTTTATCCCCCACTTTCATCTAATATTGCTCATGGCGGTTCTTCTGTTGATTTAGCTATTTTCTCCCTTCATTTAGCTGGTATTTCATCAATTTTAGGAGCAATTAATTTTATTACAACTATTATTAATATACGAGTTAATAATATATCTTTTGATCAAATACCTTTATTTATTTGATCTGTTGGTATTACAGCCCTTCTTTTATTATTATCKTTACCTGTGTTAGCAGGAGCTATTACAATACTTTTAACTGATCGTAATTTAAATACTTCATTTTTTGACCCAGCAGGAGGAGGAGATCCTATTTTATATCAACATTTATTTTGATTTTTTGGACATCCAGAAGTCTATATTTTAATTCTACCTGGATTTGGTATAATTTCTCATTTAATTTCCCAAGAAAGAGGAAAAAAAGAAACTTTTGGTTATTTAGGAATAATTTATGCTATAATAGCAATTGGTTTACTAGGATTTATTGTTTGAGCTCATCATATATTTACAGTAGGTATAGACATTGATACTCGTGCTTATTTTACCTCAGCTACTATAATTATTGCAGTACCAACAGGAATTAAAATTTTTAGTTGACTTGCTACTCTCCATGGAACTCAAATTAATTATAGTCCTTCTATATTATGAGGATTAGGATTTATTTTTTTATTCACAGTAGGAGGATTAACAGKAGTTGTTTTAGCTAATTCTTCTATTGATATTACTCTTCATGATACTTATTATGTTGTAGCACATTTCCATTATGTATTATCAATAGGAGCTGTATTTGCAATTTTTGGGGGATTTATTCACTGATACCCATTATTTACAGGATTATCAATAAATCCTTATTTACTAAAAATTCAATTTATTTCTATATTTATTGGAGTTAATTTAACTTTTTTCCCCCAACATTTTTTAGGTTTAGCTGGTATACCTCGTCGTTACTCAGATTATCCTGATAGTTTTATTTCTTGAAATATTATTTCTTCTCTTGGATCTTATATTTCATTATTTTCAATAATTATAATAGTAATTATTGTTTGAGAATCAATAATTAATCAACGTTTAATTCTTTTTTCATTAAATATATCTTCATCAATTGAATGATATCAAAATTTACCTCCTGCTGAACATTCATATAATGAATTACCTATTTTAAGTAATT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_30613723_+_cox2</t>
+          <t>ATGGCAACATGATCTAATCTTAATTATCAAAATAGAGCTTCTCCTTTAATAGAACAAATTATTTTTTTCCATGATCATACTTTGATTATTTTAATTATAATTACAATTTTAGTATCTTATCTAATAATTAGTTTATTTTTTAATAAATATATTAATCGATTCTTATTAGAAGAACAAATAATTGAATTAATTTGAACTATTTTACCAGCAATTACTCTTATTTTTATTGCTTTACCCTCTCTTCGACTTTTATATCTTTTAGACGAATTAAATAATCCTTTAATTACATTAAAATCTATTGGCCATCAATGATACTGAAGTTATGAATATTCTGATTTCAATAATATTGAATTTGATTCATATATAATTCAATCAACTGATAATTTATCTAATTTTCGACTATTAGACGTAGATAATCGAATTGTTTTACCTATAAATAATCAAATTCGAATTTTAATTACAGCTACAGATGTAATTCATTCATGAACTATTCCATCTTTAAGTGTAAAAGTTGATGCTAATCCTGGACGATTAAACCAAACAAGATTTTTTATTAATCGACCTGGTATTTTTTATGGTCAATGTTCTGAAATTTGCGGAGCTAATCATAGTTTTATACCCATTGTAATTGAAAGAATTTCAATTAAAAATTTTATTAATTGAATTAATAATTATTCAT</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_47275512_+_cox3</t>
+          <t>ATGACCCTTAATCATAATCATCCTTATCACTTAGTAGATTATAGTCCTTGACCATTAACTGGAGCTATCGGTGTAATAACTTTAGTAACTGGCTTAGTAAAATGATTTCATAATTTTAGATTAAATTTACTTATTTTAGGATATATTATTGTTTTATTAACAATATATCAATGATGACGAGATATTTGTCGTGAAGGTACTTATCAAGGTAAGCACACAATTTTAGTTACAAAAGGTCTTCGATGAGGAATAATTTTATTTATTATTTCAGAAATTTTTTTTTTTATTTCATTTTTTTGAGCATTTTTTCATAGAAGTTTATCCCCTAATATTGAAATTGGATCTATATGACCTCCTATAAGAATTGTGGCATTTAATCCATTCCAAATTCCTCTATTAAATACTATTATTTTAATTACATCAGGAATTACTGTTACTTGAGCTCATCATAGTTTAATAGAAAATAATTTCACTCAAACTTTCCAAAGTTTATTAATTACTGTATTATTAGGAACTTATTTTACTATTATTCAAGCTTATGAATATATTGAAGCTCCTTTTACAATTGCAGATAGAGTTTATGGATCAACTTTTTTTATAGCCACAGGATTCCACGGACTTCATGTTATTATTGGAACTATTTTTCTTTTAACTTGTTTAATTCGTCATAAAAATAATCATTTTTCTAACTCTCATCACTTTGGATTTGAAGCAGCAGCATGATACTGACATTTTGTTGATGTAGTATGATTATTCCTGTATATTTTTATTTATTGATGAGGAAATTAA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_1169512618__nad1</t>
+          <t>ATGTTAATACAAGATTTATATAATATTTTAATTGGTTTATTAATTTTATTAATTGGGGTTTTAATTGGGGTTGCTTTTTTAACATTATTAGAACGAAAAGTTTTAGGATATATTCAAATTCGGAAAGGCCCTAATAAAATAGGTATTATAGGGGTTTTACAACCTTTTTGTGATGCTATTAAATTATTTTCTAAGGAACAAGTTTATTTAAATTATTCTAATTATTTTTCTTTTTATTTTTCTCCTGTTGTAAGATTTTCTTTGTCTTTAATTATTTGAATATTAATTCCTTATTTTTTTAATTTAATTGTTTTTAATTTAGGATTATTATTTTTTTTATGCTGTGCAAGAATTGGAGTTTATACTTTATTAATTGCAGGGTGATCTTCTAATAGAAATTATTCTTTATTAGGGGGTTTACGGGCAGTAGCTCAAACAATTTCTTATGAAGTTAGATTATCTTTAATTTTAATATCTAGTATTATTTTKATTATAGATTTTAATATACTTAAGTTTAGAGAATATCAGTATTTAATTTGATTCATAATAATAATAATACCTTTAAGAATATGTTTTTTATCTTCATTAATAGCTGAAACTAATCGTACACCTTTTGATTTTGCAGAAGGGGAAAGAGAATTAGTTTCAGGGTTTAATATTGAGTATAGAAGAGGTGGATTTGCTTTAATTTTTTTAGCAGAATATTCTAGTATTTTATTTATAAGTTTATTATTTGTAATTATTTATATAGGAGGTTATGATTTAAATTTAATATTTTATTTAAAATTAGTATTTTTATCTTTTTTTTTTATTTGAGTTCGAGGGACATTACCTCGTTATCGGTATGATAAATTAATATATTTATGTTGAAAAAGATATTTACCTTTATCATTAAATTATTTATTATTTTTTATAGGGGTGAAAATAATTTTAGTGTATAAAATAAATTTAGTATAA</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_2871159_+_nad2</t>
+          <t>ATTATTTTAATAACTAATTCTAATAAAATATTTTTTTTATTTATTTTATTTTTTAGAACCTTAGTTTCTGTATCTGCTAATTCATGACTAGGTTGTTGAATTGGTTTAGAAATTAATTTATTAAGATTCATCCCCCTTATTTCAACCCATAATAATCTTTTAAATTCAGAAGCTTCCTTAAAATATTTTCTTACTCAATCAATTGCATCAATTAATTTTTTATTTTCAATTTTATTAAGATTATTTCTAATAAAAAATTTTTTTTTCAATAATTTTTTTTCAATTATTATTAATTCCTCTTTGTTAATAAAAATAGGATCAATTCCATTTCATTTTTGATTCCCTAATATTATAGAAGGTCTTTCATGATTTAATTGTTTTATTTTAATAACCTGACAAAAAATTTCCCCTATAATTCTTTTATCTTATTATTTTAATTTAAATTTTTTATATTTTATTATAATCTTTAATGTAATAATTGGAGCTATTGGTAGATTTAATCAAACTTCATTACGAAAATTAATAGCTTTTTCTTCAATTAATAATTTAGGATGAATAATTTCATCAATAATTATTAGTGAAAACTTATGATTAATTTATTTTATTTTCTACTCAATTTTCACATTTATTATGTGTTTTTTATTTTATATTATTAATATTTTTTTTATTAGTCAATTATTTTTTTTTAATATAAATTTTTTAATTAAGATTTCTATTATAATTAATTTTCTTTCTCTAGGAGGTTTACCTCCTTTTTTAGGATTTTTCCCTAAATGACTTGTTATTAATTATTTATTAAATAATAATTTCTTTATTATTTCTTTTGTATTTATTATATCAAGCTTAATTATATTATTTGTTTATATTCGTATTATTTATTCTTCATTATTATTTTTTTCTTTCAAATTAAAATGATTTAAAATTTTTATTAAAAATAATTCTTTAATTTTTATTTATTTCTTTAATTTTATTTCTTTATTTGGTATAATTATCAGAACTTTTTTTTTTTAA</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_55885929_+_nad3</t>
+          <t>ATTAATTTAATAATATTAATATCTTTAATTATAATTATCATTGCTAATATCTTTATAAGAATTTCATTTATTATTTCTAAAAAATCTTTTCTTGACCGAGAAAAATGTTCTCCTTTTGAGTGTGGATTTGATCCTAAATCGCTTTCTCGTATCCCATTTTCTCTTCATTTTTTTTTAATTACAGTAATTTTTTTAATTTTTGATGTAGAAATTGCTTTAATCTTCCCTATAATTCCAACTTTTTTAAGAGTTAATTTTATTACTTGATTTAAAATTAATTTTTTTTTTATTATTATTTTATTAGTAGGTCTTTATCATGAATGAAATCAAAATATATTAAACTGAACAAATTAA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_81589489__nad4</t>
+          <t>ATGATAAAATTTTTAATAATAATAATTTTTATAATTCCTTTATGTTTTAAAAAAAATATATTTTGATTGGTTCAAATATTATTAATATACATAATATTTATATTTATGAATTCTACTATTAGTATTATAAATTTTTGTAATTTAAGTTATATATTAGGTTATGATATAATTTCCTATGGATTAATTTTATTAAGAATTTGAATTAGAAGATTAATAATTATAGCAAGAGAGAGATTATATAAAAGTAATTTTTATTCAAATTTATTTTTATTTAATATTATTTTTTTAATAATAATATTATATTTAACTTTTAGAGTAATAAATTTATTTATATTTTATTTATTTTTTGAAAGAAGATTAATTCCAACTTTAATACTAATTATTGGTTGAGGATATCAACCGGAACGAATTCAGGCGGGCATATATTTATTATTTTATACTTTATTTGCTTCTTTACCTTTATTAATAGGGATTTTTTATTTATACAAAAATATAAATTATATAATAATTTATTTTTTAAAATTTTATGATTATAATTTATTAATATTATATTTATGTTTAGTAATAGCATTTTTAGTAAAAATACCTATATATTTTGTACATTTATGATTACCTAAAGCTCATGTAGAAGCTCCAATTTCTGGTTCAATAATTTTAGCCGCAATTATATTAAAATTAGGTGGGTATGGTTTGTTACGAGTAATAATTACTTTACAGGAAATTAATTTAAAAATAAGATTTATTTGAATAGTAATTAGATTAATTGGGGGATTTTATATTAGATTAAAATGTTTTTGTCAAATTGATATAAAATCTTTAATTGCCTATTCATCTGTTGCTCATATAAGAGTTGTAATTGGTGGAATTATAACTATAAATTATTGAGGTTATATAGGGTCTTATATTTTAATGATCGGGCATGGATTATGTTCTTCTGGTATATTTTGTCTATCAAATATAAATTATGAGCGATTAAATAGTCGAAGTTTATTTATTAATAAGGGAATAATAAATTTTATACCTTCTATAAGATTGTGATGATTTTTATTAATATCTTCAAATATGGCTGCTCCTCCTTCTTTGAATTTAATAGGAGAAATTAGATTAATTAATAGATTAGTTAGATGATCTTGATTAAGAATAATTATATTAATATGTATCTCATTTTTTAGAGCTGGTTATAGATTATATTTATATTCTTATACTCAACATGGAAAGTATAATATAGGAATTTATAGATTTTATACAGGAACATCACGAGAATATTTAATATTAATATTACATTGATTACCTTTAAATATCTTAATTATAAAAATTGATTATAGAATAATTTGATTTT</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_94869752__nad4l</t>
+          <t>ATGTTAAATATAAGATTAATTATTATTATCATGTTTATATTTGGGAATATAATTTTTGTATCTAAACATAAACATTTATTAATTGTTTTAATAAGTTTAGAGTTTATAGTATTAAGAATTTTTTTTTTAATATTATTATATCTTATAATAATTAATTATAATTTATATATATTAATAGTATTTTTAGTTTTTTCTGTTTGTGAGGGGGCTCTTGGGCTTTCAATTTTAGTTTCCATAATTCGAACACATGGAAATGATTATTTTCAGAGTTTTAATTTAATTTAA</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_63618034__nad5</t>
+          <t>ATTAATAAATTTAGTATTTGTTTTATTAGATTTTTTTTTTTATTTTTTTTTATATTAATTAATTTTTTTAGAATAATTTATTTTATTATATTTAATAAGATTATTTTTTTGGAGTGAGAAGTTATTTCTTTTAATTCAATTAATATTGTATTTTCTATTTTATTAGACTGAATATCTTTATTATTTATAATATTTGTTTCTTTAATTTCTTCTTGTGTTATTTTTTATAGAAAAAGATATATAAGATCTGAATTAAATTTAAATCGATTTATTATTTTAGTTTTATTATTTGTATTTTCAATAATTTTATTAATTATTAGTCCTAATATAATTAGAATTTTTTTGGGATGAGATGGTTTGGGTTTAGTTTCTTATTGTTTAGTAATTTATTATCAAAATATTAAGTCTTATAATGCTGGGATATTAACAGCTTTATCAAATCGAATTGGGGATGTAATAATTTTAATACTAGTTTCTTGAATATTAAATTATGGTAGATGAAATTATATTTTTTATTTAAATTTTATAAGAAATGATTTTTCTATAAAGATTATTAGATTATTAGTAATTATTGCTGCTATAACTAAAAGAGCTCAAATTCCTTTTAGATCTTGATTGCCTGCTGCAATAGCTGCTCCTACTCCAGTTTCTGCTTTAGTTCATTCTTCAACTTTAGTTACTGCAGGGGTTTATTTATTAATTCGATTTAATAATGTTTTAGTTGAAATATTTTTTTTAAAATTTTTATTATTATTTTCTGGGTTAACTATAATAATAGCTGGAATTTGTGCTAATTATGAATTTGATTTAAAAAAAATTATTGCTTTATCAACTTTAAGTCAATTAGGTTTAATAATAAGAATTTTAAGAATAGGATTTTATGATTTAGCTTTTTTTCATTTATTAACTCATGCTATATTTAAGGCTTTATTATTTATATGTGCTGGGGTAATTATTCATATAATAAATAATAATCAAGATATCCGTATAATAGGGGGTATTAGATTTTATATTCCTTTAACTTCTTTATGTTTAAACATTTCAAATTTAGCTTTATGTGGTATTCCTTTTTTAGCTGGATTTTATTCTAAGGATATAATTTTAGAGATAGTGAGTATAAGTAATTTAAATTTATTAATTTTTTATTTATATTATTTTTCAACAGGATTAACAATATTTTATACTATTCGATTATTAATATATTTAATAATTAATGATTATAATTTATTATCTATTTATAATTTATATGATGAAGATTATGTAATATTAAAAAGTATATTTGTTTTATTATTCATAAGTTTGGTTTCTGGTAGTTTTTTAAGTTGATTAATTTTTTATTATCCTTATATAATTTATTTACCAATTTCTTTAAAAATAATAGTGATTTATGTAAGAATTGGGGGGATATTTATAGGATTATTAATTAGTAATATAAATATTTATTCATTAAATAAATTTTTAATATTTTATAATTTAAGAGGATTTTTAACTTTAATATGATTTTTACCAAATTTATCTACTTATGGTTTAAATTATTATTTTTTAAAATTTGGTCAAATTTTAGGTAAAAATATTGATATAGGGTGAAGAGAAATTTATAGAGGTCAAGGAATATATAAAATTATTAAATTTTATTCTTTAATTAATATAATTTATCAAATAAATAATTTTAAAATTTATTTATTTAGATTTATTTTATGAATAATAATTTTTATTATTTTAATTATAATTT</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_993110443_+_nad6</t>
+          <t>ATTTTAAAAATATTCTTATCTATTTTATTAATTTCTATTTCAATTTTTTTATATTTTATTAATCATCCTCTTGCAATAGGATTATTAATTCTTATTCAAACTCTTCTTACATGTTTAATTTCAGGAATATTAATTAATACATATTGATTTTCCTATATTCTTTTTTTAGTTTTTTTAGGAGGATTATTAGTATTATTTATCTATGTTTCAAGAGTAGCTTCAAATGAATTATTTAAAATTCATTTCATTAGTAAATTTTCTTTTATTTATATTTTATTTATTATAATTTTTAGAATTTTTTTTAAAAATAATTTAACTTGAATAAACTTTTCATTTAATGATGAAATAGATAATTTTTTTAATTCAATTTTATTTTTTAATAATGAATATAATTTTAATTTATCTAAATTATATAATAAACAAAATTATTGAATAATATTAATAATAATTATTTATTTATTTATTACACTAATTGCAATTGTAAAAATTACTAATATTTTTTTTGGTCCTTTACGATCATTTAATAATTAA</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_1267314032__rrnL</t>
+          <t>GGGGAAAAATTAATAAAATAAAAATAATAAAAAAATTTTTAATTTTGGGGGATGTTAAAGTATTTTTTTAAAAAAAAATAAATTGTTTTATAGTTAATTAGTATTGAAAAAGAAATTTGAAATAATTGAAAATAAATTACTAAAAAAGTAATTTTAATTTAGTGTATCTTGTGTATCAGAGTTTATTAAAAAATATTTTTTATAAAAAAAAATCTCGAATTTAAAAGAGTTAATTAATTATGAAAGTTAATGTAGAATAATTATTTTTAATAATTAATTTGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTATTTTAGAAAAAAATTTAATTTAAAATTTAAAAAATTTTATTATTAATTATAATTAATAATAAAATATTTAAAATTAAATATATTAAGGGATAAGCTTTAATATAAAAATTTATAATAAATTAAAATAAAATTTAAAAATTTTAAAATTTATATTGTTTAAAAATTATAATTTATTATAAAAAATTTTAATAATAATAAAATTTAATATTAAAATTTAAATTTATATAAAATAATAATTTTTAATAAAAAAAAAATTAATAATAATGATAAAATTAGTATATTAAAATAAAAAATATAATTTAATTAATTAAAATTAAATTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTAGAAAATAATTTAAAGTCTAATCTGCCCACTGATAAATATATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCAATAGTCTTTTAATTGGAGACTTGTATGAAAGATTTGATGAGATATAAACTGTCTCTGATTTAATAATAAAATTTAATTTTTTAGTTAAAAAGCTAAAATAAATTTAAAAGACGAGAAGACCCTATAGAGTTTTATATTAATTTTATTTAAGATTAAATATATAATTAAAAATTAAAAATGAAAATAATATTTTGTTGGGGTGATAAAAAAATTTATTTAACTTTTTTTTAAAAATTAACATAAATAAGTGAATATTTGATCCATTATTAATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTCTAGTACATATAGAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGCAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAGATAAATAAAATATTTTAGTACGAAAGGATCAAATATTTTTAATAATTAAAATTTAATGAATATTAATAATAATTTAGATTAA</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_1408614861__rrnS</t>
+          <t>GATTAGATAAATTTTTTATATTTTTTATAATTTATTATAAATTTATTTTACATGTAAATTTTAGTATAAAATTTTAATTATTTTAAAAATAATTGATTTAATTAAACAGTAATTAAAATTAAAAATTTAAGAGATTAAGATTTAGTAATATTTAAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTAAACAAAAGTTAAATTAAATTATTTCAGTATATAATAAATAATAAAAATATTAAATTAAATATTAAATTATTAAGTGAAATTTTAATTTAATTAAAAATTATTTTTAATTTATGATTTAATAAATTTTATTATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATTTAAAATACTAAAATAGTAAATAAAATATTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAGTAATTGATAATCCACGAATAATTTTACTTAATTTATAATTTTGTATATCATTGTTAAAAAAATATTTTTAAATAAAAATAATATTTTAAAATTTAAAATAAAATTTAATTCAGATCAAGATGCAGATTATAATTAAGTTTAAGATGGATTACAATAAATTTATTTAAACGAAAAGAATTTTGTAAAATTTGATTGAAGGTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTAAAAATTAAAATATGTACATATTGCCCGTCACTTTCATTTAAAAATTGGAATAAGTCGTAACAAAGTAGAAGTACTGGAAAGTGTTTCTAGAATGAA</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_59396003_+_trnA(tgc)</t>
+          <t>AGGATTATAGTTTATATAAAACATTTGATTTGCATTCAAATAATATTGATTTATCAATTTATCTTA</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_13291390__trnC(gca)</t>
+          <t>AGTCTTATATTCAAAAAATGATATAAAATTGCAAATTTTATGGTGTAAAAATATACTAAGGCTT</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_38143879_+_trnD(gtc)</t>
+          <t>AAAGAATTAGTTAATTTATAACATAAATATGTCAAATTTAAATTATTACTTTAGTAATATTCTTTT</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_62266291_+_trnE(ttc)</t>
+          <t>ATTTATATAGTTTAATTAAAACTTTACATTTTCATTGTAAAAATAAAAAATTTTTTTTTATAAATA</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_62906353__trnF(gaa)</t>
+          <t>ATTTAAATAGCTTAAAAAGAGTATAATATTGAAGATATTAGGGTGATTATATAATCTTTAAATA</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_55185584_+_trnG(tcc)</t>
+          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATTTTTTATTAATATAAATA</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_80868150__trnH(gtg)</t>
+          <t>ACTTAAATAATTTAAAAAAAATATTGATTTGTGGAGTCAAAAATATGAGGTAATCATTTTAAGTC</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_72138_+_trnI(gat)</t>
+          <t>AATAAAGTGCCTGATTAAAAGGATTATTCTGATAGGATAAATAATGTAAATTTTTACCTTTATTA</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_37403810_+_trnK(ctt)</t>
+          <t>CATTAGATGACTGAAAGCAAGTATTGGTCTCTTAAACCACTTTATAGTAAATTAGCAATTACTTCTAATGA</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_1262612693__trnL1(tag)</t>
+          <t>ACTATTTTGACAGAAAAATGTGATGATTTTAGAAGTCATAAATGTATAATTAAATTATATAAATAGTA</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_29933059_+_trnL2(taa)</t>
+          <t>TCTAATATGGCAGATTATATGTAATGGATTTAAACCCCATTTATAAAGGATTATCCTTTTTTTAGAA</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_167_+_trnM(cat)</t>
+          <t>TTAAAAATAAGCTAAAGAAAGCTTTTGGGTTCATACCTCAAATATAAAGGAAACCCCTTTTTTTTAAA</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_60706135_+_trnN(gtt)</t>
+          <t>TTAATTGAAACCAAAAAGAGGTATATCACTGTTAATGATAAAATTGAATAGAAATTCCAATTAGA</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_98569919__trnP(tgg)</t>
+          <t>CAAAGAATAGTTTATAAAAATAATAATTTTGGAGATTATAGATAAAGAAAAATCTTTTTCTTTGA</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_136204__trnQ(ttg)</t>
+          <t>TATATTTTAGTGTAGGATGCACAGTAATTTTTGAAGTTACTAGATATAGTTTAATTCTATAAAATATAA</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_60046065_+_trnR(tcg)</t>
+          <t>AAATAAGAAGCAATTTGCATTTAATTTCGACTTAAAAGATAGAGTTAATAAACTCCTTATTTA</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_61356195_+_trnS1(gct)</t>
+          <t>GAAATATATAATAATTAAGCTGCTAACTTAATTTATAGTGAATAAAATCATTAATATTTCT</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_1160511669_+_trnS2(tga)</t>
+          <t>AATTAATGAGCTTGTATAAAAGCATTTGTTTTGAAAACTTAAGAAAGAATAAATATTCTATTAATTT</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_97909855_+_trnT(tgt)</t>
+          <t>GTTTTTATAGTTTAAAAAAAACTTTGGTCTTGTAAATCAAAAATAAGAATATTCTTTAAAAACT</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_1402114085__trnV(tac)</t>
+          <t>CAAATTAGAGCTTGTTAAGTATTTCATTTACATTGAAAAGAAATTAAAATAATTAATTAATTTGA</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_12691336_+_trnW(tca)</t>
+          <t>AAGGTTTTAAGTTAAATATAAACTAATAATCTTCAAAATTATTTATAAAGAAATTTCTTTAAGCCTTA</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>&gt;N4755Limenitis_moltrechti_13941459__trnY(gta)</t>
+          <t>AATAAAATGGCTGAGTAATAAGCGATAAATTGTAAATTTATTTACGGGAAAATTCTCTTTTATTA</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>&gt;N4755_18S</t>
+          <t>TAGCTCCCTGGTTGATCCTGCCAGTAGTTATATGCTTGTCTCAAAGATTAAGCCATGCATGTCTCAGTGCAAGCCGTATTAAGGCGATACCGCGAATGGCTCAATATATCAGTTTTGGTTCCTTAGATCTTACTCAGTTACTTGGATAACTGTGGTAATTCTAGAGCTAATACATGCAATCAGAACTCCGACCAGTGATGGGACGAGTGCTTTTATTAGATCAAAACCAATCGGCGGAGGGCCTCGCGTTCGAAGTCGTTAATTTTGATGAATCTGGATAACTTTTGCCGATCGCATGGTCAAGTACCGGCGACGCATCTTTCAAATGTCTGCCTTATCAACTTTCGATGGTAGTTTCTGCGACTACCATGGTTGTCACGGGTAACGGGGAATCAGGGTTCGATTCCGGAGAGGGAGCCTGAGAAACGGCTACCACATCCAAGGAAGGCAGCAGGCGCGCAAATTACCCACTCCCGGCACGGGGAGGTAGTGACGAAAAATAACGATACGGGACTCTTTCGAGGCCTCGTAATCGGAATGAGTACACTTTAAATATTTTAACGAGGAACAATTGGAGGGCAAGTCTGGTGCCAGCAGCCGCGGTAATTCCAGCTCCAATAGCGTATACTAAAATTGTTGCGGTTAAAAAGCTCGTAGTTGCATTTGTGCGCCGCGCTGTCGGTGCACCGCATCCGCGGTGATACTGACACGTCTGCGGAGCATATCGTCGGTGAGCCGGCGGTAAAACGCCGGTTCAATATCAAAATCCTATCGCGGTGCTCTTCGGTGAGTGTCGAGGTGGGCCGACAATTTTACTTTGAACAAATTAGAGTGCTCAAAGCGGGCTCAAAATGCCGCTTGAATATTTCGTGCATGGAATAATAGAATATGATCTCGGTTCTATTTTGTTGGTTTTCAGAACTCCGAGGTAATGATTAATAGGGATAACTGGGGGCATTCGTATTGCGACGTTAGAGGTGAAATTCTTGGATCGTCGCAAGACGAACATCAGCGAAAGCATTTGCCAAAGGTGTTTTCATCAATCAAGAACGAAAGTTAGAGGTTCGAAGGCGATTAGATACCGCCCTAGTTCTAACCGTAAATATGTCATCTAGCGATCCGCCGACGTTACTACAATGGCTCGGCGGGCAGCTTCCGGGAAACCAAAGATTTTGGACTCCGGGGGGAGTATGGTTGCAAAGCTGAAACTTAAAGGAATTGACGGAAGGGCACCACCAGGAGTGGAGCCTGCGGCTTAATTTGACTCAACACGGGAAATCTCACCAGGCCCGGACACCGGAAGGATTGACAGATTAACAGCTCTTTCTTGATTCGGTGGGTGGTGGTGCATGGCCGTTCTTAGTTGGTGGAGCGATTTGTCTGGTTAATTCCGGTAACGAACGAGACTCTAGCCTGCTAAATAGGCGTCGTCATTTAGGTGTGCGCGATTTCGGTCGCGCAACTCACTGGCGACGTATTAAAATTCTTCTTAGAGGGACCGGCGTCTTCGAAGCGCACGAGATTGAGCAATAACAGGTCTGTGATGCCCTTAGATGTCCTGGGCCGCACGCGCGCTACACTGAAGGAATCAGCATGTTCTCCCTGGCCTAGAGGCCCGGGCAACCCGTTGAAACTCCTTCGTGCTGGGGATTGGGGTTTGCAATTATCCCCCATAAACGAGGAATTCCTAGTAAGCGCGAGTCATAAGCTCGCGTTGATTACGTCCCTGCCCTTTGTACACACCGCCCGTCGCTACTACCGATTGAATGATTTAGTGAGGTCTTCGGACCGACACGCGGTGGCTTCGCGGCCGTCGGCGTTGCTGGGAAGTTGACCAAACTTGATCATTTAGAGGAAGTAAAAGTCGTAACAAGGTTTCCGTAGGGGAACCTGCGGAAGGATCATTA</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>&gt;N4755_5.8S</t>
+          <t>AAACCACTACCCTGGACGGTGGATCACTAGGCTCGCGGGTCGATGAAGAACGCAGTTAACTGCGCGTCATAGTGTGAACTGCAGGACACATTTGAACATCGACATTTCGAACGCACATTGCGGTCCGTGGAGAAACATCCAGGACCACTCCTGTCCGAGGGCCGGCT</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>&gt;N4755_28S</t>
+          <t>GCATATTAGTAAGCGGAGGAAAAGAAACTAACCAGGATTTCCTTAGTAGCGGCGAGCGAACAGGAAATAGCCCAGCACTGAATCCCGCGGTTGTAACGATCGCGGGAGATGTGGTGTTCGGGAGGTTCCGCTTTCTCGTCGTCGCCGCTCCTGTCCAAGTTCGTCTTGAACGGGGCCGTTTTCCCGCAGAGGGTGCCAGGCCCGTAGCGACGGAGCGAGACGGCGAGAGGGACTCTCCTCAGAGTCGGGTTGCTTGAGAGTGCAGCCCTAAGTGGGTGGTAAACTCCATCTAAGGCTAAATATTACCGCGAGACCGATAGCGAACAAGTACCGTGAGGGAAAGTTGAAAAGAACTTTGAAGAGAGAGTTCAAGAGTACGTGAAACCGTTCAGGGGTAAACCTGCGAAACTCGAATGAACGAACGGAGAGATTCATCGTCATTCGGCGGCGTACGGACGCGCGCCTCGATGCGACGCACCGTCATTCACGTGGCGTTCTAGCGTTGCACGGGTCGCGTCCGTCGACGTCCGCCGACGGCGTGCACTTCTCTCTCAGTAATACATCGCGACCCGTTCGCGGTCGGCCTAAGCGCCGTCCGGGAGCCCCGCGGTCTCGTCCTAACCGGCGAGGCCGCGGGACCGTGACGGTACGCCGGCCGGCCAGACGGACGGTATATTCTAAAGATTCGCGCACGCGCCTCGCGCGCGTCCGGCCCGACGCAAGCTCTTACGTCGTCTTCGCCGACGTCCTGCCCAAGCGCGGACGTTGGGGCGGCGTGGCTGTCGTCGCGGCCGTGCAGTCTCGGACCGTGCGCGTTTCAGTCTGCGATGATTCATTTTCGGGCACTCGCAGGACCCGTCTTGAAACACGGACCAAGGAGTCTAGCATGTGTGCGAGTCATTGAGTTTATATTCGAAGATAATGCACAAAACTGAAAGGCGCAACGAAAGTGAAGGCGCGCGCTCGTCGCGCGCTCAGGGAGGATGGAGCGTCGGTCTAGCGATCGTACTCCCGCACTCCCGAGGCGTCTCGTTTCCAATCCGTGAATGCAGGCGCGCTCTGAGCACAGATGCTGGGACCCGAAAGATGGTGAACTATGCCTGGTCAGGTCGAAGTCAGGGGAAACCCTGATGGAGGACCGTAGCGATTCTGACGTGCAAATCGATCGTCGGAACTGGGTATAGGGGCGAAAGACTAATCGAACCATCTAGTAGCTGGTTCCGTCCGAAGTTTCCCTCAGGATAGCTGGCGTCGATTATTAACAGTCCCATCCGGTAAAGCGAATGATTAGAGGCATTGGGGCCGAAACGACCTCAACCTATTCTCAAACTTTAAATGGGTGAGAACTCCGGCTTACTCGAACGATGAAGCCGGAGATCTGATGACGGTGCCAAGTGGGCCAATTTTGGTAAGCAGAACTGGCGCTGTGGGATGAACCAAACGTAGTGTTAAGGCGCCTAAAAAACGCTCATGGGACACCATGAAAGGCGTTGGTCGCTCATGACAGCAGGACGGTGGCCATGGAAGTCGGAATCCGCTAAGGAGTGTGCAACGACTCACCTGCCGAAGCAACCAGCCCTGAAAATGGATGGCGCTGAAGCGTTTTGCCTATACACTACCGTTACGGGCAATAGCGGCGTGTGCGTTCGCGCACTCGTCCGCGTCATTATGCCGTAACGAGTAGGACGTGCGCGGCGGAGAGCGCAGAAGGGTCTGGGCGTGAGCCCGCCTGGAGCCTCCGTCGGTGCAGATCTTGGTGGTAGTAGCAAATACTCCAGCGAGGCCCTGGAGGACTGACGTGGAGAAGGGTTTCGCGTGAACAGTAGTTGCTCGCGAGTCAGTCGATCCTAAGCTCAAGGAGAGATCTTATGTCGATGTGGCGTGTTTCTTTATTGACAACAACGCCCTTTGAGCGAAAGGGAATCCGGTTCCTATTCCGGAACCCGGCAGCGGAACCGTTTCAATAATCGTTCCCTCGTTTCAAAGCGAGTGTTCGACGGGGTAACCCAAAGTGGCCTGAAGACGCCGCCGAGGGGTCCGGGAAGAGTTTTCTTTTCTGCCTGAGCGTTCGAGTTCCATGGAATCCTATAGAAGGGAGATATGGTTCGGAACGCGAAGAGCACCGCATTTGCGGCGGTGTCCGGATACTCTCTGCGGACCTTGAAAATTCAGGTGAGGGATGTACGTGGAGATGTCGCGCCGGTTCGTACCCATATCCGCAGCAGGTCTCCAAGGTGAAGAGCCTCTAGTCGATAGAATAATGTAGGTAAGGGAAGTCGGCAAATTGGATCCGTAACTTCGGAATAAGGATTGGCTCTGAGGACCGGGGCGTGTCGGGTTTGGACGGGAAGCGGATGCGGCCGGTGCCGGGCCTGGTCGATGCTCGTGCGCGCGCGCAGTGCATTTCGGGCGTGTCCCTGTAAAAGGGGGTGCGTTTCGGGGTGTCGCTCGTACGCGTTTCGGGCGGAATCCGGACCCGCGTTCCGGCCTTCCGCGGATCTTCCTAGCCGTAAGGCCGCGTCGGTTTCGTCTAGTGCGCGATCGGCGCGGTTCTGTACGACCGCCGTTCAACGGTCAGCTCAGAACTGGCACGGACAAGGGGAATCCGACTGTCTAATTAAAACAAAGCATTGCGATGGCCCTCGCGGGTGTTGACGCAATGTGATTTCTGCCCAGTGCTCTGAATGTCAACGTGAAGAAATTCAAGCAAGCGCGGGTAAACGGCGGGAGTAACTATGACTCTCTTAAGGTAGCCAAATGCCTCGTCATCTAATTAGTGACGCGCATGAATGGATTAACGAGATTCCCGCTGTCCCTATCTACTATCTAGCGAAACCACAGCCAAGGGAACGGGCTTGGGAGAATCAGCGGGGAAAGAAGACCCTGTTGAGCTTGACTCTAGTCTGGCATTGTAAGGAGACATGAGAGGTGTAGCATAAGTGGGAGATCGTTCGCGGTCGTCGCTGAAAAACCACTACTTTCATTGTTTCATTACTTACTCGGTTGGGCGGAAGCGGTGCGCGGTCGATTATTTCGGCGGGCGTACGGTGTTTCGTTCCAAGCGTGCAGAGTGGAGGCGTGGCGGCAACGCTCGTCTCCATACAACTCCCGCGTGATCCGGTTCGAGGACACTGCCAGGCGGGGAGTTTGACTGGGGCGGTACATCTGTCAAAGAATAACGCAGGTGTCCTAAGGCCAGCTCAGCGAGGACAGAAACCTCGCGTGGAGCAAAAGGGCAAAAGCTGGCTTGATCCAGATGTTCAGTACGCATAGGGACTGCGAAAGCACGGCCTATCGATCCTTTAGTATAAAGAGTTTTTAGCAAGAGGTGCCAGAAAAGTTACCACAGGGATAACTGGCTTGTGGCGGCCAAGCGTTCATAGCGACGTCGCTTTTTGATCCTTCGATGTCGGCTCTTCCTATCATTGCGAAGCAAAATTCGCCAAGCGTTGGATTGTTCACCCATCAAAAGGGAACGTGAGCTGGGTTTAGACCGTCGTGAGACAGGTTAGTTTTACCCTACTGATGGCTCGTCGTTGCGATAGTAATACTGCTCAGTACGAGAGGAACCGCAGTTTCGGACATTTGGTTCATGCACTCGGCCGAGCGGCCGGTGGTGCGAAGCTACCATCCGCGGGATTATGCCTGAACGCCTCTAAGGCCGAAGCCAGCCTAGCCGAATCCGGCAAGGATATTCTCACTGTGGAGCCCCGAGAGTCGGGAGGCCACTATACAATGTGACTTTAATAGTCGCGCTTCACGCGCGACGTCGAGGCCCATTTGGAACGCGGCGATCGATGCGAGCGGTCTTAACACGTGCATCACGGCGCCGAAGTTTCTAAATTACCTCAGTTCGATGTCGGGGCTCGGAATAGTCTGTAGACGACTTACGTTCCTGGCGGGGTGTTGTGCTCGGTAGAGCAGCGTCGTGCTGCGATCTGTTGAGACTCAGCCCTGCGCCAGGTGATTCGT</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>&gt;N3626Athyma_punctata</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATGATAAATAATTTATTTTCAATTTTTGACCCTTCTACTAATATTTTTAATTTATCAATTAATTGAATAAGAACTTTTATTGGTTTATTATTTATCCCATATTCTTTTTGATTAATTCCAAATCGTCATTTTATTTTTTGAAATTTTTTCTCTTCTAAATTACATGAAGAATTTAAAACTCTTTTAGGAAAAAATAGATATAATGGATCAACTTTTATTTTTATCTCATTATTTTTTTTCATTTTATTTAATAATTTTTTAGGATTATTCCCTTATATTTTCACTAGAACTAGTCATTTAAATATATCTTTATCATTAGCATTAACTTTATGATTAAGATTTATAATTTATGGATGAATTAATAATACTCAACATATATTTATCCATATAATTCCTCAAGGAACTCCAACTATTTTAATACCTTTTATAGTATTAATTGAAACAATTAGAAATATTATTCGTCCTGGAACTTTAGCTGTCCGACTTACAGCTAATATAATTGCTGGTCATTTATTATTAACTTTATTAAGTAATACAAGAACAAATATAAATAACTATTTATTAATTATTTTAATTATTATTCAAATTATATTATTATTTTTAGAATCTGCTGTCGCAATTATTCAATCATATGTTATTACTATTTTAAGAACTCTTTATTCTAGTGAAGTAAATTAA</t>
+          <t>ATGATAAATAATTTATTTTCAATTTTTGATCCCTCAACTAATATTTTTAATTTATCAATTAATTGAATTAGAACCTTTATTGGATTAATATTTATTCCTTATTCTTTTTGATTAATCCCTAATCGTCATTTTATTTTATGAAATTTTATTTCTTCCAAATTACACGAAGAATTTAAAACTCTTTTGGGGCATAATAGTTATAATGGATCAACTTTTATTTTTATTTCATTATTTTTTTTTATTTTATTTAATAATTTTTTAGGGCTATTTCCTTATATTTTTACAAGTACTAGCCATTTAAATATTTCTCTATCATTATCCTTAACCCTATGATTAAGATTCATAATTTATGGATGAATTAATAATACACAACATATATTTATTCATATAATTCCTCAGGGAACCCCAACTATTTTAATACCTTTTATAGTATTAATTGAAACAATTAGAAATATTATTCGCCCAGGAACTTTAGCTGTTCGATTAACAGCTAATATAATTGCTGGACATTTACTATTAACTTTATTAAGAAATACTGGTACAAATATACCTATATATTTATTAATTATTTTAATTATTATCCAAATTCTTTTATTAATTTTAGAATCTGCTGTAGCAATTATTCAATCTTATGTTATTACTATTTTAAGAACTCTTTATTCTAGCGAAACTAATTAA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ATTCCACAAATAATACCTATTAATTGAATTCTTTCATTAATCTTTTTTATTACAATTTTTATTATTTTTAATATTATAAATTATTTTATTTTTAATAATAAAAATATTAATTATATTAATAAAAATAAAAAATTATTAAAAAATAATCTTTACTGAAAATGATAA</t>
+          <t>ATTCCCCAAATAATACCTATTAATTGAATTTTTTCCTTAATTTTTTTTATCATAATTTTTATTATTTTTAATATTATAAATTATTTTATTTTTAACTATAAAAATATTAATTATAATAATAATAATATTAATAAAAAAATTTTTAAAAATAATCTTTACTGAAAATGATAA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ATGATAAACTTATATAAACCTATTCGTAAAACTCATCCAGTATTTAAAATTATTAATAAATCACTAATTGATTTACCTACTCCATCTAATATTTCATCATGGTGAAATTTTGGTTCACTATTAGCTTTATGTTTAATAATTCAAATTTTAACAGGATTATTTTTAACTATATATTATACAGCTAATATTGATTTAGCTTTCTTTAGAGTTAATTATATTTGTCGAAATGTTAATTATGGTTGATTAATTCGAACCTTACATACTAATGGTGCATCCTTTTTTTTTATTTGTATTTATTTTCATATTGGCCGAGGAATTTATTATGAATCTTTCAATTTAAAATTTACTTGAATAATTGGTGTTATTATTTTATTTTTATTAATAGCTACAGCTTTTATAGGTTATGTATTACCTTGAGGACAAATATCTTTTTGAGGAGCTACAGTAATTACTAATCTTTTATCTGCAATTCCTTATTTAGGAAATATATTAGTTAATTGAATTTGAGGAGGATTTGCAGTTGATAATGCAACTCTAACTCGATTTTATACTTTTCATTTTTTATTTCCTTTTATTATTCTTATATTAACTATAATTCATTTATTGTTCCTGCACCAAACAGGATCTAATAATCCACTGGGAATTAATAGAAATTTAGATAAAATTCCTTTTCATCCATTTTTTACATTCAAAGATTTAATTGGATTTATTATTTTAATTTCAATTTTAACTTTTCTTTCTCTTGTTAATCCTTATTTACTAAGAGACCCTGATAATTTTATCCCAGCTAATCCATTAGTTACCCCAATTCATATTCAACCAGAATGATATTTTTTATTTGCTTATGCTATTCTTCGATCAATTCCTAGTAAATTAGGAGGAGTAATTGCTTTAGTCATATCTATTTTAATTTTAATTATTTTACCCTTTACATTTAATAAAAAAATTCAAGGTATTCAATTTTATCCATTAAATCAAATTTTATTTTGATTCCTAATTGTAACAATTATTTTATTAACTTGAATTGGAGCTCAACCAGTAGAAGATCCTTATATTATTACAAGTCAATTTTTAACATTAATTTATTTTTCTTATTTTATTATTAACCCAATTTTAAATAAATTTTGAGATAAATTAATTTTTAATTCATAA</t>
+          <t>ATGATAAATTTATATAAACCTATTCGTAAGATTCACCCAATAATTAAAATTATTAATAGATCTTTAATTGATCTTCCAACACCTTCTAATATTTCATCTTGATGAAATTTTGGATCTTTATTAGCTTTATGTTTAATAATTCAAATTTTAACTGGATTATTTTTAACTATATATTACACAGCTAATATTGATTTAGCCTTTTTTAGTGTAAATTATATTTGCCGAAATGTTAATTATGGCTGATTAATTCGAACTCTTCACGCTAATGGAGCATCTTTCTTTTTTATTTGTATTTACTTTCATATTGGGCGAGGAATTTATTATGAATCTTTTAATTTTAAACTTACTTGAATAATTGGAGTAATTATTTTATTTTTATTAATAGCTACAGCCTTCATAGGCTATGTTCTCCCATGAGGACAAATATCTTTCTGGGGGGCTACAGTAATTACTAACCTTTTATCAGCAATCCCTTACTTAGGAACTATACTTGTAAATTGAATTTGAGGAGGATTTGCAATTGATAATGCAACATTAACTCGATTTTACACTTTTCATTTTTTATTCCCATTTATTATTCTTATATTAACTATAATTCATTTATTATTTTTACATCAAACAGGATCTAACAATCCATTAGGTATTAATAGTAATTTAGATAAAATTCCTTTCCACCCATTTTTTACATTTAAAGATTTAATTGGTTTTATTATTTTAATTTCAATTTTAACTTTTTTATCTCTTATTAATCCTTATTTATTAGGAGACCCAGATAATTTTATCCCCGCTAATCCATTGGTTACCCCCATTCATATTCAACCAGAATGATATTTTTTATTTGCTTACGCTATTCTCCGCTCCATCCCTAACAAATTAGGGGGTGTAATTGCTTTAGTAATATCTATTTTAATTTTAATTATTTTACCTTTCACTTTTAATAAAAAAATTCAAGGTATTCAATTTTATCCCCTAAATCAAATTTTATTTTGATTATTAATTATTACAATTATCCTATTAACTTGAATTGGAGCACGATCCGTTGAAATCCCTTACATTATTACTGGACAAATCTTAACATTAATTTACTTTTCTTATTTTATTATTAACCCAATTTTAAATAAATTCTGGGATAAATTAATTTTTAACTTATAA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TTGCGAAAATGACTTTTTTCAACAAATCATAAAGATATTGGAACTTTATATTTTATTTTTGGAATTTGAGCAGGAATAGTGGGAACTTCTTTAAGTTTATTAATTCGAACTGAATTAGGAAATCCTGGGTCATTAATTGGTGATGATCAAATTTATAATACTATCGTAACTGCACATGCTTTTATTATAATTTTTTTTATAGTAATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTGCCTCTTATATTAGGAGCACCTGATATAGCTTTCCCTCGAATAAATAATATAAGATTTTGACTTCTACCCCCATCATTAATTTTATTAATTTCAAGAAGAATTGTCGAAAATGGAGCAGGAACAGGATGAACAGTTTACCCCCCCCTATCTTCTAATATTGCCCATAGAGGATCTTCTGTTGATTTAGCTATTTTTTCCTTACATTTAGCTGGTATTTCATCAATTTTAGGAGCAATTAATTTTATTACAACTATTATTAATATACGAGTTAATAATATATCTTTTGATCAAATACCCTTATTTGTTTGATCTGTTGGTATTACAGCTCTTCTCTTATTATTATCTTTACCAGTTTTAGCTGGAGCTATTACTATACTTTTAACCGATCGTAATTTAAACACTTCATTTTTTGATCCTGCTGGAGGTGGTGATCCTATTCTTTACCAACATTTATTTTGATTTTTTGGTCACCCAGAAGTTTATATTTTAATTTTACCTGGATTTGGTATAATTTCTCATATAATTTCTCAAGAAAGAGGTAAAAAAGAAACTTTTGGTTATTTAGGAATAATTTATGCTATAATAGCAATTGGTCTTCTTGGATTTATTGTTTGAGCTCATCATATATTTACAGTAGGTATAGATATTGATACACGAGCTTATTTCACATCAGCTACTATAATTATTGCAGTTCCAACAGGAATTAAAATTTTTAGCTGATTAGCTACTCTTCACGGAACTCAAATTAATTATAGTCCATCAATATTATGAAGATTAGGGTTTATTTTTTTATTTACAGTAGGAGGTTTAACAGGAGTTGTTTTAGCCAATTCTTCAATTGATATTACCCTTCATGACACTTATTATGTTGTTGCTCACTTTCATTACGTTTTATCTATAGGAGCTGTATTTGCTATTTTTGGAGGATTTATCCATTGATACCCATTATTTACAGGATTAATTATAAATCCTTATTTATTAAAAATTCAATTTATATCAATATTTATTGGAGTTAATTTAACCTTTTTCCCCCAACATTTTTTAGGTTTAGCTGGGATACCTCGTCGTTATTCAGATTACCCTGATAGTTTTATTTCATGAAATATTATTTCTTCTTTCGGTTCTTATATTTCTCTTTTTTCAATAATCATAATAATTCTTATTGTATGAGAATCTATAATTAATCAACGTTTAATCATTTTCCCTTTAAATATAACTTCATCTATTGAATGATATCAAAATTTACCGCCAGCTGAACATTCTTATAATGAATTACCTATTTTAAGTATCT</t>
+          <t>TTGCGAAAATGACTTTTTTCAACAAATCATAAAGATATTGGTACTTTATATTTTATTTTTGGAATTTGAGCAGGAATAGTTGGTACATCCCTTAGTTTATTAATTCGTACTGAATTAGGTAATCCAGGTTCATTAATTGGAGATGATCAAATCTATAATACTATTGTAACTGCTCATGCTTTTATTATAATTTTTTTTATAGTTATACCTATTATAATTGGAGGGTTTGGAAATTGATTAGTCCCTTTAATATTAGGAGCTCCAGATATAGCTTTCCCCCGAATAAATAACATAAGATTTTGGCTTCTTCCCCCATCTTTAATTCTCCTTATTTCTAGTAGAATTATCGAAAATGGAGCTGGAACAGGATGAACAGTTTACCCCCCACTTTCATCTAATATTGCTCATGGAGGATCTTCTGTTGACTTAGCTATTTTTTCTCTTCATTTAGCAGGTATTTCATCAATTTTAGGAGCAATTAATTTTATTACAACTATTATTAATATACGAATTAATAGTATATCATTTGATCAAATACCATTATTTGTCTGATCAGTGGGTATTACCGCTCTTTTATTATTATTATCTTTACCTGTATTAGCAGGAGCTATTACTATACTTTTAACTGACCGTAACTTAAATACATCATTTTTTGACCCTGCTGGAGGAGGAGACCCAATTCTTTACCAACATTTATTTTGATTTTTTGGTCATCCAGAAGTTTATATTTTAATTTTACCTGGATTCGGGATAATTTCTCATATAATTTCTCAAGAAAGAGGTAAAAAGGAAACTTTTGGGCATTTAGGAATAATTTATGCTATAATAGCAATTGGTCTTTTAGGATTTATTGTATGAGCTCATCATATATTTACTGTTGGAATAGATATTGATACACGTGCCTATTTTACTTCAGCTACTATAATTATTGCTGTACCAACAGGAATTAAAATTTTTAGCTGACTTGCTACTCTTCACGGAACACAAATTAATTATAGTCCTTCTATACTTTGAAGATTAGGATTTATTTTTTTATTTACAGTAGGGGGGTTAACAGGAGTTGTATTAGCTAATTCTTCAATTGATATTACTCTCCACGATACTTATTATGTTGTCGCACATTTTCATTATGTATTATCTATAGGAGCTGTATTTGCTATTTTTGGAGGATTTATTCATTGATACTCTTTATTCACAGGATTATCTATAAACCCATACTTATTAAAAATTCAATTTTTATCTATATTTATTGGGGTTAATTTAACTTTTTTCCCTCAACATTTTTTAGGTTTAGCTGGAATGCCTCGTCGTTATTCAGATTATCCTGATAGCTTTATTTCATGAAATATTATTTCATCTTTTGGTTCTTATATTTCTTTATTCTCAATAATTATAATAATACTTATTATTTGAGAATCAATAATTAATCAACGATTAATTCTTTTTTCATTAAATATATCTTCATCTATTGAATGATACCAAAATTTACCTCCCGCTGAACATTCATATAGTGAATTACCTATTTTAAGAAATT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ATGGCAACATGATCTAATTTTAATTATCAAAATAGAGCTTCCCCATTAATAGAACAAATTATTTTCTTTCATGATCATACTTTAATCATTTTAATTATAATTACAATTTTAGTTTCATATTTAATAATTAATTTATTTTTTAATAAATATATTAATCGATTTCTTTTAGAAGAACAAATAATTGAATTAATTTGAACTATCCTACCTGCAATTACTCTTATTTTTATTGCTTTACCTTCTTTACGACTTTTATATTTATTAGATGAACTTAATAACCCATTAATTACTTTAAAATCAATCGGACATCAATGATATTGAAGTTATGAATATTCAGATTTTAATAATATTGAATTTAACTCATATTTAATTCAATCAACTGATAGCTTATCTAATTTTCGTTTATTAGATGTTGATAACCGAATTATTTTACCTATAAATAATCAAATTCGTATCTTAATTACAGCTACTGATGTTATCCATTCATGAACTATCCCATCATTAGGAGTAAAAGTTGATGCTAACCCAGGTCGATTAAACCAAACAAGATTTTTCATTAATCGACCAGGATTATTTTATGGTCAATGTTCTGAAATTTGTGGTGCAAATCATAGTTTCATACCTATTGTAATTGAAAGAATTTCAATTAATAGCTTTATTAATTGAATTAATAATTATTCAT</t>
+          <t>ATGGCAACATGATCTAATCTTAATTACCAAAATAGAGCTTCTCCTTTAATAGAACAAATTATTTTTTTCCATGATCATACCTTAATTATTTTAATTATAATTACAATTTTGGTATCTTATTTAATAGTTAGTTTATTTTTTAATAAATATATTAATCGATTTCTTTTAGAAGAACAAATAATTGAATTAATTTGAACTATTTTACCGGCAATTACTCTTATTTTTATTGCTTTACCTTCTTTACGACTTTTATATCTTTTAGACGAACTTAATAATCCTTTAATTACTTTAAAATCTATCGGACATCAATGATACTGAAGTTATGAATATTCAGATTTTAATAATATTGAATTTAATTCATATATAATTCAAATAACTGATAATTTAGCAAATTTTCGCCTGCTAGATGTAGATAACCGTATTATTTTACCTATAAATAATCAAATTCGTATTTTAATTACAGCAACTGATGTTATTCATTCATGAACTATTCCCTCTTTAAGAGTAAAAGTTGATGCTAATCCAGGACGCCTAAATCAAACAAGATTTTTTATTAATCGACCTGGCATTTTTTATGGACAATGTTCTGAAATTTGTGGAGCTAATCATAGTTTTATACCTATTGTAATTGAAAGAATTTCAATTAAAAATTTTATTAATTGAATTAATAATTATTCAT</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ATGACAACTAATTATAATCACCCTTATCATTTAGTAGATTATAGCCCTTGACCTTTAACTGGAGCTATTGGAGTAATAACTTTAGTAACAGGATTAGTAAAATGATTTCATAATTTTAACTCAAATTTACTTATTTTAGGGTACATTATTATTTTATTAACTATGTATCAATGATGACGAGATATTTGCCGAGAAGGAACATTCCAAGGTAAACATACAATTTTAGTTACAAAAGGTTTACGTTGAGGAATAATTTTATTTATTGTTTCAGAAATTTTTTTTTTTTTTTCATTTTTTTGAGCATTTTTCCATAGAAGTCTTTCTCCTAATATTGAAATTGGATTTATATGACCTCCTATAAGAATTATACCTTTTAATCCATTCCAAATTCCATTACTTAATACTATTATTTTAATTACTTCAGGTATTACAGTTACATGAACTCATCATGCTTTAATAGAAAATAATTTTACTCAAACTTCACAAAGTTTATTTATTACCATTTTATTAGGTATTTATTTTACAATTCTTCAAGCTTATGAATATATTGAAGCCCCCTTCTCAATTTCTGATAGAATTTATGGGTCAACATTTTTTATAGCAACAGGATTCCATGGCCTTCATGTAATTATTGGAACTATTTTTCTATCAACATGCTTTATCCGACATTTAAATAATCATTTTTCTAATAATCATCATTTTGGATTTGAAGCAGCTGCATGATATTGACATTTTGTTGATGTAGTATGACTTTTCCTTTATATCTCTATTTATTGATGGGGTAATTAA</t>
+          <t>ATGACTCTCAATCATAATCATCCTTATCATTTAGTAGATTATAGCCCTTGACCTTTAACTGGAGCTATCGGGGTAATAACTTTAGTAACTGGACTAGTAAAATGATTTCATAATTTTAACTTAAATTTATTTATTTTAGGGTATATTATTATTTTATTAACAATATACCAATGATGACGAGATATTTGCCGAGAAGGTACATACCAAGGTAAACATACAATTTTAGTAACTAAAGGACTTCGATGAGGAATAATCTTATTTATTATTTCAGAAATTTTTTTTTTTATTTCATTTTTTTGAGCATTTTTTCATAGTAGTTTATCCCCTAATATTGAAATTGGGTCTATATGACCCCCTATAAGAATTGTTCCATTTAACCCATTCCAAATTCCTTTACTTAATACCATTATTCTAATTACATCAGGAATTACCGTAACTTGGGCTCATCATGCTTTAATAGAAAATAATTTTACCCAAACTTCTCAAAGTTTATTAATTACTATTTTATTAGGTATTTATTTTACTATTCTTCAAGCTTACGAATATATTGAAGCCCCTTTCACAATTTCAGATAGAATTTATGGATCAACATTTTTCATAGCTACTGGATTCCACGGACTTCATGTTATTATTGGAACTATCTTTTTATTAACTTGCTTTATTCGACATATTAATAATCATTTTTCTAACACTCATCACTTTGGATTTGAAGCAGCTGCATGATACTGACATTTTGTTGATGTAGTATGACTATTCCTTTATATCTCTATTTATTGATGGGGAAATTAA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ATGATAATACAAGATTTATATAATATAATTATAGGGGGTTTAATTTTATTGATCGGAGTTTTAATTGGTGTTGCTTTTTTAACATTATTGGAGCGTAAGGTTTTAGGTTATATTCAAATTCGTAAAGGTCCTAATAAAATAGGTATATTAGGAATTTTACAGCCATTTTGTGATGCTATTAAATTATTTTCTAAGGAGCAAGTTTATTTAAATTATTCAAATTATTTTTCTTTTTATTTTTCTCCAATTGTGAGATTTATATTATCTTTAATAATTTGAATATTAATTCCTTATTGTTTTAATATAATTATTTTTAATTTAGGGGTATTATTTTTTTTATGTTGTACAAGAATTGGGGTTTATACTTTATTAATTGCTGGATGATCTTCAAATAGAAATTATTCTTTATTAGGGGGTTTACGTGCAGTAGCTCAAACAATTTCTTATGAAGTAAGATTATCTTTAATTTTAATATCAAGTATTATTTTAATTATAGATTTTAATATAGTTAAATTTATAGAATATCAATATTTAATTTGATTAATAATGATGATATTACCTTTAAGAATATGTTTTTTATCTTCATTGATAGCAGAAACTAATCGTACTCCTTTTGATTTTGCTGAGGGGGAAAGAGAGTTAGTTTCAGGGTTTAATATTGAATATAGAAGAGGAGGATTTGCTTTAATTTTTTTAGCTGAGTATTCTAGTATTTTATTTATAAGATTATTATTTGTTATTATCTATATAGGGGGTTATAAATTAAATTTAATATTTTATTTAAAATTAGTATTTTTATCTTTTTTTTTTATTTGAGTTCGAGGTACATTACCTCGTTATCGTTATGATAAATTAATATATTTATGTTGAAAAAGATATTTACCTTTATCTTTAAATTATTTATTATTTTTTATAGGGTTAAAAATAATTTTAATATATAAAATATATTTAGTATAA</t>
+          <t>ATGATAATGCAGGATTTATATAATGTTTTTATTGGTATTTTAATTTTATTAATTGGAGTTTTAATTGGAGTTGCCTTTTTAACATTATTAGAGCGGAAGGTTTTAGGTTATATTCAAATTCGTAAAGGTCCCAATAAAATAGGAATGATGGGAGTATTGCAGCCATTTTGTGATGCTATTAAATTATTTTCTAAGGAACAAGTTTATTTAAATTATTCAAATTATTTTTCTTTTTATTTTTCACCTATTATAAGATTTATATTGTCTTTAATAATTTGAATATTAATTCCTTATTTAGTTAATATAGTGATATTTAATTTAGGGTTATTATTTTTTTTATGTTGTACAAGAATTGGGGTGTATACTTTATTAATTGCTGGATGATCTTCTAATAGAAATTATTCTTTATTAGGGGGTTTACGGGGGGTAGCTCAAACAATTTCTTATGAAGTAAGATTATCTTTAATTTTAATATCTAGAATTATTTTAATTATAGATTTTAATATAGTTAAGTTTAGAGAATACCAATATCTAGTTTGATTAATATTAATAATGATTCCTTTAAGAATATGTTTTTTATCTTCATTAATAGCTGAAACTAATCGTACTCCTTTTGATTTCGCTGAAGGAGAAAGAGAGTTAGTTTCAGGGTTTAATGTTGAATACAGAAGAGGGGGGTTTGCTTTAATTTTTTTGGCTGAATATTCTAGTATTTTATTTATGAGATTATTATTTGTAATTATTTATATAGGGGGGTATGATTTAAATTTAATATTTTATTTAAAGTTAGTATTTTTATCTTTTTTTTTTATTTGAGTTCGAGGGACATTACCTCGGTATCGTTATGATAAATTAATATACTTATGTTGAAAAAGATATTTGCCTTTATCTTTAAATTATTTATTATTTTTTATAGGCATAAAAATAATTTTAATATATAAAATAAATTTAGTATAA</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ATTCTTTTAATACTTAATTCTAATAAAATATTTTTTTTATTTATTTTATTTTTTAGAACATTAATTTCTATTTCTTCTAATTCATGATTAGGATGTTGAATTGGATTAGAAATTAATTTATTAAGATTTATCCCCCTTATTTCTACCCCCCATAATCTTTTAAATTCAGAAGCTTCATTAAAATATTTTCTTACTCAATCAATTGCTTCAATTAATTTCTTATTTTCAATTTTATTAAGATTATTTTTAATAAAAAATTTTTTTTTTAATAATATTTTTTCCCTCATTATTAATTCTTCTTTGTTAATAAAAATAGGTTCAATTCCATTTCATTTTTGATTTCCTAATGTAATAGAAGGTCTTTCTTGATTTAACTGCTTTATTTTAATAACGTGACAAAAAATTACCCCTATAATTCTATTATCTTATTATTTTAATTTAAATTTTTTATATTTTATTATAATTTTTAACGTTTTAATCGGAGCTATTGGTAGATTTAACCAGACTTCTTTACGTAAATTAATAGCTTTTTCTTCAATTAATAATTTAGGTTGAATAATTTCTTCTATTATCATTAGTGAAAACCTTTGAATAATTTATTTTATTTTTTATTCAATTTTTACATTTATTATATGTTTTTTATTTTATATTATTAATATTTTTTTCATTAATCAATTATTTTTTTTTAATATAAATTTTTTAATTAAAATTTCAATTATAATTAATTTTCTTTCTTTAGGTGGATTACCACCTTTTTTAGGATTTTTCCCTAAATGAATTGTTATTAATTATCTATTAAATAATAATTTTTTTATTATTTCTTTTATTTTTATTATATCAAGTTTAATTTTAATATTTGTTTATATTCGAATTATTTATTCTTCTTTATTATTTTTTTCTTTTAAATTAAAATGATTTAAAATTTATATTAAAAATAATTTTTTAATTTTAATTTATTTTTTTAATTTTATTTCTATACTAGGTATAATTATTAGAACTTTTTTTTTTTAA</t>
+          <t>ATTATTTTAATAACTAATTCTAATAAAATATTTTTTTTATTTATTTTATTTTTTAGAACAATAATTTCTATTTCATCCAATTCATGATTAGGATGTTGAATTGGATTAGAAATTAATTTATTAAGATTTATCCCCCTTATTTCAACCCCCAATAATCTTTTAAATTCAGAAGCTTCCCTTAAATATTTTCTTACTCAATCAATTGCCTCAATTAATTTTTTATTTTCAATTTTATTAAGATTATTCTTAATAAAAAATTTTTTTTTTTATAATTTTTTTTCTATTATTATTAATTCTTCTTTACTTATAAAGATAGGGTCAATTCCATTTCATTTTTGATTTCCTAATATTATAGAAGGTCTTTCATGGTTTAATTGTTTTATTTTAATAACTTGACAAAAAATTACACCAATAATTCTTTTATCTTATTATTTTAATTTAAATTTTCTATATTTTATTATAATTTTTAATGTTTTAATTGGGGCTATTGGAAGATTTAACCAAACTTCTTTACGAAAATTAATAGCTTTTTCTTCAATTAATAATTTAGGTTGAATAATTTCATCTATAACTATTAGTGAAAATTTATGATTAATTTATTTTATTTTATATTCAACTTTTACACTAATTATATGTTTTTTATTTTATATTATTAATATTTTTTTTATTAATCAATTATTTTTTTTTAATATAAATTTTTTCATTAAAATTTCTATTATAATTAATTTTCTCTCTTTAGGAGGTTTACCCCCATTTTTAGGATTTTTTCCTAAATGACTTGTTATTAGTTATTTATTAAATAATAATTTTTTTATTATTTCTTTTATATTTATTATATCAAGTTTAATTTTATTATATGTTTATATTCGTATTATTTATTCTTCTTTATTATTTTTTTCTTTTAAATTAAAATGATTTAAAATTTTTATTAAAAATAATTATTTAATTTTAATTTATTTTTTTAATTTTATATCTTTATTGGGCATAATCATTAGAACTTTTTTTTTTTAA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ATTATTTTAATAATAATAATATCTTTTATTATAATCATTATTTCTAATATTTTTATAATAATTTCATTTATTATCTCAAAAAAATCTTTTCTTGATCGTGAAAAATGTTCTCCTTTTGAATGTGGATTTGACCCTAAATCACTATCTCGAATTCCATTTTCATTACATTTTTTTTTAATCACAGTAATTTTTTTAATTTTTGATGTAGAAATTGCATTAATTTTACCTATAATTCCTACATTTTTTAGAGTTAATTTTATTACTTGATTTAAAATTAATTTTTTTTTTATTATTATTTTATTAATAGGACTTTATCATGAATGAAATCAAAATATACTTAATTGAACAAATTAA</t>
+          <t>ATTAATTTAATAATAATAATATCTTTTATTATAATTTTTATTTCTAATATTTTTATAGCAATTTCATTTATTATTGCAAAAAAATCTTTTCTTGACCGAGAAAAATGTTCCCCCTTTGAGTGTGGATTTGATCCAAAATCATTATCTCGTATCCCATTTTCATTACATTTTTTTCTAATTACAGTAATCTTTTTAATTTTTGATGTAGAAATCGCTTTAATTTTTCCTATAATTCCTACTTTTTTTAGAGTTAATTTCATTATTTGATTTAAAATTAATTTTTTTTTCATTATTATTTTATTGATGGGATTATATCATGAATGAAATCAAAATATATTAAATTGAACAAATTAA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ATGTTAAAATTTTTATTTATAATAATTTTTATAATTCCTTTATGTTTAAAAAAAAATATATTTTGATTGGTCCAAATATTATTAATATTTTTAATATTAATATTTATAAATTCTTCTGTTAGTATTATAAATTTTTGTAATTTAAGTTATATATTAGGTTATGATATAATTTCTTATGGTTTAATTTTATTAAGAATTTGAATTAGAAGACTAATAGTAATAGCTAGAGAAAGATTATATAAAAATAATTTTTATTCGAGTTTATTTTTATGTAATATTATTTTTTTAATATTAATATTATATTTAACTTTTAGAGTAATAAATTTATTTTTATTTTATTTATTTTTTGAAAGAAGATTAATTCCAACATTAATATTAATTATTGGTTGAGGGTATCAACCTGAACGAATTCAAGCGGGAATATATTTATTATTTTATACATTATTTGCTTCTTTACCATTATTATTAGGTATTTTTTATATTTATGGTAGTATAAATTATATAATAATTTATTTTTTAAAATTTTATGATTATAATTTATTGTTTTTATATTTAAGATTAATTATTGCTTTTTTAATTAAAATACCTATATATTTTGTTCATTTATGACTTCCTAAAGCTCATGTGGAGGCTTCAATTTCTGGTTCTATAATTTTAGCGGCAATTATATTAAAATTAGGAGGTTATGGGCTTTTACGAATTATAATTATTTTACAAAAAATTAATTTAAAAATAAGATTTATTTGAGTAGTAATTAGTTTAATTGGAGGTTTTTATATTAGAATAAAATGTTTTTGTCAAATTGATATAAAATCTTTAATTGCTTATTCATCAGTTGCTCATATGAGAATTGTTATTGGAGGTATTATAACAATAAATTATTGGGGGTATATAGGATCTTATATTTTAATAATTGGTCATGGGTTATGTTCTTCTGGAATGTTTTGTTTATCAAATATAAATTATGAACGATTAAATAGTCGAAGATTGTTTATTAATAAAGGAATACTGAATTTTATACCTTCTTTAAGTTTATGATGGTTTTTATTAATATCTTCAAATATAGCTGCTCCTCCTTCATTAAATTTAATAGGTGAAATTAGATTAATTAATAGATTAATTAGATGATCTTGATTGAGAATAATTATATTAGTATGTATTTCATTTTTTAGAGCTGGTTATAGTTTATATTTATATTCATATACTCAACATGGAAAATATAATATAAGAATTTATAGATTTTATACTAGTACTTCTCGTGAGTATTTAATTTTATTATTACATTGATTACCTTTAAATATTTTAGTATTAAAAATTGATTATAGAATAATTTGATTTT</t>
+          <t>ATGATAAGTTTTTTAATAATAATAACTTTTATAATTCCATTATGTTTTAAAAAAAATATATTTTGATTGGCCCAAATATTAATAATATTTATAATATTTATATTTATAAATTTAACTATTAATATTATAAATTTTTGTAATTTAAGTTATATGTTAGGGTATGATGTAATTTCTTATGGTTTAATTTTATTAAGAATTTGAATTAGAAGATTAATAATTATAGCAAGTGAAAGATTATATAAAAATAAATTTTATTCAAATTTATTTTTATTCAATATTATTTTTTTAATAATAATATTATATATAACTTTTAGAGTAATAAATTTATTTTTATTTTACTTATTTTTTGAAAGAAGATTAATTCCAACTTTAATATTAATTATTGGTTGAGGGTATCAACCTGAACGAATTCAAGCGGGAATATATTTATTATTTTATACTTTATTTGCTTCTTTACCTTTGTTAATAGGAATTTTTTATATTTATAAAAATATAAATTATATGATAATTTATTTTTTAAAGTTTTATGATTATAATTTATTAATATTATATTTATGTTTAATTATAGCCTTTTTAGTGAAAATACCTATATATTTTGTTCATTTATGACTTCCTAAAGCTCATGTAGAAGCTCCAATTTCTGGTTCTATAATTTTAGCTGCAATTATATTAAAATTAGGGGGATACGGACTTTTACGTATTATAATTATTTTACAAAAAATTAATTTGAAAATAAGATTTATTTGGGTAGTAATTAGATTAATTGGGGGGTTTTATATTAGATTAAAATGTTTTTGTCAAATTGATATAAAATCTTTAATTGCTTATTCATCTGTTGCACATATAAGAATTGTAATTGGGGGGATTATAACAATAAATTATTGGGGTTATTTAGGTTCTTATATTTTAATAGTTGGGCATGGACTATGTTCTTCAGGGATATTTTGTTTATCCAATATAAATTATGAACGATTGAATAGTCGAAGATTATTTATTAATAAGGGGATAATAAATTTTATACCTTCAATAAGATTATGATGATTTTTATTAATATCATCTAATATAGCTGCTCCTCCCTCATTAAATTTAATAGGGGAAATTAGATTAATTAATAGATTAGTCAGATGATCTTGATTTAGCATAATTATATTAATGGGTATTTCATTTTTTAGTGCCGGCTATAGATTATATTTATATTCTTATACTCAACACGGGAAATATAATATAGGCGTTTATAGATTTTATACAGGAACATCTCGAGAATATTTAATTTTATTATTACATTGATTACCTTTAAATATTTTAGTATTAAAAATTGATTATATAATAATTTGATTTT</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>ATGTTAAATATAAGATTAATTATTATTATTATATTTATATTTGGGAATATAATTTTTGTATCAAAACATAAACATTTATTAATTGTATTAATAAGTTTAGAATTTATAGTACTTAGAATTTTTTTTTTTATATTATTATATTTAATAATAATTGATTATAATTTATATATATTAATAGTATTTTTAGTTTTTTCTGTATGTGAGGGGGCATTAGGTTTATCTATTTTAGTTTCTATAATTCGAACTCATGGAAATGATTATTTTCAAAGTTTTAATTTAATTTAA</t>
+          <t>ATGTTAAATATAAGATTAATTATTATTATTATATTTATATTAGGGAATATGATTTTTGTGTCTAAACATAAACATTTATTAATTGTTTTAATAAGTTTAGAATTTATAGTATTAAGAATTTTTTTTTTAATGCTATTATATCTTATAATAATTAATTATAATTTATATATATTAATGGTATTTTTAGTTTTTTCTGTTTGTGAGGGGGCATTAGGGTTATCTATTTTAGTTTCAATAATTCGAACTCATGGAAATGATTATTTTCAAAGTTTTAATTTAATTTAA</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>ATTAATAAATTTTCTATTTGCTTTATTAGATTTTTTTTTTTATTTTTTTTTATATTATTAAATTTTTTTTTAGTAATTTATTTTATTATAAATAATATAATTATTTTTTTAGAGTGGGAAATTATTTCTTTTAATTCAGTTAATATTGTAATTTCTATTTTATTAGATTGAATATCTTTATTATTTATAATATTTGTTTCTTTAATTTCTTCTTCAGTTATTTTTTATAGAAAAAGTTATATAAAATCAGAATTAAATTTAAATCGATTTATTATTTTGGTTTTATTATTTGTATTTTCTATGATTTTATTAATTATTAGTCCTAATATAATTAGAATTTTTTTAGGTTGGGATGGTTTAGGATTAGTATCTTATTGTTTAGTAATTTATTATCAAAATATTAAATCTTATAATGCTGGTATATTAACTGCTTTATCAAATCGAGTAGGGGATGTTATGATTTTAATATTAGTTTCTTGAATATTAAATTATGGAAGTTGAAATTATATTTTTTATTTAAATTTTATAGAAAATGATTTTTCTATGAAAATTATTAGATTATTAGTAATTGTTGCAGCTATAACAAAAAGAGCTCAAATTCCTTTTAGTTCTTGGTTACCTGCAGCTATGGCTGCTCCTACTCCAGTTTCTGCTTTAGTTCATTCTTCTACTTTAGTAACTGCTGGGGTATATTTATTAATTCGATTTAATAATTTATTAGTGGAAATATATTTTTTAAATTTTTTATTATTATTTTCTGGTTTAACTATAATAATAGCTGGTATTTGTGCAAATTATGAATTTGATTTAAAAAAAATTATTGCTTTATCTACATTAAGACAATTAGGTTTAATAATAAGAATTTTAAGAATAGGTTTTTATGATTTAGCTTTTTTTCATTTATTAACTCATGCAATATTTAAAGCTTTATTATTTATATGTGCTGGATTAATTATCCATATAATAAATAATAATCAAGATATTCGTTTAATAGGGGGAATTAGATTTTATGTTCCGTTAACTTCTTTATGTATAAATATTTCTAATTTAGCTTTATGTGGTATTCCATTTTTAGCTGGTTTTTATTCTAAAGATATAATTTTGGAAATGGTAAGAATGAGAAATTTAAATTTATTAATTTTTTATTTGTATTATTTTTCTACTGGTTTAACTATATTTTATACTATTCGTTTATTAATATATTTAATAGTTAATGATTATAATTTATTATCTATTTATAATTTATATGATGAAGATTATATTATATTAAAAAGTATATTTATTTTATTATTTATAAGATTAATTTCGGGAAGATTTTTAAGTTGATTAATTTTTTATTATCCTTATATAATTTATTTACCTTTTTCTTTAAAAATAATAGTAATTTATGTTAGTTTTATAGGAATATTAATAGGATGATTAATTAGAAATATAAATATTTATTCTTTAAATAAGTTTTTAATATTTTATAATTTAAGATGATTTTTAAGTTTAATATGGTTTTTACCTAATTTATCTACTTATAGTTTAAATTATTTTTTCTTAAAACTAGGTCAAGTTTTAAGAAAAAATATTGATATAGGTTGAATAGAAATATATAGAGGTCAGGGAATATATAAAATTATTAAAATTTATTCTTTAATTAATATGATTTATCAAATAAATAATTTTAAAATTTATTTATTTAGATTTATTTTATGAATAATAATTTTTATTATTTTAATTATAATTT</t>
+          <t>ATTAATAAATTTAATATTTGTTTTATTAGTTTTTTTTTTTTATTTTTTTTTATGGTAATTAATTTTTTTATAATAATTTATTTTATTATGAATAATATAATTATTTTTTTGGAGTGGGAAATTATTTCTTTTAATTCAATTAATATTATTTTTTCTATTTTACTAGATTGAATATCATTATTATTTATAATATTTGTATCTTTAATTTCTTCTTCTGTAATTTTTTACAGAAGAAGATATATAAGATCTGAATTAAATTTAAATCGTTTTATTATTTTAGTTTTATTGTTTGTATTTTCTATAATTTTATTAATTATTAGACCTAATATAATTAGAATTTTTTTAGGCTGAGATGGTTTAGGATTGGTTTCTTATTGTTTAGTAATTTATTATCAAAATATTAAATCTTATAATGCGGGAATATTAACAGCTTTATCTAATCGAATTGGTGATGTGATAATTTTAATATTAATTTCTTGAATATTAAATTATGGAAGTTGAAATTATATTTTTTATTTAAATTTTATAAGTAATGATTTTTCTATACAGATTATTAGATTATTGTTAATTATTGCAGCTATAACTAAGAGAGCTCAAATTCCTTTTAGTTCTTGATTACCAGCAGCAATAGCAGCTCCAACACCAGTTTCTGCTTTAGTTCATTCTTCTACTTTAGTAACTGCTGGAGTTTATTTATTAATTCGGTTTAATAATGTTTTAGTTGATATATTTTTTTTAAAATTTTTATTATTATTTTCTGGCCTAACTATAATAATAGCTGGAATTTGTGCTAATTACGAGTTTGATTTGAAGAAAATTATTGCTTTATCAACTTTAAGTCAATTAGGTTTAATAATAAGAATTTTAAGAATGGGGTTTTATGATTTGGCTTTTTTTCATTTATTAACTCATGCTATATTTAAAGCTTTATTATTTATATGTGCTGGGGTAATTATTCATATAATAAATAATAATCAAGATATTCGTTTAATGGGGGGGATTAGATTATATATTCCTTTAACTTCTTTATGTATAAATATTTCAAATTTAGCTTTATGTGGAATTCCTTTTTTAGCAGGGTTTTATTCAAAGGATATAATTTTAGAGATGGTAAGAATAAGAAATTTAAATTTATTAATTTTTTATTTATATTATTTTTCTACAGGTTTGACAATGTTTTATACTATTCGGTTATTAATATATTTAATAATTAATGATTATAATTTATTAGCAATTTATAATTTATATGATGAGGATTATATTATATTAAAAAGTATATTTATTTTATTAATAATAAGATTAATTTCTGGTAGATTTTTAAGTTGATTAATTTTTTATTATCCTTATATAATTTATTTACCAATTTGTTTAAAAATAATGGTAATTTATGTGAGAATTATAGGGATAATAATAGGATGATTAATTAGTAATATAAATATTTATTCTTTAAATAAATTTTTAATATTTTATAATTTAAGAGGATTTTTAACAGTAATATGATTTTTGCCTAATTTATCAACTTATGGTTTAAATTATTATTTTTTAAAATTTGGTCAAATTTTAAGAAAAAATATTGATATAGGATGAAGAGAAATTTATAGAGGTCAAGGTATTTATAAAATTATTAAGTTTTATTCTTTAATTAATATCATTTACCAAATAAATAATTTTAAAATTTATTTATTTAGATTTATTTTATGAATAATAATTTTTATTATTTTAATTATAATTT</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>ATTTTAAAAATAATTATATCTATTTTTTTAATTTCAATCTCAATCTTATTATACTTTATTAATCATCCTCTTGCAATAGGATTATTAATTTTAATTCAAACTCTTTTTACTTGTTTAATTTCAGGAATATTAATTAATACTTATTGATTTTCATATATTTTTTTTTTAATTTTTTTAGGGGGATTATTAGTTTTATTCATTTATGTTTCAAGAGTAGCCTCTAATGAACTATTTAAAATTCACTTTTACGGAAAATTTTCTATTATTTATATTATTATTATTATAATAATTATTAGAATTTTTTATAAAAATAATTTAATTTGAATAAATTTTTCATTTAATGATGAAATAATTAATTTCTTTAATTTAAATTTATTTTTTAATAATGAATATAATTTTAATTTATCTAAATTATATAATAAACAAAATTACTTTATAATATTAATATTAATTATTTATTTATTTATTACTTTAATTGCAATTGTAAAAATTACTAACATTTTTTTTGGGCCCCTACGATCATTCAATAACTAA</t>
+          <t>ATTATAAAAATATTATTATCCATATCTTTAATTTCTATCTCAATTTTCTTATATTTTATTAATCACCCCCTTGCAATAGGATTATTAATTTTAATTCAAACCCTTCTTACTTGTTTAATTTCAGGGATATTAATTAATACCTATTGATTTTCTTATATCCTTTTTTTAATCTTCTTAGGGGGATTACTAGTATTATTTATTTACGTATCTAGAGTAGCTTCAAATGAATTATTTAAAATTCATCTTATTAGTAAATTTTCATTTATATATATATTAATTATTATAATTTTTAGAATTTTATTAAAAAATAACTTAATTTGAATAAATTTTTCTTTTAATGATGAAATAATTAATTTTTTTAATTTAATTTTATTTTTTAATAATGAGTATAACTTTAATTTATCTAAATTATATAATAAACAAAATTATTTAATAATAATAATATTAATTATTTATTTATTTATTACTTTAATTGCTATTGTAAAAATTACTAATATTTTTTTTGGGCCGTTACGATCTTTTAACAATTAA</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>GGGTAAAAATTAATAAATTATAAATAATAAAAAAAATTTTAATATTGGGGGGTATTGAAGTATTTTTTTTAAAAAAAATAATTTAATTTATAGGGAATTAGTATTGTAAAATAAATTTGAAATAGTTGAAAATAAATTAATAATAAAGTAATTTTTGTTTAATGTATCTTGTGTATCAGAGTTTATTAAAAAATATTTTTTTTATAAAAAAATCTCGAATTTAAAAGAGTTAATTAATTATAAAAGTTAATGTAGAAAAATTATTTTAAATAATTAATTTGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTATTTTAGAAAAAAATTTAATTTTAAATTTAAAAAATTTTATTTTTAATTTTATAAATTAAAAATAAAATTTTTAAAATTAAATATATTAAGGGATAAGCTTTAATATAAAAATTTATAATAAATTAAATTGAAAATAAAAATTTTAAAATTTATATTGTTTAAAAATTATAGTTTATTAAAAAAAATTTTATTTTTAATAAAATTTAATAAAAAAATTTAATTTTATATAAAATAATAATAAAAATAAAAAAAAATTAGTAATAATGATAAAATTAGTATATTATATTAAAATAATAATTTAATTAATTTAAATTAAATTAAAGGAATTCGGCAAAATTTTATATTCACTTGTTTATCAAAAACATGTCTTTTAGTTAATAATTTAAAGTCTAATCTGCCCACTGATAATTATATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCATTAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAAATATAAACTGTCTCTGATTTAAAAATAAAATTTAATTTTTTAGTTAAAAAGCTAAAATAAATTTAAAAGACGAGAAGACCCTATAGAGTTTTATATTGAAATTATTTAAGATTATAAATATAAATAAAAATTAAAAATAAAATTAATATTTTATTGGGGTGATAAAAAAATTAATATAACTTTTTTTTTTGTAAAACATGAATAAGTGAATAATTGATCCATTTTTTATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTACAAATAAAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTGAATGTAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAAAATAAGGAAATATTTTAGTACGAAAGGATCAGGTATTTTTAATAATTAAAATTTAATGAATATTAATAATAAATAATTATATT</t>
+          <t>GGGGGAAAATTAATAAAATATAAATAATAAAAAAATTTTTAATATTGGGGGATATTAGAGTATTTTTTTAAAAAAATAAATTATTTTATAGTTAATTAGTATTGAAAAAGAAATTTGAAATAAGTGAAAAAGAAAATAATTAAAAAGTAGTTTTAATTTAATGTATCTTGTGTATCAGAGTTTATTAAAAAATATTTTTTTTATTAAATAAATCTCGAATTTGAAAGAGCTAATTAATTAAAAAAGTTAATGTAGAAGAATTATTTTATATAATTAATTAGAAATGAAATGTTAGTCGTTTTTAAATATATCTAGTTATTTTAGAAAAAAATTTAATTTAAAATTTAAAAAATTTTATTATTAATTATAATTAATAATAAAATATTTAAAATTAAATATATTAAGGGATAAGCTTTAATATAAAAATTTATAATAATTAAGATAAATATATAAAAATTTTAAAATTTATATTGTTTAAAAATTATAATTTACTATAAAAAATTTTATAAATAATAAAATTTAATAAAAAAAAATTTAATTTTATATAAAATAATAATTTTAAATAAAAAAAAATTAAAAATAATGATAAAATTAGTATAATAATATGATAATAAAATTTAATTATAGTAAAATTAAATTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTAGAAAATAATTTAAAGTCTAATCTGCCCACTGATAGGTATATTAAAGGGCTGCAGTATAATGACTGTACAAAGGTAGCATAATCAATAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAAATATAATCTGTCTCTAATTTATAAATAGAATTTATTTTTTTAGTTAAAAAGCTAAGATGAATTTAAAAGACGAGAAGACCCTATAGAGTTTTATATTAATATATTTAAGATTATGTATATAAATAAAAATTAAAAATAAAAATAATATTTTATTGGGGTGATAAAAAAATTAATTTAACTTTTTTTTAAGTATTAACATGAATAAGTGAATATTTGATCCATTAATTATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTACAAATAAGAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGCAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGCGTGAGCCAGGTTGGTTTCTATCTTTAGAATAATAAAATATTTTAGTACGAAAGGATTAAATATTTTTAATAATTAAAATTTTATGAATATTATTAATTAATTAATTAA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>GAATAGATAAATTTTTTATATTTTTGATAATTTATTATAAATTTATTTTACATATAAATTTTAGTATAAAATTTTAATTATTTTGAAAATAATTAATTTAATTATATAGTAATTAAAATTAAAAATTTAAGAAATTAAGATTTAGTAATATTTAAATTAATAACTGATTTTGTGCCAGCAGTTGCGGTTAAACAAAAATTAAATTAAATTATTTCAGTATATAATAAATAATAAATGATTTAAAATTAAATATTAAATTATTAAGTGAAATTTTAATTTAATTAAAAATTATTTTTAAATTATGATTTAATAAATTTTATTATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATTTAAAATACTAAAATAGTAAATAAAATATTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACGAATAAATTTACTTAATTTATAATTTTATATATCATTGTTATAAAAATATTTTTATATAAAAATAATATTTTAAAATTTAAAATAAAATTTAATTCAGATCAAGATGTAGATTATAATTAAGTTTAAGATGGGTTACAATAAATTTATTTAAATGAATAGAATTTTGTAAAATTTAATTGAAGGTGGATTTAAATGTAATTTTAATTAGTTTATTAAAATGATTAAAAATTGAAATATGTACATATTGCCCGTCACTTTCATTTTAAAATTGAAATAAGTCGTAACAAAGTAGAAGTACTGGAAAGTGTTTCTAGAATGAA</t>
+          <t>GATAAATTTTTTATATTTTGGAATAATTTATTATAAATTTATTTTACATGTAAATTTTAGTATAAAATTTTAATTATTTAAAAAATAATTAATTTAAAGTAAACAGTAATTAAAATTAAAAATTTAAGAAATTAAGATTTAGTAATATTTAAATTAATAACCAATTTTGTGCCAGCAGTTGCGGTTAAACAAAAATTAAATTAAATTATTTCAGTATATAATAAATAATTAAATATTAAATTAAATATTAAATTATTAAGTAAAATTTTAATTAAATTAAAATTTATTTAAAAATTATGATTTAACAAATTTTATTATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATTTAAAATACTAAAATAGTAAATAATATATTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACGAATAAATTTACTTAATTTTTAATTTTGTATATCATTGTTAAAAAAATATTTTGAAATAAAAATAATATTTTAAAATTTAAAATAAAAATTAATTCAGATCAAGATGCAGATTATAATTAAGTTTAAGATGGGTTACAAAAAAGTTATTTAAACGAAAATGAATTTTGTAATAGATATTTGAAGGTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTTAAAATTAAAATATGTACATATTGCCCGTCACTTTCATTTAAAAATTGAAATAAGTCGTAACAAAGTAGAGGTACTGGAAAGTGTTTCTAGAATGAA</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>AGGATCGTAGTTTAATTAAAACATTTGATTTGCATTCAAATAATATTGAATTTTCAATCTATCTTA</t>
+          <t>AGGATTATAGTTTAACTTAAAACATTTGATTTGCAATCAAATAATATTGAATTATATCAATTTATCTTA</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>AGTCTTATATTCAATAATGATATAAAATTGCAAATTTTAAGGTGTAAATAATACTAAGGCTT</t>
+          <t>AGTCTTATATTCAAGGATGATATAAAATTGCAAATTTTAGGGTGTAATAATTACTAAGGCTT</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>AAAGAATTAGTTAATTTATAACATAAATATGTCAAATTTAAATTATTACTTTAGTAATATTCTTTT</t>
+          <t>AAAGAATTAGTTAATTCATAACATAAATATGTCAAATTTAAATTATTACTTTAGTAATATTCTTTT</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>ATTTATATAGTTTAAAAAAAACTTTACATTTTCATTGTAAAAATAAAAAAATTTTTTTTATAAATA</t>
+          <t>ATTTATATAGTTTAAATAAAACTTTACATTTTCATTGTAAAAATAAAAAAATTTTTTTTATAAATA</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>ATTTAAATAGCTTAATAAGAGCATAATATTGAAGATATTAAGGTGATTTAATAATCTTTAAATA</t>
+          <t>ATTTAAATAGCTTAAAGAGAGTATAATATTGAAGATATTAGGGTGATTATTTAATCTTTAAATA</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATTTTATTTTAATATAAATA</t>
+          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATTTATTTTAATATAAATA</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>ATTTAAATAATTTAAAAAAAATATTGATTTGTGGAGTCAAATATATGAGAAATTCATTTTAAATT</t>
+          <t>ACTTAAATAATTTAAAAAAAATATTGATTTGTGGAGTCAAAAATATGAAAAAATTCATTTTAAGTC</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>AATAAAGTGCCTGATTAAAGGATTATTCTGATAGAATAAATTATGTAAATTTTTATTACCTTTATTA</t>
+          <t>AATAAAGTGCCTGATTAAAGGATTATTCTGATAGAATAAATTATGTAATTTTTTTTACCTTTATTA</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>CATTAGATGACTGAAAGCAAGTATTGGTCTCTTAAACCATTATATAGTAAATTAGCAATTACTTCTAATGG</t>
+          <t>CATTAGATGACTGAAAGCAAGTACTGGTCTCTTAAACCATTTTATAGTAAATTAGCAATTACTTCTAATGA</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>ACTATTTTGACAGAAAAATGTGATGATTTTAGAAGTCATAAATATATAATTATATTATATAAATGGTA</t>
+          <t>ACTATTTTGACAGAAAAATGTGGTGATTTTAGAAGTCATAAATATATAATTAAATTATATAAATAGTA</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>TCTAATATGGCAGATTATATGTAATGGATTTAAACCCCATTTATAAAGGATTATCCTTTTTTTAGAA</t>
+          <t>TCTAATATGGCAGATTATATGTAATGGATTTAAGCCCCATTTATAAAGGATTATCCTTTTTTTAGAA</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>TTAAAAATAAGCTAAATAAAGCTTTTGGGTTCATACCTCAAATATAAAGAAAATCCTTTTTTTTAAA</t>
+          <t>TTAAAAATAAGCTAATAAAAGCTTTTGAGTTCATACCTCAAATATATAGGAAATCCCTTTTTTTTAAA</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>TTAATTGAAACCAAAAAGAGGTATATCACTGTTAATGATAAAATTGAATTTAAAATTCCAATTAAG</t>
+          <t>TTAATTGAAACCAAATAGAGGTATATCACTGTTAATGATAAAATTGAATTTCTAATTCCAATTAGA</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>CAAAGAATAGTTTATAAAAATAATAATTTTGGAGATTATAGATAAAGAAAATCTTTTTCTTTGA</t>
+          <t>CAAAGAATAGTTTATAAAAAATAATAATTTTGGAGATTATAGATAAAGAAAATCTTTTTCTTTGA</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>TATATTTTAGTGTAAGATGCACAGTAATTTTTGAAGTTGTTAGGTATAGTTTAATTCTATAAAATATAA</t>
+          <t>TATATTTTAGTGTAGGATGCACATTAATTTTTGAAATTATTAGGTATAGTTTAATTCTATAAGATATAA</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1392,37 +1412,37 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>GAAATATATAATAATTAGGCTGCTAACTTAATTTTTAGTGAATAAAATCATTAATATTTCT</t>
+          <t>GAAATATATAATAATTAAGCTGCTAACTTAATTTATAGTGAATAAAATCATTAATATTTCT</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>AATTAATGAGCTTGTATAAGCATTTGTTTTGAAAACTTAAGAAAGAATAAATATTCTATTAATTT</t>
+          <t>AATTAATGAGCTTGTTTAAGCATTTGTTTTGAAAACTCAAGAAAGAATATTTATTCTATTAATTT</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>GTTTTTATAGTTTAATAAAAAACTTTGGTCTTGTAAATCAAAAATAAGAATTTTTCTTTAAAAACT</t>
+          <t>GTTTTTATAGTTTAATAAAAAACTTTGGTCTTGTAAATCAAAAATAAGTATACTCTTTAAAAACT</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>CAAATTAGAGCTTGATAAGTATTTCATTTACATTGAAAAGAAATTAAAATAATTAATTAATTTGA</t>
+          <t>CAAATTAGAGCTTGTTAAGTATTTCATTTACATTGAAAAGAAATTAAAATAATTAATTAATTTGA</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>AAGGTTTTAAGTTAATTATAAACTAATAATCTTCAAAATTATTTATAAAGAAATTTCTTTAAGCCTTA</t>
+          <t>AAGGTTTTAAGTTAAATATAAACTATTAATCTTCAAAATTATTTATAAAGAAATTTCTTTAAGCCTTA</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>AATAAAATGGCTGAGTTATAAGCGATAAATTGTAAATTTATTAACGAGAATTAATCTCTTTTATTA</t>
+          <t>AATAAAATGGCTGAGTTATAAGCGATAAATTGTAAATTTATTAACGAGAAATATTCTCTTTTATTA</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>CAGCTCCCTGGTTGATCCTGCCAGTAGTTATATGCTTGTCTCAAAGATTAAGCCATGCATGTCTCAGTGCAAGCCGTATTAAGGCGATACCGCGAATGGCTCAATATATCAGTTTTGGTTCCTTAGATCTTACTCAGTTACTTGGATAACTGTGGTAATTCTAGAGCTAATACATGCAATCAGAACTCCGACCAGTGATGGGACGAGTGCTTTTATTAGATCAAAACCAATCGGCGGAGGGCCTCGCGTTCGAAGTCGTTAATTTTGATGAATCTGGATAACTTTTGCCGATCGCATGGTCAAGTACCGGCGACGCATCTTTCAAATGTCTGCCTTATCAACTTTCGATGGTAGTTTCTGCGACTACCATGGTTGTCACGGGTAACGGGGAATCAGGGTTCGATTCCGGAGAGGGAGCCTGAGAAACGGCTACCACATCCAAGGAAGGCAGCAGGCGCGCAAATTACCCACTCCCGGCACGGGGAGGTAGTGACGAAAAATAACGATACGGGACTCTTTCGAGGCCTCGTAATCGGAATGAGTACACTTTAAATATTTTAACGAGGAACAATTGGAGGGCAAGTCTGGTGCCAGCAGCCGCGGTAATTCCAGCTCCAATAGCGTATACTAAAATTGTTGCGGTTAAAAAGCTCGTAGTTGCATTTGTGCGCCGCGCTGTCGGTGCACCGCATCCGCGGTGATACTGACACGTCTGCGGAGCATATCGTCGGTGAGCCGGCGGTAAAACGCCGGTTCAATATCAAAATCCTATCGCGGTGCTCTTCGGTGAGTGTCGAGGTGGGCCGACAATTTTACTTTGAACAAATTAGAGTGCTCAAAGCGGGCTCAAAATGCCGCTTGAATATTTCGTGCATGGAATAATAGAATATGATCTCGGTTCTATTTTGTTGGTTTTCAGAACTCCGAGGTAATGATTAATAGGGATAACTGGGGGCATTCGTATTGCGACGTTAGAGGTGAAATTCTTGGATCGTCGCAAGACGAACATCAGCGAAAGCATTTGCCAAAGGTGTTTTCATCAATCAAGAACGAAAGTTAGAGGTTCGAAGGCGATTAGATACCGCCCTAGTTCTAACCGTAAATATGTCATCTAGCGATCCGCCGACGTTACTACAATGGCTCGGCGGGCAGCTTCCGGGAAACCAAAGATTTTGGACTCCGGGGGGAGTATGGTTGCAAAGCTGAAACTTAAAGGAATTGACGGAAGGGCACCACCAGGAGTGGAGCCTGCGGCTTAATTTGACTCAACACGGGAAATCTCACCAGGCCCGGACACCGGAAGGATTGACAGATTAACAGCTCTTTCTTGATTCGGTGGGTGGTGGTGCATGGCCGTTCTTAGTTGGTGGAGCGATTTGTCTGGTTAATTCCGGTAACGAACGAGACTCTAGCCTGCTAAATAGGCGTTGTCATTTAGGTGTGCGCGATTTCGGTCGCGCAACTCACTGGCGACGTATTAAAATTCTTCTTAGAGGGACCGGCGTCTTCGAAGCGCACGAGATTGAGCAATAACAGGTCTGTGATGCCCTTAGATGTCCTGGGCCGCACGCGCGCTACACTGAAGGAATCAGCATGTTCTCCCTGGCCTAGAGGCCCGGGCAACCCGTTGAAACTCCTTCGTGCTGGGGATTGGGGTTTGCAATTATCCCCCATAAACGAGGAATTCCTAGTAAGCGCGAGTCATAAGCTCGCGTTGATTACGTCCCTGCCCTTTGTACACACCGCCCGTCGCTACTACCGATTGAATGATTTAGTGAGGTCTTCGGACCGACACGCGGTGGCTTCGCGGCCGTCGGCGTTGCTGGGAAGTTGACCAAACTTGATCATTTAGAGGAAGTAAAAGTCGTAACAAGGTTTCCGTAGGGGAACCTGCGGAAGGATCATTA</t>
+          <t>TAGCTCCCTGGTTGATCCTGCCAGTAGTTATATGCTTGTCTCAAAGATTAAGCCATGCATGTCTCAGTGCAAGCCGTATTAAGGCGATACCGCGAATGGCTCAATATATCAGTTTTGGTTCCTTAGATCTTACTCAGTTACTTGGATAACTGTGGTAATTCTAGAGCTAATACATGCAATCAGAACTCCGACCAGTGATGGGACGAGTGCTTTTATTAGATCAAAACCAATCGGCGGAGGGCCTCGCGTTCGAAGTCGTTAATTTTGATGAATCTGGATAACTTTTGCCGATCGCATGGTCAAGTACCGGCGACGCATCTTTCAAATGTCTGCCTTATCAACTTTCGATGGTAGTTTCTGCGACTACCATGGTTGTCACGGGTAACGGGGAATCAGGGTTCGATTCCGGAGAGGGAGCCTGAGAAACGGCTACCACATCCAAGGAAGGCAGCAGGCGCGCAAATTACCCACTCCCGGCACGGGGAGGTAGTGACGAAAAATAACGATACGGGACTCTTTCGAGGCCTCGTAATCGGAATGAGTACACTTTAAATATTTTAACGAGGAACAATTGGAGGGCAAGTCTGGTGCCAGCAGCCGCGGTAATTCCAGCTCCAATAGCGTATACTAAAATTGTTGCGGTTAAAAAGCTCGTAGTTGCATTTGTGCGCCGCGCTGTCGGTGCACCGCATCCGCGGTGATACTGACACGTTTGCGGAGCATATCGTCGGTGAGCCGGCGGTCAAACGCCGGTTCAATATCAAAATCCTATCGCGGTGCTCTTCGGTGAGTGTCGAGGTGGGCCGACAATTTTACTTTGAACAAATTAGAGTGCTCAAAGCGGGCTCAAAATGCCGCCTGAATATTTCGTGCATGGAATAATAGAATATGATCTCGGTTCTATTTTGTTGGTTTTCAGAACTCCGAGGTAATGATTAATAGGGACAACTGGGGGCATTCGTATTGCGACGTTAGAGGTGAAATTCTTGGATCGTCGCAAGACGAACATCAGCGAAAGCATTTGCCAAAGGTGTTTTCATCAATCAAGAACGAAAGTTAGAGGTTCGAAGGCGATTAGATACCGCCCTAGTTCTAACCGTAAATATGTCATCTAGCGATCCGCCGACGTTACTACAATGGCTCGGCGGGCAGCTTCCGGGAAACCAAAGATTTTGGACTCCGGGGGGAGTATGGTTGCAAAGCTGAAACTTAAAGGAATTGACGGAAGGGCACCACCAGGAGTGGAGCCTGCGGCTTAATTTGACTCAACACGGGAAATCTCACCAGGCCCGGACACCGGAAGGATTGACAGATTAACAGCTCTTTCTTGATTCGGTGGGTGGTGGTGCATGGCCGTTCTTAGTTGGTGGAGCGATTTGTCTGGTTAATTCCGGTAACGAACGAGACTCTAGCCTGCTAAATAGGCGTCGTCATTTAGGTGTGCGCGATTTCGGTCGCGCAACTCACTGGCGACGTATTAAAATTCTTCTTAGAGGGACCGGCGTCTTCGAAGCGCACGAGATTGAGCAATAACAGGTCTGTGATGCCCTTAGATGTCCTGGGCCGCACGCGCGCTACACTGAAGGAATCAGCATGTTCTCCCTGGCCTAGAGGCCCGGGCAACCCGTTGAAACTCCTTCGTGCTGGGGATTGGGGTTTGCAATTATCCCCCATAAACGAGGAATTCCTAGTAAGCGCGAGTCATAAGCTCGCGTTGATTACGTCCCTGCCCTTTGTACACACCGCCCGTCGCTACTACCGATTGAATGATTTAGTGAGGTCTTCGGACCGACACGCGGTGGCTTCGCGGCCGTCGGCGTTGCTGGGAAGTTGACCAAACTTGATCATTTAGAGGAAGTAAAAGTCGTAACAAGGTTTCCGTAGGGGAACCTGCGGAAGGATCATTA</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1432,302 +1452,290 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>GCATATTAGTAAGCGGAGGAAAAGAAACTAACCAGGATTTCCTTAGTAGCGGCGAGCGAACAGGAAACAGCCCAGCACTGAATCCCGCGGTTGTAACGATCGCGGGAGATGTGGTGTTCGGGAGGTTCCGCTTTCTCGTCGTCGCCGCTCCTGTCCAAGTTCGTCTTGAACGGGGCCGTTTTCCCGCAGAGGGTGCCAGGCCCGTAGCGACGGAGCGAGACGGCGAGAGGGACTCTCCTCAGAGTCGGGTTGCTTGAGAGTGCAGCCCTAAGTGGGTGGTAAACTCCATCTAAGGCTAAATATTACCGCGAGACCGATAGCGAACAAGTACCGTGAGGGAAAGTTGAAAAGAACTTTGAAGAGAGAGTTCAAGAGTACGTGAAACCGTTCAGGGGTAAACCTGCGAAACTCGAATGAACGAACGGAGAGATTCATCGTCATTCGGCGGCGTACGGACGCGCGCCTCGATGTGGCGCACCGTCATTCGCGTGGCGTTCTAGCGTTGCACGGGTCGCGTCCGTCGACGTCCGCCGACGGCGTGCACTTCTCTCTCGGTAATACATCGCGACCCGTTCGCGGTCGGCCTAAGCGCCGTCCGGGAGCCCCGCGGTCTCGTCTTAACCGGCGAGGCCGCTGGACCGTGACGGTACGCCGGCCGGCCAGTCGGACGGTATATTCTGAAGATTCGCGCACGCGCCTCGCGCGCGTCCGGCCCGACGCAAGCTCTTACGTCGTCTCCGCCGACGTCCTGCCTCAGCGCGGACGTTGGGGCGGCGTGGCTGTCGTCGCGGCCGTGCAGTCTCGGACCGTGCGCGTTTCAGTCTGCGATGATTCATTTTCGGGCACTCGCAGGACCCGTCTTGAAACACGGACCAAGGAGTCTAGCATGTGTGCGAGTCATTGAGTTTATATTCGAAGATAAAATGCACAAAACTGAAAGGCGCAACGAAAGTGAAGGCGCGCGCTAGTCGCGCGCTCAGGGAGGATGGAGCGTCGGTCTAGCGATCGCACTCCCGCACTCCCGAGGCGTCTCGTTTCCAATCCGTGAATGCAGGCGCGCTCTGAGCACAGATGCTGGGACCCGAAAGATGGTGAACTATGCCTGGTCAGGTCGAAGTCAGGGGAAACCCTGATGGAGGACCGTAGCGATTCTGACGTGCAAATCGATCGTCGGAACTGGGTATAGGGGCGAAAGACTAATCGAACCATCTAGTAGCTGGTTCCGTCCGAAGTTTCCCTCAGGATAGCTGGCGTCGATTATTAACAGTCCCATCCGGTAAAGCGAATGATTAGAGGCATTGGGGCCGAAACGACCTCAACCTATTCTCAAACTTTAAATGGGTGAGAACTCCGGCTTACTCGAACGATGAAGCCGGAGATCTGATGACGGTGCCAAGTGGGCCAATTTTGGTAAGCAGAACTGGCGCTGTGGGATGAACCAAACGTAGTGTTAAGGCGCCTAAAAAACGCTCATGGGACACCATGAAAGGCGTTGGTCGCTCATGACAGCAGGACGGTGGCCATGGAAGTCGGAATCCGCTAAGGAGTGTGCAACGACTCACCTGCCGAAGCAACCAGCCCTGAAAATGGATGGCGCTGAAGCGTTTTGCCTATACACTACCGTTACGGGCAATAGCGGCGTGTGCGCTCGCGCGCTCGTCCGCGTCATTATGCCGTAACGAGTAGGACGTGCGCGGCGGAGAGCGCAGAAGGGTCTGGGCGTGAGCCCGCCTGGAGCCTCCGTCGGTGCAGATCTTGGTGGTAGTAGCAAATACTCCAGCGAGGCCCTGGAGGACTGACGTGGAGAAGGGTTTCGCGTGAACAGTAGTTGCTCGCGAGTCAGTCGATCCTAAGCTCAAGGAGAGATCTTATGTCGATGTGGCGTGTTTTTTTGTTTCTTATCGGGAGACGACGAACAACGCCCTTTGAGCGAAAGGGAATCCGGTTCCTATTCCGGAACCCGGCAGCGGAACCGTTTCAATAATCGTTCCCTCGTTTCAAAGCGAGTGTTCGACGGGGTAACCCAAAGTGGCCTGAAGACGCCGCCGAGGGGTCCGGGAAGAGTTTTCTTTTCTGCCTGAGCGTTCGAGTTCCATGGAATCCTATAGAAGGGAGATATGGTTCGGAACGCGAAGAGCACCGCATTTGCGGCGGTGTCCGGATACTCTCTGCGGACCTTGAAAATTCAGGTGAGGGATGTACGTGGAGATGTCGCGCCGGTTCGTACCCATATCCGCAGCAGGTCTCCAAGGTGAAGAGCCTCTAGTCGATAGAATAATGTAGGTAAGGGAAGTCGGCAAATTGGATCCGTAACTTCGGAATAAGGATTGGCTCTGAGGACCGGGGCGTGTCGGGTTTGGACGGGAAGCGGATGCGGCCGGTGCCGGGCCTGGTCGATGCTCGTGCGCGCGCGCAGTGCATTTCGGGCGTGTCCCTGTAAAAGGGGGTGCGTTTCGTGGTGTCGCTCGTACGCGTTTCGGGCGGAATCCGGACCCGCGTTCCGGCCTTCCGCGGATCTTCCTAGCCGTAAGGCCGCGTCGGTTTCGTCTTGTGCGCGATCGGCGCGGTTCTGTACGACCGCCGTTCAACGGTCAGCTCAGAACTGGCACGGACAAGGGGAATCCGACTGTCTAATTAAAACAAAGCATTGCGATGGCCCTCGCGGGTGTTGACGCAATGTGATTTCTGCCCAGTGCTCTGAATGTCAACGTGAAGAAATTCAAGCAAGCGCGGGTAAACGGCGGGAGTAACTATGACTCTCTTAAGGTAGCCAAATGCCTCGTCATCTAATTAGTGACGCGCATGAATGGATTAACGAGATTCCCGCTGTCCCTATCTACTATCTAGCGAAACCACAGCCAAGGGAACGGGCTTGGGAGAATCAGCGGGGAAAGAAGACCCTGTTGAGCTTGACTCTAGTCTGGCATTGTAAGGAGACATGAGAGGTGTAGCATAAGTGGGAGGTCGTTCGCGGTCGTCGCTGAAAAACCACTACTTTCATTGTTTCATTACTTACTCGGTTGGGCGGAAGCGGTGCGCGGTCGATTATATCGGCGGGCGTACGGTGTTTCGTTCCAAGCGTGCAGAGTGGAGGCGTGGCGGCAACGCTCGTCTCCATACAACTCCCGCGTGATCCGGTTCGAGGACACTGCCAGGCGGGGAGTTTGACTGGGGCGGTACATCTGTCAAAGAATAACGCAGGTGTCCTAAGGCCAGCTCAGCGAGGACAGAAACCTCGCGTGGAGCAAAAGGGCAAAAGCTGGCTTGATCCAGATGTTCAGTACGCATAGGGACTGCGAAAGCACGGCCTATCGATCCTTTAGTATAAAGAGTTTTTAGCAAGAGGTGCCAGAAAAGTTACCACAGGGATAACTGGCTTGTGGCGGCCAAGCGTTCATAGCGACGTCGCTTTTTGATCCTTCGATGTCGGCTCTTCCTATCATTGCGAAGCAAAATTCGCCAAGCGTTGGATTGTTCACCCATCAAAAGGGAACGTGAGCTGGGTTTAGACCGTCGTGAGACAGGTTAGTTTTACCCTACTGATGGCTCGTCGTTGCGATAGTAATACTGCTCAGTACGAGAGGAACCGCAGTTTCGGACATTTGGTTCATGCACTCGGCCGAGCGGCCGGTGGTGCGAAGCTACCATCCGCGGGATTATGCCTGAACGCCTCTAAGGCCGAAGCCAGCCTAGCCGAATCCGGCAAGGATATTCTCACTGTGGAGCCCCGAGAGTCGGGAGGCCACTATACAATGTGACTTTAATAGTCGCGCTTCACGCGCGACGTCGAGGCCCATTTGGAACGCGGCGATCGATGCGAGCGGTCTTAACACGTGCATCACGGCGCCGAAGTTTCCAATTTACCTCAGTTCGATGTCGGGGCTCGGAATAGTCTGTAGACGACTTACGTTCCTGGCGGGGTGTTGTGCTCGGTAGAGCAGCGTCGTGCTGCGATCTGTTGAGACTCAGCCCTGCGCCAGGTGATTCGT</t>
+          <t>GCATATTAGTAAGCGGAGGAAAAGAAACTAACCAGGATTTCCTTAGTAGCGGCGAGCGAACAGGAAATAGCCCAGCACTGAATCCCGCGGTTGTAACGATCGCGGGAGATGTGGTGTTCGGGAGGTTCCGCTTTCTCGTCGTCGCCGCTCCTGTCCAAGTTCGTCTTGAACGGGGCCGTTTTCCCGCAGAGGGTGCCAGGCCCGTAGCGACGGAGCGAGACGGCGAGAGGGACTCTCCTCAGAGTCGGGTTGCTTGAGAGTGCAGCCCTAAGTGGGTGGTAAACTCCATCTAAGGCTAAATATTACCGCGAGACCGATAGCGAACAAGTACCGTGAGGGAAAGTTGAAAAGAACTTTGAAGAGAGAGTTCAAGAGTACGTGAAACCGTTCAGGGGTAAACCTGCGAAACTCGAATGAACGAACGGAGAGATTCATCGTCATTCGGCGGCGTACGGACGCGCGCCTCGATGTGGCGCACCGTCATTCGCGTGGCGTTCTAGCGTTGCACGGGTCGCGTCCGTCGACGTCCGCCGACGGCGTGCACTTCTCTCTCAGTAATACATCGCGACCCGTTCGCGGTCGGCCTAAGCGCCGTCCGGGAGCCCCGCGGTCTCGTCCTAACCGGCGAGGCCGCGGGACCGTGACGGTACGCCGGCCGGCCAGCCGGACGGTATATTCTAAAGATTCGCGCACGCGCCTCGCGCGCGTCCGGCCCGACGCAAGCTCTTACGTCGTCTTCGCCGACGTCCTGCCTTGGCGCGGACGTTGGGGCGGCGTGGCTGTCGTCGCGGCCGTGCAGTCTCGGACCGTGCGCGTTTCAGTCTGCGATGATTCATTTTCGGGCACTCGCAGGACCCGTCTTGAAACACGGACCAAGGAGTCTAGCATGTGTGCGAGTCATTGAGTTTATATTCGAAGATAATGCACAAAACTGAAAGGCGCAACGAAAGTGAAGGCGCGCGCTAGTCGCGCGCTCAGGGAGGATGGAGCGTCGGTCTAGCGATCGTACTCCCGCACTCCCGAGGCGTCTCGTTTCCAATCCGTGAATGCAGGCGCGCTCTGAGCACAGATGCTGGGACCCGAAAGATGGTGAACTATGCCTGGTCAGGTCGAAGTCAGGGGAAACCCTGATGGAGGACCGTAGCGATTCTGACGTGCAAATCGATCGTCGGAACTGGGTATAGGGGCGAAAGACTAATCGAACCATCTAGTAGCTGGTTCCGTCCGAAGTTTCCCTCAGGATAGCTGGCGTCGATTATTAACAGTCCCATCCGGTAAAGCGAATGATTAGAGGCATTGGGGCCGAAACGACCTCAACCTATTCTCAAACTTTAAATGGGTGAGAACTCCGGCTTACTCGAACGATGAAGCCGGAGATCTGATGACGGTGCCAAGTGGGCCAATTTTGGTAAGCAGAACTGGCGCTGTGGGATGAACCAAACGTAGTGTTAAGGCGCCTAAAAAACGCTCATGGGACACCATGAAAGGCGTTGGTCGCTCATGACAGCAGGACGGTGGCCATGGAAGTCGGAATCCGCTAAGGAGTGTGCAACGACTCACCTGCCGAAGCAACCAGCCCTGAAAATGGATGGCGCTGAAGCGTTTTGCCTATACACTACCGTTACGGGCAATAGCGGCGTGTGCGCTCGCGCGCTCGTCCGCGTCATTATGCCGTAACGAGTAGGACGTGCGCGGCGGAGAGCGCAGAAGGGTCTGGGCGTGAGCCCGCCTGGAGCCTCCGTCGGTGCAGATCTTGGTGGTAGTAGCAAATACTCCAGCGAGGCCCTGGAGGACTGACGTGGAGAAGGGTTTCGCGTGAACAGTAGTTGCTCGCGAGTCAGTCGATCCTAAGCTCAAGGAGAGATCTTATGTCGATGTGGCGTGTTTCTTTTTTGAGACAAACAACGCCCTTTGAGCGAAAGGGAATCCGGTTCCTATTCCGGAACCCGGCAGCGGAACCGTTTCAATAATCGTTCCCTCGTTTCAAAGCGAGTGTTCGACGGGGTAACCCAAAGTGGCCTGAAGACGCCGCCGAGGGGTCCGGGAAGAGTTTTCTTTTCTGCCTGAGCGTTCGAGTTCCATGGAATCCTATAGAAGGGAGATATGGTTCGGAACGCGAAGAGCACCGCATTTGCGGCGGTGTCCGGATACTCTCTGCGGACCTTGAAAATTCAGGTGAGGGATGTACGTGGAGATGTCGCGCCGGTTCGTACCCATATCCGCAGCAGGTCTCCAAGGTGAAGAGCCTCTAGTCGATAGAATAATGTAGGTAAGGGAAGTCGGCAAATTGGATCCGTAACTTCGGAATAAGGATTGGCTCTGAGGACCGGGGCGTGTCGGGTTTGGACGGGAAGCGGATGCGGCCGGTGCCGGGCCTGGTCGATGCTCGTGCGCGCGCGCAGTTGCTTTTCGTGCGTGTCCCTGTAAAAGGGGGTGCGTTTCGGGGTGTCGCTCGTACGCGTTTCGGGCGGAATCCGGACCCGCGTTCCGGCCTTCCGCGGATCTTCCTAGCCGTAAGGCCGAGTCGGTTTCGTCTAGTGCGCGATCGGCGCGGTTCTGTACGACCGCCGTTCAACGGTCAGCTCAGAACTGGCACGGACAAGGGGAATCCGACTGTCTAATTAAAACAAAGCATTGCGATGGCCCTCGCGGGTGTTGACGCAATGTGATTTCTGCCCAGTGCTCTGAATGTCAACGTGAAGAAATTCAAGCAAGCGCGGGTAAACGGCGGGAAGTAACTATGACTCTCTTAAGGTAGCCAAATGCCTCGTCATCTAATTAGTGACGCGCATGAATGGATTAACGAGATTCCCGCTGTCCCTATCTACTATCTAGCGAAACCACAGCCAAGGGAACGGGCTTGGGAGAATCAGCGGGGAAAGAAGACCCTGTTGAGCTTGACTCTAGTCTGGCATTGTAAGGAGACATGAGAGGTGTAGCATAAGTGGGAGATCGTTCGCGGTCGTCGCTGAAAAACCACTACTTTCATTGTTTCATTACTTACTCGGTTGGGCGGAAGCGGTGCGCGGTCGATTATATCGGCGGGCGTACGGTGTTTCGTTCCAAGCGTGCAGAGTGGAGGCGTGGCGGCAACGCTCGTCTCCATACAACTCCCGCGTGATCCGGTTCGAGGACACTGCCAGGCGGGGAGTTTGACTGGGGCGGTACATCTGTCAAAGAATAACGCAGGTGTCCTAAGGCCAGCTCAGCGAGGACAGAAACCTCGCGTGGAGCAAAAGGGCAAAAGCTGGCTTGATCCAGATGTTCAGTACGCATAGGGACTGCGAAAGCACGGCCTATCGATCCTTTAGTATAAAGAGTTTTTAGCAAGAGGTGCCAGAAAAGTTACCACAGGGATAACTGGCTTGTGGCGGCCAAGCGTTCATAGCGACGTCGCTTTTTGATCCTTCGATGTCGGCTCTTCCTATCATTGCGAAGCAAAATTCGCCAAGCGTTGGATTGTTCACCCATCAAAAGGGAACGTGAGCTGGGTTTAGACCGTCGTGAGACAGGTTAGTTTTACCCTACTGATGGCTCGTCGTTGCGATAGTAATACTGCTCAGTACGAGAGGAACCGCAGTTTCGGACATTTGGTTCATGCACTCGGCCGAGCGGCCGGTGGTGCGAAGCTACCATCCGCGGGATTATGCCTGAACGCCTCTAAGGCCGAAGCCAGCCTAGCCGAATCCGGCAAGGATATTCTCACTGTGGAGCCCCGAGAGTCGGGAGGCCACTATACAATGTGACTTTAATAGTCGCGCTTCACGCGCGACGTCGAGGCCCATTTGGAACGCGGCGATCGATGCGAGCGGTCTTAACACGTGCATCACGGCGCCGAAGTTTCTAATTTACCTCAGTTCGATGTCGGGGCTCGGAATAGTCTGTAGACGACTTACGTTCCTGGCGGGGTGTTGTGCTCGGTAGAGCAGCGTCGTGCTGCGATCTGTTGAGACTCAGCCCTGCGCCAGGTGATTCGT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Athyma_lysanias</t>
+          <t>&gt;DL16V110Herona_osteria</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_40334698_+_atp6</t>
+          <t>&gt;DL16V110Herona_osteria_4043-4720_+_atp6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_38724033_+_atp8</t>
+          <t>&gt;DL16V110Herona_osteria_3891-4049_+_atp8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_1042411506_+_cob0</t>
+          <t>&gt;DL16V110Herona_osteria_10713-11540_+_cob_0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_14552969_+_cox1</t>
+          <t>&gt;DL16V110Herona_osteria_1471-3006_+_cox1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_30573719_+_cox2</t>
+          <t>&gt;DL16V110Herona_osteria_3070-3765_+_cox2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_47145499_+_cox3</t>
+          <t>&gt;DL16V110Herona_osteria_4720-5508_+_cox3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_1165012555__nad1</t>
+          <t>&gt;DL16V110Herona_osteria_11843-12610_-_nad1-a</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_2771149_+_nad2</t>
+          <t>&gt;DL16V110Herona_osteria_295-1266_+_nad2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_55725916_+_nad3</t>
+          <t>&gt;DL16V110Herona_osteria_5577-5930_+_nad3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_81129446__nad40</t>
+          <t>&gt;DL16V110Herona_osteria_8063-9190_-_nad4_0-b</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_94499709__nad4l</t>
+          <t>&gt;DL16V110Herona_osteria_9452-9736_-_nad4l</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_63187991__nad5</t>
+          <t>&gt;DL16V110Herona_osteria_6318-8035_-_nad5</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_988210391_+_nad6</t>
+          <t>&gt;DL16V110Herona_osteria_9929-10432_+_nad6_0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_1262813988__rrnL</t>
+          <t>&gt;DL16V110Herona_osteria_12696-14023_-_rrnL</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_1404214816__rrnS</t>
+          <t>&gt;DL16V110Herona_osteria_14085-14857_-_rrnS</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_59285993_+_trnA(tgc)</t>
+          <t>&gt;DL16V110Herona_osteria_5929-5994_+_trnA(tgc)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_13191382__trnC(gca)</t>
+          <t>&gt;DL16V110Herona_osteria_1326-1393_-_trnC(gca)</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_38063871_+_trnD(gtc)</t>
+          <t>&gt;DL16V110Herona_osteria_3816-3881_+_trnD(gtc)</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_61836248_+_trnE(ttc)</t>
+          <t>&gt;DL16V110Herona_osteria_6189-6254_+_trnE(ttc)</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_62476310__trnF(gaa)</t>
+          <t>&gt;DL16V110Herona_osteria_6253-6318_-_trnF(gaa)</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_55055571_+_trnG(tcc)</t>
+          <t>&gt;DL16V110Herona_osteria_5511-5576_+_trnG(tcc)</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_80438107__trnH(gtg)</t>
+          <t>&gt;DL16V110Herona_osteria_trnH</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_69133_+_trnI(gat)</t>
+          <t>&gt;DL16V110Herona_osteria_70-134_+_trnI(gat)</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_37363806_+_trnK(ctt)</t>
+          <t>&gt;DL16V110Herona_osteria_3746-3816_+_trnK(ctt)</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_1258112648__trnL1(tag)</t>
+          <t>&gt;DL16V110Herona_osteria_12612-12680_-_trnL1(tag)</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_29893055_+_trnL2(taa)</t>
+          <t>&gt;DL16V110Herona_osteria_3002-3069_+_trnL2(taa)</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_168_+_trnM(cat)</t>
+          <t>&gt;DL16V110Herona_osteria_1-69_+_trnM(cat)</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_60586122_+_trnN(gtt)</t>
+          <t>&gt;DL16V110Herona_osteria_6058-6124_+_trnN(gtt)</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_98069870__trnP(tgg)</t>
+          <t>&gt;DL16V110Herona_osteria_9839-9903_-_trnP(tgg)</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_131199__trnQ(ttg)</t>
+          <t>&gt;DL16V110Herona_osteria_132-200_-_trnQ(ttg)</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_59956057_+_trnR(tcg)</t>
+          <t>&gt;DL16V110Herona_osteria_5994-6057_+_trnR(tcg)</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_61216181_+_trnS1(gct)</t>
+          <t>&gt;DL16V110Herona_osteria_6123-6183_+_trnS1(tct)</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_1155811624_+_trnS2(tga)</t>
+          <t>&gt;DL16V110Herona_osteria_11587-11653_+_trnS2(tga)</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_97429805_+_trnT(tgt)</t>
+          <t>&gt;DL16V110Herona_osteria_9774-9838_+_trnT(tgt)</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_1397714041__trnV(tac)</t>
+          <t>&gt;DL16V110Herona_osteria_14021-14084_-_trnV(tac)</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_12591326_+_trnW(tca)</t>
+          <t>&gt;DL16V110Herona_osteria_1265-1333_+_trnW(tca)</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>&gt;17LW02028_Tarattia_bruijni_13861450__trnY(gta)</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>&gt;17LW02028_18S</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>&gt;17LW02028_5.8S</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>&gt;17LW02028_28S</t>
-        </is>
-      </c>
+          <t>&gt;DL16V110Herona_osteria_1394-1458_-_trnY(gta)</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATGATAAATAATTTATTTTCTATTTTTGATCCTTCAACTAACATTTTTAGTTTATCAATTAATTGAGTAAGAACTTTTATTGGTTTAATATTTATTCCTTATTCTTTTTGATTAATTCCTAATCGTCATTTTATTTTATGAAATTATGTGTCAAATAAATTACATGAAGAATTTAAAACTCTTTTAGGTCCTAATAGTTATAATGGATCAACTTTCATTTTCATTTCCTTATTTTTTTTTATTTTATTTAATAATTTTTTAGGATTATTTCCTTACATTTTTACAAGTACTAGACATTTAAATATTTCATTATCTTTATCTTTAACTTTATGATTAAGATTTATAATTTACGGGTGAATTAATAATACCCAACATATATTTATTCATATAATTCCTCAAGGAACTCCAACTATTTTAATACCATTTATAGTACTAATTGAAACAATTAGTAATATTATTCGTCCCGGTACTCTAGCTGTACGATTAACAGCAAATATAATTGCAGGACATTTATTGTTAACTTTATTAAGTAATACTGGAACAAATATACCTAATTATTTATTAATTATTTTAATTTTTATTCAAATTATATTATTAATTTTAGAATCTGCCGTAGCAGTAATTCAATCTTATGTTATTACTATTTTAAGTACTCTTTATTCTAGTGAAGTCAATTAA</t>
+          <t>ATGATAAATAACTTATTTTCAATTTTTGATCCCTCTACTAATTTATTTAACCTTTCTTTAAATTGAATCAGAATTTTTATCGGATTTATATTTATACCTTTTTCATTCTGATTTATTCCTAATCGTCATTTTATATTTTGAAATTTTATTTCAAATAAATTACATAATGAATTTAAAACTTTATTAGGACCTAATAGATTTAATGGATCAACTTTCATTTTCATTTCACTATTTTTTTTTATTTTTTTTAATAATTTTTTAGGATTATTTCCTTATATTTTTACCAGAACTAGTCATTTAAATATTTCATTAACATTATCTTTAACATTATGACTTAGATTTATAATTTATGGATGAATTAATAATACTCAACATATATTTATTCATTTAATCCCTCAAGGAACTCCAATAATTTTAATACCTTTTATAGTATTAATTGAAACTATTAGAAATATTATTCGACCAGGAACTTTAGCAGTCCGATTAACAGCAAATATAATTGCTGGACACTTATTATTAACATTATTAAGAAGAACTAGAAATTATATATCTTCTTATATATTAATTATTTTAATCTTTATTCAAATCTTATTATTAGTATTAGAATCAGCAGTAGCTATTATTCAAGCTTATGTAATTTCTACTTTAACAACTCTTTATTCTAGAGAAGTAAATTAA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ATTCCTCAAATAATACCTATTAATTGAATTTTTTCTTTCATTTTTTTTATTATAATTTTTATTATCTTTAATATCATAAATTATTTTATTTTTAATTATAAAAATATTAATTATAATAATAATAATAATAAAATTATAAAAAATAATTTTTCTTGAAAATGATAA</t>
+          <t>ATTCCACAAATAATACCTATTAATTGAATTTTTTCCTTCATTTTTTTTATTTGTATTTTTATTATTTTTATAATTATAAATTATTTTATTTTTAATTATAAATTTAATAATTTTAATAATAAAAATAAGTTAAATAAAAATATTCATATTTCAAATTGAAAATGATAA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ATGATAAATTTATATAAACCTATTCGTAAAACTCATCCAGTAATTAAAATTATTAATGGGTCATTAGTAGATCTTCCTACACCATCTAATATCTCATCTTGATGAAATTTTGGTTCCTTATTAGCTTTATGTTTAGTTACCCAAATTTTAACAGGATTATTTTTAACTATATATTATACAGCTAATGTAGATTTAGCTTTTTTTAGAGTAAACTATATTTGTCGAAATGTCAACTATGGTTGATTAATTCGAACCTTACATGCAAATGGAGCATCTTTTTTTTTTATTTGTATTTATTTTCATATTGGACGAGGAATTTATTATGAATCATTTAATTTAAAATTTACTTGAATAATTGGAGTTATTATCTTATTTTTATTAATAGCTACAGCTTTTATAGGATATGTTCTTCCTTGGGGACAAATATCTTTTTGAGGAGCTACAGTAATTACTAATTTATTATCAGCAATCCCATATTTAGGAACCATACTTGTAAATTGAATTTGAGGAGGATTTGCAGTTGATAATGCAACATTAACTCGATTTTATACTTTCCATTTCTTATTTCCATTTATTATTCTTATATTAACTATAATTCATTTACTATTTTTACACCAAACAGGTTCAAATAATCCTTTAGGAATTAATAGAAATTTAGATAAAATTCCTTTTCATCCATTTTTTACATTCAAAGATTTAATTGGATTTATTATTTTAATTTCAATTCTAACTTTTCTTTCTCTTATTAATCCATATTTATTAGGAGATCCAGATAATTTTATTCCAGCAAATCCCTTAGTTACACCTATTCATATTCAACCTGAATGATATTTTTTATTTGCTTATGCAATTCTCCGTTCTATTCCTAATAAATTAGGAGGTGTAATTGCTTTAGTTATATCAATTCTAATTTTAATTATTTTACCTTTTACCTTTAATAAAAAAATTCAAGGTATTCAATTTTATCCATTAAATCAAATTTTATTTTGATCTTTAATTACAACAATTATCTTATTAACTTGAATTGGAGCACGATCAGTAGAAGCACCTTATATTATTACTGGTCAAATTTTAACATTAATTTATTTTTCTTATTTTATTATTAATCCAATATTAAATAAATTTTGAGATAAATTAATTTTTAACTTATAG</t>
+          <t>ATGATAAATATATTCAAACCTATTCGTAACACTCATCCTGTTATTAAAATTATTAATAACTCATTAATTGATTTACCTTCACCATCTAATATTTCATCTTGATGAAATTTTGGCTCCCTTCTTGGATTATGCTTAATAACTCAAATTATCACAGGTTTATTTTTAACTATATATTATACTGCTAATATTGAATTAGCTTTTTTCAGTGTAAATTACATTTGTCGAAATGTTAATTATGGGTGATTAATTCGTACTTTACATGCTAATGGAGCATCTTTTTTTTTTATTTGTATTTATTTTCATATCGGTCGAGGAATTTATTATGAATCATTTAATTATAAATATACGTGAATTGTAGGAATTCTTATTTTATTTTTACTTATAGCAACAGCATTTATAGGGTATGTACTACCTTGAGGTCAAATATCCTTTTGAGGTGCTACAGTAATTACTAATTTACTTTCAGCTATTCCTTATTTAGGAAATATATTAGTAAATTGAATTTGAGGAGGATTTGCTGTTGATAATGCTACTTTAACTCGATTTTATACTTTTCATTTTCTATTTCCATTTATTATTTTAATATTAACAATAATTCATTTATTATTTCTTCATCAAACAGGATCTAATAATCCTTTAGGTATTAATAGAAATTTAGATAAAATTCCTTTTCATCCTTTCTTTGTATTTAAAGATTTAATTGGATTTATTATTTTAATTTTTTTATTAATTTTATTATCATTAACTAATCCATATTTACTAGGAGATCCAGATAATTTTATTCCAGCAAATCCTTTAGTTACTCCTATTCATATCCAACCAGAATGATATTTTTTATTTGCTTATGCAATTTTACGTTCAATTCCCAATAAGTTAGGAGGTGTAATTGCCTTAGTTATATCAATTTTAATTTTAATTATTTTACCTTTCACATTTAATAAAAAAATTCAAGGAATTCAATTTTATCCTATTAATCAAATTTTATTTTGATCATTAATTTCTATTATTATTTTACTAACTTGAATTGGAGCTCGATCAGTAGAAATTCCTTATATTTTAACAGGACAAATTCTTACAGTAATTTATTTTTCTTATTTTATTATTAACCCCATTTTAAACAAATTTTGAGATAAATTAATTTTTAATTTTTAA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TTGCGAAAATGACTTTTTTCTACAAATCATAAGGATATTGGAACTTTATATTTTATTTTTGGAATTTGAGCAGGTATAGTAGGTACATCTTTAAGTTTATTAATTCGTACTGAATTAGGAAACCCAGGCTCTTTAATTGGTGATGACCAAATTTATAACACTATTGTAACAGCTCATGCCTTTATTATAATTTTTTTTATAGTTATACCCATTATAATTGGAGGTTTTGGAAATTGATTAGTCCCCTTAATATTAGGAGCCCCAGATATAGCATTCCCCCGTATAAATAATATAAGATTTTGACTTTTACCCCCATCTTTAATTCTTTTAATTTCTAGTAGAATTGTTGAAAATGGAGCAGGTACAGGATGAACAGTTTATCCCCCACTTTCATCTAATATTGCTCATGGCGGTTCTTCTGTTGATTTAGCTATTTTCTCCCTTCATTTAGCTGGTATTTCATCAATTTTAGGAGCAATTAATTTTATTACAACTATTATTAATATACGAGTTAATAATATATCTTTTGATCAAATACCTTTATTTATTTGATCTGTTGGTATTACAGCCCTTCTTTTATTATTATCKTTACCTGTGTTAGCAGGAGCTATTACAATACTTTTAACTGATCGTAATTTAAATACTTCATTTTTTGACCCAGCAGGAGGAGGAGATCCTATTTTATATCAACATTTATTTTGATTTTTTGGACATCCAGAAGTCTATATTTTAATTCTACCTGGATTTGGTATAATTTCTCATTTAATTTCCCAAGAAAGAGGAAAAAAAGAAACTTTTGGTTATTTAGGAATAATTTATGCTATAATAGCAATTGGTTTACTAGGATTTATTGTTTGAGCTCATCATATATTTACAGTAGGTATAGACATTGATACTCGTGCTTATTTTACCTCAGCTACTATAATTATTGCAGTACCAACAGGAATTAAAATTTTTAGTTGACTTGCTACTCTCCATGGAACTCAAATTAATTATAGTCCTTCTATATTATGAGGATTAGGATTTATTTTTTTATTCACAGTAGGAGGATTAACAGKAGTTGTTTTAGCTAATTCTTCTATTGATATTACTCTTCATGATACTTATTATGTTGTAGCACATTTCCATTATGTATTATCAATAGGAGCTGTATTTGCAATTTTTGGGGGATTTATTCACTGATACCCATTATTTACAGGATTATCAATAAATCCTTATTTACTAAAAATTCAATTTATTTCTATATTTATTGGAGTTAATTTAACTTTTTTCCCCCAACATTTTTTAGGTTTAGCTGGTATACCTCGTCGTTACTCAGATTATCCTGATAGTTTTATTTCTTGAAATATTATTTCTTCTCTTGGATCTTATATTTCATTATTTTCAATAATTATAATAGTAATTATTGTTTGAGAATCAATAATTAATCAACGTTTAATTCTTTTTTCATTAAATATATCTTCATCAATTGAATGATATCAAAATTTACCTCCTGCTGAACATTCATATAATGAATTACCTATTTTAAGTAATT</t>
+          <t>CGAAAATGATTATTTTCTACAAATCATAAAGATATTGGTACTTTATATTTTATTTTTGGAATCTGAGCAGGAATAGTAGGAACATCTCTTAGTTTATTAATTCGAACTGAATTAGGTAATCCAGGTTCTTTAATTGGTGATGATCAAATTTATAATACTATTGTTACAGCTCACGCTTTTATTATAATTTTTTTTATAGTTATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTTCCATTAATATTAGGAGCTCCTGATATAGCCTTCCCCCGAATAAATAATATAAGATTTTGATTACTACCCCCTTCTTTAGTACTACTAATTTCTAGAAGAATCGTAGAAAATGGAGCAGGAACAGGATGAACAGTATACCCACCACTTTCATCTAATATTGCTCATAGAGGTTCTTCTGTTGATTTAGCTATTTTTTCTTTACATTTAGCTGGTATTTCGTCAATTTTAGGAGCTATTAATTTTATTACTACAATTATTAATATACGAATTAATAATTTATCTTTTGATCAAATACCTCTATTTGTATGAGCTGTAGGAATTACAGCTTTACTTTTACTTTTATCTTTACCAGTTTTAGCTGGAGCTATTACTATATTATTAACTGATCGTAATATCAATACATCTTTTTTTGACCCTGCTGGAGGAGGAGATCCTATTTTATACCAACATTTATTTTGATTTTTTGGTCATCCTGAAGTATATATTTTAATTCTTCCCGGATTTGGAATAATTTCTCATATTATTTCACAAGAAAGAGGTAAAAAGGAAACTTTTGGCTGTCTTGGTATAATTTATGCAATAATAGCAATTGGATTATTAGGATTTATTGTATGAGCACATCATATATTTACTGTAGGAATAGATATTGATACACGAGCTTATTTTACTTCAGCAACTATAATTATTGCTGTTCCAACTGGAATTAAAATTTTCAGATGACTAGCAACTTTACATGGAACACAAATTAATTATAGACCTTCTATATTATGAAGATTAGGATTTATTTTCTTATTTACTGTAGGAGGGTTAACAGGAGTAATTTTAGCTAATTCTTCTATTGATATTACTCTCCATGATACATATTATGTAGTTGCCCATTTTCATTATGTATTATCTATAGGTGCCGTATTTGCTATTTTTGGTGGATTTGTTCATTGATATCCATTATTTACCGGATTAATAATAAATAATTACTTATTAAAAATTCAATTTATTTCAATATTTATTGGAGTAAACTTAACTTTTTTCCCTCAACATTTTTTAGGTTTAGCAGGCATACCTCGACGATACTCTGATTATCCAGATAGATTTTTATCTTGAAATATTATTTCATCATTTGGATCTTATATTTCATTAATTTCTATAATAATAATAATTATTATTGTATGAGAATCAATAATCAATCAACGAATTATTCTCTTTTCTTTAAATATACCATCATCAATTGAATGATATCAAAATTTACCACCAGCAGAACATTCATATAATGAACTTCCTATTTTAAGTAATTTCTAA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ATGGCAACATGATCTAATCTTAATTATCAAAATAGAGCTTCTCCTTTAATAGAACAAATTATTTTTTTCCATGATCATACTTTGATTATTTTAATTATAATTACAATTTTAGTATCTTATCTAATAATTAGTTTATTTTTTAATAAATATATTAATCGATTCTTATTAGAAGAACAAATAATTGAATTAATTTGAACTATTTTACCAGCAATTACTCTTATTTTTATTGCTTTACCCTCTCTTCGACTTTTATATCTTTTAGACGAATTAAATAATCCTTTAATTACATTAAAATCTATTGGCCATCAATGATACTGAAGTTATGAATATTCTGATTTCAATAATATTGAATTTGATTCATATATAATTCAATCAACTGATAATTTATCTAATTTTCGACTATTAGACGTAGATAATCGAATTGTTTTACCTATAAATAATCAAATTCGAATTTTAATTACAGCTACAGATGTAATTCATTCATGAACTATTCCATCTTTAAGTGTAAAAGTTGATGCTAATCCTGGACGATTAAACCAAACAAGATTTTTTATTAATCGACCTGGTATTTTTTATGGTCAATGTTCTGAAATTTGCGGAGCTAATCATAGTTTTATACCCATTGTAATTGAAAGAATTTCAATTAAAAATTTTATTAATTGAATTAATAATTATTCAT</t>
+          <t>ATGGCAACATGATCTAATCTTAATTATCAAAATAGAGCATCTCCTCTCATAGAACAAATTATTTTTTTTCATGATCATACTTTGATTATTTTAATTATAATTACTATTTTAGTTTCATATTTAATATTAAGTTTATTTTTTAACTCCTATATTAATCGATTTTTACTAGAAGAACAAATAATTGAATTAATTTGAACAATTCTTCCAGCTATTACTTTAATTTTTATTGCATTACCATCACTTCGCTTATTRTATTTATTAGATGAACTTAATAATCCCTTAATTACTTTAAAATCAATTGGACATCAATGATATTGAAGATATGAATATTCTGATTTTTCTAATATTGAATTTGATTCTTATATAATTAGATCTCCAGAATCTATTAATAATTTTCGCCTTTTAGATGTTGATAATCGTATTATTTTACCAATTAATAACCAAATTCGAATTTTAATTACTGCTACCGATGTTATCCATTCATGAACTGTTCCTTCATTAGGAATTAAAGTTGATGCAAATCCTGGACGATTAAATCAAACAAGATTTTTCATTAATCGTCCAGGTTTATTTTTTGGGCAATGTTCAGAAATTTGTGGAGCAAATCATAGTTTTATACCTATCGTAATTGAGGGAATTTCAATCAAAAATTTTATTAATTGAATTAATAATTATTCATTAGATGACTGAAAGTAA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ATGACCCTTAATCATAATCATCCTTATCACTTAGTAGATTATAGTCCTTGACCATTAACTGGAGCTATCGGTGTAATAACTTTAGTAACTGGCTTAGTAAAATGATTTCATAATTTTAGATTAAATTTACTTATTTTAGGATATATTATTGTTTTATTAACAATATATCAATGATGACGAGATATTTGTCGTGAAGGTACTTATCAAGGTAAGCACACAATTTTAGTTACAAAAGGTCTTCGATGAGGAATAATTTTATTTATTATTTCAGAAATTTTTTTTTTTATTTCATTTTTTTGAGCATTTTTTCATAGAAGTTTATCCCCTAATATTGAAATTGGATCTATATGACCTCCTATAAGAATTGTGGCATTTAATCCATTCCAAATTCCTCTATTAAATACTATTATTTTAATTACATCAGGAATTACTGTTACTTGAGCTCATCATAGTTTAATAGAAAATAATTTCACTCAAACTTTCCAAAGTTTATTAATTACTGTATTATTAGGAACTTATTTTACTATTATTCAAGCTTATGAATATATTGAAGCTCCTTTTACAATTGCAGATAGAGTTTATGGATCAACTTTTTTTATAGCCACAGGATTCCACGGACTTCATGTTATTATTGGAACTATTTTTCTTTTAACTTGTTTAATTCGTCATAAAAATAATCATTTTTCTAACTCTCATCACTTTGGATTTGAAGCAGCAGCATGATACTGACATTTTGTTGATGTAGTATGATTATTCCTGTATATTTTTATTTATTGATGAGGAAATTAA</t>
+          <t>ATGTCACTTAATCATAATCATCCATTTCATTTAGTAGATTATAGACCCTGACCTTTAACTGGAGCTATTGGAGTTATAACATTAGTAACAGGTTTAGTCAAATGATTTCATAATTTTAATATAAATTTATTAATTTTAGGTTATATTATTGTATTATTAACAATATATCAATGATGACGAGATATTTGTCGAGAAGGAACTTTTCAAGGAAAACATACTATTTTAGTTACAAAAGGTCTTCGATGAGGTATAATTTTATTTATTATCTCAGAAATTTTTTTTTTTTTTTCATTCTTTTGAGCTTTTTTTCATAGTAGTTTATCTCCTAATATTGAAATTGGTGCAATATGACCTCCTATAGATATTATTACTTTTAACCCATTCCAAATTCCATTACTTAATACTATCATTCTAATTACTTCAGGTATTACAGTTACTTGAGCTCATCATGCTTTAATAGAAAATAATTTCACTCAAGTAACTCAAAGCTTATTTATTACCGTTATTTTAGGAATTTATTTTACTATTCTTCAAGCTTATGAATATATTGAAGCACCATTTTCAATTGCAGATAGAATTTACGGATCAACATTCTTTATAGCAACAGGATTCCATGGATTACACGTTATTATTGGAACAATTTTTCTTCTTACATGTTTAATTCGTCATTTAAATAATCACTTCTCTAAAACACATCATTTTGGATTCGAAGCAGCAGCATGATATTGACATTTTGTTGATGTAGTATGATTATTCCTTTATATTTCAATCTACTGATGAGGAAATTAA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ATGTTAATACAAGATTTATATAATATTTTAATTGGTTTATTAATTTTATTAATTGGGGTTTTAATTGGGGTTGCTTTTTTAACATTATTAGAACGAAAAGTTTTAGGATATATTCAAATTCGGAAAGGCCCTAATAAAATAGGTATTATAGGGGTTTTACAACCTTTTTGTGATGCTATTAAATTATTTTCTAAGGAACAAGTTTATTTAAATTATTCTAATTATTTTTCTTTTTATTTTTCTCCTGTTGTAAGATTTTCTTTGTCTTTAATTATTTGAATATTAATTCCTTATTTTTTTAATTTAATTGTTTTTAATTTAGGATTATTATTTTTTTTATGCTGTGCAAGAATTGGAGTTTATACTTTATTAATTGCAGGGTGATCTTCTAATAGAAATTATTCTTTATTAGGGGGTTTACGGGCAGTAGCTCAAACAATTTCTTATGAAGTTAGATTATCTTTAATTTTAATATCTAGTATTATTTTKATTATAGATTTTAATATACTTAAGTTTAGAGAATATCAGTATTTAATTTGATTCATAATAATAATAATACCTTTAAGAATATGTTTTTTATCTTCATTAATAGCTGAAACTAATCGTACACCTTTTGATTTTGCAGAAGGGGAAAGAGAATTAGTTTCAGGGTTTAATATTGAGTATAGAAGAGGTGGATTTGCTTTAATTTTTTTAGCAGAATATTCTAGTATTTTATTTATAAGTTTATTATTTGTAATTATTTATATAGGAGGTTATGATTTAAATTTAATATTTTATTTAAAATTAGTATTTTTATCTTTTTTTTTTATTTGAGTTCGAGGGACATTACCTCGTTATCGGTATGATAAATTAATATATTTATGTTGAAAAAGATATTTACCTTTATCATTAAATTATTTATTATTTTTTATAGGGGTGAAAATAATTTTAGTGTATAAAATAAATTTAGTATAA</t>
+          <t>ATGATATATATAGATATATTAAATATTATAATTGGATTACTAATTTTAATTATTGGAGTTATAATTGGTGTAGCATTTTTAACTTTATTAGAACGAAAAATTTTAGGTTATGTTCAAATTCGGAAAGGTCCTAATAAAATAGGTTATTTAGGAATTTTACAGCCTTTTTGTGATGCTATTAAATTATTCTCTAAAGAACAAGTATATTTAAATTATTCTAATTATATAGTATATTATATTTCTCCTATTATAAGGTTTATATTATCATTAATATTATGAATATTAATTCCTTATATATTTAATATAGTTGTTTTTAATATGGGTATTTTATTTTTTTTATGTTGTACTAGAATGGGTGTTTATACAGTTATAATTGCTGGGTGATCTTCGAATTCTAATTATTCATTATTAGGAGGTTTACGAGCTGTAGCTCAGACAATTTCTTATGAAGTTAGACTTTCTTTAATTATAATATCAAGAATTATTATAATTATAGATTTTAATTTAATAAAATTTTTTAACTATCAAATATTAATTTGATTTATTTTTTTAATAATACCATTGAGATTATGTTTCTTATCTTCTTTAATAGCAGAAACTAATCGAACTCCATTTGATTTTGCTGAGGGAGAAAGAGAATTAGTATCTGGGTTTAATACTGAATATAGAAGAGGGGGATTTGCCTTAATTTTTTTAGCTGAATATGCTAGAATTTTATTTATAAGATTATTATTTGTAATCATATATATGGGAGGATATGATTTAAATTTAATATTTTATATAAAATTAGTATTTTTATCTTTTTTTTTTATTTGAGTGCGGGGAACATTACCTCGATATCGTTATGATAAATTAATATATTTATGTTGAAAAAGATATTTACCTATTTCTTTAAATTATATTTTATTTTATTTAGGATTAAAAATATTTTTTAGTTAA</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ATTATTTTAATAACTAATTCTAATAAAATATTTTTTTTATTTATTTTATTTTTTAGAACCTTAGTTTCTGTATCTGCTAATTCATGACTAGGTTGTTGAATTGGTTTAGAAATTAATTTATTAAGATTCATCCCCCTTATTTCAACCCATAATAATCTTTTAAATTCAGAAGCTTCCTTAAAATATTTTCTTACTCAATCAATTGCATCAATTAATTTTTTATTTTCAATTTTATTAAGATTATTTCTAATAAAAAATTTTTTTTTCAATAATTTTTTTTCAATTATTATTAATTCCTCTTTGTTAATAAAAATAGGATCAATTCCATTTCATTTTTGATTCCCTAATATTATAGAAGGTCTTTCATGATTTAATTGTTTTATTTTAATAACCTGACAAAAAATTTCCCCTATAATTCTTTTATCTTATTATTTTAATTTAAATTTTTTATATTTTATTATAATCTTTAATGTAATAATTGGAGCTATTGGTAGATTTAATCAAACTTCATTACGAAAATTAATAGCTTTTTCTTCAATTAATAATTTAGGATGAATAATTTCATCAATAATTATTAGTGAAAACTTATGATTAATTTATTTTATTTTCTACTCAATTTTCACATTTATTATGTGTTTTTTATTTTATATTATTAATATTTTTTTTATTAGTCAATTATTTTTTTTTAATATAAATTTTTTAATTAAGATTTCTATTATAATTAATTTTCTTTCTCTAGGAGGTTTACCTCCTTTTTTAGGATTTTTCCCTAAATGACTTGTTATTAATTATTTATTAAATAATAATTTCTTTATTATTTCTTTTGTATTTATTATATCAAGCTTAATTATATTATTTGTTTATATTCGTATTATTTATTCTTCATTATTATTTTTTTCTTTCAAATTAAAATGATTTAAAATTTTTATTAAAAATAATTCTTTAATTTTTATTTATTTCTTTAATTTTATTTCTTTATTTGGTATAATTATCAGAACTTTTTTTTTTTAA</t>
+          <t>ATCTTACTTATAATAAATTCTAATAAAATATTTTTTTTATTTATTTTGTGTTTTAGTACATTAATTTCTATTTCTTCCAACTCATGATTAGGTTGTTGAATTGGATTAGAAATTAATTTAATAAGTTTTATCCCACTAATTTCAAACCCCAATAATTTATTAAATTCAGAAGCTTCCCTAAAATATTTTCTAACCCAATCCATTGCCTCTATTAATTTTCTATTTTCTATTTTATTAAATTTAATAATTATAAAAAATTTTTTAATTGATAATTTTATTTCTATCCTTATTAATTCCTCCATATTAATAAAAATAGGATCAGTACCTTTTCATTTTTGATTCCCCAATATTATAGAAGGTTTATCTTGATTAAATTGTTTTATTTTAATAACTTGACAAAAAATTACCCCCATAATTTTATTATCATATTATTTAAATTTAAATTTTTTATTTTTTATTTTAATTTTAAATGTAATTATTGGAACTATTGGAAGTTTTAATCAAATTTCTTTACGTAAATTAATAGCATTTTCTTCAATTAATAATTTAGGGTGAATACTTTCAGCTCTAATAATTAGAGAAAATTTATGAATGATTTATTTTATTTTTTATTCATTCTTTATTTCTTTCTTATGTTTTTTATTTTATATTTTAAATATTTTTTATATTAATCAATTATTTAATTTTAATTTAAATTTTTTAATTAAAATATCTATTATAATTAATTTCCTTTCTTTAGKAGGTTTACCCCCATTTTTAGGATTTTTCCCTAAATGATTAATTATTAATTATCTTTTAATAAATAATTTATTTATTATTACTTTTATTTTTATAATAACAAGATTAATTATATTATTTATTTATATTCGTATTATTTATAGATCTTTTATATTTTTTTCTATTAAATTAAAATGATTTAAAATTTATATTAAAAATAATTATTTTATTATTATTAATTTTTTTAGATTTATTTCTCTTTTAGGAATAATTATTAGAACTTTTTTTTTTATTTAA</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ATTAATTTAATAATATTAATATCTTTAATTATAATTATCATTGCTAATATCTTTATAAGAATTTCATTTATTATTTCTAAAAAATCTTTTCTTGACCGAGAAAAATGTTCTCCTTTTGAGTGTGGATTTGATCCTAAATCGCTTTCTCGTATCCCATTTTCTCTTCATTTTTTTTTAATTACAGTAATTTTTTTAATTTTTGATGTAGAAATTGCTTTAATCTTCCCTATAATTCCAACTTTTTTAAGAGTTAATTTTATTACTTGATTTAAAATTAATTTTTTTTTTATTATTATTTTATTAGTAGGTCTTTATCATGAATGAAATCAAAATATATTAAACTGAACAAATTAA</t>
+          <t>ATTATTTTATTATTTATCATATCTTCCATATTAATTACTATTTCTTTTATTTTAATAACTATCTCATTTATTATTTCAAAAAAATCATCCCTTGATCGAGAAAAATGTTCCCCGTTTGAATGTGGTTTTGACCCTATATGTATTGCTCGAATTCCTTTTTCATTACATTTTTTCTTAATTACAATAATTTTTTTAATTTTTGATGTAGAAATTGCATTAATCTTCCCTATTATTCCAAATTTTCTCATAGTTAAATTTTTTATTTGATATAAAATTAGTTTTTTTTTTATTATTATTCTTCTAATTGGACTATACCATGAATGAAACCAAAATATATTAATATGAGCTAATTAG</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>ATGATAAAATTTTTAATAATAATAATTTTTATAATTCCTTTATGTTTTAAAAAAAATATATTTTGATTGGTTCAAATATTATTAATATACATAATATTTATATTTATGAATTCTACTATTAGTATTATAAATTTTTGTAATTTAAGTTATATATTAGGTTATGATATAATTTCCTATGGATTAATTTTATTAAGAATTTGAATTAGAAGATTAATAATTATAGCAAGAGAGAGATTATATAAAAGTAATTTTTATTCAAATTTATTTTTATTTAATATTATTTTTTTAATAATAATATTATATTTAACTTTTAGAGTAATAAATTTATTTATATTTTATTTATTTTTTGAAAGAAGATTAATTCCAACTTTAATACTAATTATTGGTTGAGGATATCAACCGGAACGAATTCAGGCGGGCATATATTTATTATTTTATACTTTATTTGCTTCTTTACCTTTATTAATAGGGATTTTTTATTTATACAAAAATATAAATTATATAATAATTTATTTTTTAAAATTTTATGATTATAATTTATTAATATTATATTTATGTTTAGTAATAGCATTTTTAGTAAAAATACCTATATATTTTGTACATTTATGATTACCTAAAGCTCATGTAGAAGCTCCAATTTCTGGTTCAATAATTTTAGCCGCAATTATATTAAAATTAGGTGGGTATGGTTTGTTACGAGTAATAATTACTTTACAGGAAATTAATTTAAAAATAAGATTTATTTGAATAGTAATTAGATTAATTGGGGGATTTTATATTAGATTAAAATGTTTTTGTCAAATTGATATAAAATCTTTAATTGCCTATTCATCTGTTGCTCATATAAGAGTTGTAATTGGTGGAATTATAACTATAAATTATTGAGGTTATATAGGGTCTTATATTTTAATGATCGGGCATGGATTATGTTCTTCTGGTATATTTTGTCTATCAAATATAAATTATGAGCGATTAAATAGTCGAAGTTTATTTATTAATAAGGGAATAATAAATTTTATACCTTCTATAAGATTGTGATGATTTTTATTAATATCTTCAAATATGGCTGCTCCTCCTTCTTTGAATTTAATAGGAGAAATTAGATTAATTAATAGATTAGTTAGATGATCTTGATTAAGAATAATTATATTAATATGTATCTCATTTTTTAGAGCTGGTTATAGATTATATTTATATTCTTATACTCAACATGGAAAGTATAATATAGGAATTTATAGATTTTATACAGGAACATCACGAGAATATTTAATATTAATATTACATTGATTACCTTTAAATATCTTAATTATAAAAATTGATTATAGAATAATTTGATTTT</t>
+          <t>ATGATAAAATTTTTAATAATAATAATTTTTATAATTCCTTTATGTTTTAAAAAAAATATGTTTTGATTGGTGCAAATAATAATAATAATAATATTTTACATATTTATAAATTTAAGTTTAAATATTGAAAACTTTTCTAATTTAAGATATATATTAGGTTGTGATATAATTTCTTATGGTTTAATTATATTAAGAATTTGAATTAGATTTTTAATAATTATAGCAAGTGAAAATTTATTAAAAATAAATTTTTATTCTAATTTTTTTTTAATAAATATTATTTTATTAATAATTATATTATATTTAACATTTAGAGTAATAAATTTATTTTTATTTTATTTATTTTTTGAAGGGAGATTAATCCCAACATTAATATTAATTATTGGATGGGGGTATCAACCAGAACGAATTCAAGCGGGGATATATCTTTTATTTTATACATTATTTGTGTCTTTACCATTATTATTAGGAATTTTTTATATTTATAATAAAATAAATTTTATAATAATATATTTTATGAAATTTTATGATTATAATATAATATTATTATATATAAGAATAGTAATAGCTTTTTTAGTAAAAATACCAATATATTTTGTTCATTTATGATTGCCAAAAGCTCATGTAGAAGCTCCAATTTCTGGGTCAATAATTTTAGCTGCTATTATATTAAAATTAGGGGGTTATGGATTATTACGAGTTTTAATTATTCTACAAAAAATTAATATAAAAATAGGATTTATTTGAATTATTATTAGATTAATTGGGGGATTTTATATTAGATTAAAGTGTTTTTGTCAAGTTGATATAAAATCTTTAATTGCATATTCATCAGTTGCTCATATAAGACTTGTTATTGGGGGTATTATAACAATAAATTATTGAGGATTTTTAGGTGCTTATATTTTAATAATTGGGCATGGATTATGTTCTTCAGGAATATTTTGTTTATCTAATATTATATATGAACGAATAAGTAGACGAAGATTATTTTTAAACAAAGGTTTAATAAATTTTATACCTTCAATAAGTTTATGATGATTTTTATTTATATCCTCTAATATAGCAGCTCCTCCCTCTTTAAATTTAATGGGGGAAATTAGATTAATTAATAGATTAGTTAGATGATCTTGATTAAGAATATTAATATTAATAATAATTTCATTTTTTAGAGCTGGTTATAGATTATATCTTTATTCATTTACTCAACATGGAAAATATAATATGAGAATTTATAGATTTTATAATGGGGTATCTCGAGAATATTTAATATTAATATTACATTGATTACCTTTAAATATTTTAATTTTAAAAATTGATTATAGAATAATTTGATTTT</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ATGTTAAATATAAGATTAATTATTATTATCATGTTTATATTTGGGAATATAATTTTTGTATCTAAACATAAACATTTATTAATTGTTTTAATAAGTTTAGAGTTTATAGTATTAAGAATTTTTTTTTTAATATTATTATATCTTATAATAATTAATTATAATTTATATATATTAATAGTATTTTTAGTTTTTTCTGTTTGTGAGGGGGCTCTTGGGCTTTCAATTTTAGTTTCCATAATTCGAACACATGGAAATGATTATTTTCAGAGTTTTAATTTAATTTAA</t>
+          <t>ATGATAATAAATATATTAGTTATTTTTATAATGTATTTAGTTGGAAATATGATTTTTGTTTCTAAACATAAACATTTATTAATTGTATTATTAAGATTAGAATTTATTGTTTTAAGAATTTTTTTTTTTTTCATAATTTATTTAATAATAATTGATAATAATATGTATATATTAATAGTTTTTATGGTATTCTCTGTTTGTGAAGGAGCGTTAGGTTTATCAATTTTAGTTTCAATAATTCGAACTCATGGAAATGATTATTTTCAAAGTTATAATTTAATTTAA</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ATTAATAAATTTAGTATTTGTTTTATTAGATTTTTTTTTTTATTTTTTTTTATATTAATTAATTTTTTTAGAATAATTTATTTTATTATATTTAATAAGATTATTTTTTTGGAGTGAGAAGTTATTTCTTTTAATTCAATTAATATTGTATTTTCTATTTTATTAGACTGAATATCTTTATTATTTATAATATTTGTTTCTTTAATTTCTTCTTGTGTTATTTTTTATAGAAAAAGATATATAAGATCTGAATTAAATTTAAATCGATTTATTATTTTAGTTTTATTATTTGTATTTTCAATAATTTTATTAATTATTAGTCCTAATATAATTAGAATTTTTTTGGGATGAGATGGTTTGGGTTTAGTTTCTTATTGTTTAGTAATTTATTATCAAAATATTAAGTCTTATAATGCTGGGATATTAACAGCTTTATCAAATCGAATTGGGGATGTAATAATTTTAATACTAGTTTCTTGAATATTAAATTATGGTAGATGAAATTATATTTTTTATTTAAATTTTATAAGAAATGATTTTTCTATAAAGATTATTAGATTATTAGTAATTATTGCTGCTATAACTAAAAGAGCTCAAATTCCTTTTAGATCTTGATTGCCTGCTGCAATAGCTGCTCCTACTCCAGTTTCTGCTTTAGTTCATTCTTCAACTTTAGTTACTGCAGGGGTTTATTTATTAATTCGATTTAATAATGTTTTAGTTGAAATATTTTTTTTAAAATTTTTATTATTATTTTCTGGGTTAACTATAATAATAGCTGGAATTTGTGCTAATTATGAATTTGATTTAAAAAAAATTATTGCTTTATCAACTTTAAGTCAATTAGGTTTAATAATAAGAATTTTAAGAATAGGATTTTATGATTTAGCTTTTTTTCATTTATTAACTCATGCTATATTTAAGGCTTTATTATTTATATGTGCTGGGGTAATTATTCATATAATAAATAATAATCAAGATATCCGTATAATAGGGGGTATTAGATTTTATATTCCTTTAACTTCTTTATGTTTAAACATTTCAAATTTAGCTTTATGTGGTATTCCTTTTTTAGCTGGATTTTATTCTAAGGATATAATTTTAGAGATAGTGAGTATAAGTAATTTAAATTTATTAATTTTTTATTTATATTATTTTTCAACAGGATTAACAATATTTTATACTATTCGATTATTAATATATTTAATAATTAATGATTATAATTTATTATCTATTTATAATTTATATGATGAAGATTATGTAATATTAAAAAGTATATTTGTTTTATTATTCATAAGTTTGGTTTCTGGTAGTTTTTTAAGTTGATTAATTTTTTATTATCCTTATATAATTTATTTACCAATTTCTTTAAAAATAATAGTGATTTATGTAAGAATTGGGGGGATATTTATAGGATTATTAATTAGTAATATAAATATTTATTCATTAAATAAATTTTTAATATTTTATAATTTAAGAGGATTTTTAACTTTAATATGATTTTTACCAAATTTATCTACTTATGGTTTAAATTATTATTTTTTAAAATTTGGTCAAATTTTAGGTAAAAATATTGATATAGGGTGAAGAGAAATTTATAGAGGTCAAGGAATATATAAAATTATTAAATTTTATTCTTTAATTAATATAATTTATCAAATAAATAATTTTAAAATTTATTTATTTAGATTTATTTTATGAATAATAATTTTTATTATTTTAATTATAATTT</t>
+          <t>ATTCATAAATACTCTATTTGTTTTATTAGATTTTTTTTTTTATTTTTTTTTATATTAATTAATTTTTTTATAATAATTTATTTTATTATAAATAATATTAGATTATTTTTTGAGTGGGAGATTATTTCTTTTAATTCAATAAATATTGTTATATCTATTTTGTTAGATTGGATATCGTTATTATTTATAATGTTTGTTTCTTTAATTTCTTCTTCTGTTATTTATTATAGAAAAAGATATATAAAATCAGATTTAAATTTAAATCGTTTTATTATTTTAGTTTTATTATTTGTATTTTCTATAATTTTATTGATTATTAGACCTAATATAATTAGAATTTTTTTAGGATGAGATGGTTTGGGATTAGTGTCTTATTGTTTAATTATTTTTTATCAAAATATTAAGTCTTATAATGCTGGAATATTAACAGCATTATCAAATCGAATTGGGGATGTAATAATTTTAATATTGATTTCTTGGATAATAAATTATGGAAGATGAAATTATATTTTTTATTTAGATTTTATAAGTAATGATTATTCAATAAAAATTGTAGGTATATTAGTTATTTTAGCTGCTATAACTAAAAGAGCTCAAATTCCTTTTAGATCTTGATTACCTGCTGCTATAGCAGCTCCAACTCCTGTTTCTGCTTTAGTTCATTCTTCTACTTTAGTAACTGCTGGTGTTTATTTGTTAATTCGATTTAATGTTTTATTAATTGATTTATTTTTTTTAAAATTTTTATTGTTAATTTCAGGATTAACAATATTTATAGCCGGGGTATGTGCAAATTATGAATATGATTTAAAGAAAATTATTGCTTTGTCAACATTAAGTCAATTGGGTTTAATAATAAGAATTTTAAGAATAGGATTTAGAGATTTAGCTTTTTTTCATTTATTGACTCATGCTATATTTAAGGCTTTATTATTTATATGTGCTGGAGTAATTATTCACATAATAAATGATAATCAAGATATTCGAATAATAGGGGGTATTAGAATATACATTCCTTTAACTTCTTTATGTATAAATATTTCAAATTTAGCATTATGTGGAATTCCTTTTTTAGCTGGATTTTATTCAAAGGATATGATTTTAGAATTAGTTAGAATGAGAAATTTAAATTTATTAGTTTTTTATTTATATTATGTTTCAACTGGTTTAACTATATTTTATACAATTCGTTTATTAATATATTTAATAGTTAATGATTATAATTTAACATGTATTTATAATCTATATGATGAAGATTATGTTATATTAAAAAGTATATTTATGTTATTAATTATAAGATTAATTTCAGGAAGATTTTTAAGATGAATAATTTTTTCTTATCCTTATATAATTTATTTGCCTTTTAATATAAAAATAATAGTAATTTATGTTATGTTAATTGGTTTATTAATAGGTTATCTAGTTAGGAATATAAGAATTTATTCAGTTAATAAATTTTTATTAACTTATAACTTAAGATTTTATTTAACTGTAATATGATTTATACCTGGATTATCTACTTATGGTTTAAATTATAAATTTTTAAGGTTTAGAGAAAAGTTAATAAAAAATATTGATATAGGTTGAAGAGAGTTATTTGAGAGACGAGKGATATATAATATTATTAAATATTATTCTATTATTTATTATATTTATCAAATAAATAATTTTAAAATTTATTTATTTAGATTTGTTTTATGAATAATAATTTTTATTTTTATAATTATATTATA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>ATTTTAAAAATATTCTTATCTATTTTATTAATTTCTATTTCAATTTTTTTATATTTTATTAATCATCCTCTTGCAATAGGATTATTAATTCTTATTCAAACTCTTCTTACATGTTTAATTTCAGGAATATTAATTAATACATATTGATTTTCCTATATTCTTTTTTTAGTTTTTTTAGGAGGATTATTAGTATTATTTATCTATGTTTCAAGAGTAGCTTCAAATGAATTATTTAAAATTCATTTCATTAGTAAATTTTCTTTTATTTATATTTTATTTATTATAATTTTTAGAATTTTTTTTAAAAATAATTTAACTTGAATAAACTTTTCATTTAATGATGAAATAGATAATTTTTTTAATTCAATTTTATTTTTTAATAATGAATATAATTTTAATTTATCTAAATTATATAATAAACAAAATTATTGAATAATATTAATAATAATTATTTATTTATTTATTACACTAATTGCAATTGTAAAAATTACTAATATTTTTTTTGGTCCTTTACGATCATTTAATAATTAA</t>
+          <t>ATTATAAAAATATTTTTATCTTTATTATTAATTTTTATTTCTATTTACATATTTTTTTTAAATCATCCTTTTTCTATAGGACTAATAATTTTAATTCAAACTTTATTAATTTGTTTATTATCTAGAATATTAATTAATACATATTGATTTTCTTATATTTTATTTTTGATTTTTTTAGGTGGATTATTAGTACTATTTATTTATGTCTCAAGAATTGCTTCTAATGAATTATTTAAAATTTCTATTTTTAATAAAAGTTTTTTTTTTATTTTTTTTCTTCTTCTTACAAATAGTTTTTTTTTTAAAAATAATCTATTTTGAATAAATTTTTCCTTTAATGATGAAATAATAAACTTTTTTAATTTATTTTTATTTTTTAATAATGAATTTAATATTAATTTATCTAAATTATATAATGAACAAACTTATCTATTAACTATAATAATAATTATTTATTTATTTATTACCCTTATTGCAGTAGTAAAAATTACTAATATTTTTTTTGGGCCTCTTCGTTCATTTAATTAA</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>GGGGAAAAATTAATAAAATAAAAATAATAAAAAAATTTTTAATTTTGGGGGATGTTAAAGTATTTTTTTAAAAAAAAATAAATTGTTTTATAGTTAATTAGTATTGAAAAAGAAATTTGAAATAATTGAAAATAAATTACTAAAAAAGTAATTTTAATTTAGTGTATCTTGTGTATCAGAGTTTATTAAAAAATATTTTTTATAAAAAAAAATCTCGAATTTAAAAGAGTTAATTAATTATGAAAGTTAATGTAGAATAATTATTTTTAATAATTAATTTGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTATTTTAGAAAAAAATTTAATTTAAAATTTAAAAAATTTTATTATTAATTATAATTAATAATAAAATATTTAAAATTAAATATATTAAGGGATAAGCTTTAATATAAAAATTTATAATAAATTAAAATAAAATTTAAAAATTTTAAAATTTATATTGTTTAAAAATTATAATTTATTATAAAAAATTTTAATAATAATAAAATTTAATATTAAAATTTAAATTTATATAAAATAATAATTTTTAATAAAAAAAAAATTAATAATAATGATAAAATTAGTATATTAAAATAAAAAATATAATTTAATTAATTAAAATTAAATTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTAGAAAATAATTTAAAGTCTAATCTGCCCACTGATAAATATATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCAATAGTCTTTTAATTGGAGACTTGTATGAAAGATTTGATGAGATATAAACTGTCTCTGATTTAATAATAAAATTTAATTTTTTAGTTAAAAAGCTAAAATAAATTTAAAAGACGAGAAGACCCTATAGAGTTTTATATTAATTTTATTTAAGATTAAATATATAATTAAAAATTAAAAATGAAAATAATATTTTGTTGGGGTGATAAAAAAATTTATTTAACTTTTTTTTAAAAATTAACATAAATAAGTGAATATTTGATCCATTATTAATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTCTAGTACATATAGAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGCAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAGATAAATAAAATATTTTAGTACGAAAGGATCAAATATTTTTAATAATTAAAATTTAATGAATATTAATAATAATTTAGATTAA</t>
+          <t>GGGGGTAAATTTAATAAAATATAAATAATAAAAAAAATTTTATTATTAAAAATATATAATGGGGGTTAAAGTATTTTTAATAGAAAAAATTTATAAATTTATAGTTTAATAGTATTGTAAAATAAATTTTAAATAAATTAAATAAAAAATTAAAATAAAGTAAATTTAAATTATTGTATCTTGTGTATCAGAGTTTATTAAATATTATTTTTATATAAAATATTCTCGAATTTAAAAGAGTTAATTAATTATAAAAGTTAATGTTGAATAATTATTTTTAATAATTAATTTGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTTTTTTAGAAAAAAATTTAATTTTAAATTTAAATAATTTTATAAATATTTAAATTAATTATAAAAATTTAAAATTTAATATATTAGGGGATAAGCTTTAAATTAAATATTTATAATAAAAATTAAATTAAATTAAAATTTTTAAAATTTATATTGTTTATAAATTATAATTTATTATAAAAAATTTTAATTAAAATAAAATTTAAAAAAAAAAATTTAATTTTTTATAAAAAAATAATTTTTAATATAATAAAAATTAGTAATAATGATAAAATTAGTATATTTAATAAGTAAATTAATTTAAATTTATAATTAAAATTAAATTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTTGATAATAATTTAAAGTCTAATCTGCCCACTGATTTAAAAAATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCATTAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAAATATAGACTGTCTCTAATTTATTAATAAAATTTAATTTTTTAGTTAAAAAGCTAAAATAATATTAAAAGACGAGAAGACCCTATAGAGTTTTATATAAAATTTATTTGTAATAAAATATAAAATTAATTATTAAAAGTAAATTTTATATTTTATTGGGGTGATAAAAAAATTTAATTAACTTTTTTTTAAAAATAAACATAAATAAGTGAATAAATGATCCATTAAATTATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTACAAATAAAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGCAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAATAAAATATAATATTTTAGTACGAAAGGATCAAATATTAAAAATAATTTTAATAAATAGAATATTATTAATTATAATTTA</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>GATTAGATAAATTTTTTATATTTTTTATAATTTATTATAAATTTATTTTACATGTAAATTTTAGTATAAAATTTTAATTATTTTAAAAATAATTGATTTAATTAAACAGTAATTAAAATTAAAAATTTAAGAGATTAAGATTTAGTAATATTTAAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTAAACAAAAGTTAAATTAAATTATTTCAGTATATAATAAATAATAAAAATATTAAATTAAATATTAAATTATTAAGTGAAATTTTAATTTAATTAAAAATTATTTTTAATTTATGATTTAATAAATTTTATTATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATTTAAAATACTAAAATAGTAAATAAAATATTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAGTAATTGATAATCCACGAATAATTTTACTTAATTTATAATTTTGTATATCATTGTTAAAAAAATATTTTTAAATAAAAATAATATTTTAAAATTTAAAATAAAATTTAATTCAGATCAAGATGCAGATTATAATTAAGTTTAAGATGGATTACAATAAATTTATTTAAACGAAAAGAATTTTGTAAAATTTGATTGAAGGTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTAAAAATTAAAATATGTACATATTGCCCGTCACTTTCATTTAAAAATTGGAATAAGTCGTAACAAAGTAGAAGTACTGGAAAGTGTTTCTAGAATGAA</t>
+          <t>TAATAGATAAAAATTTATGTTTTTTGAAATTTATTTTGAATTTATTTTACATATAAATTTTAGTATTAAATTTTAATTATTTTAAAAATAATTAATTAATAAAAGTAGTAATTAATATTAAAAATTTAAGAAATTAAGATTTAGTAATATGGAAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTACACAAAAATTAAATTAAATTATTTCAGTTTATGAATAAATAAATAAATATTAAATTAAATATTAAATTATTAAGTGAAATTTTAATTTAATTTAATTTTATAAATAATTTATGAATTAATAAATTTTAATATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATAAAAAAATACTAAAATAGTAAATAATAATTTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACGAATAAATTTACTTAATTTAAAATTTTGTATATCATTGTTAAAAAAATATTTTTAAATAAAAATAATATTTAAATTTTATGATAATAAATTAATTCAGATCAAGATGCAGAATATAATTAAGAATAAGATGGATTACAATAAAAATATTTAAATGAATAATATTGTTGTAAATATATATTTGAAGGTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTAAAAATTGGAATATGTACATATTGCCCGTCACTTTCATTTAAAAATTGGAATAAGTCGTAACAAAGTAGAGGTACTGGAAAGTGTTTCTAGAAAGAA</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>AGGATTATAGTTTATATAAAACATTTGATTTGCATTCAAATAATATTGATTTATCAATTTATCTTA</t>
+          <t>AGGATTATAGTTTATATAAAACATTTGATTTGCATTCAAAAAATATTGAATATTCAATTTATCTTA</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>AGTCTTATATTCAAAAAATGATATAAAATTGCAAATTTTATGGTGTAAAAATATACTAAGGCTT</t>
+          <t>AGTCTTATATTCAATAATGATATAAAATTGCAAATTTTATGGTGTACTATATTTATATACTAAGGCTT</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1737,714 +1745,678 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>ATTTATATAGTTTAATTAAAACTTTACATTTTCATTGTAAAAATAAAAAATTTTTTTTTATAAATA</t>
+          <t>ATTTATATAGTTTATAAAAACATTACATTTTCATTGTAAAAAAAAAGAAATCTTCTTTTATAAATA</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>ATTTAAATAGCTTAAAAAGAGTATAATATTGAAGATATTAGGGTGATTATATAATCTTTAAATA</t>
+          <t>ATTTAAATAGCTTAAAATTAGAGCATAATATTGAAGATATTAGAGTGATTAATAAATCTTTAAATA</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATTTTTTATTAATATAAATA</t>
+          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGATTAATTCATTTTAATATAAATA</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>ACTTAAATAATTTAAAAAAAATATTGATTTGTGGAGTCAAAAATATGAGGTAATCATTTTAAGTC</t>
+          <t>ATTTAAATAATTTAAGAAAAATATTGATTTGTGGAGTCAAAAATATGAAATAATCATTTTAAATC</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>AATAAAGTGCCTGATTAAAAGGATTATTCTGATAGGATAAATAATGTAAATTTTTACCTTTATTA</t>
+          <t>AATAAAGTGCCTGATAAAAAGGATTATTCTGATAGGATAAATAATGTAAATTTTTACCTTTATTA</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>CATTAGATGACTGAAAGCAAGTATTGGTCTCTTAAACCACTTTATAGTAAATTAGCAATTACTTCTAATGA</t>
+          <t>CATTAGATGACTGAAAGTAAGTATTGGTCTCTTAAACCATTTAATAGTAAATTAACAACTACTTCTAATGA</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>ACTATTTTGACAGAAAAATGTGATGATTTTAGAAGTCATAAATGTATAATTAAATTATATAAATAGTA</t>
+          <t>ACTATTTTGGCAGAAGTTAATTGTAATGGTTTTAGAAGTCATATATATATATATATTATATAAATAGTA</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>TCTAATATGGCAGATTATATGTAATGGATTTAAACCCCATTTATAAAGGATTATCCTTTTTTTAGAA</t>
+          <t>TCTAATATGGCAGATTATATGTAATGGATTTAAACCCCATTTATAAAGGATTTATCCTTTTTTTAGAA</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>TTAAAAATAAGCTAAAGAAAGCTTTTGGGTTCATACCTCAAATATAAAGGAAACCCCTTTTTTTTAAA</t>
+          <t>TTAAAAATAAGCTAAAATTAAGCTTTTGGGTTCATACCCCAAATATAGAGGAAACACCTTTTTTTTAAA</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>TTAATTGAAACCAAAAAGAGGTATATCACTGTTAATGATAAAATTGAATAGAAATTCCAATTAGA</t>
+          <t>TTAATTGAAACCAAATTAGAGGTATATCACTGTTAATGATAAAATTGAATAAAAAATTCCAATTAGA</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>CAAAGAATAGTTTATAAAAATAATAATTTTGGAGATTATAGATAAAGAAAAATCTTTTTCTTTGA</t>
+          <t>CAAAGAATAGTTTAAAAAAAATAATAATTTTGGAGATTATAGATAAAGAAATTCTTTTTCTTTGA</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>TATATTTTAGTGTAGGATGCACAGTAATTTTTGAAGTTACTAGATATAGTTTAATTCTATAAAATATAA</t>
+          <t>TATATTTTAGTGTAAGATGCACAATAATTTTTGAGATTATAGGATATAGTTTAATTCTATAAAATATAA</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>AAATAAGAAGCAATTTGCATTTAATTTCGACTTAAAAGATAGAGTTAATAAACTCCTTATTTA</t>
+          <t>AAATAAGAAGCAATTTTGCATTTAATTTCGACTTAAAAGTTAGAATATAATTATTCCTTATTTA</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>GAAATATATAATAATTAAGCTGCTAACTTAATTTATAGTGAATAAAATCATTAATATTTCT</t>
+          <t>GAAATATAAATAAATTAAGCTTCTAACTTAATTAATAGTGATTTAACTCATTAATATTTCT</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>AATTAATGAGCTTGTATAAAAGCATTTGTTTTGAAAACTTAAGAAAGAATAAATATTCTATTAATTT</t>
+          <t>AATTAATGAGCTTGTAATAAGCATTTGTTTTGAAAACTTAAGAAAGAATAATTTATTCTATTAATTT</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>GTTTTTATAGTTTAAAAAAAACTTTGGTCTTGTAAATCAAAAATAAGAATATTCTTTAAAAACT</t>
+          <t>GTTTTTATATTTTAAAAAAAACTTTGGTCTTGTAAGTCAAAAATAAGATTATATCTTTAAAAACT</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>CAAATTAGAGCTTGTTAAGTATTTCATTTACATTGAAAAGAAATTAAAATAATTAATTAATTTGA</t>
+          <t>CAAATTAGAGCTTGATAAAGTATTTCATTTACATTGAAAAGAAATTAAAATTTAATTAATTTGA</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>AAGGTTTTAAGTTAAATATAAACTAATAATCTTCAAAATTATTTATAAAGAAATTTCTTTAAGCCTTA</t>
+          <t>AAGGTTTTAAGTTAAATTAAACTAATAATCTTCAAAATTATTTATAAAGAGAATATTCTTTAAGCCTTA</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>AATAAAATGGCTGAGTAATAAGCGATAAATTGTAAATTTATTTACGGGAAAATTCTCTTTTATTA</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>TAGCTCCCTGGTTGATCCTGCCAGTAGTTATATGCTTGTCTCAAAGATTAAGCCATGCATGTCTCAGTGCAAGCCGTATTAAGGCGATACCGCGAATGGCTCAATATATCAGTTTTGGTTCCTTAGATCTTACTCAGTTACTTGGATAACTGTGGTAATTCTAGAGCTAATACATGCAATCAGAACTCCGACCAGTGATGGGACGAGTGCTTTTATTAGATCAAAACCAATCGGCGGAGGGCCTCGCGTTCGAAGTCGTTAATTTTGATGAATCTGGATAACTTTTGCCGATCGCATGGTCAAGTACCGGCGACGCATCTTTCAAATGTCTGCCTTATCAACTTTCGATGGTAGTTTCTGCGACTACCATGGTTGTCACGGGTAACGGGGAATCAGGGTTCGATTCCGGAGAGGGAGCCTGAGAAACGGCTACCACATCCAAGGAAGGCAGCAGGCGCGCAAATTACCCACTCCCGGCACGGGGAGGTAGTGACGAAAAATAACGATACGGGACTCTTTCGAGGCCTCGTAATCGGAATGAGTACACTTTAAATATTTTAACGAGGAACAATTGGAGGGCAAGTCTGGTGCCAGCAGCCGCGGTAATTCCAGCTCCAATAGCGTATACTAAAATTGTTGCGGTTAAAAAGCTCGTAGTTGCATTTGTGCGCCGCGCTGTCGGTGCACCGCATCCGCGGTGATACTGACACGTCTGCGGAGCATATCGTCGGTGAGCCGGCGGTAAAACGCCGGTTCAATATCAAAATCCTATCGCGGTGCTCTTCGGTGAGTGTCGAGGTGGGCCGACAATTTTACTTTGAACAAATTAGAGTGCTCAAAGCGGGCTCAAAATGCCGCTTGAATATTTCGTGCATGGAATAATAGAATATGATCTCGGTTCTATTTTGTTGGTTTTCAGAACTCCGAGGTAATGATTAATAGGGATAACTGGGGGCATTCGTATTGCGACGTTAGAGGTGAAATTCTTGGATCGTCGCAAGACGAACATCAGCGAAAGCATTTGCCAAAGGTGTTTTCATCAATCAAGAACGAAAGTTAGAGGTTCGAAGGCGATTAGATACCGCCCTAGTTCTAACCGTAAATATGTCATCTAGCGATCCGCCGACGTTACTACAATGGCTCGGCGGGCAGCTTCCGGGAAACCAAAGATTTTGGACTCCGGGGGGAGTATGGTTGCAAAGCTGAAACTTAAAGGAATTGACGGAAGGGCACCACCAGGAGTGGAGCCTGCGGCTTAATTTGACTCAACACGGGAAATCTCACCAGGCCCGGACACCGGAAGGATTGACAGATTAACAGCTCTTTCTTGATTCGGTGGGTGGTGGTGCATGGCCGTTCTTAGTTGGTGGAGCGATTTGTCTGGTTAATTCCGGTAACGAACGAGACTCTAGCCTGCTAAATAGGCGTCGTCATTTAGGTGTGCGCGATTTCGGTCGCGCAACTCACTGGCGACGTATTAAAATTCTTCTTAGAGGGACCGGCGTCTTCGAAGCGCACGAGATTGAGCAATAACAGGTCTGTGATGCCCTTAGATGTCCTGGGCCGCACGCGCGCTACACTGAAGGAATCAGCATGTTCTCCCTGGCCTAGAGGCCCGGGCAACCCGTTGAAACTCCTTCGTGCTGGGGATTGGGGTTTGCAATTATCCCCCATAAACGAGGAATTCCTAGTAAGCGCGAGTCATAAGCTCGCGTTGATTACGTCCCTGCCCTTTGTACACACCGCCCGTCGCTACTACCGATTGAATGATTTAGTGAGGTCTTCGGACCGACACGCGGTGGCTTCGCGGCCGTCGGCGTTGCTGGGAAGTTGACCAAACTTGATCATTTAGAGGAAGTAAAAGTCGTAACAAGGTTTCCGTAGGGGAACCTGCGGAAGGATCATTA</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>AAACCACTACCCTGGACGGTGGATCACTAGGCTCGCGGGTCGATGAAGAACGCAGTTAACTGCGCGTCATAGTGTGAACTGCAGGACACATTTGAACATCGACATTTCGAACGCACATTGCGGTCCGTGGAGAAACATCCAGGACCACTCCTGTCCGAGGGCCGGCT</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>GCATATTAGTAAGCGGAGGAAAAGAAACTAACCAGGATTTCCTTAGTAGCGGCGAGCGAACAGGAAATAGCCCAGCACTGAATCCCGCGGTTGTAACGATCGCGGGAGATGTGGTGTTCGGGAGGTTCCGCTTTCTCGTCGTCGCCGCTCCTGTCCAAGTTCGTCTTGAACGGGGCCGTTTTCCCGCAGAGGGTGCCAGGCCCGTAGCGACGGAGCGAGACGGCGAGAGGGACTCTCCTCAGAGTCGGGTTGCTTGAGAGTGCAGCCCTAAGTGGGTGGTAAACTCCATCTAAGGCTAAATATTACCGCGAGACCGATAGCGAACAAGTACCGTGAGGGAAAGTTGAAAAGAACTTTGAAGAGAGAGTTCAAGAGTACGTGAAACCGTTCAGGGGTAAACCTGCGAAACTCGAATGAACGAACGGAGAGATTCATCGTCATTCGGCGGCGTACGGACGCGCGCCTCGATGCGACGCACCGTCATTCACGTGGCGTTCTAGCGTTGCACGGGTCGCGTCCGTCGACGTCCGCCGACGGCGTGCACTTCTCTCTCAGTAATACATCGCGACCCGTTCGCGGTCGGCCTAAGCGCCGTCCGGGAGCCCCGCGGTCTCGTCCTAACCGGCGAGGCCGCGGGACCGTGACGGTACGCCGGCCGGCCAGACGGACGGTATATTCTAAAGATTCGCGCACGCGCCTCGCGCGCGTCCGGCCCGACGCAAGCTCTTACGTCGTCTTCGCCGACGTCCTGCCCAAGCGCGGACGTTGGGGCGGCGTGGCTGTCGTCGCGGCCGTGCAGTCTCGGACCGTGCGCGTTTCAGTCTGCGATGATTCATTTTCGGGCACTCGCAGGACCCGTCTTGAAACACGGACCAAGGAGTCTAGCATGTGTGCGAGTCATTGAGTTTATATTCGAAGATAATGCACAAAACTGAAAGGCGCAACGAAAGTGAAGGCGCGCGCTCGTCGCGCGCTCAGGGAGGATGGAGCGTCGGTCTAGCGATCGTACTCCCGCACTCCCGAGGCGTCTCGTTTCCAATCCGTGAATGCAGGCGCGCTCTGAGCACAGATGCTGGGACCCGAAAGATGGTGAACTATGCCTGGTCAGGTCGAAGTCAGGGGAAACCCTGATGGAGGACCGTAGCGATTCTGACGTGCAAATCGATCGTCGGAACTGGGTATAGGGGCGAAAGACTAATCGAACCATCTAGTAGCTGGTTCCGTCCGAAGTTTCCCTCAGGATAGCTGGCGTCGATTATTAACAGTCCCATCCGGTAAAGCGAATGATTAGAGGCATTGGGGCCGAAACGACCTCAACCTATTCTCAAACTTTAAATGGGTGAGAACTCCGGCTTACTCGAACGATGAAGCCGGAGATCTGATGACGGTGCCAAGTGGGCCAATTTTGGTAAGCAGAACTGGCGCTGTGGGATGAACCAAACGTAGTGTTAAGGCGCCTAAAAAACGCTCATGGGACACCATGAAAGGCGTTGGTCGCTCATGACAGCAGGACGGTGGCCATGGAAGTCGGAATCCGCTAAGGAGTGTGCAACGACTCACCTGCCGAAGCAACCAGCCCTGAAAATGGATGGCGCTGAAGCGTTTTGCCTATACACTACCGTTACGGGCAATAGCGGCGTGTGCGTTCGCGCACTCGTCCGCGTCATTATGCCGTAACGAGTAGGACGTGCGCGGCGGAGAGCGCAGAAGGGTCTGGGCGTGAGCCCGCCTGGAGCCTCCGTCGGTGCAGATCTTGGTGGTAGTAGCAAATACTCCAGCGAGGCCCTGGAGGACTGACGTGGAGAAGGGTTTCGCGTGAACAGTAGTTGCTCGCGAGTCAGTCGATCCTAAGCTCAAGGAGAGATCTTATGTCGATGTGGCGTGTTTCTTTATTGACAACAACGCCCTTTGAGCGAAAGGGAATCCGGTTCCTATTCCGGAACCCGGCAGCGGAACCGTTTCAATAATCGTTCCCTCGTTTCAAAGCGAGTGTTCGACGGGGTAACCCAAAGTGGCCTGAAGACGCCGCCGAGGGGTCCGGGAAGAGTTTTCTTTTCTGCCTGAGCGTTCGAGTTCCATGGAATCCTATAGAAGGGAGATATGGTTCGGAACGCGAAGAGCACCGCATTTGCGGCGGTGTCCGGATACTCTCTGCGGACCTTGAAAATTCAGGTGAGGGATGTACGTGGAGATGTCGCGCCGGTTCGTACCCATATCCGCAGCAGGTCTCCAAGGTGAAGAGCCTCTAGTCGATAGAATAATGTAGGTAAGGGAAGTCGGCAAATTGGATCCGTAACTTCGGAATAAGGATTGGCTCTGAGGACCGGGGCGTGTCGGGTTTGGACGGGAAGCGGATGCGGCCGGTGCCGGGCCTGGTCGATGCTCGTGCGCGCGCGCAGTGCATTTCGGGCGTGTCCCTGTAAAAGGGGGTGCGTTTCGGGGTGTCGCTCGTACGCGTTTCGGGCGGAATCCGGACCCGCGTTCCGGCCTTCCGCGGATCTTCCTAGCCGTAAGGCCGCGTCGGTTTCGTCTAGTGCGCGATCGGCGCGGTTCTGTACGACCGCCGTTCAACGGTCAGCTCAGAACTGGCACGGACAAGGGGAATCCGACTGTCTAATTAAAACAAAGCATTGCGATGGCCCTCGCGGGTGTTGACGCAATGTGATTTCTGCCCAGTGCTCTGAATGTCAACGTGAAGAAATTCAAGCAAGCGCGGGTAAACGGCGGGAGTAACTATGACTCTCTTAAGGTAGCCAAATGCCTCGTCATCTAATTAGTGACGCGCATGAATGGATTAACGAGATTCCCGCTGTCCCTATCTACTATCTAGCGAAACCACAGCCAAGGGAACGGGCTTGGGAGAATCAGCGGGGAAAGAAGACCCTGTTGAGCTTGACTCTAGTCTGGCATTGTAAGGAGACATGAGAGGTGTAGCATAAGTGGGAGATCGTTCGCGGTCGTCGCTGAAAAACCACTACTTTCATTGTTTCATTACTTACTCGGTTGGGCGGAAGCGGTGCGCGGTCGATTATTTCGGCGGGCGTACGGTGTTTCGTTCCAAGCGTGCAGAGTGGAGGCGTGGCGGCAACGCTCGTCTCCATACAACTCCCGCGTGATCCGGTTCGAGGACACTGCCAGGCGGGGAGTTTGACTGGGGCGGTACATCTGTCAAAGAATAACGCAGGTGTCCTAAGGCCAGCTCAGCGAGGACAGAAACCTCGCGTGGAGCAAAAGGGCAAAAGCTGGCTTGATCCAGATGTTCAGTACGCATAGGGACTGCGAAAGCACGGCCTATCGATCCTTTAGTATAAAGAGTTTTTAGCAAGAGGTGCCAGAAAAGTTACCACAGGGATAACTGGCTTGTGGCGGCCAAGCGTTCATAGCGACGTCGCTTTTTGATCCTTCGATGTCGGCTCTTCCTATCATTGCGAAGCAAAATTCGCCAAGCGTTGGATTGTTCACCCATCAAAAGGGAACGTGAGCTGGGTTTAGACCGTCGTGAGACAGGTTAGTTTTACCCTACTGATGGCTCGTCGTTGCGATAGTAATACTGCTCAGTACGAGAGGAACCGCAGTTTCGGACATTTGGTTCATGCACTCGGCCGAGCGGCCGGTGGTGCGAAGCTACCATCCGCGGGATTATGCCTGAACGCCTCTAAGGCCGAAGCCAGCCTAGCCGAATCCGGCAAGGATATTCTCACTGTGGAGCCCCGAGAGTCGGGAGGCCACTATACAATGTGACTTTAATAGTCGCGCTTCACGCGCGACGTCGAGGCCCATTTGGAACGCGGCGATCGATGCGAGCGGTCTTAACACGTGCATCACGGCGCCGAAGTTTCTAAATTACCTCAGTTCGATGTCGGGGCTCGGAATAGTCTGTAGACGACTTACGTTCCTGGCGGGGTGTTGTGCTCGGTAGAGCAGCGTCGTGCTGCGATCTGTTGAGACTCAGCCCTGCGCCAGGTGATTCGT</t>
-        </is>
-      </c>
+          <t>AATAAAATGGCTGAGTTATAAGCGATAAATTGTAAATTTATTAACGAGAAATATCTCTTTTATTA</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>&gt;N3626Athyma_punctata</t>
+          <t>&gt;17LW02020Siproeta_stelenes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_40444709_+_atp6</t>
+          <t>&gt;17LW02020Siproeta_stelenes_4023-4688_+_atp6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_38774044_+_atp8</t>
+          <t>&gt;17LW02020Siproeta_stelenes_3862-4023_+_atp8-0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_1044711529_+_cob</t>
+          <t>&gt;17LW02020Siproeta_stelenes_10464-11555_+_cob</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_14602974_+_cox1</t>
+          <t>&gt;17LW02020Siproeta_stelenes_1452-2960_+_cox1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_30623724_+_cox2</t>
+          <t>&gt;17LW02020Siproeta_stelenes_3051-3713_+_cox2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_47255510_+_cox3</t>
+          <t>&gt;17LW02020Siproeta_stelenes_4703-5482_+_cox3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_1168112580__nad1</t>
+          <t>&gt;17LW02020Siproeta_stelenes_11700-12602_-_nad1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_2821154_+_nad2</t>
+          <t>&gt;17LW02020Siproeta_stelenes_289-1161_+_nad2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_55825926_+_nad3</t>
+          <t>&gt;17LW02020Siproeta_stelenes_5560-5898_+_nad3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_81309464__nad4</t>
+          <t>&gt;17LW02020Siproeta_stelenes_8155-9486_-_nad4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_94679727__nad4l0</t>
+          <t>&gt;17LW02020Siproeta_stelenes_9489-9761_-_nad4l</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_nad5</t>
+          <t>&gt;17LW02020Siproeta_stelenes_6353-8038_-_nad5</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_989210407_+_nad60</t>
+          <t>&gt;17LW02020Siproeta_stelenes_9917-10423_+_nad6</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_1265614018__rrnL</t>
+          <t>&gt;17LW02020Siproeta_stelenes_12668-14036_-_rrnL</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_1407214835__rrnS</t>
+          <t>&gt;17LW02020Siproeta_stelenes_14095-14861_-_rrnS</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_59366003_+_trnA(tgc)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_5910-5973_+_trnA(tgc)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_13241385__trnC(gca)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_1321-1382_-_trnC(gca)</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_38113876_+_trnD(gtc)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_3797-3861_+_trnD(gtc)</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_61916256_+_trnE(ttc)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_6168-6237_+_trnE(ttc)</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_62556318__trnF(gaa)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_6281-6345_-_trnF(gaa)</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_55165581_+_trnG(tcc)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_5488-5553_+_trnG(tcc)</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_80608125__trnH(gtg)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_8078-8147_-_trnH(gtg)</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_71136_+_trnI(gat)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_70-133_+_trnI(gat)</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_37413810_+_trnK(ctt)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_3727-3796_+_trnK(ctt)</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_1261212679__trnL1(tag)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_12622-12690_-_trnL1(tag)</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_29943060_+_trnL2(taa)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_2984-3050_+_trnL2(taa)</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_168_+_trnM(cat)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_1-68_+_trnM(cat)</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_60666131_+_trnN(gtt)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_6041-6107_+_trnN(gtt)</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_98229886__trnP(tgg)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_9840-9905_-_trnP(tgg)</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_134202__trnQ(ttg)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_131-199_-_trnQ(ttg)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_60046065_+_trnR(tcg)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_5974-6038_+_trnR(tcg)</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_61306190_+_trnS1(gct)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_6106-6166_+_trnS1(gct)</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_1158111645_+_trnS2(tga)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_11601-11665_+_trnS2(tga)</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_97579821_+_trnT(tgt)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_9776-9839_+_trnT(tgt)</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_1400714071__trnV(tac)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_14032-14095_-_trnV(tac)</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_12641331_+_trnW(tca)</t>
+          <t>&gt;17LW02020Siproeta_stelenes_1259-1328_+_trnW(tca)</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>&gt;N3626final_13941459__trnY(gta)</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>&gt;N3626_18S</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>&gt;N3626_5.8S</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>&gt;N3626_28S</t>
-        </is>
-      </c>
+          <t>&gt;17LW02020Siproeta_stelenes_1383-1446_-_trnY(gta)</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATGATAAATAATTTATTTTCAATTTTTGATCCCTCAACTAATATTTTTAATTTATCAATTAATTGAATTAGAACCTTTATTGGATTAATATTTATTCCTTATTCTTTTTGATTAATCCCTAATCGTCATTTTATTTTATGAAATTTTATTTCTTCCAAATTACACGAAGAATTTAAAACTCTTTTGGGGCATAATAGTTATAATGGATCAACTTTTATTTTTATTTCATTATTTTTTTTTATTTTATTTAATAATTTTTTAGGGCTATTTCCTTATATTTTTACAAGTACTAGCCATTTAAATATTTCTCTATCATTATCCTTAACCCTATGATTAAGATTCATAATTTATGGATGAATTAATAATACACAACATATATTTATTCATATAATTCCTCAGGGAACCCCAACTATTTTAATACCTTTTATAGTATTAATTGAAACAATTAGAAATATTATTCGCCCAGGAACTTTAGCTGTTCGATTAACAGCTAATATAATTGCTGGACATTTACTATTAACTTTATTAAGAAATACTGGTACAAATATACCTATATATTTATTAATTATTTTAATTATTATCCAAATTCTTTTATTAATTTTAGAATCTGCTGTAGCAATTATTCAATCTTATGTTATTACTATTTTAAGAACTCTTTATTCTAGCGAAACTAATTAA</t>
+          <t>ATGATAAATAATTTATTTTCAATTTTTGATCCATCAACTAATATTTTTAATTTATCTTTAAATTGAATTAGAACTTTTATTAGATTATTATTTATTCCCTATTCTTTTTGATTTATTCCTAATCGATATTTTATTTTATGAAATTTTATTTCAAATAAATTACATAATGAATTTAAAACCCTTCTAGGAATTAACAGTTTTAAAGGATCAACATTCATTTTTATTTCATTGTTTTTTTTTATTCTATTTAATAATTTCTTAGGATTATTTCCTTACATTTTCACAAGTACTAGACATTTAAATATTTCTTTATCTTTATCATTAACATTATGATTAAGATTTATAATTTATGGTTGAATTAATAATACTCAACATATATTTATTCATATAATTCCTCAAGGTACTCCAACAATTCTAATACCATTTATAGTATTAATTGAAACAATCAGTAATATTATTCGACCTGGAACTTTAGCTGTTCGATTGACAGCAAATATAATTGCTGGTCATTTACTACTTACACTTCTAAGTAGTACAGGAACTAATATATCAAATTATTTATTAATAATATTAATTTTAATTCAAATTTTATTATTAATTTTAGAATCTGCTGTAGCTGTAATTCAAGCATATGTAATTTCTATTCTTAGTACCCTTTATTCTAGAGAAGTTAATTAA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ATTCCCCAAATAATACCTATTAATTGAATTTTTTCCTTAATTTTTTTTATCATAATTTTTATTATTTTTAATATTATAAATTATTTTATTTTTAACTATAAAAATATTAATTATAATAATAATAATATTAATAAAAAAATTTTTAAAAATAATCTTTACTGAAAATGATAA</t>
+          <t>ATCCCCCAAATAATACCTATTAATTGAATTTTTTTTTTTGTTTTTTTTATTTGTATTTTTTTAATTTTTATTAGATTAAATTTTTTTATTTTTAATTACAAAATATTAAAATCTAATATTAATTTTAAAAAAAAATCATTAAATAATAAAATTTGAAAATGATAA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ATGATAAATTTATATAAACCTATTCGTAAGATTCACCCAATAATTAAAATTATTAATAGATCTTTAATTGATCTTCCAACACCTTCTAATATTTCATCTTGATGAAATTTTGGATCTTTATTAGCTTTATGTTTAATAATTCAAATTTTAACTGGATTATTTTTAACTATATATTACACAGCTAATATTGATTTAGCCTTTTTTAGTGTAAATTATATTTGCCGAAATGTTAATTATGGCTGATTAATTCGAACTCTTCACGCTAATGGAGCATCTTTCTTTTTTATTTGTATTTACTTTCATATTGGGCGAGGAATTTATTATGAATCTTTTAATTTTAAACTTACTTGAATAATTGGAGTAATTATTTTATTTTTATTAATAGCTACAGCCTTCATAGGCTATGTTCTCCCATGAGGACAAATATCTTTCTGGGGGGCTACAGTAATTACTAACCTTTTATCAGCAATCCCTTACTTAGGAACTATACTTGTAAATTGAATTTGAGGAGGATTTGCAATTGATAATGCAACATTAACTCGATTTTACACTTTTCATTTTTTATTCCCATTTATTATTCTTATATTAACTATAATTCATTTATTATTTTTACATCAAACAGGATCTAACAATCCATTAGGTATTAATAGTAATTTAGATAAAATTCCTTTCCACCCATTTTTTACATTTAAAGATTTAATTGGTTTTATTATTTTAATTTCAATTTTAACTTTTTTATCTCTTATTAATCCTTATTTATTAGGAGACCCAGATAATTTTATCCCCGCTAATCCATTGGTTACCCCCATTCATATTCAACCAGAATGATATTTTTTATTTGCTTACGCTATTCTCCGCTCCATCCCTAACAAATTAGGGGGTGTAATTGCTTTAGTAATATCTATTTTAATTTTAATTATTTTACCTTTCACTTTTAATAAAAAAATTCAAGGTATTCAATTTTATCCCCTAAATCAAATTTTATTTTGATTATTAATTATTACAATTATCCTATTAACTTGAATTGGAGCACGATCCGTTGAAATCCCTTACATTATTACTGGACAAATCTTAACATTAATTTACTTTTCTTATTTTATTATTAACCCAATTTTAAATAAATTCTGGGATAAATTAATTTTTAACTTATAA</t>
+          <t>ATGATAAATTTTTACAAACCTATTCGTAAAACACACCCTATTATTAAAATCATTAATAATGCATTAATTGATCTACCTTCCCCATCTAATTTCTCTTCTTGATGAAATTTTGGATCCCTTTTAGGATTATGTTTATTAATTCAAATTACTACAGGATTATTTTTAACCATATATTATACTGCTAATATTGAAATAGCTTTTTACAGAGTTAATTATATTTGCCGAAATGTTAACTATGGTTGATTAATTCGAACTCTTCACGCAAATGGAGCATCTTTTTTCTTCATTTGTATTTATATTCACATTGGACGAGGAATTTATTATGAATCATTTAATTTAAAATATACTTGAATAATTGGAGTTATTATTTTATTTTTATTAATAGCTACTGCATTCGTAGGATATGTACTACCATGAGGACAAATATCATTTTGAGGAGCAACTGTAATTACAAACCTTTTATCAGCTATTCCTTATTTAGGAACTATATTAGTTAATTGAATTTGAGGGGGATTTGCTGTTGATAATGCTACTCTAACTCGATTTTATACATTCCATTTTTTATTACCTTTTATTGTCTCTATATTAGTAATAATTCACTTATTATTCCTCCATCAAACTGGATCAAATAATCCTTTAGGTATTAATAGAAACTTAGATAAAATTCCTTTTCACCCATTTTATTCTTTTAAAGATTTAATTGGATTTATTATTTTAATTTTTTTATTAACTTCATTATCTTTAATTAATCCCTATTTATTAGGGGATCCTGATAATTTTATTCCAGCTAATCCTCTTGTAACTCCAATTCATATTCAACCAGAATGATATTTTTTATTTGCCTATGCTATTTTACGATCAATTCCAAATAAATTAGGAGGAGTTATAGCTTTAATTATATCAATTTTAATTTTAATTATTTTACCATTTACTTTCAATAAAAAAATTCAAGGAATTCAATTTTATCCTATCAATCAAATTTTATTTTGATTTCTAATTACTATTATTATTTTATTAACTTGAATTGGAGCACGATCCGTTGAAGCACCCTATATTATTACAGGTCAAATTCTTACAATTTTTTATTTTTCTTACTATATTATTAACCCAATTTTAAACAAAATATGAGATAATCTAATTTTTAATAATTAA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TTGCGAAAATGACTTTTTTCAACAAATCATAAAGATATTGGTACTTTATATTTTATTTTTGGAATTTGAGCAGGAATAGTTGGTACATCCCTTAGTTTATTAATTCGTACTGAATTAGGTAATCCAGGTTCATTAATTGGAGATGATCAAATCTATAATACTATTGTAACTGCTCATGCTTTTATTATAATTTTTTTTATAGTTATACCTATTATAATTGGAGGGTTTGGAAATTGATTAGTCCCTTTAATATTAGGAGCTCCAGATATAGCTTTCCCCCGAATAAATAACATAAGATTTTGGCTTCTTCCCCCATCTTTAATTCTCCTTATTTCTAGTAGAATTATCGAAAATGGAGCTGGAACAGGATGAACAGTTTACCCCCCACTTTCATCTAATATTGCTCATGGAGGATCTTCTGTTGACTTAGCTATTTTTTCTCTTCATTTAGCAGGTATTTCATCAATTTTAGGAGCAATTAATTTTATTACAACTATTATTAATATACGAATTAATAGTATATCATTTGATCAAATACCATTATTTGTCTGATCAGTGGGTATTACCGCTCTTTTATTATTATTATCTTTACCTGTATTAGCAGGAGCTATTACTATACTTTTAACTGACCGTAACTTAAATACATCATTTTTTGACCCTGCTGGAGGAGGAGACCCAATTCTTTACCAACATTTATTTTGATTTTTTGGTCATCCAGAAGTTTATATTTTAATTTTACCTGGATTCGGGATAATTTCTCATATAATTTCTCAAGAAAGAGGTAAAAAGGAAACTTTTGGGCATTTAGGAATAATTTATGCTATAATAGCAATTGGTCTTTTAGGATTTATTGTATGAGCTCATCATATATTTACTGTTGGAATAGATATTGATACACGTGCCTATTTTACTTCAGCTACTATAATTATTGCTGTACCAACAGGAATTAAAATTTTTAGCTGACTTGCTACTCTTCACGGAACACAAATTAATTATAGTCCTTCTATACTTTGAAGATTAGGATTTATTTTTTTATTTACAGTAGGGGGGTTAACAGGAGTTGTATTAGCTAATTCTTCAATTGATATTACTCTCCACGATACTTATTATGTTGTCGCACATTTTCATTATGTATTATCTATAGGAGCTGTATTTGCTATTTTTGGAGGATTTATTCATTGATACTCTTTATTCACAGGATTATCTATAAACCCATACTTATTAAAAATTCAATTTTTATCTATATTTATTGGGGTTAATTTAACTTTTTTCCCTCAACATTTTTTAGGTTTAGCTGGAATGCCTCGTCGTTATTCAGATTATCCTGATAGCTTTATTTCATGAAATATTATTTCATCTTTTGGTTCTTATATTTCTTTATTCTCAATAATTATAATAATACTTATTATTTGAGAATCAATAATTAATCAACGATTAATTCTTTTTTCATTAAATATATCTTCATCTATTGAATGATACCAAAATTTACCTCCCGCTGAACATTCATATAGTGAATTACCTATTTTAAGAAATT</t>
+          <t>CGAAAATGATTATTTTCTACAAATCATAAAGATATTGGTACCTTATATTTTATTTTTGGAATTTGAGCAGGAATAGTAGGAACTTCGTTAAGTTTAATAATTCGAACAGAATTAGGAAACCCAGGATCTTTAATTGGAGATGATCAAATTTATAATACTATCGTAACAGCCCATGCTTTTATTATAATTTTTTTTATAGTAATACCTATTATAATTGGAGGATTTGGTAATTGATTAGTTCCATTAATATTAGGAGCTCCAGATATAGCTTTTCCACGAATAAATAATATAAGATTTTGACTTCTCCCCCCATCATTAATCTTATTAATTTCTAGAAGAATTGTAGAAAATGGAGCAGGAACAGGATGAACAGTGTACCCCCCACTTTCATCTAATATTGCTCATGGAGGAACTTCTGTAGATTTAGCAATTTTCTCCTTACATTTAGCTGGAATTTCTTCTATTTTAGGAGCTATTAATTTTATTACTACTATTATTAACATACGAATTAATAGAATATCTTTTGATCAAATACCCTTATTTGTTTGAGCAGTAGGAATTACTGCATTACTTCTTCTTCTTTCTCTKCCCGTCTTAGCAGGTGCTATTACAATACTTCTTACTGATCGAAATATTAATACATCATTCTTTGATCCTGCGGGAGGAGGAGATCCAATTTTATATCAACATTTATTTTGATTTTTTGGTCATCCAGAAGTATATATTTTAATTCTTCCTGGATTTGGAATAATTTCTCATATTATTTCTCAAGAAAGAGGAAAAAAGGAAACTTTTGGATGTTTAGGAATAATTTATGCGATAATAGCAATTGGATTATTAGGATTTATTGTATGAGCTCATCATATATTTACCGTTGGAATAGATATTGATACTCGAGCTTATTTTACATCAGCAACTATAATTATTGCAGTTCCTACAGGAATTAAAATTTTTAGTTGATTAGCAACTCTCCACGGTACTCAAATTAATTATAGACCTTCAATATTATGAAGTTTAGGATTTATTTTTTTATTTACAGTTGGTGGATTAACAGGAGTTATCTTAGCTAATTCTTCTATTGACATTACCCTACATGATACTTATTATGTAGTAGCTCATTTTCATTATGTTTTATCTATAGGAGCTGTATTTGCTATTTTAGGGGGATTTGTTCATTGATATCCTTTATTTACAGGATTAATAATAAATAATTACTTATTAAAAATTCAATTTATCTCTATATTTATTGGAGTTAATTTAACTTTCTTCCCTCAACATTTTTTAGGATTAGCAGGAATACCTCGTCGTTATTCTGATTATCCAGATAGTTTTGTATCTTGAAATATTATTTCATCTTTTGGATCATATATTTCTTTATTTTCTATAATAATAATTATTATTATTATTTGAGAATCAATAATTAACCATCGTATTATTTTATTTCCTTTAAATATACCCTCATCTATTGAATGATATCAAAATCTTCCTCCCGCAGAACATTCATATAATGAACTTCCAATTTTAAGTAATTAA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ATGGCAACATGATCTAATCTTAATTACCAAAATAGAGCTTCTCCTTTAATAGAACAAATTATTTTTTTCCATGATCATACCTTAATTATTTTAATTATAATTACAATTTTGGTATCTTATTTAATAGTTAGTTTATTTTTTAATAAATATATTAATCGATTTCTTTTAGAAGAACAAATAATTGAATTAATTTGAACTATTTTACCGGCAATTACTCTTATTTTTATTGCTTTACCTTCTTTACGACTTTTATATCTTTTAGACGAACTTAATAATCCTTTAATTACTTTAAAATCTATCGGACATCAATGATACTGAAGTTATGAATATTCAGATTTTAATAATATTGAATTTAATTCATATATAATTCAAATAACTGATAATTTAGCAAATTTTCGCCTGCTAGATGTAGATAACCGTATTATTTTACCTATAAATAATCAAATTCGTATTTTAATTACAGCAACTGATGTTATTCATTCATGAACTATTCCCTCTTTAAGAGTAAAAGTTGATGCTAATCCAGGACGCCTAAATCAAACAAGATTTTTTATTAATCGACCTGGCATTTTTTATGGACAATGTTCTGAAATTTGTGGAGCTAATCATAGTTTTATACCTATTGTAATTGAAAGAATTTCAATTAAAAATTTTATTAATTGAATTAATAATTATTCAT</t>
+          <t>ATGGCAACATGATCTAATTTTAATTATCAAAATGGAGCATCTCCCTTAATAGAACAAATTATTTTTTTTCATGATCATACTTTAATTATTTTAATTATAATTACAATTTTAGTCGCATATCTTATATTAAGTTTATTTTTTAATTTATATATTAATCGATTTCTACTTGAAAATCAAATAATTGAATTAATTTGAACAATTTTACCAGCTATTACTTTAATTTTTATTGCTCTTCCTTCTTTACGTTTACTTTATTTATTAGATGAACTTAATAATCCTTTAATTACTCTTAAATCTATTGGTCATCAATGATATTGAAGTTATGAATATTCAGATTTTAATAATGTAGAATTTGACTCTTATATAATTAATTCTAATGAAAATATCAATAATTTTCGTTTATTAGATGTTGATAATCGAATTGTTTTACCTATAAATAATCAAATTCGTATTTTAATTACAGCTACTGATGTAATCCATTCATGAACAGTTCCTTCTTTAGGAGTAAAAGTAGATGCTAATCCTGGTCGATTAAATCAAACTAGATTTTTTATTAATCGACCAGGAATTTTTTTTGGTCAATGTTCAGAAATTTGCGGTGCTAACCACAGATTTATACCTATTGTAATTGAAAGAATTTCAATTAAAAACTTTATTAATTGAATTAATAATTATT</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ATGACTCTCAATCATAATCATCCTTATCATTTAGTAGATTATAGCCCTTGACCTTTAACTGGAGCTATCGGGGTAATAACTTTAGTAACTGGACTAGTAAAATGATTTCATAATTTTAACTTAAATTTATTTATTTTAGGGTATATTATTATTTTATTAACAATATACCAATGATGACGAGATATTTGCCGAGAAGGTACATACCAAGGTAAACATACAATTTTAGTAACTAAAGGACTTCGATGAGGAATAATCTTATTTATTATTTCAGAAATTTTTTTTTTTATTTCATTTTTTTGAGCATTTTTTCATAGTAGTTTATCCCCTAATATTGAAATTGGGTCTATATGACCCCCTATAAGAATTGTTCCATTTAACCCATTCCAAATTCCTTTACTTAATACCATTATTCTAATTACATCAGGAATTACCGTAACTTGGGCTCATCATGCTTTAATAGAAAATAATTTTACCCAAACTTCTCAAAGTTTATTAATTACTATTTTATTAGGTATTTATTTTACTATTCTTCAAGCTTACGAATATATTGAAGCCCCTTTCACAATTTCAGATAGAATTTATGGATCAACATTTTTCATAGCTACTGGATTCCACGGACTTCATGTTATTATTGGAACTATCTTTTTATTAACTTGCTTTATTCGACATATTAATAATCATTTTTCTAACACTCATCACTTTGGATTTGAAGCAGCTGCATGATACTGACATTTTGTTGATGTAGTATGACTATTCCTTTATATCTCTATTTATTGATGGGGAAATTAA</t>
+          <t>ATGTCAATAAATCATAATCATCCATATCATTTAGTAGATTATAGTCCATGACCACTAACTGGAGCAATTGGAACAATAACTTTAGTTACTGGCCTAATTAAATGATTCCATAATTTTAACATTAACCTTTTAATTTTAGGTTATTTAATTATTTTATTGACTATATATCAATGATGACGAGATATTTGTCGAGAAGGAACTTTTCAAGGTAAACACACTATTTTAGTCTCTAAAGGATTACGTTGAGGAATAATTTTATTTATTATCTCAGAAGTTTTTTTTTTCATTTCATTTTTTTGAGCTTTTTTCCATAGTAGTTTATCTCCTAATATTGAAATTGGAGCTATATGACCTCCAATAGGAATTATCCCATTTAATCCCTTTCAAATTCCACTCTTAAATACTATTATTCTTATTACCTCAGGTATTACTGTAACTTGAGCTCATCATGCATTAATAGAAAATAATTTCACTCAAACTTCTCAAAGTTTATTTATTACAATTATTTTAGGAATTTACTTTACTATTCTTCAAGCTTATGAATATATTGAAGCCCCATTTACTATTGCCGATAGAATTTATGGATCAACTTTTTTTATAGCAACAGGATTTCATGGACTTCATGTAATTATTGGAACAATTTTTTTAACTACTTGCTTTTTTCGTCATTTAAATAATCATTTTTCTAATAACCATCACTTTGGATTTGAAGCAGCAGCTTGATATTGACATTTTGTTGATGTAGTTTGATTATTCTTATATATTTCTATTTATTGATGAGGAAATTAA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ATGATAATGCAGGATTTATATAATGTTTTTATTGGTATTTTAATTTTATTAATTGGAGTTTTAATTGGAGTTGCCTTTTTAACATTATTAGAGCGGAAGGTTTTAGGTTATATTCAAATTCGTAAAGGTCCCAATAAAATAGGAATGATGGGAGTATTGCAGCCATTTTGTGATGCTATTAAATTATTTTCTAAGGAACAAGTTTATTTAAATTATTCAAATTATTTTTCTTTTTATTTTTCACCTATTATAAGATTTATATTGTCTTTAATAATTTGAATATTAATTCCTTATTTAGTTAATATAGTGATATTTAATTTAGGGTTATTATTTTTTTTATGTTGTACAAGAATTGGGGTGTATACTTTATTAATTGCTGGATGATCTTCTAATAGAAATTATTCTTTATTAGGGGGTTTACGGGGGGTAGCTCAAACAATTTCTTATGAAGTAAGATTATCTTTAATTTTAATATCTAGAATTATTTTAATTATAGATTTTAATATAGTTAAGTTTAGAGAATACCAATATCTAGTTTGATTAATATTAATAATGATTCCTTTAAGAATATGTTTTTTATCTTCATTAATAGCTGAAACTAATCGTACTCCTTTTGATTTCGCTGAAGGAGAAAGAGAGTTAGTTTCAGGGTTTAATGTTGAATACAGAAGAGGGGGGTTTGCTTTAATTTTTTTGGCTGAATATTCTAGTATTTTATTTATGAGATTATTATTTGTAATTATTTATATAGGGGGGTATGATTTAAATTTAATATTTTATTTAAAGTTAGTATTTTTATCTTTTTTTTTTATTTGAGTTCGAGGGACATTACCTCGGTATCGTTATGATAAATTAATATACTTATGTTGAAAAAGATATTTGCCTTTATCTTTAAATTATTTATTATTTTTTATAGGCATAAAAATAATTTTAATATATAAAATAAATTTAGTATAA</t>
+          <t>ATGATATGATTAGATTTAATAAATATTATTATTGGGATATTAATTTTAGTTATTGGGGTTTTAATTGGGGTTGCTTTTTTAACTCTATTAGAACGAAAGGTTTTAGGTTATATTCAAATTCGTAAAGGTCCTAATAAATTAGGATATATAGGAATTTTACAACCTTTTAGTGATGCTATTAAATTATTTACTAAAGAACAAGTTTATTTAAATTATTCAAATTATTTAGTTTATTATTTATCTCCTATTATAAGATTTATTTTATCTTTAATAATTTGAATATTAATTCCCTATATATTTAATATATTAATATTTAATTTAGGTATTTTATTTTTTTTATGTTGTACAAGAGTAGGTGTATATACATTAATAATTGCGGGATGATCTTCTAATTCTAATTATTCTTTATTAGGGGGGTTGCGAGCAGTAGCTCAAACTATTTCTTATGAGGTGAGAATATCATTAATTATAATATCGAGAATTATTATAATTATAGATTTTAATTTAGTTAATTTTTATAATTATCAAAATATTGTTTGATTTATTTTTATAATAATGCCTTTAAGTTTATGTTTATTATCATCTTTAATAGCTGAGACTAATCGAACTCCTTTTGATTTTGCTGAAGGAGAAAGAGAATTAGTTTCAGGGTTTAATATTGAATATAGAAGAGGAGGATTTGCTTTAATTTTTTTGTCTGAGTATTCAAGAATTTTATTTATGAGATTATTATTTGTTATTATTTATATAGGGGGTTATAATTTAATGTTAATATTTTATTTGAAATTAGTTTTTTTGTCTTTTTTTTTTATTTGGGTTCGAGGTACTTTACCTCGTTATCGTTATGATAAGCTAATATATTTATGTTGAAAGAGATATTTACCTATTTCTTTGAATTTTTTATTATTTTATATTGGCTTAAAAATATTTTTAAATTATAAAATAATTTTAGTATAA</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ATTATTTTAATAACTAATTCTAATAAAATATTTTTTTTATTTATTTTATTTTTTAGAACAATAATTTCTATTTCATCCAATTCATGATTAGGATGTTGAATTGGATTAGAAATTAATTTATTAAGATTTATCCCCCTTATTTCAACCCCCAATAATCTTTTAAATTCAGAAGCTTCCCTTAAATATTTTCTTACTCAATCAATTGCCTCAATTAATTTTTTATTTTCAATTTTATTAAGATTATTCTTAATAAAAAATTTTTTTTTTTATAATTTTTTTTCTATTATTATTAATTCTTCTTTACTTATAAAGATAGGGTCAATTCCATTTCATTTTTGATTTCCTAATATTATAGAAGGTCTTTCATGGTTTAATTGTTTTATTTTAATAACTTGACAAAAAATTACACCAATAATTCTTTTATCTTATTATTTTAATTTAAATTTTCTATATTTTATTATAATTTTTAATGTTTTAATTGGGGCTATTGGAAGATTTAACCAAACTTCTTTACGAAAATTAATAGCTTTTTCTTCAATTAATAATTTAGGTTGAATAATTTCATCTATAACTATTAGTGAAAATTTATGATTAATTTATTTTATTTTATATTCAACTTTTACACTAATTATATGTTTTTTATTTTATATTATTAATATTTTTTTTATTAATCAATTATTTTTTTTTAATATAAATTTTTTCATTAAAATTTCTATTATAATTAATTTTCTCTCTTTAGGAGGTTTACCCCCATTTTTAGGATTTTTTCCTAAATGACTTGTTATTAGTTATTTATTAAATAATAATTTTTTTATTATTTCTTTTATATTTATTATATCAAGTTTAATTTTATTATATGTTTATATTCGTATTATTTATTCTTCTTTATTATTTTTTTCTTTTAAATTAAAATGATTTAAAATTTTTATTAAAAATAATTATTTAATTTTAATTTATTTTTTTAATTTTATATCTTTATTGGGCATAATCATTAGAACTTTTTTTTTTTAA</t>
+          <t>ATTTTATTTAATTTTAATTCCAATAAAATATTTTTTTTATTTATTTTATTTTTTAGCACATTAATTTCCATTTCATCCAACTCATGATTAGGATGTTGAATTGGTCTAGAAATTAATTTATTAAGATTCATCCCCCTCATATCAACCCCCAATAACCTCCTAAATTCCGAAGCCTCATTAAAATATTTTTTAACTCAATCTATTGCCTCAATTAATTTTTTATTTTCTATTATTATTAATCTTTTATTAATAAAAAATTTTTTTTTTAATAATATTATTTCCATTATTATTAATTCTTCATTATTAATAAAAATAGGATCTATCCCTTTTCATTTCTGATTTCCCAATATTATAGAAGGATTATCCTGATTTAATTGTTTTATTTTAATAACATGACAAAAAATTTCCCCTATAATTTTATTATCATATTATATAAATATTAAATTTTTATTTTTAATTATAATTTTTAATGTTATCATTGGAACAATTAGAAGTTTTAATCAAACATCTTTACGAAAATTAATAGCTTTTTCTTCAATTAATAATTTAGGATGAATATTGGCAGCTTTATCTATTAGAGAAAATTTATGAATAATTTATTTTTTATTATATTCTTTATTTATTTTTATTATATGTTTTTTATTTTATATTATCAATATTTTTTATGTTAATCAATTATTTAATTTAAATCTTAATTTTTTAATTAAATTTTCAATTTTAATTAACTTTTTATCTTTGGGTGGTTTACCTCYATTTTTAGGATTTTTTCCCAAATGAATAATTATTAATTTTCTATTATATAATAATTTATTTATTATTTCTTTTATTTTCACAATTTCTAGATTAATTATATTATTTATTTATATTCGAATTATTTATTCATCATTTATATTTTTTTCAATTAAATTAAAATGATCAAAATTTTTTTTAAAAAATAATTTTATATTATTTATTAACATTTTTAGATTTATTTCTCTTTTAGGTATAATTCTTAGAACCTTATTTTTTTTTTAA</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ATTAATTTAATAATAATAATATCTTTTATTATAATTTTTATTTCTAATATTTTTATAGCAATTTCATTTATTATTGCAAAAAAATCTTTTCTTGACCGAGAAAAATGTTCCCCCTTTGAGTGTGGATTTGATCCAAAATCATTATCTCGTATCCCATTTTCATTACATTTTTTTCTAATTACAGTAATCTTTTTAATTTTTGATGTAGAAATCGCTTTAATTTTTCCTATAATTCCTACTTTTTTTAGAGTTAATTTCATTATTTGATTTAAAATTAATTTTTTTTTCATTATTATTTTATTGATGGGATTATATCATGAATGAAATCAAAATATATTAAATTGAACAAATTAA</t>
+          <t>ATAATCATTATTTTATTAAATTTATCAATTATAATAATTATTATTTCAAATTTATTTATAATAATTTCATTTATTATCTCAAAAAAATCTTTTCTTGATCGAGAAAAATGTTCACCATTTGAATGTGGTTTTGACCCAAAATGTTTAGCTCGAATTCCATTTTCTTTACATTTTTTTTTAATTACAATAATTTTTTTAATTTTTGATGTAGAAATTGCTTTAATTATACCTTTAATTCCTACATTTAATATAGTAAATTTTTTTATTTGATATAAAACTAGTTTTTTTTTTATTATTATATTATTAATTGGATTATATCATGAATGAAATCAAAATATATTAAATTGAATTAATTAA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ATGATAAGTTTTTTAATAATAATAACTTTTATAATTCCATTATGTTTTAAAAAAAATATATTTTGATTGGCCCAAATATTAATAATATTTATAATATTTATATTTATAAATTTAACTATTAATATTATAAATTTTTGTAATTTAAGTTATATGTTAGGGTATGATGTAATTTCTTATGGTTTAATTTTATTAAGAATTTGAATTAGAAGATTAATAATTATAGCAAGTGAAAGATTATATAAAAATAAATTTTATTCAAATTTATTTTTATTCAATATTATTTTTTTAATAATAATATTATATATAACTTTTAGAGTAATAAATTTATTTTTATTTTACTTATTTTTTGAAAGAAGATTAATTCCAACTTTAATATTAATTATTGGTTGAGGGTATCAACCTGAACGAATTCAAGCGGGAATATATTTATTATTTTATACTTTATTTGCTTCTTTACCTTTGTTAATAGGAATTTTTTATATTTATAAAAATATAAATTATATGATAATTTATTTTTTAAAGTTTTATGATTATAATTTATTAATATTATATTTATGTTTAATTATAGCCTTTTTAGTGAAAATACCTATATATTTTGTTCATTTATGACTTCCTAAAGCTCATGTAGAAGCTCCAATTTCTGGTTCTATAATTTTAGCTGCAATTATATTAAAATTAGGGGGATACGGACTTTTACGTATTATAATTATTTTACAAAAAATTAATTTGAAAATAAGATTTATTTGGGTAGTAATTAGATTAATTGGGGGGTTTTATATTAGATTAAAATGTTTTTGTCAAATTGATATAAAATCTTTAATTGCTTATTCATCTGTTGCACATATAAGAATTGTAATTGGGGGGATTATAACAATAAATTATTGGGGTTATTTAGGTTCTTATATTTTAATAGTTGGGCATGGACTATGTTCTTCAGGGATATTTTGTTTATCCAATATAAATTATGAACGATTGAATAGTCGAAGATTATTTATTAATAAGGGGATAATAAATTTTATACCTTCAATAAGATTATGATGATTTTTATTAATATCATCTAATATAGCTGCTCCTCCCTCATTAAATTTAATAGGGGAAATTAGATTAATTAATAGATTAGTCAGATGATCTTGATTTAGCATAATTATATTAATGGGTATTTCATTTTTTAGTGCCGGCTATAGATTATATTTATATTCTTATACTCAACACGGGAAATATAATATAGGCGTTTATAGATTTTATACAGGAACATCTCGAGAATATTTAATTTTATTATTACATTGATTACCTTTAAATATTTTAGTATTAAAAATTGATTATATAATAATTTGATTTT</t>
+          <t>ATGATAAAATTTTTATTTATAATTTTATTTATAATTCCTTTATGTTTTAAAAAAAATATGTTTTGAATGGTTCAAATAATAATAATATTAATAGTTTTTATATTTATAAATTTAACTATTAATATTATAAATTTTACTAATTTAAGATATATATTGAGATGTGATTTAATTTCTTATGGATTAATTTTATTAAGAATTTGAATTAGATATTTAATAATTATAGCTAGAGAAAATTTATATAAAGTAAATTTTTATGAAAATTTTTTTTTATTAAATATTATTTTATTATTGATTATATTATATTTAACTTTTAGAATTATAAATTTATTTATATTTTATTTATTTTTTGAGGGGAGATTAATTCCTACTTTAATATTAATTATTGGATGAGGATATCAACCGGAACGAATTCAAGCAGGTATATATTTATTATTTTATACTTTATTTGTTTCTTTACCTTTATTATTGGGAATTTTTTATATTTATAATTTAATAAATAGAATAATAATTTATTTTATAAAATTTTATGATTATAATTTATTATTATTATATTTGAGAATAGTAATAGCTTTTTTAGTTAAAATACCCATATATTTTACTCATTTATGATTACCTAAGGCTCATGTAGAAGCTCCTATTTCTGGCTCTATAATTTTAGCTGCTATTATATTAAAATTGGGGGGTTATGGATTATTACGAATTTTAATTATTTTACAAAAAATTAATTTAAAAATAGGTATTATTTGAGTAGTTATTAGTTTGATTGGGGGCTTATATATTAGAATAAAATGTTTTTGTCAAATTGATATAAAATCTTTAATTGCTTATTCTTCAGTAGCACATATGAGAATTGTAATTAGAGGGATTATAACATTAAATTATTGAGGGTTTATAGGTGCTTATATTTTAATAATTGGACATGGTTTATGTTCTTCTGGAATATTTTGTTTATCTAATATTTGTTATGAACGTTTGGGAAGACGAAGATTATTTTTAAATAAGGGAATAATAAATTTTATACCTTCGATAAGAATATGGTGATTTTTGTTTATATCTTCTAATATAGCTGCTCCTCCCTCATTAAATTTAATAGGTGAAATTAGTTTAATTAATAGATTAGTTAGATGATCTTGAATAAGAATAATTATATTAATGAGAATTTCTTTTTTTAGAGCTGGTTATAGATTATATTTATATTCTTATACTCAACATGGAAAATATAATTTAGGAATTTATAGATTTTATAGAGGGGTATCTCGAGAATATTTAATATTAATATTACATTGATTACCTTTAAATATTTTAGTTTTAAAAATTGATTATAGAATAATTTGAT</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>ATGTTAAATATAAGATTAATTATTATTATTATATTTATATTAGGGAATATGATTTTTGTGTCTAAACATAAACATTTATTAATTGTTTTAATAAGTTTAGAATTTATAGTATTAAGAATTTTTTTTTTAATGCTATTATATCTTATAATAATTAATTATAATTTATATATATTAATGGTATTTTTAGTTTTTTCTGTTTGTGAGGGGGCATTAGGGTTATCTATTTTAGTTTCAATAATTCGAACTCATGGAAATGATTATTTTCAAAGTTTTAATTTAATTTAA</t>
+          <t>ATGATAATAAATATATGATTAGTAATTTTTGTAATATTTTTATTTGGGAATATAATTTTTGTTTCTAAATATAAACATTTATTAATTGTTTTATTAAGATTAGAATTTATAGTTTTAAGAATTTTTTTTTTTTTATTAATATATTTAATAATATTAAATTATAATATATATATATTAATAGTTTTTTTAGTTTTTTCAGTGTGTGAGGGAGCTTTAGGTCTTTCTATTTTAGTTTCTATAATTCGAACTCATGGTAATGATTATTTTCAAAGATATAATTTAATTTAA</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>ATTAATAAATTTAATATTTGTTTTATTAGTTTTTTTTTTTTATTTTTTTTTATGGTAATTAATTTTTTTATAATAATTTATTTTATTATGAATAATATAATTATTTTTTTGGAGTGGGAAATTATTTCTTTTAATTCAATTAATATTATTTTTTCTATTTTACTAGATTGAATATCATTATTATTTATAATATTTGTATCTTTAATTTCTTCTTCTGTAATTTTTTACAGAAGAAGATATATAAGATCTGAATTAAATTTAAATCGTTTTATTATTTTAGTTTTATTGTTTGTATTTTCTATAATTTTATTAATTATTAGACCTAATATAATTAGAATTTTTTTAGGCTGAGATGGTTTAGGATTGGTTTCTTATTGTTTAGTAATTTATTATCAAAATATTAAATCTTATAATGCGGGAATATTAACAGCTTTATCTAATCGAATTGGTGATGTGATAATTTTAATATTAATTTCTTGAATATTAAATTATGGAAGTTGAAATTATATTTTTTATTTAAATTTTATAAGTAATGATTTTTCTATACAGATTATTAGATTATTGTTAATTATTGCAGCTATAACTAAGAGAGCTCAAATTCCTTTTAGTTCTTGATTACCAGCAGCAATAGCAGCTCCAACACCAGTTTCTGCTTTAGTTCATTCTTCTACTTTAGTAACTGCTGGAGTTTATTTATTAATTCGGTTTAATAATGTTTTAGTTGATATATTTTTTTTAAAATTTTTATTATTATTTTCTGGCCTAACTATAATAATAGCTGGAATTTGTGCTAATTACGAGTTTGATTTGAAGAAAATTATTGCTTTATCAACTTTAAGTCAATTAGGTTTAATAATAAGAATTTTAAGAATGGGGTTTTATGATTTGGCTTTTTTTCATTTATTAACTCATGCTATATTTAAAGCTTTATTATTTATATGTGCTGGGGTAATTATTCATATAATAAATAATAATCAAGATATTCGTTTAATGGGGGGGATTAGATTATATATTCCTTTAACTTCTTTATGTATAAATATTTCAAATTTAGCTTTATGTGGAATTCCTTTTTTAGCAGGGTTTTATTCAAAGGATATAATTTTAGAGATGGTAAGAATAAGAAATTTAAATTTATTAATTTTTTATTTATATTATTTTTCTACAGGTTTGACAATGTTTTATACTATTCGGTTATTAATATATTTAATAATTAATGATTATAATTTATTAGCAATTTATAATTTATATGATGAGGATTATATTATATTAAAAAGTATATTTATTTTATTAATAATAAGATTAATTTCTGGTAGATTTTTAAGTTGATTAATTTTTTATTATCCTTATATAATTTATTTACCAATTTGTTTAAAAATAATGGTAATTTATGTGAGAATTATAGGGATAATAATAGGATGATTAATTAGTAATATAAATATTTATTCTTTAAATAAATTTTTAATATTTTATAATTTAAGAGGATTTTTAACAGTAATATGATTTTTGCCTAATTTATCAACTTATGGTTTAAATTATTATTTTTTAAAATTTGGTCAAATTTTAAGAAAAAATATTGATATAGGATGAAGAGAAATTTATAGAGGTCAAGGTATTTATAAAATTATTAAGTTTTATTCTTTAATTAATATCATTTACCAAATAAATAATTTTAAAATTTATTTATTTAGATTTATTTTATGAATAATAATTTTTATTATTTTAATTATAATTT</t>
+          <t>ATTAATAAGTATTCTTTATGTTTTATTAGATTTTTTTTTTTGTTTTTTTATATATTAATTAATTTTTTTTTAATAATATATTTTATTATAAATAATTTAATTATTATGTTAGAGTGGGAAATTATTTCTTTTAATTCTATAAGAATTGTTATATCTATTTTATTGGATTGAATATCTTTATTATTTATAATGTTTGTTTCTTTAATTTCTTCTTCTGTAATTTTTTATAGAAAAAGTTATATGAGATCTGAGTTAAATTTAAATCGTTTTATTATTTTAGTATTATTATTTGTTTTTTCAATAATTTTATTAATTATTAGACCTAATATTATTAGAATTTTTTTAGGGTGAGATGGATTAGGATTAGTTTCTTATTGTTTAATTATTTATTATCAAAATGTTAAATCTTATAATGCTGGGATATTAACAGCATTATCAAATCGAATTGGTGATGTTATGATTTTAATGTTGATTTCTTGAATAGTAAATTATGGAAGTTGAAATTATATTTTTTATTTGGATTTTATGAATAATGATTATTCAATAAAAATTGTAGGTTTAATGGTTATTATAGCTGCTATAACAAAAAGAGCTCAAATTCCTTTTAGTTCATGATTACCTGCGGCTATAGCTGCTCCTACTCCTGTTTCTGCTTTAGTTCATTCTTCTACTTTAGTTACTGCGGGGGTTTATTTATTAATTCGTTTTAATAGATTATTAATTGATATATTTTTTTTAAAAATTTTATTATTAATATCTGGATTAACAATATTTATAGCTGGAATTTGCGCAAATTATGAATTTGATTTAAAAAAAATTATTGCTTTATCTACATTAAGACAATTAGGGTTAATAATAAGAATTTTAAGAATAGGGTATAGAGATTTAGCTTTTTTTCATTTATTAACTCATGCTATATTTAAAGCTTTATTATTTATGTGTGCAGGAGTTATTATTCATATAATAAGTGATAATCAAGATATTCGGATAATGGGGGGAATTAGATTATATATTCCTTTAACTTCTTTATGTTTAAATATTTCTAATTTATCATTATGTKGGATTCCTTTTTTGGCTGGATTTTATTCTAAGGATATGATTTTAGAAGTGGTAAGAATAAGAAATTTAAATTTATTTATTTTTTATTTATATTATATTTCTACAGGTTTAACTATATTTTATACTTTTCKATTATTTATATATTTAATAATTAATGATTTTAATTTAATATCAATTTATAATTTATATGATGAAGATTTTATTATATTAAAAAGAATATTTTTATTATTATTTATAAGATTAGTTTCTGGGAGAATATTAGGTTGAATAATTTTTTCTTATCCTTATATAATTTATTTGCCTTTTAATATAAAAATAATAGTAATTTATGTTACATTATTAGGGTTATTTATAGGATTTGTTATTAGAAATATAAATATTTATTCAATTAATAAATTTTTAATAACTTATAATTTAAGAATATTTATAACTATAATATGATTTTTACCTGGTTTATCTACTTATACATTAAATTATAGATTTTTAAGTTTTAGTCAAAATTTATTAAAAAATATGGATATAGGTTGAGGAGAATTATATAAAAGTCAAGGTATTTATAAAATTATTAAAAATTATTCTATTATTTTTAGTATTTATCAATTAAATAATTTTAAAATTTTTTTATTTAGATTTGTTTTATGAATAATAATTTTTATTTTTATTTTAGTATTGT</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>ATTATAAAAATATTATTATCCATATCTTTAATTTCTATCTCAATTTTCTTATATTTTATTAATCACCCCCTTGCAATAGGATTATTAATTTTAATTCAAACCCTTCTTACTTGTTTAATTTCAGGGATATTAATTAATACCTATTGATTTTCTTATATCCTTTTTTTAATCTTCTTAGGGGGATTACTAGTATTATTTATTTACGTATCTAGAGTAGCTTCAAATGAATTATTTAAAATTCATCTTATTAGTAAATTTTCATTTATATATATATTAATTATTATAATTTTTAGAATTTTATTAAAAAATAACTTAATTTGAATAAATTTTTCTTTTAATGATGAAATAATTAATTTTTTTAATTTAATTTTATTTTTTAATAATGAGTATAACTTTAATTTATCTAAATTATATAATAAACAAAATTATTTAATAATAATAATATTAATTATTTATTTATTTATTACTTTAATTGCTATTGTAAAAATTACTAATATTTTTTTTGGGCCGTTACGATCTTTTAACAATTAA</t>
+          <t>ATTATTAAAATATTTTTATCATTTTCTTTAATTTTTACATCAATTTTTATATTTTTTCTCAATCATCCATTTTCTATAGGATTGATAATTTTAATTCAAACTTTATTTATATGCTTATTATCAAGTATATTAATTAACACTTATTGATTTTCTTATATTTTATTCTTAATTTTTTTAGGTGGTTTAATAGTTTTATTTATTTATGTATCAAGTATTGCCTCTAATGAAATTTTTAAAATTTCTTTAATTAATAAAAGATTTATTTTTTACCTATTATTTTTAATAATTATTAGATTCTTTTTTAAAAATAACTTAATATGAATAAATTTTTCATTTAATGATGAAATAAATAATTTATTTAACTTATTTTTATTTTTTAATAATGAATTCAATTTTAATTTATCTAAGCTATATAATGAACAAACCTACATATTAACTTTAATTTTAATTATTTATTTATTTATTACTCTTATTGCAGTAGTAAAAATCACTAATATTTTTTTCGGACCTTTACGATCTAATTTTTAA</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>GGGGGAAAATTAATAAAATATAAATAATAAAAAAATTTTTAATATTGGGGGATATTAGAGTATTTTTTTAAAAAAATAAATTATTTTATAGTTAATTAGTATTGAAAAAGAAATTTGAAATAAGTGAAAAAGAAAATAATTAAAAAGTAGTTTTAATTTAATGTATCTTGTGTATCAGAGTTTATTAAAAAATATTTTTTTTATTAAATAAATCTCGAATTTGAAAGAGCTAATTAATTAAAAAAGTTAATGTAGAAGAATTATTTTATATAATTAATTAGAAATGAAATGTTAGTCGTTTTTAAATATATCTAGTTATTTTAGAAAAAAATTTAATTTAAAATTTAAAAAATTTTATTATTAATTATAATTAATAATAAAATATTTAAAATTAAATATATTAAGGGATAAGCTTTAATATAAAAATTTATAATAATTAAGATAAATATATAAAAATTTTAAAATTTATATTGTTTAAAAATTATAATTTACTATAAAAAATTTTATAAATAATAAAATTTAATAAAAAAAAATTTAATTTTATATAAAATAATAATTTTAAATAAAAAAAAATTAAAAATAATGATAAAATTAGTATAATAATATGATAATAAAATTTAATTATAGTAAAATTAAATTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTAGAAAATAATTTAAAGTCTAATCTGCCCACTGATAGGTATATTAAAGGGCTGCAGTATAATGACTGTACAAAGGTAGCATAATCAATAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAAATATAATCTGTCTCTAATTTATAAATAGAATTTATTTTTTTAGTTAAAAAGCTAAGATGAATTTAAAAGACGAGAAGACCCTATAGAGTTTTATATTAATATATTTAAGATTATGTATATAAATAAAAATTAAAAATAAAAATAATATTTTATTGGGGTGATAAAAAAATTAATTTAACTTTTTTTTAAGTATTAACATGAATAAGTGAATATTTGATCCATTAATTATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTACAAATAAGAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGCAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGCGTGAGCCAGGTTGGTTTCTATCTTTAGAATAATAAAATATTTTAGTACGAAAGGATTAAATATTTTTAATAATTAAAATTTTATGAATATTATTAATTAATTAATTAA</t>
+          <t>GGGGTTAGGTTAATAAATTTAAAATTTAATAAAAAAAATTTTAATATTAAAAAGAAATGAGGGGTTAAAGTATTTTTAATAGAAAAAATTAAAAGTTTTATAGTGAATTATTACTGTGGGGGAAATCATAAATATGTGAAATTTAATTATTTAAAAAGTAGATTTAATTTGTTGTATCTTGTGTATCAGAGTTTATTAAATATTAGTAATTTAATTAAATAAATCTCGAATTTAAAAGAGTTAATTAATTATAAAAGTTAATGTTGAATAATTATTTTAAATAATTAATTAGAAATGAAATGTTAATCGTTTTTAAAAATATCTAGTTTTTTTAGAAAAAAATTTAATTTTAAATTAAAATAATTTAATAATTATTTAATTATTTATTAAAATTTTAAATTTAATATTTTAGGGGATAAGCTTTAAATTAAAAATTTATAATAATATGATTAATAAATTAAAATTTTTAAAATTTATATTGTTTAAAAATTAAAATTTATTATAAAAAATTTTAATAAAAATAAAATTTAAATAAAAATTTAATTTTTTATAAAAAAATAATTTTTAATAATAAAAAAATTAGAAATAATGATAAAATTAGTATATACATAAATAATTAAATATGTTTATTGTTTAAAAGATAAGTTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTTGATAATAATTTAAAGTCTAATCTGCCCACTGATATTATTATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCATTAGTCTTTTAATTGAAGACTTGTATGAAGGATTTGATGAAATATAATCTGTCTCTGATTTAATAATAGAAATTAATTTTTTAATTAAAAAGTTAAAATAAAATTAAAAGACGAGAAGACCCTATAGAGTTTTATAATTTATTTATTTAATATTATTTATAAATTTATAAATATTAAATAAATAAATTATTTTATTGGGGTGATAAAAAAATTTAATAAACTTTTTTGATAAATTAATATAAATAAATAAATAATTGATCCATAATAATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTACATATAAAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGCAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAAAAAATTAAGATATTTTAGTACGAAAGGATCAAATATTTGAAATAATTTTATAAAAAAGAATGTTAATAATATAATAAATAAATTTAAA</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>GATAAATTTTTTATATTTTGGAATAATTTATTATAAATTTATTTTACATGTAAATTTTAGTATAAAATTTTAATTATTTAAAAAATAATTAATTTAAAGTAAACAGTAATTAAAATTAAAAATTTAAGAAATTAAGATTTAGTAATATTTAAATTAATAACCAATTTTGTGCCAGCAGTTGCGGTTAAACAAAAATTAAATTAAATTATTTCAGTATATAATAAATAATTAAATATTAAATTAAATATTAAATTATTAAGTAAAATTTTAATTAAATTAAAATTTATTTAAAAATTATGATTTAACAAATTTTATTATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATTTAAAATACTAAAATAGTAAATAATATATTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACGAATAAATTTACTTAATTTTTAATTTTGTATATCATTGTTAAAAAAATATTTTGAAATAAAAATAATATTTTAAAATTTAAAATAAAAATTAATTCAGATCAAGATGCAGATTATAATTAAGTTTAAGATGGGTTACAAAAAAGTTATTTAAACGAAAATGAATTTTGTAATAGATATTTGAAGGTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTTAAAATTAAAATATGTACATATTGCCCGTCACTTTCATTTAAAAATTGAAATAAGTCGTAACAAAGTAGAGGTACTGGAAAGTGTTTCTAGAATGAA</t>
+          <t>TAATAAATAAAATAATTATGTTTTTGAAATTTTATTAAAAATTTATTTTACATATAAATTTTAGTGGATAATTTTAATTATTTAAATAATAATTAAATAAATAAGTAGTAATTAATATTAAAAATTTAAGAAATTAAGATTTAGTAATATTATAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTAAACAAAAATTAAGTTAAATTATTTCAGTTTATAATAAATAATAATTTTTAAAATAAATATTAAATTATTAGGTGAAATTTTAATTTAATTAAATTTTATAATAAGATTATGATTTAATAAATTTTAATATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATTTAAAATACTAAAATAGTAGATAATAATTTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACGAATAAATTTACTTAATTTATAATTTTGTATATCATTGTTAAAAAAATATTTTTTAGTAAAAATAATATTTAAAAATTAGAAATAGAAATTAATTCAGATCAAGATGCAGATAATAATTAAGAATATGATGGATTACAATAATAATATTTAAATGAATAATTTATTGAAAATTAAATTTGAAGGTGGATTTAAATGTAATTTTAATTAGTTTATTAAAATGATTAAAAATTGAAATATGTACATATTGCCCGTCACTTTCATTTAAAAATTGAAATAAGTCGTAACAAAGTAGAGGTACTGGAAAGTGTTTCTAGAAAGA</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>AGGATTATAGTTTAACTTAAAACATTTGATTTGCAATCAAATAATATTGAATTATATCAATTTATCTTA</t>
+          <t>AGGATTATAGTTTATTTAAAACATTTGATTTGCATTCAAAAAATATTGTTCATCAATTTATCTT</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>AGTCTTATATTCAAGGATGATATAAAATTGCAAATTTTAGGGTGTAATAATTACTAAGGCTT</t>
+          <t>AGTCTTATATTCAAATATGATTTAAAATTGCAAATTTTAAGGTGTAAAAATTACTAAGGCTT</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>AAAGAATTAGTTAATTCATAACATAAATATGTCAAATTTAAATTATTACTTTAGTAATATTCTTTT</t>
+          <t>AAAGAATTAGTTAATAAATAACATAAATATGTCAAATTTAAATAATTACTAAGTAATATTCTTTT</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>ATTTATATAGTTTAAATAAAACTTTACATTTTCATTGTAAAAATAAAAAAATTTTTTTTATAAATA</t>
+          <t>ATTTATATAGTTTAATTTAAAACATTACATTTTCATTGTAAAAATATAATTATTATTATTATTATAAATA</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>ATTTAAATAGCTTAAAGAGAGTATAATATTGAAGATATTAGGGTGATTATTTAATCTTTAAATA</t>
+          <t>ATTTAAATAGCTTAAAAAGAGTGTAATATTGAAGATATTAAGGTGATTAATTAAATCTTTAAATA</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATTTATTTTAATATAAATA</t>
+          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATAAAATTTAATATAAATA</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>ACTTAAATAATTTAAAAAAAATATTGATTTGTGGAGTCAAAAATATGAAAAAATTCATTTTAAGTC</t>
+          <t>ACTTAAATAATTTAAATAAAATATTGATTTGTGGAATMAAAAATATGAAATAGATGATTCATTTTAAGTC</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>AATAAAGTGCCTGATTAAAGGATTATTCTGATAGAATAAATTATGTAATTTTTTTTACCTTTATTA</t>
+          <t>AATAAAGTGCCTGATTAAAGGATTATTCTGATAGAATAAATTATGTAAAAATTTACCTTTATTA</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>CATTAGATGACTGAAAGCAAGTACTGGTCTCTTAAACCATTTTATAGTAAATTAGCAATTACTTCTAATGA</t>
+          <t>CATTAGATGACTGAAAGCAAGTAATGGTCTCTTAAACCTTTTTATGATAATTTAGCAAATATCTCTAATG</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>ACTATTTTGACAGAAAAATGTGGTGATTTTAGAAGTCATAAATATATAATTAAATTATATAAATAGTA</t>
+          <t>ACTATTTTGGCAGAAAATTGTAATGGTTTTAGAAGTCATATATGTATATTAATAAATATATAAGTAGTA</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>TCTAATATGGCAGATTATATGTAATGGATTTAAGCCCCATTTATAAAGGATTATCCTTTTTTTAGAA</t>
+          <t>TCTATTATGGCAGATTATATGTAATGGATTTAAACCCCATTTATAAAGGTTTATCCTTTTTTTAGAA</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>TTAAAAATAAGCTAATAAAAGCTTTTGAGTTCATACCTCAAATATATAGGAAATCCCTTTTTTTTAAA</t>
+          <t>TTAAAAATAAGCTAAAGTAAGCTTTTGGGTTCATACCCCAAATATAAAGGAAATCCCTTTTTTTTAAA</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>TTAATTGAAACCAAATAGAGGTATATCACTGTTAATGATAAAATTGAATTTCTAATTCCAATTAGA</t>
+          <t>TTAATTGAAACCAAATTTAGAGGTATATCACTGTTAATGATAAAATTGAATATAAATTCCAATTAGA</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>CAAAGAATAGTTTATAAAAAATAATAATTTTGGAGATTATAGATAAAGAAAATCTTTTTCTTTGA</t>
+          <t>CAAAGAGTAGTTTAAAAAAAAATAATAATTTTGGAGATTATTGATAAAGATAATCTTTTTCTTTGA</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>TATATTTTAGTGTAGGATGCACATTAATTTTTGAAATTATTAGGTATAGTTTAATTCTATAAGATATAA</t>
+          <t>TATATTTTAATGTAAGATGCATAGTAATTTTTGAAATTACAAGATATAGTTTAATTCTATAAAATATAA</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>AAATAAGAAGCAATTTGCATTTAATTTCGACTTAAAAGATAGAGTTAATAACTCCTTATTTA</t>
+          <t>AAATAGGAAGCAATTTTGCATTTAATTTCGACTTAAAAGATAGAGTTTATATAACTCCCTATTTA</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>GAAATATATAATAATTAAGCTGCTAACTTAATTTATAGTGAATAAAATCATTAATATTTCT</t>
+          <t>GAAATATATTAAAATTAAGCTGCTAACTTAATTTATAGTGATTAAAATCATTAATATTTCT</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>AATTAATGAGCTTGTTTAAGCATTTGTTTTGAAAACTCAAGAAAGAATATTTATTCTATTAATTT</t>
+          <t>AATTAATGAGCTTGTTAAGCATTTGTTTTGAAAACTTAAGAAAGAATTTCTTATTCTATTAATTT</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>GTTTTTATAGTTTAATAAAAAACTTTGGTCTTGTAAATCAAAAATAAGTATACTCTTTAAAAACT</t>
+          <t>GTTTTTATAATTTAACAAAAATATTGGTCTTGTAAATCAAACATAAGAACTTTCTTTAAAAACA</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>CAAATTAGAGCTTGTTAAGTATTTCATTTACATTGAAAAGAAATTAAAATAATTAATTAATTTGA</t>
+          <t>CAAATTAGAGCTTGTGAAAGTATTTCATTTACATTGAAAAGAAATTAAAAATTAATTAATTTGA</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>AAGGTTTTAAGTTAAATATAAACTATTAATCTTCAAAATTATTTATAAAGAAATTTCTTTAAGCCTTA</t>
+          <t>AAGGTTTTAAGTTAAATTAAACTAATAATCTTCAAAATTATTTATAAAGAAATTATCTCTTTAAGCCTTA</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>AATAAAATGGCTGAGTTATAAGCGATAAATTGTAAATTTATTAACGAGAAATATTCTCTTTTATTA</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>TAGCTCCCTGGTTGATCCTGCCAGTAGTTATATGCTTGTCTCAAAGATTAAGCCATGCATGTCTCAGTGCAAGCCGTATTAAGGCGATACCGCGAATGGCTCAATATATCAGTTTTGGTTCCTTAGATCTTACTCAGTTACTTGGATAACTGTGGTAATTCTAGAGCTAATACATGCAATCAGAACTCCGACCAGTGATGGGACGAGTGCTTTTATTAGATCAAAACCAATCGGCGGAGGGCCTCGCGTTCGAAGTCGTTAATTTTGATGAATCTGGATAACTTTTGCCGATCGCATGGTCAAGTACCGGCGACGCATCTTTCAAATGTCTGCCTTATCAACTTTCGATGGTAGTTTCTGCGACTACCATGGTTGTCACGGGTAACGGGGAATCAGGGTTCGATTCCGGAGAGGGAGCCTGAGAAACGGCTACCACATCCAAGGAAGGCAGCAGGCGCGCAAATTACCCACTCCCGGCACGGGGAGGTAGTGACGAAAAATAACGATACGGGACTCTTTCGAGGCCTCGTAATCGGAATGAGTACACTTTAAATATTTTAACGAGGAACAATTGGAGGGCAAGTCTGGTGCCAGCAGCCGCGGTAATTCCAGCTCCAATAGCGTATACTAAAATTGTTGCGGTTAAAAAGCTCGTAGTTGCATTTGTGCGCCGCGCTGTCGGTGCACCGCATCCGCGGTGATACTGACACGTTTGCGGAGCATATCGTCGGTGAGCCGGCGGTCAAACGCCGGTTCAATATCAAAATCCTATCGCGGTGCTCTTCGGTGAGTGTCGAGGTGGGCCGACAATTTTACTTTGAACAAATTAGAGTGCTCAAAGCGGGCTCAAAATGCCGCCTGAATATTTCGTGCATGGAATAATAGAATATGATCTCGGTTCTATTTTGTTGGTTTTCAGAACTCCGAGGTAATGATTAATAGGGACAACTGGGGGCATTCGTATTGCGACGTTAGAGGTGAAATTCTTGGATCGTCGCAAGACGAACATCAGCGAAAGCATTTGCCAAAGGTGTTTTCATCAATCAAGAACGAAAGTTAGAGGTTCGAAGGCGATTAGATACCGCCCTAGTTCTAACCGTAAATATGTCATCTAGCGATCCGCCGACGTTACTACAATGGCTCGGCGGGCAGCTTCCGGGAAACCAAAGATTTTGGACTCCGGGGGGAGTATGGTTGCAAAGCTGAAACTTAAAGGAATTGACGGAAGGGCACCACCAGGAGTGGAGCCTGCGGCTTAATTTGACTCAACACGGGAAATCTCACCAGGCCCGGACACCGGAAGGATTGACAGATTAACAGCTCTTTCTTGATTCGGTGGGTGGTGGTGCATGGCCGTTCTTAGTTGGTGGAGCGATTTGTCTGGTTAATTCCGGTAACGAACGAGACTCTAGCCTGCTAAATAGGCGTCGTCATTTAGGTGTGCGCGATTTCGGTCGCGCAACTCACTGGCGACGTATTAAAATTCTTCTTAGAGGGACCGGCGTCTTCGAAGCGCACGAGATTGAGCAATAACAGGTCTGTGATGCCCTTAGATGTCCTGGGCCGCACGCGCGCTACACTGAAGGAATCAGCATGTTCTCCCTGGCCTAGAGGCCCGGGCAACCCGTTGAAACTCCTTCGTGCTGGGGATTGGGGTTTGCAATTATCCCCCATAAACGAGGAATTCCTAGTAAGCGCGAGTCATAAGCTCGCGTTGATTACGTCCCTGCCCTTTGTACACACCGCCCGTCGCTACTACCGATTGAATGATTTAGTGAGGTCTTCGGACCGACACGCGGTGGCTTCGCGGCCGTCGGCGTTGCTGGGAAGTTGACCAAACTTGATCATTTAGAGGAAGTAAAAGTCGTAACAAGGTTTCCGTAGGGGAACCTGCGGAAGGATCATTA</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>AAACCACTACCCTGGACGGTGGATCACTAGGCTCGCGGGTCGATGAAGAACGCAGTTAACTGCGCGTCATAGTGTGAACTGCAGGACACATTTGAACATCGACATTTCGAACGCACATTGCGGTCCGTGGAGAAACATCCAGGACCACTCCTGTCCGAGGGCCGGCT</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>GCATATTAGTAAGCGGAGGAAAAGAAACTAACCAGGATTTCCTTAGTAGCGGCGAGCGAACAGGAAATAGCCCAGCACTGAATCCCGCGGTTGTAACGATCGCGGGAGATGTGGTGTTCGGGAGGTTCCGCTTTCTCGTCGTCGCCGCTCCTGTCCAAGTTCGTCTTGAACGGGGCCGTTTTCCCGCAGAGGGTGCCAGGCCCGTAGCGACGGAGCGAGACGGCGAGAGGGACTCTCCTCAGAGTCGGGTTGCTTGAGAGTGCAGCCCTAAGTGGGTGGTAAACTCCATCTAAGGCTAAATATTACCGCGAGACCGATAGCGAACAAGTACCGTGAGGGAAAGTTGAAAAGAACTTTGAAGAGAGAGTTCAAGAGTACGTGAAACCGTTCAGGGGTAAACCTGCGAAACTCGAATGAACGAACGGAGAGATTCATCGTCATTCGGCGGCGTACGGACGCGCGCCTCGATGTGGCGCACCGTCATTCGCGTGGCGTTCTAGCGTTGCACGGGTCGCGTCCGTCGACGTCCGCCGACGGCGTGCACTTCTCTCTCAGTAATACATCGCGACCCGTTCGCGGTCGGCCTAAGCGCCGTCCGGGAGCCCCGCGGTCTCGTCCTAACCGGCGAGGCCGCGGGACCGTGACGGTACGCCGGCCGGCCAGCCGGACGGTATATTCTAAAGATTCGCGCACGCGCCTCGCGCGCGTCCGGCCCGACGCAAGCTCTTACGTCGTCTTCGCCGACGTCCTGCCTTGGCGCGGACGTTGGGGCGGCGTGGCTGTCGTCGCGGCCGTGCAGTCTCGGACCGTGCGCGTTTCAGTCTGCGATGATTCATTTTCGGGCACTCGCAGGACCCGTCTTGAAACACGGACCAAGGAGTCTAGCATGTGTGCGAGTCATTGAGTTTATATTCGAAGATAATGCACAAAACTGAAAGGCGCAACGAAAGTGAAGGCGCGCGCTAGTCGCGCGCTCAGGGAGGATGGAGCGTCGGTCTAGCGATCGTACTCCCGCACTCCCGAGGCGTCTCGTTTCCAATCCGTGAATGCAGGCGCGCTCTGAGCACAGATGCTGGGACCCGAAAGATGGTGAACTATGCCTGGTCAGGTCGAAGTCAGGGGAAACCCTGATGGAGGACCGTAGCGATTCTGACGTGCAAATCGATCGTCGGAACTGGGTATAGGGGCGAAAGACTAATCGAACCATCTAGTAGCTGGTTCCGTCCGAAGTTTCCCTCAGGATAGCTGGCGTCGATTATTAACAGTCCCATCCGGTAAAGCGAATGATTAGAGGCATTGGGGCCGAAACGACCTCAACCTATTCTCAAACTTTAAATGGGTGAGAACTCCGGCTTACTCGAACGATGAAGCCGGAGATCTGATGACGGTGCCAAGTGGGCCAATTTTGGTAAGCAGAACTGGCGCTGTGGGATGAACCAAACGTAGTGTTAAGGCGCCTAAAAAACGCTCATGGGACACCATGAAAGGCGTTGGTCGCTCATGACAGCAGGACGGTGGCCATGGAAGTCGGAATCCGCTAAGGAGTGTGCAACGACTCACCTGCCGAAGCAACCAGCCCTGAAAATGGATGGCGCTGAAGCGTTTTGCCTATACACTACCGTTACGGGCAATAGCGGCGTGTGCGCTCGCGCGCTCGTCCGCGTCATTATGCCGTAACGAGTAGGACGTGCGCGGCGGAGAGCGCAGAAGGGTCTGGGCGTGAGCCCGCCTGGAGCCTCCGTCGGTGCAGATCTTGGTGGTAGTAGCAAATACTCCAGCGAGGCCCTGGAGGACTGACGTGGAGAAGGGTTTCGCGTGAACAGTAGTTGCTCGCGAGTCAGTCGATCCTAAGCTCAAGGAGAGATCTTATGTCGATGTGGCGTGTTTCTTTTTTGAGACAAACAACGCCCTTTGAGCGAAAGGGAATCCGGTTCCTATTCCGGAACCCGGCAGCGGAACCGTTTCAATAATCGTTCCCTCGTTTCAAAGCGAGTGTTCGACGGGGTAACCCAAAGTGGCCTGAAGACGCCGCCGAGGGGTCCGGGAAGAGTTTTCTTTTCTGCCTGAGCGTTCGAGTTCCATGGAATCCTATAGAAGGGAGATATGGTTCGGAACGCGAAGAGCACCGCATTTGCGGCGGTGTCCGGATACTCTCTGCGGACCTTGAAAATTCAGGTGAGGGATGTACGTGGAGATGTCGCGCCGGTTCGTACCCATATCCGCAGCAGGTCTCCAAGGTGAAGAGCCTCTAGTCGATAGAATAATGTAGGTAAGGGAAGTCGGCAAATTGGATCCGTAACTTCGGAATAAGGATTGGCTCTGAGGACCGGGGCGTGTCGGGTTTGGACGGGAAGCGGATGCGGCCGGTGCCGGGCCTGGTCGATGCTCGTGCGCGCGCGCAGTTGCTTTTCGTGCGTGTCCCTGTAAAAGGGGGTGCGTTTCGGGGTGTCGCTCGTACGCGTTTCGGGCGGAATCCGGACCCGCGTTCCGGCCTTCCGCGGATCTTCCTAGCCGTAAGGCCGAGTCGGTTTCGTCTAGTGCGCGATCGGCGCGGTTCTGTACGACCGCCGTTCAACGGTCAGCTCAGAACTGGCACGGACAAGGGGAATCCGACTGTCTAATTAAAACAAAGCATTGCGATGGCCCTCGCGGGTGTTGACGCAATGTGATTTCTGCCCAGTGCTCTGAATGTCAACGTGAAGAAATTCAAGCAAGCGCGGGTAAACGGCGGGAAGTAACTATGACTCTCTTAAGGTAGCCAAATGCCTCGTCATCTAATTAGTGACGCGCATGAATGGATTAACGAGATTCCCGCTGTCCCTATCTACTATCTAGCGAAACCACAGCCAAGGGAACGGGCTTGGGAGAATCAGCGGGGAAAGAAGACCCTGTTGAGCTTGACTCTAGTCTGGCATTGTAAGGAGACATGAGAGGTGTAGCATAAGTGGGAGATCGTTCGCGGTCGTCGCTGAAAAACCACTACTTTCATTGTTTCATTACTTACTCGGTTGGGCGGAAGCGGTGCGCGGTCGATTATATCGGCGGGCGTACGGTGTTTCGTTCCAAGCGTGCAGAGTGGAGGCGTGGCGGCAACGCTCGTCTCCATACAACTCCCGCGTGATCCGGTTCGAGGACACTGCCAGGCGGGGAGTTTGACTGGGGCGGTACATCTGTCAAAGAATAACGCAGGTGTCCTAAGGCCAGCTCAGCGAGGACAGAAACCTCGCGTGGAGCAAAAGGGCAAAAGCTGGCTTGATCCAGATGTTCAGTACGCATAGGGACTGCGAAAGCACGGCCTATCGATCCTTTAGTATAAAGAGTTTTTAGCAAGAGGTGCCAGAAAAGTTACCACAGGGATAACTGGCTTGTGGCGGCCAAGCGTTCATAGCGACGTCGCTTTTTGATCCTTCGATGTCGGCTCTTCCTATCATTGCGAAGCAAAATTCGCCAAGCGTTGGATTGTTCACCCATCAAAAGGGAACGTGAGCTGGGTTTAGACCGTCGTGAGACAGGTTAGTTTTACCCTACTGATGGCTCGTCGTTGCGATAGTAATACTGCTCAGTACGAGAGGAACCGCAGTTTCGGACATTTGGTTCATGCACTCGGCCGAGCGGCCGGTGGTGCGAAGCTACCATCCGCGGGATTATGCCTGAACGCCTCTAAGGCCGAAGCCAGCCTAGCCGAATCCGGCAAGGATATTCTCACTGTGGAGCCCCGAGAGTCGGGAGGCCACTATACAATGTGACTTTAATAGTCGCGCTTCACGCGCGACGTCGAGGCCCATTTGGAACGCGGCGATCGATGCGAGCGGTCTTAACACGTGCATCACGGCGCCGAAGTTTCTAATTTACCTCAGTTCGATGTCGGGGCTCGGAATAGTCTGTAGACGACTTACGTTCCTGGCGGGGTGTTGTGCTCGGTAGAGCAGCGTCGTGCTGCGATCTGTTGAGACTCAGCCCTGCGCCAGGTGATTCGT</t>
-        </is>
-      </c>
+          <t>AATAAAATGGCTGAGTTATAAGCGATAAATTGTAAATTTATTAACGAGAAATTCTCTTTTATTA</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_4043-4720_+_atp6</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_4031-4708_+_atp6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_3891-4049_+_atp8</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_3921-4037_+_atp8_0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_10713-11540_+_cob_0</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_10419-11570_+_cob</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_1471-3006_+_cox1</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_1455-2990_+_cox1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_3070-3765_+_cox2</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_3028-3702_+_cox2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_4720-5508_+_cox3</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_5015-5497_+_cox3-b</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_11843-12610_-_nad1-a</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_11648-12580_-_nad1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_295-1266_+_nad2</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_251-1264_+_nad2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_5577-5930_+_nad3</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_5568-5918_+_nad3</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_8063-9190_-_nad4_0-b</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_8060-9403_-_nad4</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_9452-9736_-_nad4l</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_9460-9744_-_nad4l</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_6318-8035_-_nad5</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_6263-7981_-_nad5</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_9929-10432_+_nad6_0</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_9898-10404_+_nad6</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_12696-14023_-_rrnL</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_12640-13954_-_rrnL</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_14085-14857_-_rrnS</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_14056-14817_-_rrnS</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_5929-5994_+_trnA(tgc)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_5917-5984_+_trnA(tgc)</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_1326-1393_-_trnC(gca)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_1323-1384_-_trnC(gca)</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_3816-3881_+_trnD(gtc)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_3804-3871_+_trnD(gtc)</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_6189-6254_+_trnE(ttc)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_6194-6257_+_trnE(ttc)</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_6253-6318_-_trnF(gaa)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_trnF</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_5511-5576_+_trnG(tcc)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_5500-5564_+_trnG(tcc)</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_trnH</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_trnH</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_70-134_+_trnI(gat)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_69-133_+_trnI(gat)</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_3746-3816_+_trnK(ctt)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_3732-3802_+_trnK(ctt)</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_12612-12680_-_trnL1(tag)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_12595-12662_-_trnL1(tag)</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_3002-3069_+_trnL2(taa)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_2986-3054_+_trnL2(taa)</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_1-69_+_trnM(cat)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_1-67_+_trnM(cat)</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_6058-6124_+_trnN(gtt)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_6070-6134_+_trnN(gtt)</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_9839-9903_-_trnP(tgg)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_9811-9874_-_trnP(tgg)</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_132-200_-_trnQ(ttg)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_131-199_-_trnQ(ttg)</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_5994-6057_+_trnR(tcg)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_5984-6047_+_trnR(tcg)</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_6123-6183_+_trnS1(tct)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_6133-6192_+_trnS1(gct)</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_11587-11653_+_trnS2(tga)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_11569-11634_+_trnS2(tga)</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_9774-9838_+_trnT(tgt)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_9747-9810_+_trnT(tgt)</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_14021-14084_-_trnV(tac)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_13988-14055_-_trnV(tac)</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_1265-1333_+_trnW(tca)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_1263-1330_+_trnW(tca)</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>&gt;DL16V110Herona_osteria_1394-1458_-_trnY(gta)</t>
+          <t>&gt;17LW02001_Doxocopa_zunilda_1385-1450_-_trnY(gta)</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr"/>
@@ -2455,187 +2427,187 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATGATAAATAACTTATTTTCAATTTTTGATCCCTCTACTAATTTATTTAACCTTTCTTTAAATTGAATCAGAATTTTTATCGGATTTATATTTATACCTTTTTCATTCTGATTTATTCCTAATCGTCATTTTATATTTTGAAATTTTATTTCAAATAAATTACATAATGAATTTAAAACTTTATTAGGACCTAATAGATTTAATGGATCAACTTTCATTTTCATTTCACTATTTTTTTTTATTTTTTTTAATAATTTTTTAGGATTATTTCCTTATATTTTTACCAGAACTAGTCATTTAAATATTTCATTAACATTATCTTTAACATTATGACTTAGATTTATAATTTATGGATGAATTAATAATACTCAACATATATTTATTCATTTAATCCCTCAAGGAACTCCAATAATTTTAATACCTTTTATAGTATTAATTGAAACTATTAGAAATATTATTCGACCAGGAACTTTAGCAGTCCGATTAACAGCAAATATAATTGCTGGACACTTATTATTAACATTATTAAGAAGAACTAGAAATTATATATCTTCTTATATATTAATTATTTTAATCTTTATTCAAATCTTATTATTAGTATTAGAATCAGCAGTAGCTATTATTCAAGCTTATGTAATTTCTACTTTAACAACTCTTTATTCTAGAGAAGTAAATTAA</t>
+          <t>ATGATAAATAACTTATTTTCAATTTTTGACCCCTCTACTAATCTATTCAACCTATCTCTAAATTGACTTAGAGTTTTCATTGGGATGATATTTATTCCTTATTCTTTTTGATTTATTCCCAATCGTCATTTTATATTGTGAAAAATCACATCAAATAAATTACATCAAGAATTTAAAACATTATTAGGAACTAACAAATCTAATGGTTCAACATTTATTTTTATTTCGTTATTTTTTTTCGTATTATTAAATAACTTTTTAGGATTATTCCCCTACATTTTCACAAGCACTAGTCATCTTAATATCACCCTCTCTATCTCCCTAACTTTATGATTAAGATTTATAATTTATGGGTGAATTAATAACACCCAACACATATTTACCCATATAATTCCTCAAGGAACCCCAACAATCTTAATACCCTTTATAGTATTAATTGAAACTATTAGAAATATTATTCGTCCAGGTACCTTAGCTGTTCGATTAACAGCTAATATGATCGCTGGACACTTACTATTAACCCTGTTAAGAAGAACTAGAAATAATATACCCTCATATTTACTATTTATTTTAATTTTTAGTCAAATTTTACTACTAATTTTAGAATCTGCAGTAGCTATTATTCAAGCATATGTTATCTCTATTTTAAGAACCCTTTATTCTAGAGAAGTAAACTAA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ATTCCACAAATAATACCTATTAATTGAATTTTTTCCTTCATTTTTTTTATTTGTATTTTTATTATTTTTATAATTATAAATTATTTTATTTTTAATTATAAATTTAATAATTTTAATAATAAAAATAAGTTAAATAAAAATATTCATATTTCAAATTGAAAATGATAA</t>
+          <t>ATTCCCCAAATAATACCAATTAACTGAATTTTTTCATTTGTTTTTTTTATTTGTATCTTTATTATTTTTATAGTTATAAACTACTATATCTTTAATTATAAAAATATTAACTTTAATCAAAACAAATCGTTAAAAAACATAAAAACTTTAATGTGAAAATGATAA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ATGATAAATATATTCAAACCTATTCGTAACACTCATCCTGTTATTAAAATTATTAATAACTCATTAATTGATTTACCTTCACCATCTAATATTTCATCTTGATGAAATTTTGGCTCCCTTCTTGGATTATGCTTAATAACTCAAATTATCACAGGTTTATTTTTAACTATATATTATACTGCTAATATTGAATTAGCTTTTTTCAGTGTAAATTACATTTGTCGAAATGTTAATTATGGGTGATTAATTCGTACTTTACATGCTAATGGAGCATCTTTTTTTTTTATTTGTATTTATTTTCATATCGGTCGAGGAATTTATTATGAATCATTTAATTATAAATATACGTGAATTGTAGGAATTCTTATTTTATTTTTACTTATAGCAACAGCATTTATAGGGTATGTACTACCTTGAGGTCAAATATCCTTTTGAGGTGCTACAGTAATTACTAATTTACTTTCAGCTATTCCTTATTTAGGAAATATATTAGTAAATTGAATTTGAGGAGGATTTGCTGTTGATAATGCTACTTTAACTCGATTTTATACTTTTCATTTTCTATTTCCATTTATTATTTTAATATTAACAATAATTCATTTATTATTTCTTCATCAAACAGGATCTAATAATCCTTTAGGTATTAATAGAAATTTAGATAAAATTCCTTTTCATCCTTTCTTTGTATTTAAAGATTTAATTGGATTTATTATTTTAATTTTTTTATTAATTTTATTATCATTAACTAATCCATATTTACTAGGAGATCCAGATAATTTTATTCCAGCAAATCCTTTAGTTACTCCTATTCATATCCAACCAGAATGATATTTTTTATTTGCTTATGCAATTTTACGTTCAATTCCCAATAAGTTAGGAGGTGTAATTGCCTTAGTTATATCAATTTTAATTTTAATTATTTTACCTTTCACATTTAATAAAAAAATTCAAGGAATTCAATTTTATCCTATTAATCAAATTTTATTTTGATCATTAATTTCTATTATTATTTTACTAACTTGAATTGGAGCTCGATCAGTAGAAATTCCTTATATTTTAACAGGACAAATTCTTACAGTAATTTATTTTTCTTATTTTATTATTAACCCCATTTTAAACAAATTTTGAGATAAATTAATTTTTAATTTTTAA</t>
+          <t>ATGATAAATAGTTTCAAACCTATTCGTAAAAATCACCCTATCATTAAAATTATCAATAATTCCCTAATTGATCTACCTTYACCCTCTAACATCTCTTCTTGGTGAAACTTTGGATCCCTTCTAGGATTATGTCTAACAATTCAAATTATTACGGGACTATTTCTAACAATATATTACACAGCTAATATCGAATTAGCTTTCTACAGAGTAAATTATATTTGCCGAAATGTTAACTACGGGTGGTTAATTCGAACCTTACACGCAAATGGGGCATCTTTCTTTTTTATTTGTGTTTATTTTCATATTGGACGAGGAATTTACTATGAATCATTTAACTTCAAGCACACTTGAATAGTGGGGGTAATTATTTTGTTTTTACTTATAGCTACAGCATTTATGGGATATGTCTTACCGTGGGGACAAATATCATTTTGAGGGGCAACAGTAATTACCAACCTTTTATCTGCAATTCCTTATTTAGGAATTGACCTAGTAAACTGAATTTGAGGAGGGTTTGCCGTAGACAATGCAACATTAACTCGATTTTATACCTTTCATTTTCTTTTCCCCTTTATTATTTTAGCACTAACAATAGTCCATTTATTATTTTTACATCAAACAGGATCTAATAACCCCTTAGGGATTAACAGAAATGTTGATAAAATCCCCTTTCACCCATTTTTTATTTTTAAGGATTTAATTGGATTTATAATTTTAATTTTTTTATTAACCACTCTCTCACTGACAAACCCATATTTACTGGGAGATCCAGACAATTTTATCCCAGCTAACCCACTAGTAACCCCTATTCACATTCAACCAGAATGATATTTTTTATTTGCTTACGCAATTTTACGATCTATTCCCAATAAATTAGGGGGGGTTATTGCCCTAATCACATCCATCTTAATTTTAATTATCTTACCATTCACCTTCAATAAAAAAATTCAAGGGATTCAATTCTACCCATTAAACCAAATTATATTTTGATTTTTAATTTCCATTATTATCTTATTGACGTGAATTGGGGCTCGCTCAGTAGAAATCCCATATATTTTCACGGGGCAACTATTAACTGTTTTATATTTTTCTTATTTTATTCTTAACCCCATCTTAAATAAAATCTGAGATAAATTAATCTTCAATTATTAA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CGAAAATGATTATTTTCTACAAATCATAAAGATATTGGTACTTTATATTTTATTTTTGGAATCTGAGCAGGAATAGTAGGAACATCTCTTAGTTTATTAATTCGAACTGAATTAGGTAATCCAGGTTCTTTAATTGGTGATGATCAAATTTATAATACTATTGTTACAGCTCACGCTTTTATTATAATTTTTTTTATAGTTATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTTCCATTAATATTAGGAGCTCCTGATATAGCCTTCCCCCGAATAAATAATATAAGATTTTGATTACTACCCCCTTCTTTAGTACTACTAATTTCTAGAAGAATCGTAGAAAATGGAGCAGGAACAGGATGAACAGTATACCCACCACTTTCATCTAATATTGCTCATAGAGGTTCTTCTGTTGATTTAGCTATTTTTTCTTTACATTTAGCTGGTATTTCGTCAATTTTAGGAGCTATTAATTTTATTACTACAATTATTAATATACGAATTAATAATTTATCTTTTGATCAAATACCTCTATTTGTATGAGCTGTAGGAATTACAGCTTTACTTTTACTTTTATCTTTACCAGTTTTAGCTGGAGCTATTACTATATTATTAACTGATCGTAATATCAATACATCTTTTTTTGACCCTGCTGGAGGAGGAGATCCTATTTTATACCAACATTTATTTTGATTTTTTGGTCATCCTGAAGTATATATTTTAATTCTTCCCGGATTTGGAATAATTTCTCATATTATTTCACAAGAAAGAGGTAAAAAGGAAACTTTTGGCTGTCTTGGTATAATTTATGCAATAATAGCAATTGGATTATTAGGATTTATTGTATGAGCACATCATATATTTACTGTAGGAATAGATATTGATACACGAGCTTATTTTACTTCAGCAACTATAATTATTGCTGTTCCAACTGGAATTAAAATTTTCAGATGACTAGCAACTTTACATGGAACACAAATTAATTATAGACCTTCTATATTATGAAGATTAGGATTTATTTTCTTATTTACTGTAGGAGGGTTAACAGGAGTAATTTTAGCTAATTCTTCTATTGATATTACTCTCCATGATACATATTATGTAGTTGCCCATTTTCATTATGTATTATCTATAGGTGCCGTATTTGCTATTTTTGGTGGATTTGTTCATTGATATCCATTATTTACCGGATTAATAATAAATAATTACTTATTAAAAATTCAATTTATTTCAATATTTATTGGAGTAAACTTAACTTTTTTCCCTCAACATTTTTTAGGTTTAGCAGGCATACCTCGACGATACTCTGATTATCCAGATAGATTTTTATCTTGAAATATTATTTCATCATTTGGATCTTATATTTCATTAATTTCTATAATAATAATAATTATTATTGTATGAGAATCAATAATCAATCAACGAATTATTCTCTTTTCTTTAAATATACCATCATCAATTGAATGATATCAAAATTTACCACCAGCAGAACATTCATATAATGAACTTCCTATTTTAAGTAATTTCTAA</t>
+          <t>ATTTTATTTAAGCGAAAGTGATTATTTTCCACAAATCATAAAGATATTGGCACATTATATTTTATTTTTGGTATTTGAGCAGGAATAGTTGGAACATCTCTTAGTTTATTAATCCGAACTGAATTAGGTAATCCTGGATCCTTAATTGGAGATGATCAAATTTATAACACTATTGTAACAGCTCACGCTTTTATTATAATTTTCTTTATAGTTATACCCATTATAATTGGGGGATTTGGAAACTGACTAGTTCCGTTAATACTTGGAGCCCCAGATATAGCTTTTCCCCGAATAAATAATTTAAGTTTTTGATTACTTCCCCCCTCACTAATTTTATTAATTTCTAGAAGAGTTGTAGAAAATGGAGCAGGAACAGGATGAACGGTTTACCCCCCCCTTTCATCTAATATTGCCCATGGTGGCTCATCAGTCGATCTTGCTATTTTTTCCCTACACTTAGCGGGAATTTCCTCCATTTTAGGAGCTATTAATTTTATTACAACAATTATTAACATACGAATTAATAACCTATCTTTTGATCAAATACCACTATTTGTTTGAGCTGTGGGAATTACCGCTTTACTTTTGCTACTCTCTTTACCCGTATTAGCTGGAGCTATTACAATACTGCTAACAGACCGAAATATTAATACTTCATTTTTTGACCCTGCTGGTGGGGGAGACCCTATTTTATATCAACACTTGTTTTGATTTTTTGGACATCCTGAAGTTTATATTTTAATTTTACCAGGATTTGGTATAATTTCCCACATTATTTCACAAGAAAGAGGAAAAAAAGAAACTTTTGGTTGTTTGGGAATAATTTACGCTATAATAACAATTGGGCTTTTAGGGTTTATTGTGTGAGCCCACCACATATTTACAGTAGGAATGGACATCGACACACGAGCTTATTTCACATCCGCAACCATAATTATTGCGGTACCAACAGGTATTAAAATTTTTAGCTGATTAGCAACATTACATGGAACCGTAATTAACTACAGTCCATCTATGTTATGAAGATTAGGATTTATTTTTTTATTTACTGTAGGGGGATTAACAGGAGTAGTATTAGCTAATTCATCAATTGATATTACCTTACATGACACTTATTATGTTGTTGCCCATTTTCATTATGTACTATCTATAGGAGCAGTATTTGCTATTTTAGGAAGATTCATTCATTGGTATCCTTTATTTACAGGACTAACTTTAAATAACTACCTGCTAAAAATTCAATTTTTTTCCATATTTATTGGGGTAAATTTAACTTTTTTCCCTCAACATTTTTTAGGGTTAGCTGGAATACCTCGACGATATTCCGATTATCCTGATAGATTTTTATCTTGAAATATTGTATCCTCTTTTGGGTCCTATATTTCTCTATTTTCAACAATAATAATAATTATTATTGTTTGAGAGTCCATAATTAATCAACGATTAATCTTATTTTCATTAAACATACCATCATCAATTGAATGATATCAAAACTTACCTCCAGCAGAACACTCATATAATGAATTTCCTATTTTAAGCAATTTCTAA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ATGGCAACATGATCTAATCTTAATTATCAAAATAGAGCATCTCCTCTCATAGAACAAATTATTTTTTTTCATGATCATACTTTGATTATTTTAATTATAATTACTATTTTAGTTTCATATTTAATATTAAGTTTATTTTTTAACTCCTATATTAATCGATTTTTACTAGAAGAACAAATAATTGAATTAATTTGAACAATTCTTCCAGCTATTACTTTAATTTTTATTGCATTACCATCACTTCGCTTATTRTATTTATTAGATGAACTTAATAATCCCTTAATTACTTTAAAATCAATTGGACATCAATGATATTGAAGATATGAATATTCTGATTTTTCTAATATTGAATTTGATTCTTATATAATTAGATCTCCAGAATCTATTAATAATTTTCGCCTTTTAGATGTTGATAATCGTATTATTTTACCAATTAATAACCAAATTCGAATTTTAATTACTGCTACCGATGTTATCCATTCATGAACTGTTCCTTCATTAGGAATTAAAGTTGATGCAAATCCTGGACGATTAAATCAAACAAGATTTTTCATTAATCGTCCAGGTTTATTTTTTGGGCAATGTTCAGAAATTTGTGGAGCAAATCATAGTTTTATACCTATCGTAATTGAGGGAATTTCAATCAAAAATTTTATTAATTGAATTAATAATTATTCATTAGATGACTGAAAGTAA</t>
+          <t>ATAAAGGAATATATCCTTTTTTTAGAAGTGGCAACTTGATCTAATTTAAACTACCAAAATAGAGCTTCCCCATTAATAGAACAAATTATCTTTTTTCACGATCACAGATTAGTTATTTTAATCATAATTACTATTTTAGTATCATATGTAATAATTAATTTATTTTTTAACTCTTTTATTAATCGATTTTTATTAGAAAACCAAATAATTGAATTAATTTGAACTATTTTACCAGCAATCACACTAATTTTTATCGCCATCCCCTCCCTTCGTCTACTTTATTTACTAGATGAACTTAATAACCCCCTAATTACACTAAAATCTATTGGCCACCAATGATATTGAAGTTATGAATACTCAGATTTCAGAAATATTGAATTTGACTCATACATAGCCAACCCTAATGAAAATATTAATAATTTTCGCCTATTAGATGTAGATAATCGTATTATCCTCCCTATAAACAACCAAATTCGAGTTTTAGTAACTGCTTCTGATGTAATCCACTCCTGAACCATCCCCTCATTGGGAGTTAAGGTAGATGCAAACCCAGGACGATTAAATCAAATTAGATTTTTTATTAATCGTCCTGGAATTTTTTTTGGTCAATGTTCAGAAATTTGTGGGGCAAATCACAGTTTTATACCTATTGTAATTGAGAGAATCTCAGTTAAAAATTTTATTGATTGGGTTAATAACTATT</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ATGTCACTTAATCATAATCATCCATTTCATTTAGTAGATTATAGACCCTGACCTTTAACTGGAGCTATTGGAGTTATAACATTAGTAACAGGTTTAGTCAAATGATTTCATAATTTTAATATAAATTTATTAATTTTAGGTTATATTATTGTATTATTAACAATATATCAATGATGACGAGATATTTGTCGAGAAGGAACTTTTCAAGGAAAACATACTATTTTAGTTACAAAAGGTCTTCGATGAGGTATAATTTTATTTATTATCTCAGAAATTTTTTTTTTTTTTTCATTCTTTTGAGCTTTTTTTCATAGTAGTTTATCTCCTAATATTGAAATTGGTGCAATATGACCTCCTATAGATATTATTACTTTTAACCCATTCCAAATTCCATTACTTAATACTATCATTCTAATTACTTCAGGTATTACAGTTACTTGAGCTCATCATGCTTTAATAGAAAATAATTTCACTCAAGTAACTCAAAGCTTATTTATTACCGTTATTTTAGGAATTTATTTTACTATTCTTCAAGCTTATGAATATATTGAAGCACCATTTTCAATTGCAGATAGAATTTACGGATCAACATTCTTTATAGCAACAGGATTCCATGGATTACACGTTATTATTGGAACAATTTTTCTTCTTACATGTTTAATTCGTCATTTAAATAATCACTTCTCTAAAACACATCATTTTGGATTCGAAGCAGCAGCATGATATTGACATTTTGTTGATGTAGTATGATTATTCCTTTATATTTCAATCTACTGATGAGGAAATTAA</t>
+          <t>ATGTTAAATAAACACAATCACCCATTTCACTTAGTAGATTATAGACCATGACCCCTAACAAGAGCTATTGGTGTTATAACTTTAGTTACCGGTATGGTAAAATGATTTCATAATTTTAACATAAATTTATTAGCTTTAGGGTATATTATCATCATTTTAACAATATACCAATGATGACGAGATGTTTATCGTGAGGGAACATTTCAAGGCAAACACACAATCCTAGTTTGTAAAGGATTACGATGAGGAATAATTTTATTTATTATCTCTGAAATTTTTTTTTTTATTTCATTTTTCTGAGCTTTTTTTCATAGAAGTTTATCCCCTAACATTGAAATAGGAATAATATGACCCCCTATAAGAATCACCCCATTTAACCCCTTCCAAATTCCCCTATTAAATACAATTATTCTAATTACATCAGGTATTACAGTAACTTGAGCACATCACGCCTTAATGGAAAATAATTTCACCCAAACTTTACAAGGTTTATTTATCACTATCAGCTTAGGAATTTATTTTTCAATTCTTCAAGGTTATGAATACCTTGAAGCATCATTTTCTATTGCAGATAGAGTTTACGGATCCACATTTTTCATAGCAACAGGATTCCACGGGTTGCATGTTATTATCGGAACAATTTTTCTCCTTACATGTTTTATCCGACACTTAAATAACCATTTCTCTAAGACTCACCATTTCGGATTTGAGGCAGCTGCATGATATTGACACTTTGTAGATGTAGTGTGATTATTTCTTTATGTCTCAATTTACTGATGGGGAAACTAA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ATGATATATATAGATATATTAAATATTATAATTGGATTACTAATTTTAATTATTGGAGTTATAATTGGTGTAGCATTTTTAACTTTATTAGAACGAAAAATTTTAGGTTATGTTCAAATTCGGAAAGGTCCTAATAAAATAGGTTATTTAGGAATTTTACAGCCTTTTTGTGATGCTATTAAATTATTCTCTAAAGAACAAGTATATTTAAATTATTCTAATTATATAGTATATTATATTTCTCCTATTATAAGGTTTATATTATCATTAATATTATGAATATTAATTCCTTATATATTTAATATAGTTGTTTTTAATATGGGTATTTTATTTTTTTTATGTTGTACTAGAATGGGTGTTTATACAGTTATAATTGCTGGGTGATCTTCGAATTCTAATTATTCATTATTAGGAGGTTTACGAGCTGTAGCTCAGACAATTTCTTATGAAGTTAGACTTTCTTTAATTATAATATCAAGAATTATTATAATTATAGATTTTAATTTAATAAAATTTTTTAACTATCAAATATTAATTTGATTTATTTTTTTAATAATACCATTGAGATTATGTTTCTTATCTTCTTTAATAGCAGAAACTAATCGAACTCCATTTGATTTTGCTGAGGGAGAAAGAGAATTAGTATCTGGGTTTAATACTGAATATAGAAGAGGGGGATTTGCCTTAATTTTTTTAGCTGAATATGCTAGAATTTTATTTATAAGATTATTATTTGTAATCATATATATGGGAGGATATGATTTAAATTTAATATTTTATATAAAATTAGTATTTTTATCTTTTTTTTTTATTTGAGTGCGGGGAACATTACCTCGATATCGTTATGATAAATTAATATATTTATGTTGAAAAAGATATTTACCTATTTCTTTAAATTATATTTTATTTTATTTAGGATTAAAAATATTTTTTAGTTAA</t>
+          <t>ATGGTATTTATGGATTTAATTAACGTTATAATTGGTTTATTAGTTTTAATTATTGGGGTGTTAGTTGGTGTAGCTTTTTTAACTTTGATGGAGCGTAAGGTTTTGGGTTATATTCAAATTCGAAAGGGTCCAAATAAGATAGGATATATGGGGGTTTTACAACCTTTTAGCGATGCTATTAAACTATTTTCTAAGGAGCAAGTTTACTTAAATTATTCTAATTATTTAGTTTATTATTTTTCTCCCGTTATGAGATTTACCTTATCGTTAATGGTGTGGGTTTTAATACCCTATGTGTTTAATATGGTTGTATTTAATTTAGGTTTATTATTTTTTTTGTGTTGTACTAGAATAGGGGTTTATACTGTTATAATTGCTGGATGGTCTTCTAATTCAAATTATTCATTGTTAGGTGGTTTACGGGCAGTTGCTCAAACAATTTCCTATGAGGTTAGTCTTTCTTTAATTTTAATATCTAGAATTATTATAATTATAGATTTTAATTTAATTAAGTTTTATGATTATCAATTTATAGTTTGGTTTATCTTTATGATGTTGCCTTTAGGGTTGTGTTTTTTATCTTCTTTAATAGCTGAAACTAATCGTACTCCCTTTGATTTTGCTGAGGGGGAGAGAGAGTTAGTGTCCGGGTTTAATGTAGAGTATGGGGGAGGTGGATTTGCTCTAATTTTTTTAGCGGAATATTCTAGAATTTTATTTATGAGATTGTTATTTATTATTGTTTATATAGGGGGGTATTATTTTAATTTATTATTTTATTTAAAGTTGGTTTTTTTATCTTTTTTATTTGTTTGAATTCGAGGTACTTTGCCTCGTTATCGTTACGATAAGTTGATGTATTTGTGTTGAAAAAGATATTTACCTATTTCATTAAATTATATTTTGTTTTACATAGGGTTAAAAATAATTTTAAATTATTAA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ATCTTACTTATAATAAATTCTAATAAAATATTTTTTTTATTTATTTTGTGTTTTAGTACATTAATTTCTATTTCTTCCAACTCATGATTAGGTTGTTGAATTGGATTAGAAATTAATTTAATAAGTTTTATCCCACTAATTTCAAACCCCAATAATTTATTAAATTCAGAAGCTTCCCTAAAATATTTTCTAACCCAATCCATTGCCTCTATTAATTTTCTATTTTCTATTTTATTAAATTTAATAATTATAAAAAATTTTTTAATTGATAATTTTATTTCTATCCTTATTAATTCCTCCATATTAATAAAAATAGGATCAGTACCTTTTCATTTTTGATTCCCCAATATTATAGAAGGTTTATCTTGATTAAATTGTTTTATTTTAATAACTTGACAAAAAATTACCCCCATAATTTTATTATCATATTATTTAAATTTAAATTTTTTATTTTTTATTTTAATTTTAAATGTAATTATTGGAACTATTGGAAGTTTTAATCAAATTTCTTTACGTAAATTAATAGCATTTTCTTCAATTAATAATTTAGGGTGAATACTTTCAGCTCTAATAATTAGAGAAAATTTATGAATGATTTATTTTATTTTTTATTCATTCTTTATTTCTTTCTTATGTTTTTTATTTTATATTTTAAATATTTTTTATATTAATCAATTATTTAATTTTAATTTAAATTTTTTAATTAAAATATCTATTATAATTAATTTCCTTTCTTTAGKAGGTTTACCCCCATTTTTAGGATTTTTCCCTAAATGATTAATTATTAATTATCTTTTAATAAATAATTTATTTATTATTACTTTTATTTTTATAATAACAAGATTAATTATATTATTTATTTATATTCGTATTATTTATAGATCTTTTATATTTTTTTCTATTAAATTAAAATGATTTAAAATTTATATTAAAAATAATTATTTTATTATTATTAATTTTTTTAGATTTATTTCTCTTTTAGGAATAATTATTAGAACTTTTTTTTTTATTTAA</t>
+          <t>ATTTTATTTTTAACCAACTCTAATAAAATATTTTTTATATTTATCTTATGTTTTAGTACCTTAATTTCTATTTCCTCTAATTYTTGGTTGGGTTGTTGAATTGGCTTAGAAATCAATTTATTAAGATTTATCCCCCTAATTTCAAATTCAAATAACCTGCTCAATACAGAGGCATCCTTAAAATATTTTTTAACTCAATCAATTGCATCGATCAATTTTTTATTTACCATTTTATTAAGTATACTATTTTTTAAAAATTTTTTTATAGATAATTTAATTTCCATTCTTATTAATTCCTCCTTATTAATAAAAATAGGATCTTTACCCTTTCATTTCTGATTCCCCAATGTTATGGAAGGATTATCTTGAATAAATTGCATTATTTTAATAACATGACAAAAAATTACCCCCATAATTTTAATTTCATATTATTTTAATATTAATTTTTTATTTATTGCAATAATTTTAAATGTGTTAGTTGGTACAATTGGAAGTTTTAATCAAATTTCTTTACGTAAATTAATAGCATTTTCCTCTATTAATAATTTAGGGTGAATGTTATTAGCTTTAACAATTAGAGAAAATTTATGATTTATTTATTTTTTCTTATATTCATTTTTTATTTCCTTTTTATGTTTCTTATTTTATATTATAAACATTTTTTATGTTAATCAATTATTTAATTTTAATTTAAGATTTTCAGTTAAAATTTTTATTATAATTAATTTCCTTTCTTTAGGGGGATTACCCCCATTTTTAGGATTTTTTCCTAAATGACTAATTATTAATTACCTTTTAATCAATAATTTATTTATTATTACTTTCATTTTTATAATAACAAGTTTAGTTATGTTATTTGTTTACATACGAATTATTTACTCATCGCTAATAATTTTTTCAATTAAATTAAAATGATTTAAAATCTTAATTAAAAATAATTACCTAACTACTATTAATTTTTTTAGACTTATCTCTCTATTAGGAATAATTATTAGAACTTTATTTTTTATTTAA</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>ATTATTTTATTATTTATCATATCTTCCATATTAATTACTATTTCTTTTATTTTAATAACTATCTCATTTATTATTTCAAAAAAATCATCCCTTGATCGAGAAAAATGTTCCCCGTTTGAATGTGGTTTTGACCCTATATGTATTGCTCGAATTCCTTTTTCATTACATTTTTTCTTAATTACAATAATTTTTTTAATTTTTGATGTAGAAATTGCATTAATCTTCCCTATTATTCCAAATTTTCTCATAGTTAAATTTTTTATTTGATATAAAATTAGTTTTTTTTTTATTATTATTCTTCTAATTGGACTATACCATGAATGAAACCAAAATATATTAATATGAGCTAATTAG</t>
+          <t>ATTATATTATTTTACACATCTTTTATTATAATTTTAATTTCTTGTCTTTTTATAATTATTTCTTTCCTCATCTCAAAAAAATCATTACTCGACCGAGAAAAATGTTCCACATTTGAATGTGGATTTGACCCTAAATGTTTAGCCCGTATTCCTTTTTCTTTACACTTTTTCTTAATCACTATAATTTTTTTAATTTTTGACGTAGAAATTGCTTTAATTTTTCCCATTATCCCTAATTTTCTTTTAGTTAATTTTATAATTTGATACAAAATTAGTTTTTTCTTTATTATTATTCTCTTAATCGGACTTTATCATGAATGAAACCAAAACATATTAAATTGATCCAATTAG</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>ATGATAAAATTTTTAATAATAATAATTTTTATAATTCCTTTATGTTTTAAAAAAAATATGTTTTGATTGGTGCAAATAATAATAATAATAATATTTTACATATTTATAAATTTAAGTTTAAATATTGAAAACTTTTCTAATTTAAGATATATATTAGGTTGTGATATAATTTCTTATGGTTTAATTATATTAAGAATTTGAATTAGATTTTTAATAATTATAGCAAGTGAAAATTTATTAAAAATAAATTTTTATTCTAATTTTTTTTTAATAAATATTATTTTATTAATAATTATATTATATTTAACATTTAGAGTAATAAATTTATTTTTATTTTATTTATTTTTTGAAGGGAGATTAATCCCAACATTAATATTAATTATTGGATGGGGGTATCAACCAGAACGAATTCAAGCGGGGATATATCTTTTATTTTATACATTATTTGTGTCTTTACCATTATTATTAGGAATTTTTTATATTTATAATAAAATAAATTTTATAATAATATATTTTATGAAATTTTATGATTATAATATAATATTATTATATATAAGAATAGTAATAGCTTTTTTAGTAAAAATACCAATATATTTTGTTCATTTATGATTGCCAAAAGCTCATGTAGAAGCTCCAATTTCTGGGTCAATAATTTTAGCTGCTATTATATTAAAATTAGGGGGTTATGGATTATTACGAGTTTTAATTATTCTACAAAAAATTAATATAAAAATAGGATTTATTTGAATTATTATTAGATTAATTGGGGGATTTTATATTAGATTAAAGTGTTTTTGTCAAGTTGATATAAAATCTTTAATTGCATATTCATCAGTTGCTCATATAAGACTTGTTATTGGGGGTATTATAACAATAAATTATTGAGGATTTTTAGGTGCTTATATTTTAATAATTGGGCATGGATTATGTTCTTCAGGAATATTTTGTTTATCTAATATTATATATGAACGAATAAGTAGACGAAGATTATTTTTAAACAAAGGTTTAATAAATTTTATACCTTCAATAAGTTTATGATGATTTTTATTTATATCCTCTAATATAGCAGCTCCTCCCTCTTTAAATTTAATGGGGGAAATTAGATTAATTAATAGATTAGTTAGATGATCTTGATTAAGAATATTAATATTAATAATAATTTCATTTTTTAGAGCTGGTTATAGATTATATCTTTATTCATTTACTCAACATGGAAAATATAATATGAGAATTTATAGATTTTATAATGGGGTATCTCGAGAATATTTAATATTAATATTACATTGATTACCTTTAAATATTTTAATTTTAAAAATTGATTATAGAATAATTTGATTTT</t>
+          <t>ATGGTAAAATTTTTATTTATAATACTATTTATAATTCCTTTGTGTTTTAAAAAAAATATGTTTTGATTGGTTCAAATTATTATAATATTTATGTTTTTTATGTTTATGAATTTGACTTTAAGAGTTATAAATTTTTCTAATTTGAGATATATGTTTGGGTGTGATATAATTTCTTATGGTTTAATTTTGTTGAGAGTTTGAATTAGATTTTTAATAATCATGGCTAGAGAGAGTTTACTAAAAACAAATTTCTATCATGGTTTTTTTTTAGTTAATGTTCTTATTTTGTTAGTCATATTATACTTAACTTTTAGAGTGATAAATTTATTTATATTTTATTTGTTTTTTGAGGCTAGATTAATCCCAACCTTAATGTTAATTATTGGGTGGGGGTATCAACCTGAGCGAATTCAAGCTGGTACATACCTTTTATTTTACACTCTTTTTGCTTCTTTACCCCTTTTAATGGGTATTTTTTTTATTTATGGGAAATTAAACTTTATAACGATTTATTTTTTAAAGTTTTATGATTTTAATATGGTTATATTATATGTGGTAATAATTATAGCTTTTTTGGTAAAAATACCCATGTATTTTGTGCATTTATGACTCCCCAAAGCTCATGTTGAGGCCCCTATTTCGGGTTCTATAATTTTAGCTGCGATTATGTTAAAATTAGGGGGGTATGGTTTATTKCGGATTTTAATTATTTTGCAAAAAGTTAATATAAAAATAGGAATTATTTGAATCATTATTAGTTTAATTGGGGGGTTTTATATTAGATTGAAGTGTTTTTGTCAGGTTGACATAAAATCTTTAATTGCCTATTCATCAGTAGCCCACATAAGAATTGTTATTGGGGGGATTATAACCATGAATTATTGGGGGTTTGTGGGAGCCTATGTTTTAATGATTGGACATGGGTTATGTTCATCTGGAATATTTTGTTTGTCTAATATTATGTATGAGCGCTTAAGAAGACGAAGATTGTTTTTAAACAAGGGTCTTATAAATTTTATACCTTCGATAAGAATGTGGTGGTTTTTATTTTTATCTTCTAATATAGCTGCCCCCCCATCTTTAAATTTAATGGGGGAAATTAGCTTAATTAATAGACTTATTAGCTGGTCATGGCTAAGAATATTAATGTTAATGTTAATCTCATTTTTTAGAGCGGGTTATAGATTATATTTGTACTCTATTACCCAACACGGAAAGTTTAACTTAAGAATATATAGATTTTATAACGGGGTGTCACGAGAGTATTTAATGTTGATGTTACATTGATTGCCTTTAAATATTATAATTATAAAGATTGATTATAGAATAATTTGATTTT</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>ATGATAATAAATATATTAGTTATTTTTATAATGTATTTAGTTGGAAATATGATTTTTGTTTCTAAACATAAACATTTATTAATTGTATTATTAAGATTAGAATTTATTGTTTTAAGAATTTTTTTTTTTTTCATAATTTATTTAATAATAATTGATAATAATATGTATATATTAATAGTTTTTATGGTATTCTCTGTTTGTGAAGGAGCGTTAGGTTTATCAATTTTAGTTTCAATAATTCGAACTCATGGAAATGATTATTTTCAAAGTTATAATTTAATTTAA</t>
+          <t>ATGATAATAAATTTAGTAATTATTTTAATTATATATTTATTAGGCAATATGATTTTTGTTTCGAAGCATAAACATTTATTGATTGTTTTATTAAGATTGGAATTTATTGTTTTAAGAGTTTTTTTTTTGATAATGATATATTTAGTAATAATTAATAATAGTTTATATATGTTAATAGTTTTTTTAGTGTTTTCTGTATGTGAGGGTGCTTTAGGGTTATCTATTTTAGTCTCAATAATTCGAACTCACGGTAATGATTATTTTTATAGATATAATTTAATTTAA</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ATTCATAAATACTCTATTTGTTTTATTAGATTTTTTTTTTTATTTTTTTTTATATTAATTAATTTTTTTATAATAATTTATTTTATTATAAATAATATTAGATTATTTTTTGAGTGGGAGATTATTTCTTTTAATTCAATAAATATTGTTATATCTATTTTGTTAGATTGGATATCGTTATTATTTATAATGTTTGTTTCTTTAATTTCTTCTTCTGTTATTTATTATAGAAAAAGATATATAAAATCAGATTTAAATTTAAATCGTTTTATTATTTTAGTTTTATTATTTGTATTTTCTATAATTTTATTGATTATTAGACCTAATATAATTAGAATTTTTTTAGGATGAGATGGTTTGGGATTAGTGTCTTATTGTTTAATTATTTTTTATCAAAATATTAAGTCTTATAATGCTGGAATATTAACAGCATTATCAAATCGAATTGGGGATGTAATAATTTTAATATTGATTTCTTGGATAATAAATTATGGAAGATGAAATTATATTTTTTATTTAGATTTTATAAGTAATGATTATTCAATAAAAATTGTAGGTATATTAGTTATTTTAGCTGCTATAACTAAAAGAGCTCAAATTCCTTTTAGATCTTGATTACCTGCTGCTATAGCAGCTCCAACTCCTGTTTCTGCTTTAGTTCATTCTTCTACTTTAGTAACTGCTGGTGTTTATTTGTTAATTCGATTTAATGTTTTATTAATTGATTTATTTTTTTTAAAATTTTTATTGTTAATTTCAGGATTAACAATATTTATAGCCGGGGTATGTGCAAATTATGAATATGATTTAAAGAAAATTATTGCTTTGTCAACATTAAGTCAATTGGGTTTAATAATAAGAATTTTAAGAATAGGATTTAGAGATTTAGCTTTTTTTCATTTATTGACTCATGCTATATTTAAGGCTTTATTATTTATATGTGCTGGAGTAATTATTCACATAATAAATGATAATCAAGATATTCGAATAATAGGGGGTATTAGAATATACATTCCTTTAACTTCTTTATGTATAAATATTTCAAATTTAGCATTATGTGGAATTCCTTTTTTAGCTGGATTTTATTCAAAGGATATGATTTTAGAATTAGTTAGAATGAGAAATTTAAATTTATTAGTTTTTTATTTATATTATGTTTCAACTGGTTTAACTATATTTTATACAATTCGTTTATTAATATATTTAATAGTTAATGATTATAATTTAACATGTATTTATAATCTATATGATGAAGATTATGTTATATTAAAAAGTATATTTATGTTATTAATTATAAGATTAATTTCAGGAAGATTTTTAAGATGAATAATTTTTTCTTATCCTTATATAATTTATTTGCCTTTTAATATAAAAATAATAGTAATTTATGTTATGTTAATTGGTTTATTAATAGGTTATCTAGTTAGGAATATAAGAATTTATTCAGTTAATAAATTTTTATTAACTTATAACTTAAGATTTTATTTAACTGTAATATGATTTATACCTGGATTATCTACTTATGGTTTAAATTATAAATTTTTAAGGTTTAGAGAAAAGTTAATAAAAAATATTGATATAGGTTGAAGAGAGTTATTTGAGAGACGAGKGATATATAATATTATTAAATATTATTCTATTATTTATTATATTTATCAAATAAATAATTTTAAAATTTATTTATTTAGATTTGTTTTATGAATAATAATTTTTATTTTTATAATTATATTATA</t>
+          <t>ATTATCTATAAATATTCTTTTTGTTTTATTAGTTTTTTTTTTTTATTTTTTTTTATGTTAATTAATTTTTTTACAATAATTTATTTTATTATGGTGAATATTAGATTTTTTATTGAGTGGGAGATTATTTCTTTTAATTCAATAAATATTGTCATATCTATTTTGTTGGATTGGATATCTTTGTTGTTTATAATATTTGTTTCACTAATTTCGTCTTCAGTTATTTATTATAGAAGTAGTTACATATCTTCTGAATTAAACCTAAATCGTTTTGTTATTTTAGTGTTGTTATTTGTTTTTTCTATAATTTTGTTAATTATTAGACCTAATATAATTAGTATTTTTTTAGGGTGAGATGGGTTAGGTTTAGTTTCTTATTGTTTAATTATTTTTTATCAAAATATTAAATCATATAATGCTGGAATATTAACGGCTTTGTCAAATCGTATTGGGGATGTTATAATTTTAATATTAATTTCTTGAATAATAAATTATGGTAGATGAAATTATATTTTTTATTTGGATTTTATAAATAATGATTTTTGTATACGAATTGTGGGGTTGTTGGTAATTTTGGCTGCTATAACTAAAAGAGCTCAGATTCCCTTTAGTTCATGATTACCTGCTGCTATAGCAGCACCTACCCCAGTTTCAGCTTTAGTTCACTCTTCTACTTTAGTTACTGCTGGGGTTTATTTATTGATTCGATTTAATGTGTTGTTAGTTGATATAATTTTTTTTAAAATATTGTTATTAATTTCTGGGTTGACAATATTTATAGCGGGGGTTTGTGCAAATTATGAATATGATTTAAAAAAAATTATTGCTCTTTCTACTTTAAGACAGTTAGGTCTAATAATGAGAATTTTGAGAATAGGGTTTAGAGATGTGGCTTTTTTTCATTTACTAACCCATGCTATATTTAAGGCTTTATTGTTTATATGTGCTGGGGTTATTATTCACATAATGGGTGATAATCAAGATGTTCGGGTTATGGGGGGAGTTGCTTTTTACATTCCTTTAACTTCTTTGTGTATGAATATTTCTAATTTAGCTTTGTGTGGGATTCCCTTTTTAGCTGGATTTTATTCAAAGGATTTGATTTTAGAGATAGTTAGTATGGGAAATTTAAATTTATTAGTTTTTTATTTATATTATTTTTCTACGGGACTAACCATATTTTATACTATTCGTTTATTGATATATTTAATAATTAATGATTTTAATTTGTTAAGTTTATATAATTTATATGAGGAAGATTATACTATATTAAAGAGTATGTTTATGTTACTATTTATAAGATTAATTTCAGGTAGATTTTTGAGATGATTGATATTTTCTTATCCCCATATAATTTATTTACCTTTTAATATAAAAATGATAGTTATTTATGTTACCTTAATAGGATTATTAATGGGGTATTTAGTTAGAAATATGGGAATTTTTTCTTTAAATAAGTTTTTATTAACTTATAATTTAAGTATATTTTTAACTTTAATGTGATTTATACCTAGTTTGTCGACTTATGGGTTTAATTATAAATTTTTAAGATTTAGAAAAAAATTAATGAAAAATATTGATTTAGGGTGAAGAGAGATTTTTGAGAGTTGGGGAATACATAAGATTATTAAAAATTATTCTGTTATTAATTATGTTTATCAATTAAATAACTTTAAGGTTTATATGTTTAGTTTTGTTTTATGGGTGTTTATTTTTATTTTTATGTTTATATTGT</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>ATTATAAAAATATTTTTATCTTTATTATTAATTTTTATTTCTATTTACATATTTTTTTTAAATCATCCTTTTTCTATAGGACTAATAATTTTAATTCAAACTTTATTAATTTGTTTATTATCTAGAATATTAATTAATACATATTGATTTTCTTATATTTTATTTTTGATTTTTTTAGGTGGATTATTAGTACTATTTATTTATGTCTCAAGAATTGCTTCTAATGAATTATTTAAAATTTCTATTTTTAATAAAAGTTTTTTTTTTATTTTTTTTCTTCTTCTTACAAATAGTTTTTTTTTTAAAAATAATCTATTTTGAATAAATTTTTCCTTTAATGATGAAATAATAAACTTTTTTAATTTATTTTTATTTTTTAATAATGAATTTAATATTAATTTATCTAAATTATATAATGAACAAACTTATCTATTAACTATAATAATAATTATTTATTTATTTATTACCCTTATTGCAGTAGTAAAAATTACTAATATTTTTTTTGGGCCTCTTCGTTCATTTAATTAA</t>
+          <t>ATAATAAAAATATTCTTATCTATAACTTTAATTTCTATTTCTATCTTTATATTTTTTTTAAGTCATCCATTCTCCATAGGATTAATAATCTTAACTCAAACCCTTCTTTTATCACTAATCTCAAGAATAATAATTAATACCTATTGATTTTCCTATATTTTATTTTTAATTTTTTTGGGGGGGTTATTAGTTTTATTTATTTATGTTTCAAGAATTGCCTCTAATGAATTGTTTAAAATTTCTATTTTTAACAAAAGATTTTTTTTTATGTTTTTTTTTATTGTGGTAAGAAGATACACACTAAAAAACAATCTCTTACAAAGAAACCACCTTTTTAATGATGAAATATTAAATTTTTTTAATCTATTCTTATTTTTCAATAATGAGTTTAATACTAACTTATCTAAACTTTACAATGAACAAACCTATTTACTAACAATAATTATAATTATTTACTTATTTATCAYCCTTATCGCAGCGGTAAAAATTACAAATATTTTTTTTGGTCCTTTACGATCTTGCGAATAA</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>GGGGGTAAATTTAATAAAATATAAATAATAAAAAAAATTTTATTATTAAAAATATATAATGGGGGTTAAAGTATTTTTAATAGAAAAAATTTATAAATTTATAGTTTAATAGTATTGTAAAATAAATTTTAAATAAATTAAATAAAAAATTAAAATAAAGTAAATTTAAATTATTGTATCTTGTGTATCAGAGTTTATTAAATATTATTTTTATATAAAATATTCTCGAATTTAAAAGAGTTAATTAATTATAAAAGTTAATGTTGAATAATTATTTTTAATAATTAATTTGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTTTTTTAGAAAAAAATTTAATTTTAAATTTAAATAATTTTATAAATATTTAAATTAATTATAAAAATTTAAAATTTAATATATTAGGGGATAAGCTTTAAATTAAATATTTATAATAAAAATTAAATTAAATTAAAATTTTTAAAATTTATATTGTTTATAAATTATAATTTATTATAAAAAATTTTAATTAAAATAAAATTTAAAAAAAAAAATTTAATTTTTTATAAAAAAATAATTTTTAATATAATAAAAATTAGTAATAATGATAAAATTAGTATATTTAATAAGTAAATTAATTTAAATTTATAATTAAAATTAAATTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTTGATAATAATTTAAAGTCTAATCTGCCCACTGATTTAAAAAATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCATTAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAAATATAGACTGTCTCTAATTTATTAATAAAATTTAATTTTTTAGTTAAAAAGCTAAAATAATATTAAAAGACGAGAAGACCCTATAGAGTTTTATATAAAATTTATTTGTAATAAAATATAAAATTAATTATTAAAAGTAAATTTTATATTTTATTGGGGTGATAAAAAAATTTAATTAACTTTTTTTTAAAAATAAACATAAATAAGTGAATAAATGATCCATTAAATTATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTACAAATAAAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGCAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAATAAAATATAATATTTTAGTACGAAAGGATCAAATATTAAAAATAATTTTAATAAATAGAATATTATTAATTATAATTTA</t>
+          <t>GGGGGTTAAATTAATAATTAAGATTATAATAAAAAAATTTTTATAAAATACATATAATGGGGGTTAAAGTATTTTTAATAGAAAAAATAAAAAATTTTATAGTTAATTAGTATTGTGAAAGAAGTTTTAAATAAGTAAAAATTTATTCGGGGGAAAGTAAATTTTATTTGTTGTATCTTGTGTATCAGAGTTTATTAATAAAAAATTTTTAAGTAGAAAATTCTCGAATTTAAAAGAGTTAATTAATTAATAAAGTTAATGTTGTATAATTATTTTAAATAATTAATTAGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTTTTTTAGAAAAAGGTTTAATTTTGAATTAAAATAATTTTATAGTTAATTGGTTAATTATAAGAATTTGAAATTTAATATTTTAGGGGATAAGCTTTGAATTAAATAATTATAATAATTAATTTTTAATTAAAATTTTTAAAATTTATATTGTTTAAAAATTTTAATTTATTATAAAAAATTTTAATTAAAATAAAATTTAAGATAAAATTTAAATTTTTATAAAAAAATTATTTATAACGGTAAAAAATTAGCAATAATGATAAAATTAGTATAATAAAATGTTTAATGGCATTAATTTAATAAGAATTAAAACAAAGGAATTCGGCAAAACTTTATATTCACTTGTTTATCAAAAACATGTCTTTTTGGTGGATAATTTAAAGTCTAATCTGCCCACTGATAAAAATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCATTAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAAATATAAACTGTCTCTATTTTAAAAATAAAATTTAATATTTTAGTTAAAAAGCTAAAATAAAATTAAAAGACGAGAAGACCCTATAGAGTTTTATATTTTATTATAATTAAATTAAATATAAAATTAACTATTTAAATATGATAAAATATTTTATTGGGGTGATAAAAAAATTAAATTAACTTTTTTTAAAGTTTAACATAAATAAGTGAGTTAGTGATCCATAAGTTATGATTATAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTGCGCATAAAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAAGTTAAATGCAAAAGTTTAAATTTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAATGAATTGTAGTATTTTAGTACGAAAGGATCAAATATTAGAAATAATTTTAAATATTAGAATATTATTAACAATTATTTA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>TAATAGATAAAAATTTATGTTTTTTGAAATTTATTTTGAATTTATTTTACATATAAATTTTAGTATTAAATTTTAATTATTTTAAAAATAATTAATTAATAAAAGTAGTAATTAATATTAAAAATTTAAGAAATTAAGATTTAGTAATATGGAAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTACACAAAAATTAAATTAAATTATTTCAGTTTATGAATAAATAAATAAATATTAAATTAAATATTAAATTATTAAGTGAAATTTTAATTTAATTTAATTTTATAAATAATTTATGAATTAATAAATTTTAATATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATAAAAAAATACTAAAATAGTAAATAATAATTTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACGAATAAATTTACTTAATTTAAAATTTTGTATATCATTGTTAAAAAAATATTTTTAAATAAAAATAATATTTAAATTTTATGATAATAAATTAATTCAGATCAAGATGCAGAATATAATTAAGAATAAGATGGATTACAATAAAAATATTTAAATGAATAATATTGTTGTAAATATATATTTGAAGGTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTAAAAATTGGAATATGTACATATTGCCCGTCACTTTCATTTAAAAATTGGAATAAGTCGTAACAAAGTAGAGGTACTGGAAAGTGTTTCTAGAAAGAA</t>
+          <t>CAGTAAATAAATAAATTATATTTTGTGAATTTTATTATAAATTTATTTTACATATAAATTTTAGTATATAATTTCAATTATTTAAATAATAATTAATTAAATTAAGTAGTAATTAATATTAAAAATTTAAGAAATTAAGATTTAGTAATATTAAAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTATACAAAAATTAAATTAAATTATTTCAGTTTATAATAAATAATTTTATTTTAGGGTAAATGTTAAATTATTAAGTGAAATTTTAATTTAAATAAATTTTATTTTTAAATTATGATTTAGTAAATTTTAATATAAACTAGGATTAGATACCCTACTATTAAGAAACTAAGTTGTAATACTAAAATAGTAAATAATTATTTATTGAAACTTGAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACGAATAAATTTACTTAATTTAGTATTTTGTATATCATTGTTAAAAAAATATTTTTAAATAAAAACAATATTTAAATTTTTAAATAAAAATTTAATTCAGATCAAGATGCAGATTATAGTTAAGAATATGATGGATTACATTAAATATATTTAAATGGATAGTATTGTTGTAAAATATATTTAAAAGTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTAAAAATTAAAGTATGTACATATTGCCCGTCACTTTCATTTAAAAATTGAAATAAGTCGTAACAAAGTAGGCGTACTGGAAAGTGTGTCTAGAAAGAG</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>AGGATTATAGTTTATATAAAACATTTGATTTGCATTCAAAAAATATTGAATATTCAATTTATCTTA</t>
+          <t>AGGATTATAGTTTAAATAAAAAACATTTGATTTGCACTCAAAAAATATTGTATAATCAATTTATCTTA</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>AGTCTTATATTCAATAATGATATAAAATTGCAAATTTTATGGTGTACTATATTTATATACTAAGGCTT</t>
+          <t>AGCCTTATATTCAATAATGATGTAAAATTGCAAATTTTATGGTGTATTTAATACTAAGGCTT</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>AAAGAATTAGTTAATTTATAACATAAATATGTCAAATTTAAATTATTACTTTAGTAATATTCTTTT</t>
+          <t>AAAGAATTAGTTAACACAAATAACGTAAATATGTCAAATTTAAATTATTACCCTAGTAATATTCTTTT</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>ATTTATATAGTTTATAAAAACATTACATTTTCATTGTAAAAAAAAAGAAATCTTCTTTTATAAATA</t>
+          <t>ATTTATATAGTTTAAAAAACATTACACTTTCACTGTAAAATTAAAGAAATTTCTTTTATAAATT</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>ATTTAAATAGCTTAAAATTAGAGCATAATATTGAAGATATTAGAGTGATTAATAAATCTTTAAATA</t>
+          <t>ATTTAAATAGCTTAATTAAGAGTGTAATATTGAAGATATTAAGGTGATTGATAAATCTTTAAATA</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGATTAATTCATTTTAATATAAATA</t>
+          <t>ACTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATAATTTTAATATAAGTA</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>ATTTAAATAATTTAAGAAAAATATTGATTTGTGGAGTCAAAAATATGAAATAATCATTTTAAATC</t>
+          <t>ATTTAAATAATTTAAAAAAAATATTGATTTGTGGAGTCAAAAATATGGGTAATTCATTTTAAATT</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>AATAAAGTGCCTGATAAAAAGGATTATTCTGATAGGATAAATAATGTAAATTTTTACCTTTATTA</t>
+          <t>AATAAAGTGCCTGATTAAAAGGATTATTCTGATAGGATAAATAATGTAAATTTTTACCTTTATTA</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>CATTAGATGACTGAAAGTAAGTATTGGTCTCTTAAACCATTTAATAGTAAATTAACAACTACTTCTAATGA</t>
+          <t>CATTAGATGTCTGAAAGCAAGAAATGGTCTCTTAAACCATCCTATAGTAAGTTAGCAACTACTTTTAATGA</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>ACTATTTTGGCAGAAGTTAATTGTAATGGTTTTAGAAGTCATATATATATATATATTATATAAATAGTA</t>
+          <t>ACTATTTTGGCAGATAATTGTGGTGGTTTTAGAAGTCATTTATGTATATAAATATATTATATATGGATAGTA</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>TCTAATATGGCAGATTATATGTAATGGATTTAAACCCCATTTATAAAGGATTTATCCTTTTTTTAGAA</t>
+          <t>TCTAATATGACAGATTATATGTAATGGATTTAAGCCCCATTTATAAAGGAATATATCCTTTTTTTAGAA</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>TTAAAAATAAGCTAAAATTAAGCTTTTGGGTTCATACCCCAAATATAGAGGAAACACCTTTTTTTTAAA</t>
+          <t>TTAAAGATAAGCTAAGTTAAGCTTTTGGGCTCATATCCCAAATATAGAGGAAATCCTTTTTTTTGAA</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>TTAATTGAAACCAAATTAGAGGTATATCACTGTTAATGATAAAATTGAATAAAAAATTCCAATTAGA</t>
+          <t>TTAATTGAAACCAAAGTAGAGGTATATCACTGTTAATGATAAAAATGAATAATGTTCCAATTAGA</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>CAAAGAATAGTTTAAAAAAAATAATAATTTTGGAGATTATAGATAAAGAAATTCTTTTTCTTTGA</t>
+          <t>CAAAGAATAGTTTATAAAAATAATAATTTTGGAGATTATAGATAAAGAGTTTCTTTTTCTTTGA</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>TATATTTTAGTGTAAGATGCACAATAATTTTTGAGATTATAGGATATAGTTTAATTCTATAAAATATAA</t>
+          <t>TATATTTTGATGTAAGATGCATAGTAATTTTTGAAATTACAAGATATAGTTTGACTCTGTAAAATATAA</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>AAATAAGAAGCAATTTTGCATTTAATTTCGACTTAAAAGTTAGAATATAATTATTCCTTATTTA</t>
+          <t>AAATAAGAAGCAAATTTGCATTTAATTTCGACTTAAAAGATAGAATAATAATATTCCTTATTTA</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>GAAATATAAATAAATTAAGCTTCTAACTTAATTAATAGTGATTTAACTCATTAATATTTCT</t>
+          <t>GAAATATACATAATTAGGCTGCTAACTTAATTAATAGTGATTTATTTCATTAATATTTCT</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>AATTAATGAGCTTGTAATAAGCATTTGTTTTGAAAACTTAAGAAAGAATAATTTATTCTATTAATTT</t>
+          <t>AATTAATGAGCTTGTAATAAGCATTTGTTTTGAAAACTTAAGAAAGAGTAATAATTCTATTAATTT</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>GTTTTTATATTTTAAAAAAAACTTTGGTCTTGTAAGTCAAAAATAAGATTATATCTTTAAAAACT</t>
+          <t>GTTTTTATAGTTTAAAAAAAACATTGGTTTTGTAAGCCAAAAATAAGAATATTTTTTAAAAACT</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>CAAATTAGAGCTTGATAAAGTATTTCATTTACATTGAAAAGAAATTAAAATTTAATTAATTTGA</t>
+          <t>CAAATTAGAGCTTGTACATAAAGTGTTTCACTTACATTGAAAAGAAATTAAAGTGTTAATTAATTTGA</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>AAGGTTTTAAGTTAAATTAAACTAATAATCTTCAAAATTATTTATAAAGAGAATATTCTTTAAGCCTTA</t>
+          <t>AAGGTTTTAAGTTAAATTAAACTAATAGTCTTCAAAATTATTTATAAAGAAATTCTCTTTAAGCCTTA</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>AATAAAATGGCTGAGTTATAAGCGATAAATTGTAAATTTATTAACGAGAAATATCTCTTTTATTA</t>
+          <t>AATAAAATGGCTGAGATATAAGCGATAAATTGTAAATTTATTAACGAGAAATGATCTCTTTTATTA</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr"/>
@@ -2645,192 +2617,192 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes</t>
+          <t>&gt;16LW03012_17_Dilipa_fenestra</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_4023-4688_+_atp6</t>
+          <t>&gt;Apaturinae_sp17_4016-4693_+_atp6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_3862-4023_+_atp8-0</t>
+          <t>&gt;Apaturinae_sp17_3864-4022_+_atp8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_10464-11555_+_cob</t>
+          <t>&gt;Apaturinae_sp17_10394-11545_+_cob</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_1452-2960_+_cox1</t>
+          <t>&gt;Apaturinae_sp17_1450-2988_+_cox1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_3051-3713_+_cox2</t>
+          <t>&gt;Apaturinae_sp17_3007-3691_+_cox2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_4703-5482_+_cox3</t>
+          <t>&gt;Apaturinae_sp17_4693-5481_+_cox3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_11700-12602_-_nad1</t>
+          <t>&gt;Apaturinae_sp17_11628-12566_-_nad1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_289-1161_+_nad2</t>
+          <t>&gt;Apaturinae_sp17_248-1261_+_nad2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_5560-5898_+_nad3</t>
+          <t>&gt;Apaturinae_sp17_5551-5904_+_nad3</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_8155-9486_-_nad4</t>
+          <t>&gt;Apaturinae_sp17_8091-9426_-_nad4</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_9489-9761_-_nad4l</t>
+          <t>&gt;Apaturinae_sp17_9426-9710_-_nad4l</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_6353-8038_-_nad5</t>
+          <t>&gt;Apaturinae_sp17_6269-7996_-_nad5</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_9917-10423_+_nad6</t>
+          <t>&gt;Apaturinae_sp17_9878-10384_+_nad6</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_12668-14036_-_rrnL</t>
+          <t>&gt;Apaturinae_sp17_12658-13945_-_rrnL</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_14095-14861_-_rrnS</t>
+          <t>&gt;Apaturinae_sp17_14043-14816_-_rrnS</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_5910-5973_+_trnA(tgc)</t>
+          <t>&gt;Apaturinae_sp17_5903-5969_+_trnA(tgc)</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_1321-1382_-_trnC(gca)</t>
+          <t>&gt;Apaturinae_sp17_1320-1382_-_trnC(gca)</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_3797-3861_+_trnD(gtc)</t>
+          <t>&gt;Apaturinae_sp17_3798-3863_+_trnD(gtc)</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_6168-6237_+_trnE(ttc)</t>
+          <t>&gt;Apaturinae_sp17_6160-6224_+_trnE(ttc)</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_6281-6345_-_trnF(gaa)</t>
+          <t>&gt;Apaturinae_sp17_6223-6288_-_trnF(gaa)</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_5488-5553_+_trnG(tcc)</t>
+          <t>&gt;Apaturinae_sp17_5484-5550_+_trnG(tcc)</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_8078-8147_-_trnH(gtg)</t>
+          <t>&gt;Apaturinae_sp17_8021-8087_-_trnH(gtg)</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_70-133_+_trnI(gat)</t>
+          <t>&gt;Apaturinae_sp17_68-131_+_trnI(gat)</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_3727-3796_+_trnK(ctt)</t>
+          <t>&gt;Apaturinae_sp17_3728-3798_+_trnK(ctt)</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_12622-12690_-_trnL1(tag)</t>
+          <t>&gt;Apaturinae_sp17_12568-12640_-_trnL1(tag)</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_2984-3050_+_trnL2(taa)</t>
+          <t>&gt;Apaturinae_sp17_2984-3051_+_trnL2(taa)</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_1-68_+_trnM(cat)</t>
+          <t>&gt;Apaturinae_sp17_1-67_+_trnM(cat)</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_6041-6107_+_trnN(gtt)</t>
+          <t>&gt;Apaturinae_sp17_6033-6098_+_trnN(gtt)</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_9840-9905_-_trnP(tgg)</t>
+          <t>&gt;Apaturinae_sp17_9791-9854_-_trnP(tgg)</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_131-199_-_trnQ(ttg)</t>
+          <t>&gt;Apaturinae_sp17_129-197_-_trnQ(ttg)</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_5974-6038_+_trnR(tcg)</t>
+          <t>&gt;Apaturinae_sp17_5969-6031_+_trnR(tcg)</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_6106-6166_+_trnS1(gct)</t>
+          <t>&gt;Apaturinae_sp17_6097-6157_+_trnS1(gct)</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_11601-11665_+_trnS2(tga)</t>
+          <t>&gt;Apaturinae_sp17_11544-11610_+_trnS2(tga)</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_9776-9839_+_trnT(tgt)</t>
+          <t>&gt;Apaturinae_sp17_9727-9790_+_trnT(tgt)</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_14032-14095_-_trnV(tac)</t>
+          <t>&gt;Apaturinae_sp17_13978-14042_-_trnV(tac)</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_1259-1328_+_trnW(tca)</t>
+          <t>&gt;Apaturinae_sp17_1260-1327_+_trnW(tca)</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>&gt;17LW02020Siproeta_stelenes_1383-1446_-_trnY(gta)</t>
+          <t>&gt;Apaturinae_sp17_1383-1447_-_trnY(gta)</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr"/>
@@ -2841,964 +2813,192 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATGATAAATAATTTATTTTCAATTTTTGATCCATCAACTAATATTTTTAATTTATCTTTAAATTGAATTAGAACTTTTATTAGATTATTATTTATTCCCTATTCTTTTTGATTTATTCCTAATCGATATTTTATTTTATGAAATTTTATTTCAAATAAATTACATAATGAATTTAAAACCCTTCTAGGAATTAACAGTTTTAAAGGATCAACATTCATTTTTATTTCATTGTTTTTTTTTATTCTATTTAATAATTTCTTAGGATTATTTCCTTACATTTTCACAAGTACTAGACATTTAAATATTTCTTTATCTTTATCATTAACATTATGATTAAGATTTATAATTTATGGTTGAATTAATAATACTCAACATATATTTATTCATATAATTCCTCAAGGTACTCCAACAATTCTAATACCATTTATAGTATTAATTGAAACAATCAGTAATATTATTCGACCTGGAACTTTAGCTGTTCGATTGACAGCAAATATAATTGCTGGTCATTTACTACTTACACTTCTAAGTAGTACAGGAACTAATATATCAAATTATTTATTAATAATATTAATTTTAATTCAAATTTTATTATTAATTTTAGAATCTGCTGTAGCTGTAATTCAAGCATATGTAATTTCTATTCTTAGTACCCTTTATTCTAGAGAAGTTAATTAA</t>
+          <t>ATGATAAATAATTTATTTTCAATTTTTGATCCTACAACCAATTTATTTAACATTTCTCTTAATTGAATAAGAACATTAATTGGAATGATATTTATCCCATACTCTTTTTGATTTATCCCTAATCGACATTTTATATTATGAAACTTTATCTCAAATAAATTACATAATGAATTTAAAACATTATTAGGAACTAATAGATATAATGGATCAACATTTATTTTTATTTCATTATTTTTCTTTGTATTTTTTAATAATTTCTTAGGATTATTTCCTTATATCTTCACAAGCACAAGACATCTTAATATTTCACTAACATTATCCCTAACATTATGATTAAGATTTATAATTTATGGATGAATTAATAATACTCAACATATATTTATTCATATAATTCCCCAAGGAACTCCCACTATCTTAATACCTTTTATAGTATTAATTGAAACAATTAGAAATATTATTCGACCTGGAACTTTAGCTGTACGATTAACAGCTAATATAATTGCAGGTCATTTATTATTAACATTATTAAGAAATACAGGAAATAACTTATCATCTTATTTATTAATTATTTTAATTTTTAGTCAAATTTTATTATTAATTTTAGAATCAGCAGTAAGAATTATTCAAGCTTATGTAATTTCGATTCTAAGAACTCTTTATTCTAGAGAAACAAATTAA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ATCCCCCAAATAATACCTATTAATTGAATTTTTTTTTTTGTTTTTTTTATTTGTATTTTTTTAATTTTTATTAGATTAAATTTTTTTATTTTTAATTACAAAATATTAAAATCTAATATTAATTTTAAAAAAAAATCATTAAATAATAAAATTTGAAAATGATAA</t>
+          <t>ATCCCTCAAATAATACCAATTAATTGAATTTTTTTCTTTTTTTTTTTTATTATTGTATTTATTTTTTTTATAAGTATAAATTATTTTATTTTTAATTATAAACCAAATAAAAGTATTAATAAAAATATTAAAAATAATATTATAAACTGAAAATGATAA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ATGATAAATTTTTACAAACCTATTCGTAAAACACACCCTATTATTAAAATCATTAATAATGCATTAATTGATCTACCTTCCCCATCTAATTTCTCTTCTTGATGAAATTTTGGATCCCTTTTAGGATTATGTTTATTAATTCAAATTACTACAGGATTATTTTTAACCATATATTATACTGCTAATATTGAAATAGCTTTTTACAGAGTTAATTATATTTGCCGAAATGTTAACTATGGTTGATTAATTCGAACTCTTCACGCAAATGGAGCATCTTTTTTCTTCATTTGTATTTATATTCACATTGGACGAGGAATTTATTATGAATCATTTAATTTAAAATATACTTGAATAATTGGAGTTATTATTTTATTTTTATTAATAGCTACTGCATTCGTAGGATATGTACTACCATGAGGACAAATATCATTTTGAGGAGCAACTGTAATTACAAACCTTTTATCAGCTATTCCTTATTTAGGAACTATATTAGTTAATTGAATTTGAGGGGGATTTGCTGTTGATAATGCTACTCTAACTCGATTTTATACATTCCATTTTTTATTACCTTTTATTGTCTCTATATTAGTAATAATTCACTTATTATTCCTCCATCAAACTGGATCAAATAATCCTTTAGGTATTAATAGAAACTTAGATAAAATTCCTTTTCACCCATTTTATTCTTTTAAAGATTTAATTGGATTTATTATTTTAATTTTTTTATTAACTTCATTATCTTTAATTAATCCCTATTTATTAGGGGATCCTGATAATTTTATTCCAGCTAATCCTCTTGTAACTCCAATTCATATTCAACCAGAATGATATTTTTTATTTGCCTATGCTATTTTACGATCAATTCCAAATAAATTAGGAGGAGTTATAGCTTTAATTATATCAATTTTAATTTTAATTATTTTACCATTTACTTTCAATAAAAAAATTCAAGGAATTCAATTTTATCCTATCAATCAAATTTTATTTTGATTTCTAATTACTATTATTATTTTATTAACTTGAATTGGAGCACGATCCGTTGAAGCACCCTATATTATTACAGGTCAAATTCTTACAATTTTTTATTTTTCTTACTATATTATTAACCCAATTTTAAACAAAATATGAGATAATCTAATTTTTAATAATTAA</t>
+          <t>ATGTTAAATATATTTAAACCAATTCGAAAATCTCATCCCGTTATTAAAATTATTAATAATGCCTTAATTGACTTACCTTCCCCATCCAACATTTCTTCATGATGAAATTTTGGATCTCTTCTTGGTTTATGCCTAATAACCCAAATTTTAACAGGGTTATTCTTAACCATATATTATACAGCTAATATTGAATTAGCTTTTTATAGTGTAAATTATATTTGCCGAAATGTTAATTATGGTTGACTAATTCGTACTTTACATGCTAATGGAGCATCTTTTTTTTTTATTTGTATTTATTTTCATATTGGCCGAGGAATTTATTATGAATCTTTTAATTTTAAATATACATGAATTATTGGTATTATTATTTTATTTTTATTAATAGCAACAGCATTTATAGGTTATGTTTTACCTTGAGGTCAAATATCTTTTTGAGGAGCAACAGTAATTACAAATTTACTCTCAGCAATTCCTTATTTAGGTAATATATTAGTAAATTGAATTTGAGGGGGATTTGCTGTAGATAATGCAACCTTAACTCGATTTTATACTTTTCATTTCTTATTTCCTTTTATTATCTTAATATTAACTATAATTCACTTATTATTTTTACACCAAACAGGATCTAATAACCCATTAGGAATTAATAGTAATATAGATAAAATCCCATTTCATCCATTTTTTGTATTTAAAGACTTAATTGGATTTATTATTCTAATTTTTTTATTAACTATATTAACCTTAATTAATCCTTATTTATTAGGTGATCCAGATAATTTTATTCCAGCTAATCCTCTAGTTACCCCAATTCATATCCAACCAGAATGATATTTCCTATTCGCTTATGCAATTTTACGATCTATTCCAAATAAACTAGGAGGAGTAATTGCTTTAGTTATATCTATTTTAATTTTAATTATTTTACCATTTACTTTTAATAAAAAAATTCAAGGAATTCAATTCTATCCTATTAATCAAATTTTATTTTGATCTATAATTTCAATTATTATTTTATTAACTTGAATTGGAGCACGATCAGTAGAAATTCCTTATATTTTAACAGGACAACTATTAACTGTATTTTATTTTTCTTATTTTATTTTAAACCCTATTATAAATAAATTTTGAGATAAACTAATTTTTAATTTTTAA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CGAAAATGATTATTTTCTACAAATCATAAAGATATTGGTACCTTATATTTTATTTTTGGAATTTGAGCAGGAATAGTAGGAACTTCGTTAAGTTTAATAATTCGAACAGAATTAGGAAACCCAGGATCTTTAATTGGAGATGATCAAATTTATAATACTATCGTAACAGCCCATGCTTTTATTATAATTTTTTTTATAGTAATACCTATTATAATTGGAGGATTTGGTAATTGATTAGTTCCATTAATATTAGGAGCTCCAGATATAGCTTTTCCACGAATAAATAATATAAGATTTTGACTTCTCCCCCCATCATTAATCTTATTAATTTCTAGAAGAATTGTAGAAAATGGAGCAGGAACAGGATGAACAGTGTACCCCCCACTTTCATCTAATATTGCTCATGGAGGAACTTCTGTAGATTTAGCAATTTTCTCCTTACATTTAGCTGGAATTTCTTCTATTTTAGGAGCTATTAATTTTATTACTACTATTATTAACATACGAATTAATAGAATATCTTTTGATCAAATACCCTTATTTGTTTGAGCAGTAGGAATTACTGCATTACTTCTTCTTCTTTCTCTKCCCGTCTTAGCAGGTGCTATTACAATACTTCTTACTGATCGAAATATTAATACATCATTCTTTGATCCTGCGGGAGGAGGAGATCCAATTTTATATCAACATTTATTTTGATTTTTTGGTCATCCAGAAGTATATATTTTAATTCTTCCTGGATTTGGAATAATTTCTCATATTATTTCTCAAGAAAGAGGAAAAAAGGAAACTTTTGGATGTTTAGGAATAATTTATGCGATAATAGCAATTGGATTATTAGGATTTATTGTATGAGCTCATCATATATTTACCGTTGGAATAGATATTGATACTCGAGCTTATTTTACATCAGCAACTATAATTATTGCAGTTCCTACAGGAATTAAAATTTTTAGTTGATTAGCAACTCTCCACGGTACTCAAATTAATTATAGACCTTCAATATTATGAAGTTTAGGATTTATTTTTTTATTTACAGTTGGTGGATTAACAGGAGTTATCTTAGCTAATTCTTCTATTGACATTACCCTACATGATACTTATTATGTAGTAGCTCATTTTCATTATGTTTTATCTATAGGAGCTGTATTTGCTATTTTAGGGGGATTTGTTCATTGATATCCTTTATTTACAGGATTAATAATAAATAATTACTTATTAAAAATTCAATTTATCTCTATATTTATTGGAGTTAATTTAACTTTCTTCCCTCAACATTTTTTAGGATTAGCAGGAATACCTCGTCGTTATTCTGATTATCCAGATAGTTTTGTATCTTGAAATATTATTTCATCTTTTGGATCATATATTTCTTTATTTTCTATAATAATAATTATTATTATTATTTGAGAATCAATAATTAACCATCGTATTATTTTATTTCCTTTAAATATACCCTCATCTATTGAATGATATCAAAATCTTCCTCCCGCAGAACATTCATATAATGAACTTCCAATTTTAAGTAATTAA</t>
+          <t>ATGCGAAAATGACTTTTTTCTACAAATCATAAAGATATTGGTACATTATATTTTATTTTTGGAATTTGAGCAGGAATAGTAGGAACTTCTCTTAGTTTATTAATTCGAACTGAATTAGGTAACCCAGGTTCTTTAATTGGAGATGATCAAATTTATAATACTATTGTTACAGCACATGCTTTTATCATAATTTTTTTTATAGTTATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTACCATTAATATTAGGAGCTCCTGATATAGCTTTTCCACGAATAAATAACATAAGATTTTGATTATTACCCCCCTCATTAATTCTCTTAATTTCTAGAAGAATTGTAGAAAATGGAGCAGGAACAGGATGAACCGTTTATCCCCCTCTTTCATCTAATATTGCTCATAGTGGTTCTTCTGTAGATTTAGCTATTTTCTCTCTACATTTAGCTGGTATTTCTTCTATTTTAGGAGCAATTAATTTTATTACTACAATTATTAATATACGAATTAATAATTTATCCTTTGATCAAATACCTTTATTTGTTTGAGCTGTAGGAATTACAGCATTATTGTTATTACTATCTTTACCTGTATTAGCAGGAGCTATTACAATATTACTTACTGACCGAAATATTAATACTTCATTCTTTGATCCAGCTGGGGGAGGAGATCCTATTTTATATCAACATTTATTTTGATTTTTTGGTCATCCTGAAGTCTACATTTTAATTTTACCAGGATTTGGTATAATTTCACATATTATTTCTCAAGAAAGAGGTAAAAAAGAAACTTTTGGTTGTTTAGGTATAATTTATGCTATAATAGCAATTGGATTATTAGGATTTATTGTATGAGCACATCATATATTTACTGTTGGAATAGATATTGATACACGAGCTTATTTCACATCAGCAACTATAATTATTGCTGTTCCTACAGGAATTAAAATTTTTAGATGATTAGCAACTTTACATGGAACCCAAATTAATTATAGCCCTTCAATATTATGAAGATTAGGGTTTATTTTTTTATTCACAGTAGGAGGATTAACTGGAGTAGTATTAGCTAATTCATCAATTGATATTACCTTACATGATACTTATTATGTGGTAGCTCATTTTCACTACGTTTTATCAATAGGAGCCGTATTTGCTATTTTAGGGGGATTTATTCATTGATATCCATTATTTACCGGATTAACTTTAAATAATTATCTTTTAAAAATTCAATTTATTTCAATATTTTTAGGAGTTAATTTAACTTTTTTCCCTCAACATTTTTTAGGATTAGCTGGGATACCACGACGTTATTCAGATTATCCAGATAGATTTGTATCTTGAAATATTATTTCATCTTTTGGATCTTATATTTCTTTGTTATCTATAATAATAATTATTATTATTATTTGAGAATCTATAATTAATCAACGAATTATCATTTTCTCATTAAACATGCCATCATCTATTGAATGATATCAAAATTTACCTCCCGCAGAACATTCATATAATGAACTCCCTATTTTAAGTAACTTCTAA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ATGGCAACATGATCTAATTTTAATTATCAAAATGGAGCATCTCCCTTAATAGAACAAATTATTTTTTTTCATGATCATACTTTAATTATTTTAATTATAATTACAATTTTAGTCGCATATCTTATATTAAGTTTATTTTTTAATTTATATATTAATCGATTTCTACTTGAAAATCAAATAATTGAATTAATTTGAACAATTTTACCAGCTATTACTTTAATTTTTATTGCTCTTCCTTCTTTACGTTTACTTTATTTATTAGATGAACTTAATAATCCTTTAATTACTCTTAAATCTATTGGTCATCAATGATATTGAAGTTATGAATATTCAGATTTTAATAATGTAGAATTTGACTCTTATATAATTAATTCTAATGAAAATATCAATAATTTTCGTTTATTAGATGTTGATAATCGAATTGTTTTACCTATAAATAATCAAATTCGTATTTTAATTACAGCTACTGATGTAATCCATTCATGAACAGTTCCTTCTTTAGGAGTAAAAGTAGATGCTAATCCTGGTCGATTAAATCAAACTAGATTTTTTATTAATCGACCAGGAATTTTTTTTGGTCAATGTTCAGAAATTTGCGGTGCTAACCACAGATTTATACCTATTGTAATTGAAAGAATTTCAATTAAAAACTTTATTAATTGAATTAATAATTATT</t>
+          <t>ATGGCAACATGATCTAATTTAAATTATCAAAACAGAGCATCCCCACTTATAGAACAAATTATCTTTTTTCATGATCATACATTAATTATTTTAATTATAATTACTATTTTAGTATTATATTTAATATTAAATTTATTTTTTAATTCTTATATTAATCGATTTTTATTAGAAAATCAAATAATTGAATTAATTTGAACTATCTTACCAGCTATTACTTTAATTTTTATTGCTTTACCATCTCTTCGTTTATTATATCTTTTAGATGAATTAAACAAACCTTTAATTACATTAAAATCTATCGGACATCAATGATATTGAACTTATGAATACTCTGACTTTAATAATATTGAATTTGATTCTTATATAATTAATTCAAATGATAATAACAATAATTTCCGTCTTTTAGATGTTGATAATCGAATTATCTTACCCATAAATAATCAAATTCGAATTTTAATTACAGCTACTGATGTGATTCACTCCTGAACTGTTCCTTCTTTAGGAATTAAAGTAGATGCTAATCCTGGTCGATTAAATCAAACAAGATTTTTTATTAACCGACCAGGAATTTTCTTTGGACAATGTTCAGAAATTTGTGGAGCCAATCATAGATTTATACCTATTGTAATTGAAAGAATTTCTATTAAAAATTTCATTAATTGAATTAATAACTACT</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ATGTCAATAAATCATAATCATCCATATCATTTAGTAGATTATAGTCCATGACCACTAACTGGAGCAATTGGAACAATAACTTTAGTTACTGGCCTAATTAAATGATTCCATAATTTTAACATTAACCTTTTAATTTTAGGTTATTTAATTATTTTATTGACTATATATCAATGATGACGAGATATTTGTCGAGAAGGAACTTTTCAAGGTAAACACACTATTTTAGTCTCTAAAGGATTACGTTGAGGAATAATTTTATTTATTATCTCAGAAGTTTTTTTTTTCATTTCATTTTTTTGAGCTTTTTTCCATAGTAGTTTATCTCCTAATATTGAAATTGGAGCTATATGACCTCCAATAGGAATTATCCCATTTAATCCCTTTCAAATTCCACTCTTAAATACTATTATTCTTATTACCTCAGGTATTACTGTAACTTGAGCTCATCATGCATTAATAGAAAATAATTTCACTCAAACTTCTCAAAGTTTATTTATTACAATTATTTTAGGAATTTACTTTACTATTCTTCAAGCTTATGAATATATTGAAGCCCCATTTACTATTGCCGATAGAATTTATGGATCAACTTTTTTTATAGCAACAGGATTTCATGGACTTCATGTAATTATTGGAACAATTTTTTTAACTACTTGCTTTTTTCGTCATTTAAATAATCATTTTTCTAATAACCATCACTTTGGATTTGAAGCAGCAGCTTGATATTGACATTTTGTTGATGTAGTTTGATTATTCTTATATATTTCTATTTATTGATGAGGAAATTAA</t>
+          <t>ATGACAATAAACCATAACCATCCATTTCATTTAGTTGATTATAGACCTTGACCTTTAACTGGAGCTATCGGAGTTATAACCTTAGTTACCGGTATAGTAAAATGATTTCATAATTTTAATATAAATTTATTAATTTTAGGGTATATTATTATTTTAATAACTATATATCAATGATGACGAGATATTTGCCGTGAAGGAACTTTCCAAGGTAAACATACAATTTTAGTCTCAAAAGGATTACGATGAGGAATAATTTTATTTATTGTTTCTGAAATTTTTTTTTTCATTTCTTTTTTTTGAGCTTTTTTTCACAGAAGATTATCCCCTAATATTGAAATCGGAGCTATATGACCACCTATAAGAATTATTCCATTTAACCCATTTCAAATCCCATTACTTAATACCATTATTTTAATTACTTCAGGAATTACTGTTACATGAGCTCATCATGCCCTTATAGAAAATAACTATACTCAAATAACTCAAAGATTATTTATTACTATTACCCTAGGAATTTATTTCTCTATTCTCCAAGCATATGAATACTTAGAAGCACCATTTTCTATTGCAGATAGTGTTTATGGATCCACATTTTTTATAGCAACAGGATTTCATGGATTACATGTTATTATTGGTACAATTTTTTTATTAACTTGTTTTATTCGCCACTTAAATAATCATTTCTCTAAAACTCATCATTTTGGATTTGAAGCAGCTGCATGATATTGACACTTTGTTGATGTAGTATGATTATTCCTTTATATTTCAATTTATTGATGGGGAAATTAA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ATGATATGATTAGATTTAATAAATATTATTATTGGGATATTAATTTTAGTTATTGGGGTTTTAATTGGGGTTGCTTTTTTAACTCTATTAGAACGAAAGGTTTTAGGTTATATTCAAATTCGTAAAGGTCCTAATAAATTAGGATATATAGGAATTTTACAACCTTTTAGTGATGCTATTAAATTATTTACTAAAGAACAAGTTTATTTAAATTATTCAAATTATTTAGTTTATTATTTATCTCCTATTATAAGATTTATTTTATCTTTAATAATTTGAATATTAATTCCCTATATATTTAATATATTAATATTTAATTTAGGTATTTTATTTTTTTTATGTTGTACAAGAGTAGGTGTATATACATTAATAATTGCGGGATGATCTTCTAATTCTAATTATTCTTTATTAGGGGGGTTGCGAGCAGTAGCTCAAACTATTTCTTATGAGGTGAGAATATCATTAATTATAATATCGAGAATTATTATAATTATAGATTTTAATTTAGTTAATTTTTATAATTATCAAAATATTGTTTGATTTATTTTTATAATAATGCCTTTAAGTTTATGTTTATTATCATCTTTAATAGCTGAGACTAATCGAACTCCTTTTGATTTTGCTGAAGGAGAAAGAGAATTAGTTTCAGGGTTTAATATTGAATATAGAAGAGGAGGATTTGCTTTAATTTTTTTGTCTGAGTATTCAAGAATTTTATTTATGAGATTATTATTTGTTATTATTTATATAGGGGGTTATAATTTAATGTTAATATTTTATTTGAAATTAGTTTTTTTGTCTTTTTTTTTTATTTGGGTTCGAGGTACTTTACCTCGTTATCGTTATGATAAGCTAATATATTTATGTTGAAAGAGATATTTACCTATTTCTTTGAATTTTTTATTATTTTATATTGGCTTAAAAATATTTTTAAATTATAAAATAATTTTAGTATAA</t>
+          <t>ATGTTAAATATAGATTACTTAAATATTATAATTGGGATATTAGTTTTAATTATTGGTGTAATAATTGGTGTGGCTTTCTTAACCTTATTAGAGCGAAAAGTTTTAGGTTATATTCAAATTCGAAAAGGTCCAAATAAAATAGGATATATGGGAATTTTACAACCTTTTTGTGATGCTATTAAGTTATTTTCTAAAGAACAAGTTTATTTAAATTATTCTAATTATTTGATTTACTATTTTTCTCCTATTTTAAGTTTTATATTATCTTTAATAGTATGAATATTAATTCCTTATATGTTTAATATATTTATGTTTAATTTAGGGTTAATATTTTTTTTATGTTGTACTAGAATAGGTGTTTATACGGTAATAATTGCTGGTTGATCTTCTAATTCAAATTATTCATTACTGGGTGGATTACGTTCTGTAGCTCAAACTATTTCTTATGAGGTTAGTCTTTCTTTAATTTTAATATCTAGAATTATTATAATTATGGATTTAAATTTAATGAAATTTTTTGATTATCAAATTTTAATTTGATTTATTTTTTTAATATTACCTTTAAGATTAATTTTTTTGTCTTCATTAATAGCTGAAACTAATCGAACTCCTTTTGATTTTGCTGAAGGTGAGAGAGAATTAGTTTCTGGGTTTAATGTTGAATATAGAAGAGGGGGATTTGCTTTAATTTTTTTAGCTGAATATTCAAGAATTTTATTTATAAGAATATTATTTGTTATTATATATATAGGTGGGTATTATTTAAATTTAATATTTTATTTTAAATTAGTATTTTTATCTTTTTTTTTTATTTGAGTTCGAGGGACTTTACCCCGATATCGTTATGATAAGTTGATATATTTATGTTGAAAAAGTTATTTACCTATTTCTTTAAATTATATTTTATTTTTTTTAGGTTTAAAGATACTTTTAAATTAA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ATTTTATTTAATTTTAATTCCAATAAAATATTTTTTTTATTTATTTTATTTTTTAGCACATTAATTTCCATTTCATCCAACTCATGATTAGGATGTTGAATTGGTCTAGAAATTAATTTATTAAGATTCATCCCCCTCATATCAACCCCCAATAACCTCCTAAATTCCGAAGCCTCATTAAAATATTTTTTAACTCAATCTATTGCCTCAATTAATTTTTTATTTTCTATTATTATTAATCTTTTATTAATAAAAAATTTTTTTTTTAATAATATTATTTCCATTATTATTAATTCTTCATTATTAATAAAAATAGGATCTATCCCTTTTCATTTCTGATTTCCCAATATTATAGAAGGATTATCCTGATTTAATTGTTTTATTTTAATAACATGACAAAAAATTTCCCCTATAATTTTATTATCATATTATATAAATATTAAATTTTTATTTTTAATTATAATTTTTAATGTTATCATTGGAACAATTAGAAGTTTTAATCAAACATCTTTACGAAAATTAATAGCTTTTTCTTCAATTAATAATTTAGGATGAATATTGGCAGCTTTATCTATTAGAGAAAATTTATGAATAATTTATTTTTTATTATATTCTTTATTTATTTTTATTATATGTTTTTTATTTTATATTATCAATATTTTTTATGTTAATCAATTATTTAATTTAAATCTTAATTTTTTAATTAAATTTTCAATTTTAATTAACTTTTTATCTTTGGGTGGTTTACCTCYATTTTTAGGATTTTTTCCCAAATGAATAATTATTAATTTTCTATTATATAATAATTTATTTATTATTTCTTTTATTTTCACAATTTCTAGATTAATTATATTATTTATTTATATTCGAATTATTTATTCATCATTTATATTTTTTTCAATTAAATTAAAATGATCAAAATTTTTTTTAAAAAATAATTTTATATTATTTATTAACATTTTTAGATTTATTTCTCTTTTAGGTATAATTCTTAGAACCTTATTTTTTTTTTAA</t>
+          <t>ATTTTATTTATAATAAATTCTAATAAAATATTTTTTATATTCATTTTATGTTTTAGATCATTAATTTCTATTTCCTCAAACTCATGATTAGGGTGTTGAATTGGTTTAGAAATTAATTTATTAAGATTTATCCCCCTAATCTCAACCCCCAATAATTTATTAAACTCAGAAGCTTCATTAAAATATTTTTTAACCCAATCTATTGCCTCAATTAATTTTTTATTTTCTATTTTATTAAGAATATTAATTATAAAAAACTTTATTTTTAATAACTTAATCTCTATTCTTATTAATTCATCAATATTAATAAAAATAGGATCAGTACCCTTTCATTTTTGATTCCCCAATATTATAGAAGGATTATCCTGATTAAATTGTTTTATTTTAATAACTTGACAAAAAATTACCCCCATAATTTTATTATCATATTATTTAAATTCAAATTTTTTAATTTTTATAATAATCCTTAATGTAATAATTGGAACTATCGGAAGATTTAATCAAACTTCATTACGAAAAATAATAGCATTCTCCTCAATCAATAATCTAGGATGAATATTATCTGCTTTAATAATCAGAGAAAATTTATTTTTAATTTATTTTTTATTTTATTCATTTCTTATTTCCTTTTTATGTTTTATATTTTATATTATAAATATTTTTTATATTAATCAATTATTTAATATTAATTTAAATCTTTCAATTAAATTATCTATTATAATTAATTTTTTATCTTTAGGAGGTTTACCTCCATTTTTGGGATTTTTCCCCAAATGAATAATCATTAACTATTTATTAATAAATAATTTATTTATTATTACTTTTATTTTTATAATAACAAGATTAATTATATTATTTGTCTATATTCGAATTATCTATTCATTTTTAATATTTTTTTCTATTAAATTAAAATGATTTAAAATTTTCATTAAAAATAACTATTTATTTGTTATTAATTTTTTTAGATTTATTTCTCTATTAGGAATAATTATTAGAACTTTTTTTTTTATTTAA</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>ATAATCATTATTTTATTAAATTTATCAATTATAATAATTATTATTTCAAATTTATTTATAATAATTTCATTTATTATCTCAAAAAAATCTTTTCTTGATCGAGAAAAATGTTCACCATTTGAATGTGGTTTTGACCCAAAATGTTTAGCTCGAATTCCATTTTCTTTACATTTTTTTTTAATTACAATAATTTTTTTAATTTTTGATGTAGAAATTGCTTTAATTATACCTTTAATTCCTACATTTAATATAGTAAATTTTTTTATTTGATATAAAACTAGTTTTTTTTTTATTATTATATTATTAATTGGATTATATCATGAATGAAATCAAAATATATTAAATTGAATTAATTAA</t>
+          <t>ATTATTATATTAATTATCATATCTTTAATTATAATCTTAATCTCAACTATCTTAATAACAATTTCATTTATTATCTCAAAAAAATCAATACTTGATCGAGAAAAATGTTCACCTTTTGAATGTGGGTTTGACCCAAAATCATTAGCTCGAATTCCATTTTCTTTACATTTTTTTTTAATTACTATAATTTTTCTTATTTTTGATGTAGAAATTGCATTAATCTTCCCAATTATTCCTAGATTTATAATAGTTAATTTTTTTATTTGATACAAAATAAGATTTTTTTTCATTATTATTCTTTTAATCGGATTATACCACGAATGAAATGAAAATATACTTAACTGAAGAAATTAG</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>ATGATAAAATTTTTATTTATAATTTTATTTATAATTCCTTTATGTTTTAAAAAAAATATGTTTTGAATGGTTCAAATAATAATAATATTAATAGTTTTTATATTTATAAATTTAACTATTAATATTATAAATTTTACTAATTTAAGATATATATTGAGATGTGATTTAATTTCTTATGGATTAATTTTATTAAGAATTTGAATTAGATATTTAATAATTATAGCTAGAGAAAATTTATATAAAGTAAATTTTTATGAAAATTTTTTTTTATTAAATATTATTTTATTATTGATTATATTATATTTAACTTTTAGAATTATAAATTTATTTATATTTTATTTATTTTTTGAGGGGAGATTAATTCCTACTTTAATATTAATTATTGGATGAGGATATCAACCGGAACGAATTCAAGCAGGTATATATTTATTATTTTATACTTTATTTGTTTCTTTACCTTTATTATTGGGAATTTTTTATATTTATAATTTAATAAATAGAATAATAATTTATTTTATAAAATTTTATGATTATAATTTATTATTATTATATTTGAGAATAGTAATAGCTTTTTTAGTTAAAATACCCATATATTTTACTCATTTATGATTACCTAAGGCTCATGTAGAAGCTCCTATTTCTGGCTCTATAATTTTAGCTGCTATTATATTAAAATTGGGGGGTTATGGATTATTACGAATTTTAATTATTTTACAAAAAATTAATTTAAAAATAGGTATTATTTGAGTAGTTATTAGTTTGATTGGGGGCTTATATATTAGAATAAAATGTTTTTGTCAAATTGATATAAAATCTTTAATTGCTTATTCTTCAGTAGCACATATGAGAATTGTAATTAGAGGGATTATAACATTAAATTATTGAGGGTTTATAGGTGCTTATATTTTAATAATTGGACATGGTTTATGTTCTTCTGGAATATTTTGTTTATCTAATATTTGTTATGAACGTTTGGGAAGACGAAGATTATTTTTAAATAAGGGAATAATAAATTTTATACCTTCGATAAGAATATGGTGATTTTTGTTTATATCTTCTAATATAGCTGCTCCTCCCTCATTAAATTTAATAGGTGAAATTAGTTTAATTAATAGATTAGTTAGATGATCTTGAATAAGAATAATTATATTAATGAGAATTTCTTTTTTTAGAGCTGGTTATAGATTATATTTATATTCTTATACTCAACATGGAAAATATAATTTAGGAATTTATAGATTTTATAGAGGGGTATCTCGAGAATATTTAATATTAATATTACATTGATTACCTTTAAATATTTTAGTTTTAAAAATTGATTATAGAATAATTTGAT</t>
+          <t>ATGTTAAAATTTTTAATAATAATATTTTTTATAATTCCTTTATGTTTTAAAAAAAAAATGTTTTGATTGGTTCAAATAATAATAATAATAATATTTTTTATGTTTATAAGTTTAACTTTAAATATTATAAATTTTTCTAATTTAAGATATATAATAGGTTGTGATATTATTTCTTATGGTTTAATTTTATTAAGAATTTGAATTAGATTTTTAATAATTATAGCAAGAGAAAATTTAATAAAAATAGATTTTTATTCTAATTTTTTTTTAATAAATATTATTTTATTGTTAATTATATTATATTTAACTTTTAGAACTTTAAATTTATTTATATTTTATTTATTTTTTGAGGGGAGATTAATTCCTACATTAATATTGATTATTGGGTGAGGATATCAACCAGAACGTATTCAATCTGGAATATATCTTTTATTTTATACATTATTTGTTTCTTTACCTTTATTATTAGGAATTTTTTATATTTATAATAAAATAAATTATATGGTAATTTATTTTTTAAAATTTTATGATTATAATATATTTATATTATATTTAAGAATAGTTATGGCTTTTTTAGTTAAAATACCTATATATTTTGTTCATTTATGACTTCCAAAAGCTCATGTTGAAGCTCCAATTTCAGGATCTATGATTTTAGCTGCGATTATATTAAAATTAGGAGGGTATGGTTTATTACGAATTTTAGTTTTTTTACAAAAAATTAATATGAAGATAGGGTTTATTTGAATTATTATTAGATTAATTGGTGGTTTTTATATTAGATTAAAATGTTTTTGCCAAGTTGATATAAAATCTTTAATTGCTTATTCATCAGTTGCACATATAAGACTTGTAATTGGGGGAATTATAACTATAAACTATTGGGGGTTTATAGGTGCTTATGTTTTAATGATTGGTCATGGTTTGTGTTCTTCAGGTATGTTTTGTTTATCAAATATTATATATGAACGGATTCATAGACGAAGATTATTTTTAAGAAAGGGAATAATAAATTTTATACCTTCAATAAGATTATGGTGATTTTTATTTTTATCTTCGAATATGGCAGCACCCCCCTCTTTAAATTTAGTGGGTGAAATTAGATTAATTAATAGTTTAATTAGATGATCTTGAATAAGAATGTTAATATTAATAATAATTTCATTTTTTAGAGCTGGCTATAGATTATATTTATATTCTTTCACTCAACATGGAAAATATAATTTAAGAATTTATAGAATTTATAATGGTGTATCTCGAGAGTATTTAATGTTAATATTACATTGATTGCCTTTAAATATTTTAATTTTAAAAGTTGAATATAGAATAATTTGAT</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>ATGATAATAAATATATGATTAGTAATTTTTGTAATATTTTTATTTGGGAATATAATTTTTGTTTCTAAATATAAACATTTATTAATTGTTTTATTAAGATTAGAATTTATAGTTTTAAGAATTTTTTTTTTTTTATTAATATATTTAATAATATTAAATTATAATATATATATATTAATAGTTTTTTTAGTTTTTTCAGTGTGTGAGGGAGCTTTAGGTCTTTCTATTTTAGTTTCTATAATTCGAACTCATGGTAATGATTATTTTCAAAGATATAATTTAATTTAA</t>
+          <t>ATGATAATAAATATATTAATTATTTTTGTAATGTATTTAATTGGGAATATAATTTTTGTTTCTAAACATAAACATTTATTGATTGTATTATTAAGATTAGAGTTTATTGTTTTAAGTATATTTTTTTTTTTAATAATTTATTTAATAATAATTGATAATAATATATATATATTAATGGTTTTTTTAGTATTTTCTGTATGTGAGGGAGCTTTAGGGCTATCTATTTTAGTCTCTATAATTCGAACTCATGGAAATGATTATTTTCAAAGATTTAATTTAATTTAA</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>ATTAATAAGTATTCTTTATGTTTTATTAGATTTTTTTTTTTGTTTTTTTATATATTAATTAATTTTTTTTTAATAATATATTTTATTATAAATAATTTAATTATTATGTTAGAGTGGGAAATTATTTCTTTTAATTCTATAAGAATTGTTATATCTATTTTATTGGATTGAATATCTTTATTATTTATAATGTTTGTTTCTTTAATTTCTTCTTCTGTAATTTTTTATAGAAAAAGTTATATGAGATCTGAGTTAAATTTAAATCGTTTTATTATTTTAGTATTATTATTTGTTTTTTCAATAATTTTATTAATTATTAGACCTAATATTATTAGAATTTTTTTAGGGTGAGATGGATTAGGATTAGTTTCTTATTGTTTAATTATTTATTATCAAAATGTTAAATCTTATAATGCTGGGATATTAACAGCATTATCAAATCGAATTGGTGATGTTATGATTTTAATGTTGATTTCTTGAATAGTAAATTATGGAAGTTGAAATTATATTTTTTATTTGGATTTTATGAATAATGATTATTCAATAAAAATTGTAGGTTTAATGGTTATTATAGCTGCTATAACAAAAAGAGCTCAAATTCCTTTTAGTTCATGATTACCTGCGGCTATAGCTGCTCCTACTCCTGTTTCTGCTTTAGTTCATTCTTCTACTTTAGTTACTGCGGGGGTTTATTTATTAATTCGTTTTAATAGATTATTAATTGATATATTTTTTTTAAAAATTTTATTATTAATATCTGGATTAACAATATTTATAGCTGGAATTTGCGCAAATTATGAATTTGATTTAAAAAAAATTATTGCTTTATCTACATTAAGACAATTAGGGTTAATAATAAGAATTTTAAGAATAGGGTATAGAGATTTAGCTTTTTTTCATTTATTAACTCATGCTATATTTAAAGCTTTATTATTTATGTGTGCAGGAGTTATTATTCATATAATAAGTGATAATCAAGATATTCGGATAATGGGGGGAATTAGATTATATATTCCTTTAACTTCTTTATGTTTAAATATTTCTAATTTATCATTATGTKGGATTCCTTTTTTGGCTGGATTTTATTCTAAGGATATGATTTTAGAAGTGGTAAGAATAAGAAATTTAAATTTATTTATTTTTTATTTATATTATATTTCTACAGGTTTAACTATATTTTATACTTTTCKATTATTTATATATTTAATAATTAATGATTTTAATTTAATATCAATTTATAATTTATATGATGAAGATTTTATTATATTAAAAAGAATATTTTTATTATTATTTATAAGATTAGTTTCTGGGAGAATATTAGGTTGAATAATTTTTTCTTATCCTTATATAATTTATTTGCCTTTTAATATAAAAATAATAGTAATTTATGTTACATTATTAGGGTTATTTATAGGATTTGTTATTAGAAATATAAATATTTATTCAATTAATAAATTTTTAATAACTTATAATTTAAGAATATTTATAACTATAATATGATTTTTACCTGGTTTATCTACTTATACATTAAATTATAGATTTTTAAGTTTTAGTCAAAATTTATTAAAAAATATGGATATAGGTTGAGGAGAATTATATAAAAGTCAAGGTATTTATAAAATTATTAAAAATTATTCTATTATTTTTAGTATTTATCAATTAAATAATTTTAAAATTTTTTTATTTAGATTTGTTTTATGAATAATAATTTTTATTTTTATTTTAGTATTGT</t>
+          <t>ATTAATAAATATTCTATTTGCTTTATTAGATTTTTTTTTTTATTTTTTTTTATATTAATTAATTTTTTTATAATAATTTATTTTATTATAAATAATATTAGATTATTTTTTGAGTGGGAAATTATTTCTTTTAATTCAATAAATATTGTTATGTCTATTTTATTAGATTGAATATCTTTATTATTTATAATATTTGTTTCATTGATTTCATCTTCAGTTATTTATTATAGAAAAAGATATATAAGATCTGATTTGAATTTAAATCGTTTTATTTTATTAGTTTTATTATTTGTTTTTTCAATGATTTTGTTGATTATTAGTCCTAATATAATTAGAATTTTTTTAGGTTGAGATGGTTTAGGTTTAGTTTCTTATTGTTTAATTATTTTTTATCATAATATTAAGTCTTATAATGCTGGGATATTAACAGCTTTATCTAATCGGATTGGGGATGTTATAATTTTAATATTAATTTCTTGAATAATAAATTATGGTAGATGAAATTATGTTTATTATTTAAATTTTATGTCAAATGATTATTCAATAAAAATTGTAGGGTTATTAGTTATTTTAGCTGCTATAACTAAAAGAGCTCAAATTCCTTTTAGTTCGTGATTACCTGCTGCTATAGCGGCACCTACTCCTGTTTCTGCTTTAGTTCATTCATCTACTTTAGTTACTGCTGGGGTTTATTTATTAATTCGTTTTAATATATTATTGGTTGATTTATTTTTTTTTAAGTTTTTATTATTAATATCAGGATTAACTATGTTTATAGCTGGTATTAGAGCTAATTATGAGTATGATTTAAAAAAGATTATTGCTCTTTCTACTCTAAGACAATTGGGGTTGATAATAAGAATTTTAAGAATAGGGTTTGGAGATTTAGCTTTTTTTCATTTATTAACTCACGCTATATTTAAAGCCTTATTATTTATATGTGCTGGTATAATTATTCACATAATAAGAGATAATCAAGATATTCGAATAATGGGGGGTATTAGTTTATATATTCCTTTGACTTCTTTATGCATGAATATTTCTAATTTAGCTTTATGTGGAATTCCTTTTTTAGCAGGATTTTATTCTAAGGATATAATTTTAGAAATAGTTAGTATGAATAATTTAAATTTAATAATTTTTTATTTATATTATTTTTCTACTGGGTTAACTATGTTTTATACTATTCGATTATTAATATATTTAATAGTAGATGATTTTAATTTATTAAGTATTTATAATTTATATGAGGAAGATTATGTTATATTAAAAAGAATATTTATATTGTTATTTATAAGATTAATTTCTGGAAGATTTTTAATATGAATAATTTTTTCTTATCCTTATATAATTTATTTGCCATTTAATATAAAAATTATGGTTATTTATGTGAGATTAGTTGGTTTAATTTTTGGTTATTTAATTAGAAATATAAGAATTTATTCTATTAATAAATTTTTAATTACTTATAATTTAAGAAATTTCTTAACTATGATGTGATTTATACCTAGATTATCTACTTATGGTTTAAATTATAATTTTTTAAATTTTGGAAATAATTTAGTAAAGAATATTGATATAGGTTGAAGAGAGTTTTTTGAGAGACGAGGAATATATAATATTATTAAATATTATTCAATTATTTATTATGTTTATCATATAAATAATTTTAAAATTTATTTATTTATATTTGTTTTATGAATAATTATTTTTATATTTATAATTATATTATATTTAAATAGCTTAATTTAG</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>ATTATTAAAATATTTTTATCATTTTCTTTAATTTTTACATCAATTTTTATATTTTTTCTCAATCATCCATTTTCTATAGGATTGATAATTTTAATTCAAACTTTATTTATATGCTTATTATCAAGTATATTAATTAACACTTATTGATTTTCTTATATTTTATTCTTAATTTTTTTAGGTGGTTTAATAGTTTTATTTATTTATGTATCAAGTATTGCCTCTAATGAAATTTTTAAAATTTCTTTAATTAATAAAAGATTTATTTTTTACCTATTATTTTTAATAATTATTAGATTCTTTTTTAAAAATAACTTAATATGAATAAATTTTTCATTTAATGATGAAATAAATAATTTATTTAACTTATTTTTATTTTTTAATAATGAATTCAATTTTAATTTATCTAAGCTATATAATGAACAAACCTACATATTAACTTTAATTTTAATTATTTATTTATTTATTACTCTTATTGCAGTAGTAAAAATCACTAATATTTTTTTCGGACCTTTACGATCTAATTTTTAA</t>
+          <t>ATTACAAAAATTTTCCTATCTATATTACTAATTTCTATTTCAATCTATATATATATATTAACCCATCCATTTTCCATAGGATTAATGATCCTAATTCAAACTTTATTACTATGTTTATTATCAAGAAGATTAATTAATACATATTGATTTTCTTATATTTTATTTTTAATCTTCTTAGGAGGTTTATTGGTTCTATTTATTTATGTTTCAAGAATTGCCTCTAATGAATTATTTAAAATTTCTATATTTAATAAAAGTTTTTTTTTTATCATATTTTTTATTATAATAGTTAGAATTATCTTTAAAAATAATTTATATTGAATAAATTTCTCATTTAATGATGAAATAATTAATTTTTTTAATTTATTTCTATTTTTTAATAATGAATTTAATATTAATTTATCTAAATTATATAATGAACAAACTTATTTACTAACAATAATAATAATTATTTACTTATTTATTACTCTTATTGCAGTAGTTAAAATTACTAATATTTTTTTTGGACCCCTTCGTTCATATAATTAA</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>GGGGTTAGGTTAATAAATTTAAAATTTAATAAAAAAAATTTTAATATTAAAAAGAAATGAGGGGTTAAAGTATTTTTAATAGAAAAAATTAAAAGTTTTATAGTGAATTATTACTGTGGGGGAAATCATAAATATGTGAAATTTAATTATTTAAAAAGTAGATTTAATTTGTTGTATCTTGTGTATCAGAGTTTATTAAATATTAGTAATTTAATTAAATAAATCTCGAATTTAAAAGAGTTAATTAATTATAAAAGTTAATGTTGAATAATTATTTTAAATAATTAATTAGAAATGAAATGTTAATCGTTTTTAAAAATATCTAGTTTTTTTAGAAAAAAATTTAATTTTAAATTAAAATAATTTAATAATTATTTAATTATTTATTAAAATTTTAAATTTAATATTTTAGGGGATAAGCTTTAAATTAAAAATTTATAATAATATGATTAATAAATTAAAATTTTTAAAATTTATATTGTTTAAAAATTAAAATTTATTATAAAAAATTTTAATAAAAATAAAATTTAAATAAAAATTTAATTTTTTATAAAAAAATAATTTTTAATAATAAAAAAATTAGAAATAATGATAAAATTAGTATATACATAAATAATTAAATATGTTTATTGTTTAAAAGATAAGTTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTTGATAATAATTTAAAGTCTAATCTGCCCACTGATATTATTATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCATTAGTCTTTTAATTGAAGACTTGTATGAAGGATTTGATGAAATATAATCTGTCTCTGATTTAATAATAGAAATTAATTTTTTAATTAAAAAGTTAAAATAAAATTAAAAGACGAGAAGACCCTATAGAGTTTTATAATTTATTTATTTAATATTATTTATAAATTTATAAATATTAAATAAATAAATTATTTTATTGGGGTGATAAAAAAATTTAATAAACTTTTTTGATAAATTAATATAAATAAATAAATAATTGATCCATAATAATGATTAAAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTACATATAAAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGCAAAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAAAAAATTAAGATATTTTAGTACGAAAGGATCAAATATTTGAAATAATTTTATAAAAAAGAATGTTAATAATATAATAAATAAATTTAAA</t>
+          <t>GGGGGGAAAATTAATTAATTTATAATTAATAAAAAAAATTTTATTTAGAAAATATATAATGGGGGTTATAGTATTTTTAATAGAAAAAATTTTTTAGTTTATAGTTAATTAGTAATGTGAATGAATTTTTAAATAAATGAAATATTAAATTTAAGTTAAAGTAGATTTTGTTTATTGTATCTTGTGTATCAGAGTTTATTAAATAAAAAATTTTTATTTAAAAAAATCTCGAATTTAAAAGAGTTAATTAATTAAAAAAGTTAATGTTGAATAATTATTTTTAATAATTAATTAGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTTTTTTAGAAAAAAATTTAATTTTGAATTTAAATAATTTTATAATTTTTTAAATAATTATAAAAATTTGAAATTTAATATATTAAGGGATAAGCTTTAAATTAAATATTTATAATTAGATAAAAATAAGTTAAAAATTTTAAAATTTATATTGTTTGAAAATTATAGTTTATTATAAAAAATTTTAATTTAAATAAAATTTAAAATAAAAATTTAATTTTTTATAAGAAAAAAATTTTTAATTAATAAAAATTGGAAATAATGATAAAATTAGTATAATTTTAAATTAATAAGAAATAAATTTAATAAAAATTAAATTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTTGGTAAATAATTTAAAGTCTAATCTGCCCACTGATAATAAAATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCATTAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAAATATAAACTGTCTCTAATTTATTAATAAAAATTAATTTTTTAGTTAAAAAGCTAAAATAATATTAAAAGACGAGAAGACCCTATAGAGTTTTATATTTAATTTAATTTAAATAATTTATATAATTAATTATTTAAATTAAATTAAATATTTTATTGGGGTGATAAAAAAATTAAAGAAACTTTTTTTTTAATAAATAACATAAATAAGTGGTTAAATGATCCATTTTTAATGATTATAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTACAAATAAAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGTAGAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTAAGCCAGGTTGGTTTCTATCTTTAAAAAATTTTAATATTTTAGTACGAAAGGATCAAATATTAAGAATAATTTTAATATTAAGAATTTTAATAAAATTATTGTA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>TAATAAATAAAATAATTATGTTTTTGAAATTTTATTAAAAATTTATTTTACATATAAATTTTAGTGGATAATTTTAATTATTTAAATAATAATTAAATAAATAAGTAGTAATTAATATTAAAAATTTAAGAAATTAAGATTTAGTAATATTATAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTAAACAAAAATTAAGTTAAATTATTTCAGTTTATAATAAATAATAATTTTTAAAATAAATATTAAATTATTAGGTGAAATTTTAATTTAATTAAATTTTATAATAAGATTATGATTTAATAAATTTTAATATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATTTAAAATACTAAAATAGTAGATAATAATTTATTGAAACTTAAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACGAATAAATTTACTTAATTTATAATTTTGTATATCATTGTTAAAAAAATATTTTTTAGTAAAAATAATATTTAAAAATTAGAAATAGAAATTAATTCAGATCAAGATGCAGATAATAATTAAGAATATGATGGATTACAATAATAATATTTAAATGAATAATTTATTGAAAATTAAATTTGAAGGTGGATTTAAATGTAATTTTAATTAGTTTATTAAAATGATTAAAAATTGAAATATGTACATATTGCCCGTCACTTTCATTTAAAAATTGAAATAAGTCGTAACAAAGTAGAGGTACTGGAAAGTGTTTCTAGAAAGA</t>
+          <t>GAATAAATAAATTTTTTATGTTTTATATAATTTATTATAAATTTATTTTACATATAAATTTTAGTATAAAATTTCAATTATTTTAATAATGATTGATTATTAATAGTAGTAATTAATATTAAAAATTTAAGAAATTAAGATTTAGTAATATAAAAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTATACAAAAATTAAATTAAATTATTTCAGTTTTTAATAAATAAATTTAATTAAATTAAATATTAAATTATTAAGTGAAATTTTAATTTAATTAAAATTTATTTTTAATTTATGATTTAACAAATTTTAATATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATTAATAATACTAAAATAGTAAATAATTATTTATTGAAACTTGAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACAAATAAATTTACTTAATTTAAAATTTTGTATATCATTGTTAAAAAAATATTTTTAAATAAAAATAATATTTAAAATTTTTAATTAAAATTAATTCAGATCAAGATGCAGATTATAATTAAGTTTAAGATGGATTACATTAAATATATTTAAATGAATAATATAATTGTAAAATATATTTGAAATTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTTAAAATTAAAGTATGTACATATTGCCCGTCACTTTCATTTAAAAATTGAAATAAGTCGTAACAAAGTAGAAGTACTGGAAAGTGTTTCTAGAAAGAA</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>AGGATTATAGTTTATTTAAAACATTTGATTTGCATTCAAAAAATATTGTTCATCAATTTATCTT</t>
+          <t>AGGATTATAGTTTATATTAAAACATTTGATTTGCACTCAAAATATATTGACTTATCAATTTATCTTA</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>AGTCTTATATTCAAATATGATTTAAAATTGCAAATTTTAAGGTGTAAAAATTACTAAGGCTT</t>
+          <t>AGCTTTATATTCAATAATGATATAAAATTGCAAATTTTATGGTGTATTAAATTACTAAGGCTT</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>AAAGAATTAGTTAATAAATAACATAAATATGTCAAATTTAAATAATTACTAAGTAATATTCTTTT</t>
+          <t>AAAGAATTAGTTAATTTATAACATAAATATGTCAAATTTAAATTATTACTTTAGTAATATTCTTTT</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>ATTTATATAGTTTAATTTAAAACATTACATTTTCATTGTAAAAATATAATTATTATTATTATTATAAATA</t>
+          <t>ATTTATATAGTTTATAAAAACATTACATTTTCATTGTAAAATTAAAGAAAAATCTTTTATAAATA</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>ATTTAAATAGCTTAAAAAGAGTGTAATATTGAAGATATTAAGGTGATTAATTAAATCTTTAAATA</t>
+          <t>ATTTAAATAGCTTAATTTAGAGTTTAATATTGAAGATATTAAGGTGATTGTTATGATCTTTAAATA</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATAAAATTTAATATAAATA</t>
+          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATTATCTTTTAATATAAATA</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>ACTTAAATAATTTAAATAAAATATTGATTTGTGGAATMAAAAATATGAAATAGATGATTCATTTTAAGTC</t>
+          <t>ATTTAAATAATTTAAATAAAATATTGATTTGTGGAGTCAAAAATATGAAAATATATCATTTTAAATC</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>AATAAAGTGCCTGATTAAAGGATTATTCTGATAGAATAAATTATGTAAAAATTTACCTTTATTA</t>
+          <t>AATAAAGTGCCTGAATAAAGGATTATTCTGATAGGATAAATAATGTAAATTTTTACCTTTATTA</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>CATTAGATGACTGAAAGCAAGTAATGGTCTCTTAAACCTTTTTATGATAATTTAGCAAATATCTCTAATG</t>
+          <t>CATTAGATGACTGAAAGCAAGTATTGGTCTCTTAAACCACTTCATAGTAATCTAGCATTTACTTCTAATGA</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>ACTATTTTGGCAGAAAATTGTAATGGTTTTAGAAGTCATATATGTATATTAATAAATATATAAGTAGTA</t>
+          <t>GCTATTTTGGCAGATAATTGTAATGATTTTAGAAGTCATATATATATATATACATATTTATATATAAGTAGTA</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>TCTATTATGGCAGATTATATGTAATGGATTTAAACCCCATTTATAAAGGTTTATCCTTTTTTTAGAA</t>
+          <t>TCTAATATGGCAGATTATATGTAATGGATTTAAACCCCATTTATAAAGGTATTATCCTTTTTTTAGAA</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>TTAAAAATAAGCTAAAGTAAGCTTTTGGGTTCATACCCCAAATATAAAGGAAATCCCTTTTTTTTAAA</t>
+          <t>TTAAAAATAAGCTAATTAAGCTTTTGGGTTCATACCCCAAATATAAAGGAAATACCTTTTTTTTAAA</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>TTAATTGAAACCAAATTTAGAGGTATATCACTGTTAATGATAAAATTGAATATAAATTCCAATTAGA</t>
+          <t>TTAATTGAAACCAAAATAGAGGTATATCACTGTTAATGATAAAATTGAATAAAAATTCCAATTAGA</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>CAAAGAGTAGTTTAAAAAAAAATAATAATTTTGGAGATTATTGATAAAGATAATCTTTTTCTTTGA</t>
+          <t>CAAAGAATAGTTTATAAAAATAATAATTTTGGAGATTATAGATAAAGAATTTCTTTTTCTTTGA</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>TATATTTTAATGTAAGATGCATAGTAATTTTTGAAATTACAAGATATAGTTTAATTCTATAAAATATAA</t>
+          <t>TATATTTTAGTGTAAGATGCACRATAATTTTTGAAATTATAAGATATAGTTTAATTCTATAAAATATAA</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>AAATAGGAAGCAATTTTGCATTTAATTTCGACTTAAAAGATAGAGTTTATATAACTCCCTATTTA</t>
+          <t>AAATAAGAAGCAATTTGCATTTAATTTCGACTTAAAAGATAGAATAATTTTATTCCTTATTTA</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>GAAATATATTAAAATTAAGCTGCTAACTTAATTTATAGTGATTAAAATCATTAATATTTCT</t>
+          <t>GAAATATATTTTAATTAAGCTGCTAACTTAACTTTTAGTGATTTAACTCATTAATATTTCT</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>AATTAATGAGCTTGTTAAGCATTTGTTTTGAAAACTTAAGAAAGAATTTCTTATTCTATTAATTT</t>
+          <t>AATTAATGAGCTTGTATATTAAGCATTTGTTTTGAAAACTTAAGAAAGAATATTATTCTATTAATTT</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>GTTTTTATAATTTAACAAAAATATTGGTCTTGTAAATCAAACATAAGAACTTTCTTTAAAAACA</t>
+          <t>GTTTTTATAGTTTAAAAAAAACTTTGGTCTTGTAAATCAAAAATAAGAATTTTCTTTAAAAACT</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>CAAATTAGAGCTTGTGAAAGTATTTCATTTACATTGAAAAGAAATTAAAAATTAATTAATTTGA</t>
+          <t>CAAATTAGAGCTTGTTTAAAGTATTTCATTTACATTGAAAAGAAATTAAAAATTAATTAATTTGA</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>AAGGTTTTAAGTTAAATTAAACTAATAATCTTCAAAATTATTTATAAAGAAATTATCTCTTTAAGCCTTA</t>
+          <t>AAGGTTTTAAGTTAATTTAAACTAATAGTCTTCAAAATTATTTATAAAGAAATATTCTTTAAGCCTTA</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>AATAAAATGGCTGAGTTATAAGCGATAAATTGTAAATTTATTAACGAGAAATTCTCTTTTATTA</t>
+          <t>AATAAAATGGCTGAGTTATAAGCGATAAATTGTAAATTTATTAACGAGAAATATCTCTTTTATTA</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_4031-4708_+_atp6</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_3921-4037_+_atp8_0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_10419-11570_+_cob</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_1455-2990_+_cox1</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_3028-3702_+_cox2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_5015-5497_+_cox3-b</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_11648-12580_-_nad1</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_251-1264_+_nad2</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_5568-5918_+_nad3</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_8060-9403_-_nad4</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_9460-9744_-_nad4l</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_6263-7981_-_nad5</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_9898-10404_+_nad6</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_12640-13954_-_rrnL</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_14056-14817_-_rrnS</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_5917-5984_+_trnA(tgc)</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_1323-1384_-_trnC(gca)</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_3804-3871_+_trnD(gtc)</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_6194-6257_+_trnE(ttc)</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_trnF</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_5500-5564_+_trnG(tcc)</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_trnH</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_69-133_+_trnI(gat)</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_3732-3802_+_trnK(ctt)</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_12595-12662_-_trnL1(tag)</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_2986-3054_+_trnL2(taa)</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_1-67_+_trnM(cat)</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_6070-6134_+_trnN(gtt)</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_9811-9874_-_trnP(tgg)</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_131-199_-_trnQ(ttg)</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_5984-6047_+_trnR(tcg)</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_6133-6192_+_trnS1(gct)</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_11569-11634_+_trnS2(tga)</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_9747-9810_+_trnT(tgt)</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_13988-14055_-_trnV(tac)</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_1263-1330_+_trnW(tca)</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>&gt;17LW02001_Doxocopa_zunilda_1385-1450_-_trnY(gta)</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ATGATAAATAACTTATTTTCAATTTTTGACCCCTCTACTAATCTATTCAACCTATCTCTAAATTGACTTAGAGTTTTCATTGGGATGATATTTATTCCTTATTCTTTTTGATTTATTCCCAATCGTCATTTTATATTGTGAAAAATCACATCAAATAAATTACATCAAGAATTTAAAACATTATTAGGAACTAACAAATCTAATGGTTCAACATTTATTTTTATTTCGTTATTTTTTTTCGTATTATTAAATAACTTTTTAGGATTATTCCCCTACATTTTCACAAGCACTAGTCATCTTAATATCACCCTCTCTATCTCCCTAACTTTATGATTAAGATTTATAATTTATGGGTGAATTAATAACACCCAACACATATTTACCCATATAATTCCTCAAGGAACCCCAACAATCTTAATACCCTTTATAGTATTAATTGAAACTATTAGAAATATTATTCGTCCAGGTACCTTAGCTGTTCGATTAACAGCTAATATGATCGCTGGACACTTACTATTAACCCTGTTAAGAAGAACTAGAAATAATATACCCTCATATTTACTATTTATTTTAATTTTTAGTCAAATTTTACTACTAATTTTAGAATCTGCAGTAGCTATTATTCAAGCATATGTTATCTCTATTTTAAGAACCCTTTATTCTAGAGAAGTAAACTAA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ATTCCCCAAATAATACCAATTAACTGAATTTTTTCATTTGTTTTTTTTATTTGTATCTTTATTATTTTTATAGTTATAAACTACTATATCTTTAATTATAAAAATATTAACTTTAATCAAAACAAATCGTTAAAAAACATAAAAACTTTAATGTGAAAATGATAA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ATGATAAATAGTTTCAAACCTATTCGTAAAAATCACCCTATCATTAAAATTATCAATAATTCCCTAATTGATCTACCTTYACCCTCTAACATCTCTTCTTGGTGAAACTTTGGATCCCTTCTAGGATTATGTCTAACAATTCAAATTATTACGGGACTATTTCTAACAATATATTACACAGCTAATATCGAATTAGCTTTCTACAGAGTAAATTATATTTGCCGAAATGTTAACTACGGGTGGTTAATTCGAACCTTACACGCAAATGGGGCATCTTTCTTTTTTATTTGTGTTTATTTTCATATTGGACGAGGAATTTACTATGAATCATTTAACTTCAAGCACACTTGAATAGTGGGGGTAATTATTTTGTTTTTACTTATAGCTACAGCATTTATGGGATATGTCTTACCGTGGGGACAAATATCATTTTGAGGGGCAACAGTAATTACCAACCTTTTATCTGCAATTCCTTATTTAGGAATTGACCTAGTAAACTGAATTTGAGGAGGGTTTGCCGTAGACAATGCAACATTAACTCGATTTTATACCTTTCATTTTCTTTTCCCCTTTATTATTTTAGCACTAACAATAGTCCATTTATTATTTTTACATCAAACAGGATCTAATAACCCCTTAGGGATTAACAGAAATGTTGATAAAATCCCCTTTCACCCATTTTTTATTTTTAAGGATTTAATTGGATTTATAATTTTAATTTTTTTATTAACCACTCTCTCACTGACAAACCCATATTTACTGGGAGATCCAGACAATTTTATCCCAGCTAACCCACTAGTAACCCCTATTCACATTCAACCAGAATGATATTTTTTATTTGCTTACGCAATTTTACGATCTATTCCCAATAAATTAGGGGGGGTTATTGCCCTAATCACATCCATCTTAATTTTAATTATCTTACCATTCACCTTCAATAAAAAAATTCAAGGGATTCAATTCTACCCATTAAACCAAATTATATTTTGATTTTTAATTTCCATTATTATCTTATTGACGTGAATTGGGGCTCGCTCAGTAGAAATCCCATATATTTTCACGGGGCAACTATTAACTGTTTTATATTTTTCTTATTTTATTCTTAACCCCATCTTAAATAAAATCTGAGATAAATTAATCTTCAATTATTAA</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ATTTTATTTAAGCGAAAGTGATTATTTTCCACAAATCATAAAGATATTGGCACATTATATTTTATTTTTGGTATTTGAGCAGGAATAGTTGGAACATCTCTTAGTTTATTAATCCGAACTGAATTAGGTAATCCTGGATCCTTAATTGGAGATGATCAAATTTATAACACTATTGTAACAGCTCACGCTTTTATTATAATTTTCTTTATAGTTATACCCATTATAATTGGGGGATTTGGAAACTGACTAGTTCCGTTAATACTTGGAGCCCCAGATATAGCTTTTCCCCGAATAAATAATTTAAGTTTTTGATTACTTCCCCCCTCACTAATTTTATTAATTTCTAGAAGAGTTGTAGAAAATGGAGCAGGAACAGGATGAACGGTTTACCCCCCCCTTTCATCTAATATTGCCCATGGTGGCTCATCAGTCGATCTTGCTATTTTTTCCCTACACTTAGCGGGAATTTCCTCCATTTTAGGAGCTATTAATTTTATTACAACAATTATTAACATACGAATTAATAACCTATCTTTTGATCAAATACCACTATTTGTTTGAGCTGTGGGAATTACCGCTTTACTTTTGCTACTCTCTTTACCCGTATTAGCTGGAGCTATTACAATACTGCTAACAGACCGAAATATTAATACTTCATTTTTTGACCCTGCTGGTGGGGGAGACCCTATTTTATATCAACACTTGTTTTGATTTTTTGGACATCCTGAAGTTTATATTTTAATTTTACCAGGATTTGGTATAATTTCCCACATTATTTCACAAGAAAGAGGAAAAAAAGAAACTTTTGGTTGTTTGGGAATAATTTACGCTATAATAACAATTGGGCTTTTAGGGTTTATTGTGTGAGCCCACCACATATTTACAGTAGGAATGGACATCGACACACGAGCTTATTTCACATCCGCAACCATAATTATTGCGGTACCAACAGGTATTAAAATTTTTAGCTGATTAGCAACATTACATGGAACCGTAATTAACTACAGTCCATCTATGTTATGAAGATTAGGATTTATTTTTTTATTTACTGTAGGGGGATTAACAGGAGTAGTATTAGCTAATTCATCAATTGATATTACCTTACATGACACTTATTATGTTGTTGCCCATTTTCATTATGTACTATCTATAGGAGCAGTATTTGCTATTTTAGGAAGATTCATTCATTGGTATCCTTTATTTACAGGACTAACTTTAAATAACTACCTGCTAAAAATTCAATTTTTTTCCATATTTATTGGGGTAAATTTAACTTTTTTCCCTCAACATTTTTTAGGGTTAGCTGGAATACCTCGACGATATTCCGATTATCCTGATAGATTTTTATCTTGAAATATTGTATCCTCTTTTGGGTCCTATATTTCTCTATTTTCAACAATAATAATAATTATTATTGTTTGAGAGTCCATAATTAATCAACGATTAATCTTATTTTCATTAAACATACCATCATCAATTGAATGATATCAAAACTTACCTCCAGCAGAACACTCATATAATGAATTTCCTATTTTAAGCAATTTCTAA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>ATAAAGGAATATATCCTTTTTTTAGAAGTGGCAACTTGATCTAATTTAAACTACCAAAATAGAGCTTCCCCATTAATAGAACAAATTATCTTTTTTCACGATCACAGATTAGTTATTTTAATCATAATTACTATTTTAGTATCATATGTAATAATTAATTTATTTTTTAACTCTTTTATTAATCGATTTTTATTAGAAAACCAAATAATTGAATTAATTTGAACTATTTTACCAGCAATCACACTAATTTTTATCGCCATCCCCTCCCTTCGTCTACTTTATTTACTAGATGAACTTAATAACCCCCTAATTACACTAAAATCTATTGGCCACCAATGATATTGAAGTTATGAATACTCAGATTTCAGAAATATTGAATTTGACTCATACATAGCCAACCCTAATGAAAATATTAATAATTTTCGCCTATTAGATGTAGATAATCGTATTATCCTCCCTATAAACAACCAAATTCGAGTTTTAGTAACTGCTTCTGATGTAATCCACTCCTGAACCATCCCCTCATTGGGAGTTAAGGTAGATGCAAACCCAGGACGATTAAATCAAATTAGATTTTTTATTAATCGTCCTGGAATTTTTTTTGGTCAATGTTCAGAAATTTGTGGGGCAAATCACAGTTTTATACCTATTGTAATTGAGAGAATCTCAGTTAAAAATTTTATTGATTGGGTTAATAACTATT</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ATGTTAAATAAACACAATCACCCATTTCACTTAGTAGATTATAGACCATGACCCCTAACAAGAGCTATTGGTGTTATAACTTTAGTTACCGGTATGGTAAAATGATTTCATAATTTTAACATAAATTTATTAGCTTTAGGGTATATTATCATCATTTTAACAATATACCAATGATGACGAGATGTTTATCGTGAGGGAACATTTCAAGGCAAACACACAATCCTAGTTTGTAAAGGATTACGATGAGGAATAATTTTATTTATTATCTCTGAAATTTTTTTTTTTATTTCATTTTTCTGAGCTTTTTTTCATAGAAGTTTATCCCCTAACATTGAAATAGGAATAATATGACCCCCTATAAGAATCACCCCATTTAACCCCTTCCAAATTCCCCTATTAAATACAATTATTCTAATTACATCAGGTATTACAGTAACTTGAGCACATCACGCCTTAATGGAAAATAATTTCACCCAAACTTTACAAGGTTTATTTATCACTATCAGCTTAGGAATTTATTTTTCAATTCTTCAAGGTTATGAATACCTTGAAGCATCATTTTCTATTGCAGATAGAGTTTACGGATCCACATTTTTCATAGCAACAGGATTCCACGGGTTGCATGTTATTATCGGAACAATTTTTCTCCTTACATGTTTTATCCGACACTTAAATAACCATTTCTCTAAGACTCACCATTTCGGATTTGAGGCAGCTGCATGATATTGACACTTTGTAGATGTAGTGTGATTATTTCTTTATGTCTCAATTTACTGATGGGGAAACTAA</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ATGGTATTTATGGATTTAATTAACGTTATAATTGGTTTATTAGTTTTAATTATTGGGGTGTTAGTTGGTGTAGCTTTTTTAACTTTGATGGAGCGTAAGGTTTTGGGTTATATTCAAATTCGAAAGGGTCCAAATAAGATAGGATATATGGGGGTTTTACAACCTTTTAGCGATGCTATTAAACTATTTTCTAAGGAGCAAGTTTACTTAAATTATTCTAATTATTTAGTTTATTATTTTTCTCCCGTTATGAGATTTACCTTATCGTTAATGGTGTGGGTTTTAATACCCTATGTGTTTAATATGGTTGTATTTAATTTAGGTTTATTATTTTTTTTGTGTTGTACTAGAATAGGGGTTTATACTGTTATAATTGCTGGATGGTCTTCTAATTCAAATTATTCATTGTTAGGTGGTTTACGGGCAGTTGCTCAAACAATTTCCTATGAGGTTAGTCTTTCTTTAATTTTAATATCTAGAATTATTATAATTATAGATTTTAATTTAATTAAGTTTTATGATTATCAATTTATAGTTTGGTTTATCTTTATGATGTTGCCTTTAGGGTTGTGTTTTTTATCTTCTTTAATAGCTGAAACTAATCGTACTCCCTTTGATTTTGCTGAGGGGGAGAGAGAGTTAGTGTCCGGGTTTAATGTAGAGTATGGGGGAGGTGGATTTGCTCTAATTTTTTTAGCGGAATATTCTAGAATTTTATTTATGAGATTGTTATTTATTATTGTTTATATAGGGGGGTATTATTTTAATTTATTATTTTATTTAAAGTTGGTTTTTTTATCTTTTTTATTTGTTTGAATTCGAGGTACTTTGCCTCGTTATCGTTACGATAAGTTGATGTATTTGTGTTGAAAAAGATATTTACCTATTTCATTAAATTATATTTTGTTTTACATAGGGTTAAAAATAATTTTAAATTATTAA</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ATTTTATTTTTAACCAACTCTAATAAAATATTTTTTATATTTATCTTATGTTTTAGTACCTTAATTTCTATTTCCTCTAATTYTTGGTTGGGTTGTTGAATTGGCTTAGAAATCAATTTATTAAGATTTATCCCCCTAATTTCAAATTCAAATAACCTGCTCAATACAGAGGCATCCTTAAAATATTTTTTAACTCAATCAATTGCATCGATCAATTTTTTATTTACCATTTTATTAAGTATACTATTTTTTAAAAATTTTTTTATAGATAATTTAATTTCCATTCTTATTAATTCCTCCTTATTAATAAAAATAGGATCTTTACCCTTTCATTTCTGATTCCCCAATGTTATGGAAGGATTATCTTGAATAAATTGCATTATTTTAATAACATGACAAAAAATTACCCCCATAATTTTAATTTCATATTATTTTAATATTAATTTTTTATTTATTGCAATAATTTTAAATGTGTTAGTTGGTACAATTGGAAGTTTTAATCAAATTTCTTTACGTAAATTAATAGCATTTTCCTCTATTAATAATTTAGGGTGAATGTTATTAGCTTTAACAATTAGAGAAAATTTATGATTTATTTATTTTTTCTTATATTCATTTTTTATTTCCTTTTTATGTTTCTTATTTTATATTATAAACATTTTTTATGTTAATCAATTATTTAATTTTAATTTAAGATTTTCAGTTAAAATTTTTATTATAATTAATTTCCTTTCTTTAGGGGGATTACCCCCATTTTTAGGATTTTTTCCTAAATGACTAATTATTAATTACCTTTTAATCAATAATTTATTTATTATTACTTTCATTTTTATAATAACAAGTTTAGTTATGTTATTTGTTTACATACGAATTATTTACTCATCGCTAATAATTTTTTCAATTAAATTAAAATGATTTAAAATCTTAATTAAAAATAATTACCTAACTACTATTAATTTTTTTAGACTTATCTCTCTATTAGGAATAATTATTAGAACTTTATTTTTTATTTAA</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>ATTATATTATTTTACACATCTTTTATTATAATTTTAATTTCTTGTCTTTTTATAATTATTTCTTTCCTCATCTCAAAAAAATCATTACTCGACCGAGAAAAATGTTCCACATTTGAATGTGGATTTGACCCTAAATGTTTAGCCCGTATTCCTTTTTCTTTACACTTTTTCTTAATCACTATAATTTTTTTAATTTTTGACGTAGAAATTGCTTTAATTTTTCCCATTATCCCTAATTTTCTTTTAGTTAATTTTATAATTTGATACAAAATTAGTTTTTTCTTTATTATTATTCTCTTAATCGGACTTTATCATGAATGAAACCAAAACATATTAAATTGATCCAATTAG</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ATGGTAAAATTTTTATTTATAATACTATTTATAATTCCTTTGTGTTTTAAAAAAAATATGTTTTGATTGGTTCAAATTATTATAATATTTATGTTTTTTATGTTTATGAATTTGACTTTAAGAGTTATAAATTTTTCTAATTTGAGATATATGTTTGGGTGTGATATAATTTCTTATGGTTTAATTTTGTTGAGAGTTTGAATTAGATTTTTAATAATCATGGCTAGAGAGAGTTTACTAAAAACAAATTTCTATCATGGTTTTTTTTTAGTTAATGTTCTTATTTTGTTAGTCATATTATACTTAACTTTTAGAGTGATAAATTTATTTATATTTTATTTGTTTTTTGAGGCTAGATTAATCCCAACCTTAATGTTAATTATTGGGTGGGGGTATCAACCTGAGCGAATTCAAGCTGGTACATACCTTTTATTTTACACTCTTTTTGCTTCTTTACCCCTTTTAATGGGTATTTTTTTTATTTATGGGAAATTAAACTTTATAACGATTTATTTTTTAAAGTTTTATGATTTTAATATGGTTATATTATATGTGGTAATAATTATAGCTTTTTTGGTAAAAATACCCATGTATTTTGTGCATTTATGACTCCCCAAAGCTCATGTTGAGGCCCCTATTTCGGGTTCTATAATTTTAGCTGCGATTATGTTAAAATTAGGGGGGTATGGTTTATTKCGGATTTTAATTATTTTGCAAAAAGTTAATATAAAAATAGGAATTATTTGAATCATTATTAGTTTAATTGGGGGGTTTTATATTAGATTGAAGTGTTTTTGTCAGGTTGACATAAAATCTTTAATTGCCTATTCATCAGTAGCCCACATAAGAATTGTTATTGGGGGGATTATAACCATGAATTATTGGGGGTTTGTGGGAGCCTATGTTTTAATGATTGGACATGGGTTATGTTCATCTGGAATATTTTGTTTGTCTAATATTATGTATGAGCGCTTAAGAAGACGAAGATTGTTTTTAAACAAGGGTCTTATAAATTTTATACCTTCGATAAGAATGTGGTGGTTTTTATTTTTATCTTCTAATATAGCTGCCCCCCCATCTTTAAATTTAATGGGGGAAATTAGCTTAATTAATAGACTTATTAGCTGGTCATGGCTAAGAATATTAATGTTAATGTTAATCTCATTTTTTAGAGCGGGTTATAGATTATATTTGTACTCTATTACCCAACACGGAAAGTTTAACTTAAGAATATATAGATTTTATAACGGGGTGTCACGAGAGTATTTAATGTTGATGTTACATTGATTGCCTTTAAATATTATAATTATAAAGATTGATTATAGAATAATTTGATTTT</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>ATGATAATAAATTTAGTAATTATTTTAATTATATATTTATTAGGCAATATGATTTTTGTTTCGAAGCATAAACATTTATTGATTGTTTTATTAAGATTGGAATTTATTGTTTTAAGAGTTTTTTTTTTGATAATGATATATTTAGTAATAATTAATAATAGTTTATATATGTTAATAGTTTTTTTAGTGTTTTCTGTATGTGAGGGTGCTTTAGGGTTATCTATTTTAGTCTCAATAATTCGAACTCACGGTAATGATTATTTTTATAGATATAATTTAATTTAA</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>ATTATCTATAAATATTCTTTTTGTTTTATTAGTTTTTTTTTTTTATTTTTTTTTATGTTAATTAATTTTTTTACAATAATTTATTTTATTATGGTGAATATTAGATTTTTTATTGAGTGGGAGATTATTTCTTTTAATTCAATAAATATTGTCATATCTATTTTGTTGGATTGGATATCTTTGTTGTTTATAATATTTGTTTCACTAATTTCGTCTTCAGTTATTTATTATAGAAGTAGTTACATATCTTCTGAATTAAACCTAAATCGTTTTGTTATTTTAGTGTTGTTATTTGTTTTTTCTATAATTTTGTTAATTATTAGACCTAATATAATTAGTATTTTTTTAGGGTGAGATGGGTTAGGTTTAGTTTCTTATTGTTTAATTATTTTTTATCAAAATATTAAATCATATAATGCTGGAATATTAACGGCTTTGTCAAATCGTATTGGGGATGTTATAATTTTAATATTAATTTCTTGAATAATAAATTATGGTAGATGAAATTATATTTTTTATTTGGATTTTATAAATAATGATTTTTGTATACGAATTGTGGGGTTGTTGGTAATTTTGGCTGCTATAACTAAAAGAGCTCAGATTCCCTTTAGTTCATGATTACCTGCTGCTATAGCAGCACCTACCCCAGTTTCAGCTTTAGTTCACTCTTCTACTTTAGTTACTGCTGGGGTTTATTTATTGATTCGATTTAATGTGTTGTTAGTTGATATAATTTTTTTTAAAATATTGTTATTAATTTCTGGGTTGACAATATTTATAGCGGGGGTTTGTGCAAATTATGAATATGATTTAAAAAAAATTATTGCTCTTTCTACTTTAAGACAGTTAGGTCTAATAATGAGAATTTTGAGAATAGGGTTTAGAGATGTGGCTTTTTTTCATTTACTAACCCATGCTATATTTAAGGCTTTATTGTTTATATGTGCTGGGGTTATTATTCACATAATGGGTGATAATCAAGATGTTCGGGTTATGGGGGGAGTTGCTTTTTACATTCCTTTAACTTCTTTGTGTATGAATATTTCTAATTTAGCTTTGTGTGGGATTCCCTTTTTAGCTGGATTTTATTCAAAGGATTTGATTTTAGAGATAGTTAGTATGGGAAATTTAAATTTATTAGTTTTTTATTTATATTATTTTTCTACGGGACTAACCATATTTTATACTATTCGTTTATTGATATATTTAATAATTAATGATTTTAATTTGTTAAGTTTATATAATTTATATGAGGAAGATTATACTATATTAAAGAGTATGTTTATGTTACTATTTATAAGATTAATTTCAGGTAGATTTTTGAGATGATTGATATTTTCTTATCCCCATATAATTTATTTACCTTTTAATATAAAAATGATAGTTATTTATGTTACCTTAATAGGATTATTAATGGGGTATTTAGTTAGAAATATGGGAATTTTTTCTTTAAATAAGTTTTTATTAACTTATAATTTAAGTATATTTTTAACTTTAATGTGATTTATACCTAGTTTGTCGACTTATGGGTTTAATTATAAATTTTTAAGATTTAGAAAAAAATTAATGAAAAATATTGATTTAGGGTGAAGAGAGATTTTTGAGAGTTGGGGAATACATAAGATTATTAAAAATTATTCTGTTATTAATTATGTTTATCAATTAAATAACTTTAAGGTTTATATGTTTAGTTTTGTTTTATGGGTGTTTATTTTTATTTTTATGTTTATATTGT</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>ATAATAAAAATATTCTTATCTATAACTTTAATTTCTATTTCTATCTTTATATTTTTTTTAAGTCATCCATTCTCCATAGGATTAATAATCTTAACTCAAACCCTTCTTTTATCACTAATCTCAAGAATAATAATTAATACCTATTGATTTTCCTATATTTTATTTTTAATTTTTTTGGGGGGGTTATTAGTTTTATTTATTTATGTTTCAAGAATTGCCTCTAATGAATTGTTTAAAATTTCTATTTTTAACAAAAGATTTTTTTTTATGTTTTTTTTTATTGTGGTAAGAAGATACACACTAAAAAACAATCTCTTACAAAGAAACCACCTTTTTAATGATGAAATATTAAATTTTTTTAATCTATTCTTATTTTTCAATAATGAGTTTAATACTAACTTATCTAAACTTTACAATGAACAAACCTATTTACTAACAATAATTATAATTATTTACTTATTTATCAYCCTTATCGCAGCGGTAAAAATTACAAATATTTTTTTTGGTCCTTTACGATCTTGCGAATAA</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>GGGGGTTAAATTAATAATTAAGATTATAATAAAAAAATTTTTATAAAATACATATAATGGGGGTTAAAGTATTTTTAATAGAAAAAATAAAAAATTTTATAGTTAATTAGTATTGTGAAAGAAGTTTTAAATAAGTAAAAATTTATTCGGGGGAAAGTAAATTTTATTTGTTGTATCTTGTGTATCAGAGTTTATTAATAAAAAATTTTTAAGTAGAAAATTCTCGAATTTAAAAGAGTTAATTAATTAATAAAGTTAATGTTGTATAATTATTTTAAATAATTAATTAGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTTTTTTAGAAAAAGGTTTAATTTTGAATTAAAATAATTTTATAGTTAATTGGTTAATTATAAGAATTTGAAATTTAATATTTTAGGGGATAAGCTTTGAATTAAATAATTATAATAATTAATTTTTAATTAAAATTTTTAAAATTTATATTGTTTAAAAATTTTAATTTATTATAAAAAATTTTAATTAAAATAAAATTTAAGATAAAATTTAAATTTTTATAAAAAAATTATTTATAACGGTAAAAAATTAGCAATAATGATAAAATTAGTATAATAAAATGTTTAATGGCATTAATTTAATAAGAATTAAAACAAAGGAATTCGGCAAAACTTTATATTCACTTGTTTATCAAAAACATGTCTTTTTGGTGGATAATTTAAAGTCTAATCTGCCCACTGATAAAAATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCATTAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAAATATAAACTGTCTCTATTTTAAAAATAAAATTTAATATTTTAGTTAAAAAGCTAAAATAAAATTAAAAGACGAGAAGACCCTATAGAGTTTTATATTTTATTATAATTAAATTAAATATAAAATTAACTATTTAAATATGATAAAATATTTTATTGGGGTGATAAAAAAATTAAATTAACTTTTTTTAAAGTTTAACATAAATAAGTGAGTTAGTGATCCATAAGTTATGATTATAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTGCGCATAAAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAAGTTAAATGCAAAAGTTTAAATTTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTGAGCCAGGTTGGTTTCTATCTTTAATGAATTGTAGTATTTTAGTACGAAAGGATCAAATATTAGAAATAATTTTAAATATTAGAATATTATTAACAATTATTTA</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>CAGTAAATAAATAAATTATATTTTGTGAATTTTATTATAAATTTATTTTACATATAAATTTTAGTATATAATTTCAATTATTTAAATAATAATTAATTAAATTAAGTAGTAATTAATATTAAAAATTTAAGAAATTAAGATTTAGTAATATTAAAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTATACAAAAATTAAATTAAATTATTTCAGTTTATAATAAATAATTTTATTTTAGGGTAAATGTTAAATTATTAAGTGAAATTTTAATTTAAATAAATTTTATTTTTAAATTATGATTTAGTAAATTTTAATATAAACTAGGATTAGATACCCTACTATTAAGAAACTAAGTTGTAATACTAAAATAGTAAATAATTATTTATTGAAACTTGAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACGAATAAATTTACTTAATTTAGTATTTTGTATATCATTGTTAAAAAAATATTTTTAAATAAAAACAATATTTAAATTTTTAAATAAAAATTTAATTCAGATCAAGATGCAGATTATAGTTAAGAATATGATGGATTACATTAAATATATTTAAATGGATAGTATTGTTGTAAAATATATTTAAAAGTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTAAAAATTAAAGTATGTACATATTGCCCGTCACTTTCATTTAAAAATTGAAATAAGTCGTAACAAAGTAGGCGTACTGGAAAGTGTGTCTAGAAAGAG</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>AGGATTATAGTTTAAATAAAAAACATTTGATTTGCACTCAAAAAATATTGTATAATCAATTTATCTTA</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>AGCCTTATATTCAATAATGATGTAAAATTGCAAATTTTATGGTGTATTTAATACTAAGGCTT</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>AAAGAATTAGTTAACACAAATAACGTAAATATGTCAAATTTAAATTATTACCCTAGTAATATTCTTTT</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>ATTTATATAGTTTAAAAAACATTACACTTTCACTGTAAAATTAAAGAAATTTCTTTTATAAATT</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>ATTTAAATAGCTTAATTAAGAGTGTAATATTGAAGATATTAAGGTGATTGATAAATCTTTAAATA</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>ACTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATAATTTTAATATAAGTA</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>ATTTAAATAATTTAAAAAAAATATTGATTTGTGGAGTCAAAAATATGGGTAATTCATTTTAAATT</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>AATAAAGTGCCTGATTAAAAGGATTATTCTGATAGGATAAATAATGTAAATTTTTACCTTTATTA</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>CATTAGATGTCTGAAAGCAAGAAATGGTCTCTTAAACCATCCTATAGTAAGTTAGCAACTACTTTTAATGA</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>ACTATTTTGGCAGATAATTGTGGTGGTTTTAGAAGTCATTTATGTATATAAATATATTATATATGGATAGTA</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>TCTAATATGACAGATTATATGTAATGGATTTAAGCCCCATTTATAAAGGAATATATCCTTTTTTTAGAA</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>TTAAAGATAAGCTAAGTTAAGCTTTTGGGCTCATATCCCAAATATAGAGGAAATCCTTTTTTTTGAA</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>TTAATTGAAACCAAAGTAGAGGTATATCACTGTTAATGATAAAAATGAATAATGTTCCAATTAGA</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>CAAAGAATAGTTTATAAAAATAATAATTTTGGAGATTATAGATAAAGAGTTTCTTTTTCTTTGA</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>TATATTTTGATGTAAGATGCATAGTAATTTTTGAAATTACAAGATATAGTTTGACTCTGTAAAATATAA</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>AAATAAGAAGCAAATTTGCATTTAATTTCGACTTAAAAGATAGAATAATAATATTCCTTATTTA</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>GAAATATACATAATTAGGCTGCTAACTTAATTAATAGTGATTTATTTCATTAATATTTCT</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>AATTAATGAGCTTGTAATAAGCATTTGTTTTGAAAACTTAAGAAAGAGTAATAATTCTATTAATTT</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>GTTTTTATAGTTTAAAAAAAACATTGGTTTTGTAAGCCAAAAATAAGAATATTTTTTAAAAACT</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>CAAATTAGAGCTTGTACATAAAGTGTTTCACTTACATTGAAAAGAAATTAAAGTGTTAATTAATTTGA</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>AAGGTTTTAAGTTAAATTAAACTAATAGTCTTCAAAATTATTTATAAAGAAATTCTCTTTAAGCCTTA</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>AATAAAATGGCTGAGATATAAGCGATAAATTGTAAATTTATTAACGAGAAATGATCTCTTTTATTA</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>&gt;16LW03012_17_Dilipa_fenestra</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_4016-4693_+_atp6</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_3864-4022_+_atp8</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_10394-11545_+_cob</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_1450-2988_+_cox1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_3007-3691_+_cox2</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_4693-5481_+_cox3</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_11628-12566_-_nad1</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_248-1261_+_nad2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_5551-5904_+_nad3</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_8091-9426_-_nad4</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_9426-9710_-_nad4l</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_6269-7996_-_nad5</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_9878-10384_+_nad6</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_12658-13945_-_rrnL</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_14043-14816_-_rrnS</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_5903-5969_+_trnA(tgc)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_1320-1382_-_trnC(gca)</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_3798-3863_+_trnD(gtc)</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_6160-6224_+_trnE(ttc)</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_6223-6288_-_trnF(gaa)</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_5484-5550_+_trnG(tcc)</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_8021-8087_-_trnH(gtg)</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_68-131_+_trnI(gat)</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_3728-3798_+_trnK(ctt)</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_12568-12640_-_trnL1(tag)</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_2984-3051_+_trnL2(taa)</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_1-67_+_trnM(cat)</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_6033-6098_+_trnN(gtt)</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_9791-9854_-_trnP(tgg)</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_129-197_-_trnQ(ttg)</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_5969-6031_+_trnR(tcg)</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_6097-6157_+_trnS1(gct)</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_11544-11610_+_trnS2(tga)</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_9727-9790_+_trnT(tgt)</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_13978-14042_-_trnV(tac)</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_1260-1327_+_trnW(tca)</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>&gt;Apaturinae_sp17_1383-1447_-_trnY(gta)</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ATGATAAATAATTTATTTTCAATTTTTGATCCTACAACCAATTTATTTAACATTTCTCTTAATTGAATAAGAACATTAATTGGAATGATATTTATCCCATACTCTTTTTGATTTATCCCTAATCGACATTTTATATTATGAAACTTTATCTCAAATAAATTACATAATGAATTTAAAACATTATTAGGAACTAATAGATATAATGGATCAACATTTATTTTTATTTCATTATTTTTCTTTGTATTTTTTAATAATTTCTTAGGATTATTTCCTTATATCTTCACAAGCACAAGACATCTTAATATTTCACTAACATTATCCCTAACATTATGATTAAGATTTATAATTTATGGATGAATTAATAATACTCAACATATATTTATTCATATAATTCCCCAAGGAACTCCCACTATCTTAATACCTTTTATAGTATTAATTGAAACAATTAGAAATATTATTCGACCTGGAACTTTAGCTGTACGATTAACAGCTAATATAATTGCAGGTCATTTATTATTAACATTATTAAGAAATACAGGAAATAACTTATCATCTTATTTATTAATTATTTTAATTTTTAGTCAAATTTTATTATTAATTTTAGAATCAGCAGTAAGAATTATTCAAGCTTATGTAATTTCGATTCTAAGAACTCTTTATTCTAGAGAAACAAATTAA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ATCCCTCAAATAATACCAATTAATTGAATTTTTTTCTTTTTTTTTTTTATTATTGTATTTATTTTTTTTATAAGTATAAATTATTTTATTTTTAATTATAAACCAAATAAAAGTATTAATAAAAATATTAAAAATAATATTATAAACTGAAAATGATAA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ATGTTAAATATATTTAAACCAATTCGAAAATCTCATCCCGTTATTAAAATTATTAATAATGCCTTAATTGACTTACCTTCCCCATCCAACATTTCTTCATGATGAAATTTTGGATCTCTTCTTGGTTTATGCCTAATAACCCAAATTTTAACAGGGTTATTCTTAACCATATATTATACAGCTAATATTGAATTAGCTTTTTATAGTGTAAATTATATTTGCCGAAATGTTAATTATGGTTGACTAATTCGTACTTTACATGCTAATGGAGCATCTTTTTTTTTTATTTGTATTTATTTTCATATTGGCCGAGGAATTTATTATGAATCTTTTAATTTTAAATATACATGAATTATTGGTATTATTATTTTATTTTTATTAATAGCAACAGCATTTATAGGTTATGTTTTACCTTGAGGTCAAATATCTTTTTGAGGAGCAACAGTAATTACAAATTTACTCTCAGCAATTCCTTATTTAGGTAATATATTAGTAAATTGAATTTGAGGGGGATTTGCTGTAGATAATGCAACCTTAACTCGATTTTATACTTTTCATTTCTTATTTCCTTTTATTATCTTAATATTAACTATAATTCACTTATTATTTTTACACCAAACAGGATCTAATAACCCATTAGGAATTAATAGTAATATAGATAAAATCCCATTTCATCCATTTTTTGTATTTAAAGACTTAATTGGATTTATTATTCTAATTTTTTTATTAACTATATTAACCTTAATTAATCCTTATTTATTAGGTGATCCAGATAATTTTATTCCAGCTAATCCTCTAGTTACCCCAATTCATATCCAACCAGAATGATATTTCCTATTCGCTTATGCAATTTTACGATCTATTCCAAATAAACTAGGAGGAGTAATTGCTTTAGTTATATCTATTTTAATTTTAATTATTTTACCATTTACTTTTAATAAAAAAATTCAAGGAATTCAATTCTATCCTATTAATCAAATTTTATTTTGATCTATAATTTCAATTATTATTTTATTAACTTGAATTGGAGCACGATCAGTAGAAATTCCTTATATTTTAACAGGACAACTATTAACTGTATTTTATTTTTCTTATTTTATTTTAAACCCTATTATAAATAAATTTTGAGATAAACTAATTTTTAATTTTTAA</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ATGCGAAAATGACTTTTTTCTACAAATCATAAAGATATTGGTACATTATATTTTATTTTTGGAATTTGAGCAGGAATAGTAGGAACTTCTCTTAGTTTATTAATTCGAACTGAATTAGGTAACCCAGGTTCTTTAATTGGAGATGATCAAATTTATAATACTATTGTTACAGCACATGCTTTTATCATAATTTTTTTTATAGTTATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTACCATTAATATTAGGAGCTCCTGATATAGCTTTTCCACGAATAAATAACATAAGATTTTGATTATTACCCCCCTCATTAATTCTCTTAATTTCTAGAAGAATTGTAGAAAATGGAGCAGGAACAGGATGAACCGTTTATCCCCCTCTTTCATCTAATATTGCTCATAGTGGTTCTTCTGTAGATTTAGCTATTTTCTCTCTACATTTAGCTGGTATTTCTTCTATTTTAGGAGCAATTAATTTTATTACTACAATTATTAATATACGAATTAATAATTTATCCTTTGATCAAATACCTTTATTTGTTTGAGCTGTAGGAATTACAGCATTATTGTTATTACTATCTTTACCTGTATTAGCAGGAGCTATTACAATATTACTTACTGACCGAAATATTAATACTTCATTCTTTGATCCAGCTGGGGGAGGAGATCCTATTTTATATCAACATTTATTTTGATTTTTTGGTCATCCTGAAGTCTACATTTTAATTTTACCAGGATTTGGTATAATTTCACATATTATTTCTCAAGAAAGAGGTAAAAAAGAAACTTTTGGTTGTTTAGGTATAATTTATGCTATAATAGCAATTGGATTATTAGGATTTATTGTATGAGCACATCATATATTTACTGTTGGAATAGATATTGATACACGAGCTTATTTCACATCAGCAACTATAATTATTGCTGTTCCTACAGGAATTAAAATTTTTAGATGATTAGCAACTTTACATGGAACCCAAATTAATTATAGCCCTTCAATATTATGAAGATTAGGGTTTATTTTTTTATTCACAGTAGGAGGATTAACTGGAGTAGTATTAGCTAATTCATCAATTGATATTACCTTACATGATACTTATTATGTGGTAGCTCATTTTCACTACGTTTTATCAATAGGAGCCGTATTTGCTATTTTAGGGGGATTTATTCATTGATATCCATTATTTACCGGATTAACTTTAAATAATTATCTTTTAAAAATTCAATTTATTTCAATATTTTTAGGAGTTAATTTAACTTTTTTCCCTCAACATTTTTTAGGATTAGCTGGGATACCACGACGTTATTCAGATTATCCAGATAGATTTGTATCTTGAAATATTATTTCATCTTTTGGATCTTATATTTCTTTGTTATCTATAATAATAATTATTATTATTATTTGAGAATCTATAATTAATCAACGAATTATCATTTTCTCATTAAACATGCCATCATCTATTGAATGATATCAAAATTTACCTCCCGCAGAACATTCATATAATGAACTCCCTATTTTAAGTAACTTCTAA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>ATGGCAACATGATCTAATTTAAATTATCAAAACAGAGCATCCCCACTTATAGAACAAATTATCTTTTTTCATGATCATACATTAATTATTTTAATTATAATTACTATTTTAGTATTATATTTAATATTAAATTTATTTTTTAATTCTTATATTAATCGATTTTTATTAGAAAATCAAATAATTGAATTAATTTGAACTATCTTACCAGCTATTACTTTAATTTTTATTGCTTTACCATCTCTTCGTTTATTATATCTTTTAGATGAATTAAACAAACCTTTAATTACATTAAAATCTATCGGACATCAATGATATTGAACTTATGAATACTCTGACTTTAATAATATTGAATTTGATTCTTATATAATTAATTCAAATGATAATAACAATAATTTCCGTCTTTTAGATGTTGATAATCGAATTATCTTACCCATAAATAATCAAATTCGAATTTTAATTACAGCTACTGATGTGATTCACTCCTGAACTGTTCCTTCTTTAGGAATTAAAGTAGATGCTAATCCTGGTCGATTAAATCAAACAAGATTTTTTATTAACCGACCAGGAATTTTCTTTGGACAATGTTCAGAAATTTGTGGAGCCAATCATAGATTTATACCTATTGTAATTGAAAGAATTTCTATTAAAAATTTCATTAATTGAATTAATAACTACT</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>ATGACAATAAACCATAACCATCCATTTCATTTAGTTGATTATAGACCTTGACCTTTAACTGGAGCTATCGGAGTTATAACCTTAGTTACCGGTATAGTAAAATGATTTCATAATTTTAATATAAATTTATTAATTTTAGGGTATATTATTATTTTAATAACTATATATCAATGATGACGAGATATTTGCCGTGAAGGAACTTTCCAAGGTAAACATACAATTTTAGTCTCAAAAGGATTACGATGAGGAATAATTTTATTTATTGTTTCTGAAATTTTTTTTTTCATTTCTTTTTTTTGAGCTTTTTTTCACAGAAGATTATCCCCTAATATTGAAATCGGAGCTATATGACCACCTATAAGAATTATTCCATTTAACCCATTTCAAATCCCATTACTTAATACCATTATTTTAATTACTTCAGGAATTACTGTTACATGAGCTCATCATGCCCTTATAGAAAATAACTATACTCAAATAACTCAAAGATTATTTATTACTATTACCCTAGGAATTTATTTCTCTATTCTCCAAGCATATGAATACTTAGAAGCACCATTTTCTATTGCAGATAGTGTTTATGGATCCACATTTTTTATAGCAACAGGATTTCATGGATTACATGTTATTATTGGTACAATTTTTTTATTAACTTGTTTTATTCGCCACTTAAATAATCATTTCTCTAAAACTCATCATTTTGGATTTGAAGCAGCTGCATGATATTGACACTTTGTTGATGTAGTATGATTATTCCTTTATATTTCAATTTATTGATGGGGAAATTAA</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ATGTTAAATATAGATTACTTAAATATTATAATTGGGATATTAGTTTTAATTATTGGTGTAATAATTGGTGTGGCTTTCTTAACCTTATTAGAGCGAAAAGTTTTAGGTTATATTCAAATTCGAAAAGGTCCAAATAAAATAGGATATATGGGAATTTTACAACCTTTTTGTGATGCTATTAAGTTATTTTCTAAAGAACAAGTTTATTTAAATTATTCTAATTATTTGATTTACTATTTTTCTCCTATTTTAAGTTTTATATTATCTTTAATAGTATGAATATTAATTCCTTATATGTTTAATATATTTATGTTTAATTTAGGGTTAATATTTTTTTTATGTTGTACTAGAATAGGTGTTTATACGGTAATAATTGCTGGTTGATCTTCTAATTCAAATTATTCATTACTGGGTGGATTACGTTCTGTAGCTCAAACTATTTCTTATGAGGTTAGTCTTTCTTTAATTTTAATATCTAGAATTATTATAATTATGGATTTAAATTTAATGAAATTTTTTGATTATCAAATTTTAATTTGATTTATTTTTTTAATATTACCTTTAAGATTAATTTTTTTGTCTTCATTAATAGCTGAAACTAATCGAACTCCTTTTGATTTTGCTGAAGGTGAGAGAGAATTAGTTTCTGGGTTTAATGTTGAATATAGAAGAGGGGGATTTGCTTTAATTTTTTTAGCTGAATATTCAAGAATTTTATTTATAAGAATATTATTTGTTATTATATATATAGGTGGGTATTATTTAAATTTAATATTTTATTTTAAATTAGTATTTTTATCTTTTTTTTTTATTTGAGTTCGAGGGACTTTACCCCGATATCGTTATGATAAGTTGATATATTTATGTTGAAAAAGTTATTTACCTATTTCTTTAAATTATATTTTATTTTTTTTAGGTTTAAAGATACTTTTAAATTAA</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ATTTTATTTATAATAAATTCTAATAAAATATTTTTTATATTCATTTTATGTTTTAGATCATTAATTTCTATTTCCTCAAACTCATGATTAGGGTGTTGAATTGGTTTAGAAATTAATTTATTAAGATTTATCCCCCTAATCTCAACCCCCAATAATTTATTAAACTCAGAAGCTTCATTAAAATATTTTTTAACCCAATCTATTGCCTCAATTAATTTTTTATTTTCTATTTTATTAAGAATATTAATTATAAAAAACTTTATTTTTAATAACTTAATCTCTATTCTTATTAATTCATCAATATTAATAAAAATAGGATCAGTACCCTTTCATTTTTGATTCCCCAATATTATAGAAGGATTATCCTGATTAAATTGTTTTATTTTAATAACTTGACAAAAAATTACCCCCATAATTTTATTATCATATTATTTAAATTCAAATTTTTTAATTTTTATAATAATCCTTAATGTAATAATTGGAACTATCGGAAGATTTAATCAAACTTCATTACGAAAAATAATAGCATTCTCCTCAATCAATAATCTAGGATGAATATTATCTGCTTTAATAATCAGAGAAAATTTATTTTTAATTTATTTTTTATTTTATTCATTTCTTATTTCCTTTTTATGTTTTATATTTTATATTATAAATATTTTTTATATTAATCAATTATTTAATATTAATTTAAATCTTTCAATTAAATTATCTATTATAATTAATTTTTTATCTTTAGGAGGTTTACCTCCATTTTTGGGATTTTTCCCCAAATGAATAATCATTAACTATTTATTAATAAATAATTTATTTATTATTACTTTTATTTTTATAATAACAAGATTAATTATATTATTTGTCTATATTCGAATTATCTATTCATTTTTAATATTTTTTTCTATTAAATTAAAATGATTTAAAATTTTCATTAAAAATAACTATTTATTTGTTATTAATTTTTTTAGATTTATTTCTCTATTAGGAATAATTATTAGAACTTTTTTTTTTATTTAA</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ATTATTATATTAATTATCATATCTTTAATTATAATCTTAATCTCAACTATCTTAATAACAATTTCATTTATTATCTCAAAAAAATCAATACTTGATCGAGAAAAATGTTCACCTTTTGAATGTGGGTTTGACCCAAAATCATTAGCTCGAATTCCATTTTCTTTACATTTTTTTTTAATTACTATAATTTTTCTTATTTTTGATGTAGAAATTGCATTAATCTTCCCAATTATTCCTAGATTTATAATAGTTAATTTTTTTATTTGATACAAAATAAGATTTTTTTTCATTATTATTCTTTTAATCGGATTATACCACGAATGAAATGAAAATATACTTAACTGAAGAAATTAG</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ATGTTAAAATTTTTAATAATAATATTTTTTATAATTCCTTTATGTTTTAAAAAAAAAATGTTTTGATTGGTTCAAATAATAATAATAATAATATTTTTTATGTTTATAAGTTTAACTTTAAATATTATAAATTTTTCTAATTTAAGATATATAATAGGTTGTGATATTATTTCTTATGGTTTAATTTTATTAAGAATTTGAATTAGATTTTTAATAATTATAGCAAGAGAAAATTTAATAAAAATAGATTTTTATTCTAATTTTTTTTTAATAAATATTATTTTATTGTTAATTATATTATATTTAACTTTTAGAACTTTAAATTTATTTATATTTTATTTATTTTTTGAGGGGAGATTAATTCCTACATTAATATTGATTATTGGGTGAGGATATCAACCAGAACGTATTCAATCTGGAATATATCTTTTATTTTATACATTATTTGTTTCTTTACCTTTATTATTAGGAATTTTTTATATTTATAATAAAATAAATTATATGGTAATTTATTTTTTAAAATTTTATGATTATAATATATTTATATTATATTTAAGAATAGTTATGGCTTTTTTAGTTAAAATACCTATATATTTTGTTCATTTATGACTTCCAAAAGCTCATGTTGAAGCTCCAATTTCAGGATCTATGATTTTAGCTGCGATTATATTAAAATTAGGAGGGTATGGTTTATTACGAATTTTAGTTTTTTTACAAAAAATTAATATGAAGATAGGGTTTATTTGAATTATTATTAGATTAATTGGTGGTTTTTATATTAGATTAAAATGTTTTTGCCAAGTTGATATAAAATCTTTAATTGCTTATTCATCAGTTGCACATATAAGACTTGTAATTGGGGGAATTATAACTATAAACTATTGGGGGTTTATAGGTGCTTATGTTTTAATGATTGGTCATGGTTTGTGTTCTTCAGGTATGTTTTGTTTATCAAATATTATATATGAACGGATTCATAGACGAAGATTATTTTTAAGAAAGGGAATAATAAATTTTATACCTTCAATAAGATTATGGTGATTTTTATTTTTATCTTCGAATATGGCAGCACCCCCCTCTTTAAATTTAGTGGGTGAAATTAGATTAATTAATAGTTTAATTAGATGATCTTGAATAAGAATGTTAATATTAATAATAATTTCATTTTTTAGAGCTGGCTATAGATTATATTTATATTCTTTCACTCAACATGGAAAATATAATTTAAGAATTTATAGAATTTATAATGGTGTATCTCGAGAGTATTTAATGTTAATATTACATTGATTGCCTTTAAATATTTTAATTTTAAAAGTTGAATATAGAATAATTTGAT</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>ATGATAATAAATATATTAATTATTTTTGTAATGTATTTAATTGGGAATATAATTTTTGTTTCTAAACATAAACATTTATTGATTGTATTATTAAGATTAGAGTTTATTGTTTTAAGTATATTTTTTTTTTTAATAATTTATTTAATAATAATTGATAATAATATATATATATTAATGGTTTTTTTAGTATTTTCTGTATGTGAGGGAGCTTTAGGGCTATCTATTTTAGTCTCTATAATTCGAACTCATGGAAATGATTATTTTCAAAGATTTAATTTAATTTAA</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>ATTAATAAATATTCTATTTGCTTTATTAGATTTTTTTTTTTATTTTTTTTTATATTAATTAATTTTTTTATAATAATTTATTTTATTATAAATAATATTAGATTATTTTTTGAGTGGGAAATTATTTCTTTTAATTCAATAAATATTGTTATGTCTATTTTATTAGATTGAATATCTTTATTATTTATAATATTTGTTTCATTGATTTCATCTTCAGTTATTTATTATAGAAAAAGATATATAAGATCTGATTTGAATTTAAATCGTTTTATTTTATTAGTTTTATTATTTGTTTTTTCAATGATTTTGTTGATTATTAGTCCTAATATAATTAGAATTTTTTTAGGTTGAGATGGTTTAGGTTTAGTTTCTTATTGTTTAATTATTTTTTATCATAATATTAAGTCTTATAATGCTGGGATATTAACAGCTTTATCTAATCGGATTGGGGATGTTATAATTTTAATATTAATTTCTTGAATAATAAATTATGGTAGATGAAATTATGTTTATTATTTAAATTTTATGTCAAATGATTATTCAATAAAAATTGTAGGGTTATTAGTTATTTTAGCTGCTATAACTAAAAGAGCTCAAATTCCTTTTAGTTCGTGATTACCTGCTGCTATAGCGGCACCTACTCCTGTTTCTGCTTTAGTTCATTCATCTACTTTAGTTACTGCTGGGGTTTATTTATTAATTCGTTTTAATATATTATTGGTTGATTTATTTTTTTTTAAGTTTTTATTATTAATATCAGGATTAACTATGTTTATAGCTGGTATTAGAGCTAATTATGAGTATGATTTAAAAAAGATTATTGCTCTTTCTACTCTAAGACAATTGGGGTTGATAATAAGAATTTTAAGAATAGGGTTTGGAGATTTAGCTTTTTTTCATTTATTAACTCACGCTATATTTAAAGCCTTATTATTTATATGTGCTGGTATAATTATTCACATAATAAGAGATAATCAAGATATTCGAATAATGGGGGGTATTAGTTTATATATTCCTTTGACTTCTTTATGCATGAATATTTCTAATTTAGCTTTATGTGGAATTCCTTTTTTAGCAGGATTTTATTCTAAGGATATAATTTTAGAAATAGTTAGTATGAATAATTTAAATTTAATAATTTTTTATTTATATTATTTTTCTACTGGGTTAACTATGTTTTATACTATTCGATTATTAATATATTTAATAGTAGATGATTTTAATTTATTAAGTATTTATAATTTATATGAGGAAGATTATGTTATATTAAAAAGAATATTTATATTGTTATTTATAAGATTAATTTCTGGAAGATTTTTAATATGAATAATTTTTTCTTATCCTTATATAATTTATTTGCCATTTAATATAAAAATTATGGTTATTTATGTGAGATTAGTTGGTTTAATTTTTGGTTATTTAATTAGAAATATAAGAATTTATTCTATTAATAAATTTTTAATTACTTATAATTTAAGAAATTTCTTAACTATGATGTGATTTATACCTAGATTATCTACTTATGGTTTAAATTATAATTTTTTAAATTTTGGAAATAATTTAGTAAAGAATATTGATATAGGTTGAAGAGAGTTTTTTGAGAGACGAGGAATATATAATATTATTAAATATTATTCAATTATTTATTATGTTTATCATATAAATAATTTTAAAATTTATTTATTTATATTTGTTTTATGAATAATTATTTTTATATTTATAATTATATTATATTTAAATAGCTTAATTTAG</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>ATTACAAAAATTTTCCTATCTATATTACTAATTTCTATTTCAATCTATATATATATATTAACCCATCCATTTTCCATAGGATTAATGATCCTAATTCAAACTTTATTACTATGTTTATTATCAAGAAGATTAATTAATACATATTGATTTTCTTATATTTTATTTTTAATCTTCTTAGGAGGTTTATTGGTTCTATTTATTTATGTTTCAAGAATTGCCTCTAATGAATTATTTAAAATTTCTATATTTAATAAAAGTTTTTTTTTTATCATATTTTTTATTATAATAGTTAGAATTATCTTTAAAAATAATTTATATTGAATAAATTTCTCATTTAATGATGAAATAATTAATTTTTTTAATTTATTTCTATTTTTTAATAATGAATTTAATATTAATTTATCTAAATTATATAATGAACAAACTTATTTACTAACAATAATAATAATTATTTACTTATTTATTACTCTTATTGCAGTAGTTAAAATTACTAATATTTTTTTTGGACCCCTTCGTTCATATAATTAA</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>GGGGGGAAAATTAATTAATTTATAATTAATAAAAAAAATTTTATTTAGAAAATATATAATGGGGGTTATAGTATTTTTAATAGAAAAAATTTTTTAGTTTATAGTTAATTAGTAATGTGAATGAATTTTTAAATAAATGAAATATTAAATTTAAGTTAAAGTAGATTTTGTTTATTGTATCTTGTGTATCAGAGTTTATTAAATAAAAAATTTTTATTTAAAAAAATCTCGAATTTAAAAGAGTTAATTAATTAAAAAAGTTAATGTTGAATAATTATTTTTAATAATTAATTAGAAATGAAATGTTAATCGTTTTTAAATATATCTAGTTTTTTTAGAAAAAAATTTAATTTTGAATTTAAATAATTTTATAATTTTTTAAATAATTATAAAAATTTGAAATTTAATATATTAAGGGATAAGCTTTAAATTAAATATTTATAATTAGATAAAAATAAGTTAAAAATTTTAAAATTTATATTGTTTGAAAATTATAGTTTATTATAAAAAATTTTAATTTAAATAAAATTTAAAATAAAAATTTAATTTTTTATAAGAAAAAAATTTTTAATTAATAAAAATTGGAAATAATGATAAAATTAGTATAATTTTAAATTAATAAGAAATAAATTTAATAAAAATTAAATTAAAGGAATTCGGCAAAAATTTATATTCACTTGTTTATCAAAAACATGTCTTTTTGGTAAATAATTTAAAGTCTAATCTGCCCACTGATAATAAAATTAAAGGGCTGCAGTATATTGACTGTACAAAGGTAGCATAATCATTAGTCTTTTAATTGAAGACTTGTATGAAAGATTTGATGAAATATAAACTGTCTCTAATTTATTAATAAAAATTAATTTTTTAGTTAAAAAGCTAAAATAATATTAAAAGACGAGAAGACCCTATAGAGTTTTATATTTAATTTAATTTAAATAATTTATATAATTAATTATTTAAATTAAATTAAATATTTTATTGGGGTGATAAAAAAATTAAAGAAACTTTTTTTTTAATAAATAACATAAATAAGTGGTTAAATGATCCATTTTTAATGATTATAAGAAAAAATTACCTTAGGGATAACAGCGTAATATTTTTTTTTAGTACAAATAAAAAAAAAAGTTTGCGACCTCGATGTTGGATTAAGATAAAATTTAAATGTAGAAGTTTAAAATTTTGATCTGTTCGATCATTAAAATCTTACATGATCTGAGTTCAAACCGGTGTAAGCCAGGTTGGTTTCTATCTTTAAAAAATTTTAATATTTTAGTACGAAAGGATCAAATATTAAGAATAATTTTAATATTAAGAATTTTAATAAAATTATTGTA</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>GAATAAATAAATTTTTTATGTTTTATATAATTTATTATAAATTTATTTTACATATAAATTTTAGTATAAAATTTCAATTATTTTAATAATGATTGATTATTAATAGTAGTAATTAATATTAAAAATTTAAGAAATTAAGATTTAGTAATATAAAAATTAATAACTAATTTTGTGCCAGCAGTTGCGGTTATACAAAAATTAAATTAAATTATTTCAGTTTTTAATAAATAAATTTAATTAAATTAAATATTAAATTATTAAGTGAAATTTTAATTTAATTAAAATTTATTTTTAATTTATGATTTAACAAATTTTAATATAAACTAGGATTAGATACCCTATTATTAAAAATTTAATTAATAATACTAAAATAGTAAATAATTATTTATTGAAACTTGAATAATATGGCGGTATTTTAGTTCATTTAGAGGAATCTGTCTAATAATTGATAATCCACAAATAAATTTACTTAATTTAAAATTTTGTATATCATTGTTAAAAAAATATTTTTAAATAAAAATAATATTTAAAATTTTTAATTAAAATTAATTCAGATCAAGATGCAGATTATAATTAAGTTTAAGATGGATTACATTAAATATATTTAAATGAATAATATAATTGTAAAATATATTTGAAATTGGATTTAAATGTAATTTTAATTAATTTATTAAAATGATTTAAAATTAAAGTATGTACATATTGCCCGTCACTTTCATTTAAAAATTGAAATAAGTCGTAACAAAGTAGAAGTACTGGAAAGTGTTTCTAGAAAGAA</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>AGGATTATAGTTTATATTAAAACATTTGATTTGCACTCAAAATATATTGACTTATCAATTTATCTTA</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>AGCTTTATATTCAATAATGATATAAAATTGCAAATTTTATGGTGTATTAAATTACTAAGGCTT</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>AAAGAATTAGTTAATTTATAACATAAATATGTCAAATTTAAATTATTACTTTAGTAATATTCTTTT</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>ATTTATATAGTTTATAAAAACATTACATTTTCATTGTAAAATTAAAGAAAAATCTTTTATAAATA</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>ATTTAAATAGCTTAATTTAGAGTTTAATATTGAAGATATTAAGGTGATTGTTATGATCTTTAAATA</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>ATTTATATAATATATTTAGTATATTTGACTTCCAATCAAAAAGTTTAATTATCTTTTAATATAAATA</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>ATTTAAATAATTTAAATAAAATATTGATTTGTGGAGTCAAAAATATGAAAATATATCATTTTAAATC</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>AATAAAGTGCCTGAATAAAGGATTATTCTGATAGGATAAATAATGTAAATTTTTACCTTTATTA</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>CATTAGATGACTGAAAGCAAGTATTGGTCTCTTAAACCACTTCATAGTAATCTAGCATTTACTTCTAATGA</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>GCTATTTTGGCAGATAATTGTAATGATTTTAGAAGTCATATATATATATATACATATTTATATATAAGTAGTA</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>TCTAATATGGCAGATTATATGTAATGGATTTAAACCCCATTTATAAAGGTATTATCCTTTTTTTAGAA</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>TTAAAAATAAGCTAATTAAGCTTTTGGGTTCATACCCCAAATATAAAGGAAATACCTTTTTTTTAAA</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>TTAATTGAAACCAAAATAGAGGTATATCACTGTTAATGATAAAATTGAATAAAAATTCCAATTAGA</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>CAAAGAATAGTTTATAAAAATAATAATTTTGGAGATTATAGATAAAGAATTTCTTTTTCTTTGA</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>TATATTTTAGTGTAAGATGCACRATAATTTTTGAAATTATAAGATATAGTTTAATTCTATAAAATATAA</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>AAATAAGAAGCAATTTGCATTTAATTTCGACTTAAAAGATAGAATAATTTTATTCCTTATTTA</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>GAAATATATTTTAATTAAGCTGCTAACTTAACTTTTAGTGATTTAACTCATTAATATTTCT</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>AATTAATGAGCTTGTATATTAAGCATTTGTTTTGAAAACTTAAGAAAGAATATTATTCTATTAATTT</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>GTTTTTATAGTTTAAAAAAAACTTTGGTCTTGTAAATCAAAAATAAGAATTTTCTTTAAAAACT</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>CAAATTAGAGCTTGTTTAAAGTATTTCATTTACATTGAAAAGAAATTAAAAATTAATTAATTTGA</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>AAGGTTTTAAGTTAATTTAAACTAATAGTCTTCAAAATTATTTATAAAGAAATATTCTTTAAGCCTTA</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>AATAAAATGGCTGAGTTATAAGCGATAAATTGTAAATTTATTAACGAGAAATATCTCTTTTATTA</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
